--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3398AB19-BC10-495E-86A2-3C04E417FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F478DD-7876-4343-9C3F-526E6A1520CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
+    <sheet name="DemTechs_INDF" sheetId="5" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="129">
   <si>
     <t>~FI_T</t>
   </si>
@@ -191,9 +192,6 @@
     <t>ELC</t>
   </si>
   <si>
-    <t>Power Plants</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
@@ -326,24 +324,9 @@
     <t>Biomass</t>
   </si>
   <si>
-    <t>RNW</t>
-  </si>
-  <si>
-    <t>Manufacturing Bioenergy-domestic supply</t>
-  </si>
-  <si>
-    <t>Natural Gas Boiler-new</t>
-  </si>
-  <si>
     <t>msy09/2053</t>
   </si>
   <si>
-    <t>msy09/2055</t>
-  </si>
-  <si>
-    <t>Biomass kiln-new</t>
-  </si>
-  <si>
     <t>MANHEAT</t>
   </si>
   <si>
@@ -368,49 +351,82 @@
     <t>PP_CSP</t>
   </si>
   <si>
-    <t>BOILER_NG</t>
-  </si>
-  <si>
-    <t>KILN_BIO</t>
-  </si>
-  <si>
-    <t>BOILER_BIO</t>
-  </si>
-  <si>
-    <t>FURNACE_ELC</t>
-  </si>
-  <si>
-    <t>HP_ELC</t>
-  </si>
-  <si>
-    <t>KILN_ELC</t>
-  </si>
-  <si>
-    <t>PLASMA_ELC</t>
-  </si>
-  <si>
-    <t>Electric furnace</t>
-  </si>
-  <si>
-    <t>Industrial heatpump</t>
-  </si>
-  <si>
-    <t>Electrickiln</t>
-  </si>
-  <si>
-    <t>Plasma torch system</t>
-  </si>
-  <si>
-    <t>MANCO2</t>
-  </si>
-  <si>
-    <t>MANCO3</t>
-  </si>
-  <si>
-    <t>MANCO4</t>
-  </si>
-  <si>
-    <t>Solar Energy</t>
+    <t>Solar energy</t>
+  </si>
+  <si>
+    <t>Wind energy</t>
+  </si>
+  <si>
+    <t>MINGAS</t>
+  </si>
+  <si>
+    <t>MINBIO</t>
+  </si>
+  <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Natural Gas-Domestic Supply</t>
+  </si>
+  <si>
+    <t>msy09/2056</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Demand Technologies</t>
+  </si>
+  <si>
+    <t>CSP</t>
+  </si>
+  <si>
+    <t>Heat production technology from Solar</t>
+  </si>
+  <si>
+    <t>Heat production technology/ from Electric and Gas</t>
+  </si>
+  <si>
+    <t>Heat production technology from Electric, Gas, and Bioenergy</t>
+  </si>
+  <si>
+    <t>Electricity production from Solar and WIND</t>
+  </si>
+  <si>
+    <t>KilnN</t>
+  </si>
+  <si>
+    <t>HTHSOL</t>
+  </si>
+  <si>
+    <t>Solar thermal energy</t>
+  </si>
+  <si>
+    <t>Heat  Production Technology from Biomass co-firing</t>
+  </si>
+  <si>
+    <t>ELCBoiler</t>
+  </si>
+  <si>
+    <t>ELCFurnace</t>
+  </si>
+  <si>
+    <t>BIOBoiler</t>
+  </si>
+  <si>
+    <t>GASBoiler</t>
+  </si>
+  <si>
+    <t>Heat production technology from Bioenergy</t>
+  </si>
+  <si>
+    <t>Heat production technology from Natural Gas</t>
   </si>
 </sst>
 </file>
@@ -532,7 +548,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +666,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -722,6 +744,7 @@
     <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="15" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -1012,6 +1035,339 @@
         <a:xfrm>
           <a:off x="1304925" y="6200775"/>
           <a:ext cx="7429500" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The ELCTNOIL00 can be installed from the base year to cover</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> the additional capacity needed for the reserve equation (5%)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6685205B-418D-4195-BA4D-73F7A6822AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1354455" y="5931747"/>
+          <a:ext cx="7842885" cy="1506008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Define each "new"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>power plants (FI_Process table).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Declare technology</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> attributes (FI_T) such as INVCOST. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Existing technologies are defined in the base-year template while new fuel technologies are</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> defined here.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Duplicate definition should be avoided. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Vintaging ELCTNGAS00 in the FI_PROCESS setting YES cellW15 and then specifing data by year in table FI_T (column Year. In this example EFF is vintaged for periods 2006 to 2020.</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-CA">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C0F752-B181-43B7-AA11-E6C2DD441B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="7867650"/>
+          <a:ext cx="7839075" cy="327025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1513,10 +1869,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Y30"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1589,23 +1945,23 @@
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="27" t="s">
         <v>7</v>
@@ -1621,29 +1977,29 @@
     </row>
     <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>94</v>
-      </c>
       <c r="E5" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>6</v>
@@ -1670,29 +2026,29 @@
     <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>92</v>
-      </c>
       <c r="E6" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="31" t="s">
         <v>56</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>57</v>
       </c>
       <c r="S6" s="31" t="s">
         <v>24</v>
@@ -1704,10 +2060,10 @@
         <v>10</v>
       </c>
       <c r="V6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="31" t="s">
         <v>58</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>59</v>
       </c>
       <c r="X6" s="31" t="s">
         <v>26</v>
@@ -1718,24 +2074,36 @@
     </row>
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="Q7" s="2" t="s">
+      <c r="I7" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" t="s">
         <v>90</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>123</v>
+      <c r="T7" t="s">
+        <v>99</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1751,63 +2119,59 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="Q8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="T8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="T9" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q10" t="s">
-        <v>90</v>
-      </c>
-      <c r="S10" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" t="s">
-        <v>106</v>
-      </c>
       <c r="U10" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U11" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -1848,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>15</v>
@@ -1869,23 +2233,23 @@
         <v>36</v>
       </c>
       <c r="L17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>64</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>65</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="29" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S17" s="29" t="s">
         <v>1</v>
@@ -1911,7 +2275,7 @@
     </row>
     <row r="18" spans="2:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>33</v>
@@ -1925,10 +2289,10 @@
         <v>37</v>
       </c>
       <c r="H18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>68</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>40</v>
@@ -1937,22 +2301,22 @@
         <v>41</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>38</v>
       </c>
       <c r="O18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Q18" s="31" t="s">
-        <v>71</v>
-      </c>
       <c r="R18" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S18" s="31" t="s">
         <v>28</v>
@@ -1967,10 +2331,10 @@
         <v>31</v>
       </c>
       <c r="W18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" s="31" t="s">
         <v>72</v>
-      </c>
-      <c r="X18" s="31" t="s">
-        <v>73</v>
       </c>
       <c r="Y18" s="31" t="s">
         <v>32</v>
@@ -1978,7 +2342,7 @@
     </row>
     <row r="19" spans="2:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1987,22 +2351,22 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="K19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="L19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="M19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="16" t="s">
         <v>78</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>79</v>
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
@@ -2010,19 +2374,19 @@
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V19" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W19" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
@@ -2032,9 +2396,6 @@
         <f>S19</f>
         <v>PP_SOL</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>103</v>
-      </c>
       <c r="D20" s="20" t="s">
         <v>49</v>
       </c>
@@ -2071,30 +2432,27 @@
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V20" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W20" s="28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B27" si="0">S20</f>
+        <f t="shared" ref="B21:B30" si="0">S20</f>
         <v>PP_WND</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>104</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>49</v>
@@ -2115,20 +2473,20 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V21" s="32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W21" s="28"/>
       <c r="X21" s="32"/>
@@ -2137,13 +2495,11 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>BOILER_BIO</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>101</v>
+        <v>MINBIO</v>
+      </c>
+      <c r="D22" s="20" t="str">
+        <f>S8</f>
+        <v>BIO</v>
       </c>
       <c r="F22" s="23">
         <v>2030</v>
@@ -2174,34 +2530,30 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V22" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" s="28" t="s">
-        <v>99</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="W22" s="28"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>PP_CSP</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>101</v>
+        <v>MINGAS</v>
+      </c>
+      <c r="D23" s="20" t="str">
+        <f>S7</f>
+        <v>GAS</v>
       </c>
       <c r="F23" s="23">
         <v>2030</v>
@@ -2216,32 +2568,32 @@
       <c r="N23" s="21"/>
       <c r="O23" s="34"/>
       <c r="Q23" s="32" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="U23" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="V23" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="W23" s="28"/>
+        <v>50</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>BOILER_NG</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>101</v>
+        <v>PP_CSP</v>
+      </c>
+      <c r="D24" s="20" t="str">
+        <f>S9</f>
+        <v>HTHSOL</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -2258,90 +2610,34 @@
       </c>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="Q24" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="S24" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="U24" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="V24" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>KILN_BIO</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="23">
-        <v>2030</v>
-      </c>
+      <c r="B25" s="33"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="21"/>
-      <c r="H25" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="I25" s="21">
-        <v>750</v>
-      </c>
-      <c r="J25" s="34">
-        <v>30</v>
-      </c>
-      <c r="K25" s="34">
-        <v>0.35</v>
-      </c>
-      <c r="L25" s="21">
-        <v>30</v>
-      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="21"/>
       <c r="M25" s="36"/>
-      <c r="N25" s="21">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="O25" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="T25" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="V25" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="N25" s="21"/>
+      <c r="O25" s="34"/>
+      <c r="Q25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>FURNACE_ELC</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F26" s="23">
-        <v>2030</v>
-      </c>
+      <c r="B26" s="33"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="21"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
@@ -2351,122 +2647,51 @@
       <c r="M26" s="36"/>
       <c r="N26" s="21"/>
       <c r="O26" s="34"/>
-      <c r="Q26" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="S26" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="T26" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="U26" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="V26" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
     </row>
     <row r="27" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>HP_ELC</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="23">
-        <v>2030</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0.5</v>
-      </c>
+      <c r="B27" s="33"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="34"/>
       <c r="H27" s="34"/>
       <c r="I27" s="21"/>
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="35">
-        <f>76.4/G27</f>
-        <v>152.80000000000001</v>
-      </c>
+      <c r="M27" s="35"/>
       <c r="N27" s="21"/>
       <c r="O27" s="34"/>
-      <c r="Q27" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="S27" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="T27" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="U27" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="V27" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="23">
-        <v>2030</v>
-      </c>
-      <c r="G28" s="34">
-        <v>0.51</v>
-      </c>
+      <c r="B28" s="33"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="34"/>
       <c r="H28" s="34"/>
       <c r="I28" s="21"/>
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="35">
-        <f>76.4/G28</f>
-        <v>149.80392156862746</v>
-      </c>
+      <c r="M28" s="35"/>
       <c r="N28" s="21"/>
       <c r="O28" s="34"/>
-      <c r="Q28" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="S28" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="T28" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="U28" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="V28" s="32" t="s">
-        <v>51</v>
-      </c>
+      <c r="Q28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B29" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="F29" s="23">
-        <v>2030</v>
-      </c>
+      <c r="B29" s="33"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
       <c r="I29" s="21"/>
@@ -2478,18 +2703,8 @@
       <c r="O29" s="34"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="23">
-        <v>2030</v>
-      </c>
+      <c r="B30" s="33"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="34"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
@@ -2500,6 +2715,15 @@
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
     </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="32"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2507,4 +2731,867 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
+  <dimension ref="A1:Y33"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9" style="20" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" style="20" customWidth="1"/>
+    <col min="12" max="12" width="7" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="20" customWidth="1"/>
+    <col min="14" max="14" width="15" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2" style="20" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+    </row>
+    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B3" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="R4" s="27"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+    </row>
+    <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="Q5" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="T5" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="V5" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="25"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="Q6" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="X6" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="U8" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U9" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="U10" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="E16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="4"/>
+      <c r="Q16" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="R17" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="W18" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="X18" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y18" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="Q19" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V19" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W19" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="33" t="str">
+        <f>S19</f>
+        <v>ELC</v>
+      </c>
+      <c r="C20" s="33" t="str">
+        <f>Sector_Fuels!D20</f>
+        <v>ELC</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.42</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1650</v>
+      </c>
+      <c r="J20" s="34">
+        <v>35</v>
+      </c>
+      <c r="K20" s="34">
+        <v>0.4</v>
+      </c>
+      <c r="L20" s="21">
+        <v>40</v>
+      </c>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="O20" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="T20" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="U20" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V20" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W20" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="str">
+        <f t="shared" ref="B21:B28" si="0">S20</f>
+        <v>KilnN</v>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f>Sector_Fuels!D22</f>
+        <v>BIO</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="35">
+        <f>99.8/G20</f>
+        <v>237.61904761904762</v>
+      </c>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="Q21" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="T21" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="U21" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W21" s="28"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ELCBoiler</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f>Sector_Fuels!D20</f>
+        <v>ELC</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F22" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0.85</v>
+      </c>
+      <c r="I22" s="21">
+        <v>250</v>
+      </c>
+      <c r="J22" s="34">
+        <v>15</v>
+      </c>
+      <c r="K22" s="34">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="21">
+        <v>40</v>
+      </c>
+      <c r="M22" s="36"/>
+      <c r="N22" s="21">
+        <v>31.536000000000001</v>
+      </c>
+      <c r="O22" s="34">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="T22" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="U22" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W22" s="28"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>ELCFurnace</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f>Sector_Fuels!D20</f>
+        <v>ELC</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="34"/>
+      <c r="Q23" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="U23" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V23" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B24" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>CSP</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f>Sector_Fuels!D24</f>
+        <v>HTHSOL</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="35">
+        <f>56.1/G22</f>
+        <v>187</v>
+      </c>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="Q24" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="U24" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V24" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B25" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>BIOBoiler</v>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f>Sector_Fuels!D22</f>
+        <v>BIO</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G25" s="21"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="34"/>
+      <c r="Q25" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="S25" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V25" s="32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>GASBoiler</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f>Sector_Fuels!D23</f>
+        <v>GAS</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="34"/>
+      <c r="Q26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+    </row>
+    <row r="27" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="33"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="34"/>
+      <c r="Q27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="34"/>
+      <c r="Q28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="34"/>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q31" s="32"/>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Q32" s="32"/>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
+      <c r="Q33" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F478DD-7876-4343-9C3F-526E6A1520CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F666B-90E0-4959-AE2E-A55FCD5294FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
   <si>
     <t>~FI_T</t>
   </si>
@@ -399,34 +399,22 @@
     <t>Electricity production from Solar and WIND</t>
   </si>
   <si>
-    <t>KilnN</t>
-  </si>
-  <si>
-    <t>HTHSOL</t>
-  </si>
-  <si>
-    <t>Solar thermal energy</t>
-  </si>
-  <si>
     <t>Heat  Production Technology from Biomass co-firing</t>
   </si>
   <si>
-    <t>ELCBoiler</t>
-  </si>
-  <si>
-    <t>ELCFurnace</t>
-  </si>
-  <si>
-    <t>BIOBoiler</t>
-  </si>
-  <si>
-    <t>GASBoiler</t>
-  </si>
-  <si>
     <t>Heat production technology from Bioenergy</t>
   </si>
   <si>
     <t>Heat production technology from Natural Gas</t>
+  </si>
+  <si>
+    <t>Kiln</t>
+  </si>
+  <si>
+    <t>Boiler</t>
+  </si>
+  <si>
+    <t>Furnace</t>
   </si>
 </sst>
 </file>
@@ -1871,8 +1859,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2132,15 +2120,6 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S9" t="s">
-        <v>120</v>
-      </c>
-      <c r="T9" t="s">
-        <v>121</v>
-      </c>
       <c r="U9" s="2" t="s">
         <v>82</v>
       </c>
@@ -2451,7 +2430,7 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B30" si="0">S20</f>
+        <f t="shared" ref="B21:B24" si="0">S20</f>
         <v>PP_WND</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -2568,7 +2547,7 @@
       <c r="N23" s="21"/>
       <c r="O23" s="34"/>
       <c r="Q23" s="32" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="S23" s="32" t="s">
         <v>102</v>
@@ -2591,9 +2570,9 @@
         <f t="shared" si="0"/>
         <v>PP_CSP</v>
       </c>
-      <c r="D24" s="20" t="str">
-        <f>S9</f>
-        <v>HTHSOL</v>
+      <c r="D24" s="33" t="str">
+        <f>Q23</f>
+        <v>MANHEAT</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -2737,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3239,10 +3218,10 @@
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="T20" s="32" t="s">
         <v>119</v>
-      </c>
-      <c r="T20" s="32" t="s">
-        <v>122</v>
       </c>
       <c r="U20" s="32" t="s">
         <v>82</v>
@@ -3258,8 +3237,8 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B28" si="0">S20</f>
-        <v>KilnN</v>
+        <f t="shared" ref="B21:B26" si="0">S20</f>
+        <v>Kiln</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>Sector_Fuels!D22</f>
@@ -3306,7 +3285,7 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>ELCBoiler</v>
+        <v>Boiler</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>Sector_Fuels!D20</f>
@@ -3363,7 +3342,7 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>ELCFurnace</v>
+        <v>Furnace</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>Sector_Fuels!D20</f>
@@ -3410,7 +3389,7 @@
       </c>
       <c r="C24" s="20" t="str">
         <f>Sector_Fuels!D24</f>
-        <v>HTHSOL</v>
+        <v>MANHEAT</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>95</v>
@@ -3434,10 +3413,10 @@
         <v>107</v>
       </c>
       <c r="S24" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T24" s="18" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="U24" s="32" t="s">
         <v>82</v>
@@ -3450,7 +3429,7 @@
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>BIOBoiler</v>
+        <v>Boiler</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>Sector_Fuels!D22</f>
@@ -3475,10 +3454,10 @@
         <v>107</v>
       </c>
       <c r="S25" s="32" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T25" s="18" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="U25" s="32" t="s">
         <v>82</v>
@@ -3490,7 +3469,7 @@
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>GASBoiler</v>
+        <v>Boiler</v>
       </c>
       <c r="C26" s="20" t="str">
         <f>Sector_Fuels!D23</f>
@@ -3592,6 +3571,9 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="C21" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254F666B-90E0-4959-AE2E-A55FCD5294FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2D82CD-E8A7-4102-B8D3-2200E98E821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="122">
   <si>
     <t>~FI_T</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Decentralized Power Plant-Bioenergy</t>
   </si>
   <si>
-    <t>Decentralized Power Plant-CSP</t>
-  </si>
-  <si>
     <t>msy09/2052</t>
   </si>
   <si>
@@ -348,9 +345,6 @@
     <t>PP_WND</t>
   </si>
   <si>
-    <t>PP_CSP</t>
-  </si>
-  <si>
     <t>Solar energy</t>
   </si>
   <si>
@@ -387,9 +381,6 @@
     <t>CSP</t>
   </si>
   <si>
-    <t>Heat production technology from Solar</t>
-  </si>
-  <si>
     <t>Heat production technology/ from Electric and Gas</t>
   </si>
   <si>
@@ -402,12 +393,6 @@
     <t>Heat  Production Technology from Biomass co-firing</t>
   </si>
   <si>
-    <t>Heat production technology from Bioenergy</t>
-  </si>
-  <si>
-    <t>Heat production technology from Natural Gas</t>
-  </si>
-  <si>
     <t>Kiln</t>
   </si>
   <si>
@@ -415,6 +400,12 @@
   </si>
   <si>
     <t>Furnace</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>Heat production from Solar</t>
   </si>
 </sst>
 </file>
@@ -1859,8 +1850,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23:T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1933,10 +1924,10 @@
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>82</v>
@@ -1965,10 +1956,10 @@
     </row>
     <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>82</v>
@@ -2014,10 +2005,10 @@
     <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>82</v>
@@ -2063,10 +2054,10 @@
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>82</v>
@@ -2082,13 +2073,13 @@
         <v>51</v>
       </c>
       <c r="Q7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" t="s">
         <v>89</v>
       </c>
-      <c r="S7" t="s">
-        <v>90</v>
-      </c>
       <c r="T7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>82</v>
@@ -2107,32 +2098,37 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="Q8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="T8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" t="s">
+        <v>120</v>
+      </c>
       <c r="U9" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U10" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U11" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
@@ -2353,7 +2349,7 @@
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>84</v>
@@ -2365,7 +2361,7 @@
         <v>50</v>
       </c>
       <c r="W19" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
@@ -2411,7 +2407,7 @@
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>85</v>
@@ -2423,7 +2419,7 @@
         <v>50</v>
       </c>
       <c r="W20" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
@@ -2452,11 +2448,11 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="T21" s="32" t="s">
         <v>86</v>
@@ -2509,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>82</v>
@@ -2546,15 +2542,9 @@
       <c r="M23" s="36"/>
       <c r="N23" s="21"/>
       <c r="O23" s="34"/>
-      <c r="Q23" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="S23" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="T23" s="18" t="s">
-        <v>87</v>
-      </c>
+      <c r="Q23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="32" t="s">
         <v>82</v>
       </c>
@@ -2562,31 +2552,20 @@
         <v>50</v>
       </c>
       <c r="W23" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>PP_CSP</v>
-      </c>
-      <c r="D24" s="33" t="str">
-        <f>Q23</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="F24" s="23">
-        <v>2030</v>
-      </c>
+      <c r="B24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="21"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="35">
-        <f>56.1/G22</f>
-        <v>187</v>
-      </c>
+      <c r="M24" s="35"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
       <c r="Q24" s="32"/>
@@ -2716,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2789,13 +2768,13 @@
     </row>
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>113</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>82</v>
@@ -3152,14 +3131,14 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
         <v>49</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U19" s="32" t="s">
         <v>82</v>
@@ -3168,84 +3147,66 @@
         <v>50</v>
       </c>
       <c r="W19" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="str">
-        <f>S19</f>
-        <v>ELC</v>
+      <c r="B20" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="C20" s="33" t="str">
+        <f>Sector_Fuels!D22</f>
+        <v>BIO</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="34"/>
+      <c r="Q20" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="T20" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="U20" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="V20" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="W20" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B21" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="20" t="str">
         <f>Sector_Fuels!D20</f>
         <v>ELC</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="23">
-        <v>2030</v>
-      </c>
-      <c r="G20" s="34">
-        <v>0.42</v>
-      </c>
-      <c r="H20" s="34">
-        <v>0.85</v>
-      </c>
-      <c r="I20" s="21">
-        <v>1650</v>
-      </c>
-      <c r="J20" s="34">
-        <v>35</v>
-      </c>
-      <c r="K20" s="34">
-        <v>0.4</v>
-      </c>
-      <c r="L20" s="21">
-        <v>40</v>
-      </c>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="O20" s="34">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="T20" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="U20" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="V20" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W20" s="28" t="s">
+      <c r="D21" s="20" t="s">
         <v>94</v>
-      </c>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B26" si="0">S20</f>
-        <v>Kiln</v>
-      </c>
-      <c r="C21" s="20" t="str">
-        <f>Sector_Fuels!D22</f>
-        <v>BIO</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -3256,21 +3217,21 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="35">
+      <c r="M21" s="35" t="e">
         <f>99.8/G20</f>
-        <v>237.61904761904762</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="U21" s="32" t="s">
         <v>82</v>
@@ -3283,16 +3244,15 @@
       <c r="Y21" s="32"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>Boiler</v>
+      <c r="B22" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>Sector_Fuels!D20</f>
-        <v>ELC</v>
+        <f>Sector_Fuels!D22</f>
+        <v>BIO</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F22" s="23">
         <v>2030</v>
@@ -3323,13 +3283,13 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>82</v>
@@ -3340,16 +3300,15 @@
       <c r="W22" s="28"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>Furnace</v>
+      <c r="B23" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>Sector_Fuels!D20</f>
         <v>ELC</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F23" s="23">
         <v>2030</v>
@@ -3364,13 +3323,13 @@
       <c r="N23" s="21"/>
       <c r="O23" s="34"/>
       <c r="Q23" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="U23" s="32" t="s">
         <v>82</v>
@@ -3378,21 +3337,18 @@
       <c r="V23" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="W23" s="28" t="s">
-        <v>110</v>
-      </c>
+      <c r="W23" s="28"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>CSP</v>
+      <c r="B24" s="33" t="s">
+        <v>118</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>Sector_Fuels!D24</f>
-        <v>MANHEAT</v>
+        <f>Sector_Fuels!D23</f>
+        <v>GAS</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -3403,21 +3359,11 @@
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="35">
-        <f>56.1/G22</f>
-        <v>187</v>
-      </c>
-      <c r="N24" s="21"/>
+      <c r="M24" s="35"/>
       <c r="O24" s="21"/>
-      <c r="Q24" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="S24" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>120</v>
-      </c>
+      <c r="Q24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="18"/>
       <c r="U24" s="32" t="s">
         <v>82</v>
       </c>
@@ -3427,16 +3373,15 @@
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>Boiler</v>
+      <c r="B25" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>Sector_Fuels!D22</f>
-        <v>BIO</v>
+        <f>Sector_Fuels!D20</f>
+        <v>ELC</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F25" s="23">
         <v>2030</v>
@@ -3450,33 +3395,22 @@
       <c r="M25" s="36"/>
       <c r="N25" s="21"/>
       <c r="O25" s="34"/>
-      <c r="Q25" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="S25" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="V25" s="32" t="s">
-        <v>50</v>
-      </c>
+      <c r="Q25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="str">
-        <f t="shared" si="0"/>
-        <v>Boiler</v>
+      <c r="B26" s="33" t="s">
+        <v>112</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>Sector_Fuels!D23</f>
-        <v>GAS</v>
+        <f>Sector_Fuels!S9</f>
+        <v>SOL</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="23">
         <v>2030</v>
@@ -3571,9 +3505,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <ignoredErrors>
-    <ignoredError sqref="C21" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2D82CD-E8A7-4102-B8D3-2200E98E821F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853D1DE9-DF3E-40E5-9CF1-B26477410380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1851,7 +1851,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23:T23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2371,6 +2371,10 @@
         <f>S19</f>
         <v>PP_SOL</v>
       </c>
+      <c r="C20" s="20" t="str">
+        <f>S9</f>
+        <v>SOL</v>
+      </c>
       <c r="D20" s="20" t="s">
         <v>49</v>
       </c>
@@ -2426,8 +2430,12 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B24" si="0">S20</f>
+        <f t="shared" ref="B21:B23" si="0">S20</f>
         <v>PP_WND</v>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f>S9</f>
+        <v>SOL</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>49</v>
@@ -2472,6 +2480,10 @@
         <f t="shared" si="0"/>
         <v>MINBIO</v>
       </c>
+      <c r="C22" s="20" t="str">
+        <f>S8</f>
+        <v>BIO</v>
+      </c>
       <c r="D22" s="20" t="str">
         <f>S8</f>
         <v>BIO</v>
@@ -2525,6 +2537,10 @@
       <c r="B23" s="33" t="str">
         <f t="shared" si="0"/>
         <v>MINGAS</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f>S7</f>
+        <v>GAS</v>
       </c>
       <c r="D23" s="20" t="str">
         <f>S7</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853D1DE9-DF3E-40E5-9CF1-B26477410380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A89A69-8D71-4796-8A2B-0FC01474AAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
   <si>
     <t>~FI_T</t>
   </si>
@@ -385,9 +385,6 @@
   </si>
   <si>
     <t>Heat production technology from Electric, Gas, and Bioenergy</t>
-  </si>
-  <si>
-    <t>Electricity production from Solar and WIND</t>
   </si>
   <si>
     <t>Heat  Production Technology from Biomass co-firing</t>
@@ -1851,7 +1848,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2115,7 @@
         <v>96</v>
       </c>
       <c r="T9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>82</v>
@@ -2484,9 +2481,9 @@
         <f>S8</f>
         <v>BIO</v>
       </c>
-      <c r="D22" s="20" t="str">
-        <f>S8</f>
-        <v>BIO</v>
+      <c r="D22" s="33" t="str">
+        <f>S21</f>
+        <v>MINBIO</v>
       </c>
       <c r="F22" s="23">
         <v>2030</v>
@@ -2542,9 +2539,9 @@
         <f>S7</f>
         <v>GAS</v>
       </c>
-      <c r="D23" s="20" t="str">
-        <f>S7</f>
-        <v>GAS</v>
+      <c r="D23" s="33" t="str">
+        <f>S22</f>
+        <v>MINGAS</v>
       </c>
       <c r="F23" s="23">
         <v>2030</v>
@@ -2711,8 +2708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2902,9 +2899,7 @@
       <c r="Q7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
@@ -2918,19 +2913,13 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
-      <c r="U8" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U9" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U10" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="U10" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
@@ -3151,7 +3140,7 @@
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>49</v>
+        <v>116</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>115</v>
@@ -3162,19 +3151,17 @@
       <c r="V19" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="28" t="s">
-        <v>87</v>
-      </c>
+      <c r="W19" s="28"/>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="33" t="str">
-        <f>Sector_Fuels!D22</f>
-        <v>BIO</v>
+        <f>Sector_Fuels!S21</f>
+        <v>MINBIO</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>94</v>
@@ -3199,7 +3186,7 @@
         <v>117</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="U20" s="32" t="s">
         <v>82</v>
@@ -3207,15 +3194,13 @@
       <c r="V20" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="W20" s="28" t="s">
-        <v>93</v>
-      </c>
+      <c r="W20" s="28"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>Sector_Fuels!D20</f>
@@ -3242,12 +3227,11 @@
       <c r="Q21" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
         <v>118</v>
       </c>
-      <c r="T21" s="32" t="s">
-        <v>114</v>
+      <c r="T21" s="18" t="s">
+        <v>113</v>
       </c>
       <c r="U21" s="32" t="s">
         <v>82</v>
@@ -3261,11 +3245,11 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>Sector_Fuels!D22</f>
-        <v>BIO</v>
+        <f>Sector_Fuels!S21</f>
+        <v>MINBIO</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>94</v>
@@ -3302,10 +3286,10 @@
         <v>105</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>82</v>
@@ -3317,7 +3301,7 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>Sector_Fuels!D20</f>
@@ -3338,15 +3322,9 @@
       <c r="M23" s="36"/>
       <c r="N23" s="21"/>
       <c r="O23" s="34"/>
-      <c r="Q23" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="S23" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="T23" s="18" t="s">
-        <v>121</v>
-      </c>
+      <c r="Q23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="32" t="s">
         <v>82</v>
       </c>
@@ -3357,11 +3335,11 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>Sector_Fuels!D23</f>
-        <v>GAS</v>
+        <f>Sector_Fuels!S22</f>
+        <v>MINGAS</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>94</v>
@@ -3377,20 +3355,11 @@
       <c r="L24" s="21"/>
       <c r="M24" s="35"/>
       <c r="O24" s="21"/>
-      <c r="Q24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="V24" s="32" t="s">
-        <v>50</v>
-      </c>
       <c r="W24" s="2"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>Sector_Fuels!D20</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A89A69-8D71-4796-8A2B-0FC01474AAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806FEF87-0B18-4207-9CD6-A4C5A1EC46B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="121">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1095,13 +1095,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>119592</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1320,13 +1320,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1847,8 +1847,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2706,10 +2706,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3160,14 +3160,14 @@
         <v>116</v>
       </c>
       <c r="C20" s="33" t="str">
-        <f>Sector_Fuels!S21</f>
+        <f>Sector_Fuels!D22</f>
         <v>MINBIO</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
@@ -3210,7 +3210,7 @@
         <v>94</v>
       </c>
       <c r="F21" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
@@ -3248,14 +3248,14 @@
         <v>117</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>Sector_Fuels!S21</f>
+        <f>Sector_Fuels!D22</f>
         <v>MINBIO</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>94</v>
       </c>
       <c r="F22" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G22" s="34">
         <v>0.3</v>
@@ -3304,14 +3304,14 @@
         <v>117</v>
       </c>
       <c r="C23" s="20" t="str">
-        <f>Sector_Fuels!D20</f>
-        <v>ELC</v>
+        <f>Sector_Fuels!D23</f>
+        <v>MINGAS</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>94</v>
       </c>
       <c r="F23" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
@@ -3335,41 +3335,46 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>Sector_Fuels!S22</f>
-        <v>MINGAS</v>
+        <f>Sector_Fuels!D20</f>
+        <v>ELC</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>94</v>
       </c>
       <c r="F24" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="H24" s="34"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="35"/>
-      <c r="O24" s="21"/>
-      <c r="W24" s="2"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="34"/>
+      <c r="Q24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>Sector_Fuels!D20</f>
-        <v>ELC</v>
+        <f>Sector_Fuels!S9</f>
+        <v>SOL</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="34"/>
@@ -3382,31 +3387,20 @@
       <c r="O25" s="34"/>
       <c r="Q25" s="32"/>
       <c r="S25" s="32"/>
-      <c r="T25" s="18"/>
+      <c r="T25" s="32"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
     </row>
-    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="20" t="str">
-        <f>Sector_Fuels!S9</f>
-        <v>SOL</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="23">
-        <v>2030</v>
-      </c>
-      <c r="G26" s="21"/>
+    <row r="26" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="34"/>
       <c r="H26" s="34"/>
       <c r="I26" s="21"/>
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="36"/>
+      <c r="M26" s="35"/>
       <c r="N26" s="21"/>
       <c r="O26" s="34"/>
       <c r="Q26" s="32"/>
@@ -3415,7 +3409,7 @@
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
     </row>
-    <row r="27" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="F27" s="23"/>
       <c r="G27" s="34"/>
@@ -3445,46 +3439,28 @@
       <c r="M28" s="35"/>
       <c r="N28" s="21"/>
       <c r="O28" s="34"/>
-      <c r="Q28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="F29" s="23"/>
       <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="21"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
       <c r="L29" s="21"/>
       <c r="M29" s="35"/>
       <c r="N29" s="21"/>
-      <c r="O29" s="34"/>
+      <c r="O29" s="21"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
+      <c r="Q30" s="32"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q31" s="32"/>
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806FEF87-0B18-4207-9CD6-A4C5A1EC46B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746C6C97-14A9-4929-8E04-83637F59AFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="121">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1848,7 +1848,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2709,7 +2709,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3156,8 +3156,9 @@
       <c r="Y19" s="32"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="33" t="s">
-        <v>116</v>
+      <c r="B20" s="33" t="str">
+        <f>S19</f>
+        <v>Kiln</v>
       </c>
       <c r="C20" s="33" t="str">
         <f>Sector_Fuels!D22</f>
@@ -3199,8 +3200,9 @@
       <c r="Y20" s="32"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B21" s="33" t="s">
-        <v>117</v>
+      <c r="B21" s="33" t="str">
+        <f>S$20</f>
+        <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>Sector_Fuels!D20</f>
@@ -3244,8 +3246,9 @@
       <c r="Y21" s="32"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B22" s="33" t="s">
-        <v>117</v>
+      <c r="B22" s="33" t="str">
+        <f t="shared" ref="B22:B23" si="0">S$20</f>
+        <v>Boiler</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>Sector_Fuels!D22</f>
@@ -3300,8 +3303,9 @@
       <c r="W22" s="28"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="33" t="s">
-        <v>117</v>
+      <c r="B23" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>Boiler</v>
       </c>
       <c r="C23" s="20" t="str">
         <f>Sector_Fuels!D23</f>
@@ -3334,8 +3338,9 @@
       <c r="W23" s="28"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
-        <v>118</v>
+      <c r="B24" s="33" t="str">
+        <f>S21</f>
+        <v>Furnace</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>Sector_Fuels!D20</f>
@@ -3363,8 +3368,9 @@
       <c r="V24" s="32"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="s">
-        <v>112</v>
+      <c r="B25" s="33" t="str">
+        <f>S22</f>
+        <v>CSP</v>
       </c>
       <c r="C25" s="20" t="str">
         <f>Sector_Fuels!S9</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746C6C97-14A9-4929-8E04-83637F59AFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D35AED-24A6-4788-8B6F-61160CE0D2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="123">
   <si>
     <t>~FI_T</t>
   </si>
@@ -351,12 +351,6 @@
     <t>Wind energy</t>
   </si>
   <si>
-    <t>MINGAS</t>
-  </si>
-  <si>
-    <t>MINBIO</t>
-  </si>
-  <si>
     <t>DMD</t>
   </si>
   <si>
@@ -403,6 +397,18 @@
   </si>
   <si>
     <t>Heat production from Solar</t>
+  </si>
+  <si>
+    <t>MANGASMIN</t>
+  </si>
+  <si>
+    <t>MANBIOMIN</t>
+  </si>
+  <si>
+    <t>MANBIO</t>
+  </si>
+  <si>
+    <t>MANGAS</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1854,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2073,7 +2079,7 @@
         <v>88</v>
       </c>
       <c r="S7" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="T7" t="s">
         <v>98</v>
@@ -2098,7 +2104,7 @@
         <v>88</v>
       </c>
       <c r="S8" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="T8" t="s">
         <v>99</v>
@@ -2115,7 +2121,7 @@
         <v>96</v>
       </c>
       <c r="T9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>82</v>
@@ -2376,7 +2382,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G20" s="34">
         <v>0.42</v>
@@ -2438,7 +2444,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
@@ -2453,11 +2459,11 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="T21" s="32" t="s">
         <v>86</v>
@@ -2475,18 +2481,18 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>MINBIO</v>
-      </c>
-      <c r="C22" s="20" t="str">
+        <v>MANBIO</v>
+      </c>
+      <c r="C22" s="33" t="str">
+        <f>S21</f>
+        <v>MANBIO</v>
+      </c>
+      <c r="D22" s="33" t="str">
         <f>S8</f>
-        <v>BIO</v>
-      </c>
-      <c r="D22" s="33" t="str">
-        <f>S21</f>
-        <v>MINBIO</v>
+        <v>MANBIOMIN</v>
       </c>
       <c r="F22" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G22" s="34">
         <v>0.3</v>
@@ -2514,13 +2520,13 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>82</v>
@@ -2533,18 +2539,18 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>MINGAS</v>
-      </c>
-      <c r="C23" s="20" t="str">
+        <v>MANGAS</v>
+      </c>
+      <c r="C23" s="33" t="str">
+        <f>S22</f>
+        <v>MANGAS</v>
+      </c>
+      <c r="D23" s="33" t="str">
         <f>S7</f>
-        <v>GAS</v>
-      </c>
-      <c r="D23" s="33" t="str">
-        <f>S22</f>
-        <v>MINGAS</v>
+        <v>MANGASMIN</v>
       </c>
       <c r="F23" s="23">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
@@ -2565,7 +2571,7 @@
         <v>50</v>
       </c>
       <c r="W23" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -2709,7 +2715,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2781,13 +2787,13 @@
     </row>
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>82</v>
@@ -3136,14 +3142,14 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="U19" s="32" t="s">
         <v>82</v>
@@ -3162,7 +3168,7 @@
       </c>
       <c r="C20" s="33" t="str">
         <f>Sector_Fuels!D22</f>
-        <v>MINBIO</v>
+        <v>MANBIOMIN</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>94</v>
@@ -3180,14 +3186,14 @@
       <c r="N20" s="21"/>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="U20" s="32" t="s">
         <v>82</v>
@@ -3227,13 +3233,13 @@
       <c r="N21" s="21"/>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="U21" s="32" t="s">
         <v>82</v>
@@ -3252,7 +3258,7 @@
       </c>
       <c r="C22" s="20" t="str">
         <f>Sector_Fuels!D22</f>
-        <v>MINBIO</v>
+        <v>MANBIOMIN</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>94</v>
@@ -3286,13 +3292,13 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>82</v>
@@ -3309,7 +3315,7 @@
       </c>
       <c r="C23" s="20" t="str">
         <f>Sector_Fuels!D23</f>
-        <v>MINGAS</v>
+        <v>MANGASMIN</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>94</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D35AED-24A6-4788-8B6F-61160CE0D2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEBA5B-69D3-49F6-B4A5-10D757E2778C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -648,7 +648,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -727,6 +727,7 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -1854,7 +1855,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2715,7 +2716,7 @@
   <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3141,25 +3142,25 @@
         <v>78</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="Q19" s="32" t="s">
+      <c r="Q19" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32" t="s">
+      <c r="R19" s="38"/>
+      <c r="S19" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="T19" s="32" t="s">
+      <c r="T19" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="U19" s="32" t="s">
+      <c r="U19" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="V19" s="32" t="s">
+      <c r="V19" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="W19" s="28"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
@@ -3185,25 +3186,25 @@
       <c r="M20" s="21"/>
       <c r="N20" s="21"/>
       <c r="O20" s="34"/>
-      <c r="Q20" s="32" t="s">
+      <c r="Q20" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32" t="s">
+      <c r="R20" s="38"/>
+      <c r="S20" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="T20" s="32" t="s">
+      <c r="T20" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="U20" s="32" t="s">
+      <c r="U20" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="V20" s="32" t="s">
+      <c r="V20" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="W20" s="28"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEEBA5B-69D3-49F6-B4A5-10D757E2778C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598707E4-3D11-446C-B44C-0B65A987D008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
   <si>
     <t>~FI_T</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>MANGAS</t>
+  </si>
+  <si>
+    <t>MANELC</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1857,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2380,7 +2383,7 @@
         <v>SOL</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="F20" s="23">
         <v>2028</v>
@@ -2442,7 +2445,7 @@
         <v>SOL</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="F21" s="23">
         <v>2028</v>
@@ -2715,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3213,7 +3216,7 @@
       </c>
       <c r="C21" s="20" t="str">
         <f>Sector_Fuels!D20</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>94</v>
@@ -3351,7 +3354,7 @@
       </c>
       <c r="C24" s="20" t="str">
         <f>Sector_Fuels!D20</f>
-        <v>ELC</v>
+        <v>MANELC</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>94</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598707E4-3D11-446C-B44C-0B65A987D008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BC2F4E-BA35-49CD-AF40-C1EBE364D74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -264,15 +264,6 @@
     <t>*Units</t>
   </si>
   <si>
-    <t>M€/GW</t>
-  </si>
-  <si>
-    <t>M€/PJa</t>
-  </si>
-  <si>
-    <t>M€/PJ</t>
-  </si>
-  <si>
     <t>Years</t>
   </si>
   <si>
@@ -412,6 +403,15 @@
   </si>
   <si>
     <t>MANELC</t>
+  </si>
+  <si>
+    <t>TH$/GW</t>
+  </si>
+  <si>
+    <t>TH$/GWa</t>
+  </si>
+  <si>
+    <t>TH$/Gwha</t>
   </si>
 </sst>
 </file>
@@ -1857,8 +1857,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1931,19 +1931,19 @@
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
@@ -1963,19 +1963,19 @@
     </row>
     <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
@@ -2012,19 +2012,19 @@
     <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
@@ -2061,35 +2061,35 @@
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="Q7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2105,30 +2105,30 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="Q8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="T8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="T9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -2194,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>15</v>
@@ -2221,7 +2221,7 @@
         <v>63</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>64</v>
@@ -2283,7 +2283,7 @@
         <v>41</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>68</v>
@@ -2333,22 +2333,22 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>61</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
@@ -2356,19 +2356,19 @@
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V19" s="32" t="s">
         <v>50</v>
       </c>
       <c r="W19" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
@@ -2383,54 +2383,52 @@
         <v>SOL</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F20" s="23">
         <v>2028</v>
       </c>
       <c r="G20" s="34">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="H20" s="34">
-        <v>0.85</v>
+        <v>99</v>
       </c>
       <c r="I20" s="21">
-        <v>1650</v>
+        <v>691000</v>
       </c>
       <c r="J20" s="34">
-        <v>35</v>
-      </c>
-      <c r="K20" s="34">
-        <v>0.4</v>
-      </c>
+        <v>11000</v>
+      </c>
+      <c r="K20" s="34"/>
       <c r="L20" s="21">
-        <v>40</v>
-      </c>
-      <c r="M20" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
       <c r="N20" s="21">
-        <v>31.536000000000001</v>
-      </c>
-      <c r="O20" s="34">
-        <v>1</v>
-      </c>
+        <v>8.76</v>
+      </c>
+      <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
         <v>49</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V20" s="32" t="s">
         <v>50</v>
       </c>
       <c r="W20" s="28" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
@@ -2445,35 +2443,46 @@
         <v>SOL</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F21" s="23">
         <v>2028</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="34"/>
+      <c r="G21" s="34">
+        <v>1</v>
+      </c>
+      <c r="H21" s="34">
+        <v>97</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1041000</v>
+      </c>
+      <c r="J21" s="34">
+        <v>38000</v>
+      </c>
       <c r="K21" s="34"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="21">
+        <v>25</v>
+      </c>
       <c r="M21" s="35">
-        <f>99.8/G20</f>
-        <v>237.61904761904762</v>
-      </c>
-      <c r="N21" s="21"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <v>8.76</v>
+      </c>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V21" s="32" t="s">
         <v>50</v>
@@ -2499,41 +2508,44 @@
         <v>2028</v>
       </c>
       <c r="G22" s="34">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="34">
-        <v>0.85</v>
+        <v>98</v>
       </c>
       <c r="I22" s="21">
-        <v>250</v>
+        <v>3242000</v>
       </c>
       <c r="J22" s="34">
-        <v>15</v>
+        <f>0.06*I22</f>
+        <v>194520</v>
       </c>
       <c r="K22" s="34">
         <v>0.2</v>
       </c>
       <c r="L22" s="21">
-        <v>40</v>
-      </c>
-      <c r="M22" s="36"/>
+        <v>20</v>
+      </c>
+      <c r="M22" s="36">
+        <v>410040</v>
+      </c>
       <c r="N22" s="21">
-        <v>31.536000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="O22" s="34">
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V22" s="32" t="s">
         <v>50</v>
@@ -2556,26 +2568,44 @@
       <c r="F23" s="23">
         <v>2028</v>
       </c>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="34"/>
+      <c r="G23" s="34">
+        <v>1</v>
+      </c>
+      <c r="H23" s="34">
+        <v>99</v>
+      </c>
+      <c r="I23" s="21">
+        <v>27576</v>
+      </c>
+      <c r="J23" s="34">
+        <v>0</v>
+      </c>
+      <c r="K23" s="34">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>25</v>
+      </c>
+      <c r="M23" s="36">
+        <v>202158</v>
+      </c>
+      <c r="N23" s="21">
+        <v>8.76</v>
+      </c>
+      <c r="O23" s="34">
+        <v>1</v>
+      </c>
       <c r="Q23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="18"/>
       <c r="U23" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V23" s="32" t="s">
         <v>50</v>
       </c>
       <c r="W23" s="28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -2718,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2791,22 +2821,22 @@
     </row>
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
@@ -2988,7 +3018,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>15</v>
@@ -3015,7 +3045,7 @@
         <v>63</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="O17" s="12" t="s">
         <v>64</v>
@@ -3077,7 +3107,7 @@
         <v>41</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>68</v>
@@ -3127,36 +3157,36 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L19" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>61</v>
       </c>
       <c r="N19" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R19" s="38"/>
       <c r="S19" s="38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T19" s="38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="U19" s="38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V19" s="38" t="s">
         <v>50</v>
@@ -3175,32 +3205,40 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F20" s="23">
         <v>2028</v>
       </c>
       <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
+      <c r="H20" s="34">
+        <v>1</v>
+      </c>
       <c r="I20" s="21"/>
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="34"/>
+      <c r="M20" s="21">
+        <v>410040</v>
+      </c>
+      <c r="N20" s="21">
+        <v>8.76</v>
+      </c>
+      <c r="O20" s="34">
+        <v>1</v>
+      </c>
       <c r="Q20" s="38" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="R20" s="38"/>
       <c r="S20" s="38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="T20" s="38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U20" s="38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V20" s="38" t="s">
         <v>50</v>
@@ -3219,34 +3257,39 @@
         <v>MANELC</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F21" s="23">
         <v>2028</v>
       </c>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+      <c r="G21" s="34">
+        <v>1</v>
+      </c>
+      <c r="H21" s="34">
+        <v>1</v>
+      </c>
       <c r="I21" s="21"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="35" t="e">
-        <f>99.8/G20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N21" s="21"/>
+      <c r="M21" s="35">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <v>8.76</v>
+      </c>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V21" s="32" t="s">
         <v>50</v>
@@ -3265,7 +3308,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F22" s="23">
         <v>2028</v>
@@ -3274,7 +3317,7 @@
         <v>0.3</v>
       </c>
       <c r="H22" s="34">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="I22" s="21">
         <v>250</v>
@@ -3288,24 +3331,26 @@
       <c r="L22" s="21">
         <v>40</v>
       </c>
-      <c r="M22" s="36"/>
+      <c r="M22" s="36">
+        <v>410040</v>
+      </c>
       <c r="N22" s="21">
-        <v>31.536000000000001</v>
+        <v>8.76</v>
       </c>
       <c r="O22" s="34">
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V22" s="32" t="s">
         <v>50</v>
@@ -3322,25 +3367,33 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F23" s="23">
         <v>2028</v>
       </c>
       <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
+      <c r="H23" s="34">
+        <v>1</v>
+      </c>
       <c r="I23" s="21"/>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="34"/>
+      <c r="M23" s="36">
+        <v>202158</v>
+      </c>
+      <c r="N23" s="21">
+        <v>8.76</v>
+      </c>
+      <c r="O23" s="34">
+        <v>1</v>
+      </c>
       <c r="Q23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="18"/>
       <c r="U23" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="V23" s="32" t="s">
         <v>50</v>
@@ -3357,19 +3410,27 @@
         <v>MANELC</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F24" s="23">
         <v>2028</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="34"/>
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="34">
+        <v>1</v>
+      </c>
       <c r="I24" s="21"/>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="21"/>
+      <c r="M24" s="36">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
+        <v>8.76</v>
+      </c>
       <c r="O24" s="34"/>
       <c r="Q24" s="32"/>
       <c r="S24" s="32"/>
@@ -3387,19 +3448,25 @@
         <v>SOL</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F25" s="23">
         <v>2028</v>
       </c>
-      <c r="G25" s="21"/>
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
       <c r="H25" s="34"/>
       <c r="I25" s="21"/>
       <c r="J25" s="34"/>
       <c r="K25" s="34"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="21"/>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21">
+        <v>8.76</v>
+      </c>
       <c r="O25" s="34"/>
       <c r="Q25" s="32"/>
       <c r="S25" s="32"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BC2F4E-BA35-49CD-AF40-C1EBE364D74B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A571F4-AB65-4148-B94E-F18FD4425399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
   <si>
     <t>~FI_T</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Decentralized Power Plant-Bioenergy</t>
   </si>
   <si>
-    <t>msy09/2052</t>
-  </si>
-  <si>
     <t>NRG</t>
   </si>
   <si>
@@ -312,9 +309,6 @@
     <t>Biomass</t>
   </si>
   <si>
-    <t>msy09/2053</t>
-  </si>
-  <si>
     <t>MANHEAT</t>
   </si>
   <si>
@@ -351,9 +345,6 @@
     <t>Natural Gas-Domestic Supply</t>
   </si>
   <si>
-    <t>msy09/2056</t>
-  </si>
-  <si>
     <t>MAN</t>
   </si>
   <si>
@@ -412,6 +403,9 @@
   </si>
   <si>
     <t>TH$/Gwha</t>
+  </si>
+  <si>
+    <t>msy09/2050</t>
   </si>
 </sst>
 </file>
@@ -1857,8 +1851,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M23"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1931,10 +1925,10 @@
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>79</v>
@@ -1963,10 +1957,10 @@
     </row>
     <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>79</v>
@@ -2012,10 +2006,10 @@
     <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>79</v>
@@ -2061,10 +2055,10 @@
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>79</v>
@@ -2080,13 +2074,13 @@
         <v>51</v>
       </c>
       <c r="Q7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="T7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>79</v>
@@ -2105,13 +2099,13 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>79</v>
@@ -2119,13 +2113,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="T9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>79</v>
@@ -2333,13 +2327,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>74</v>
@@ -2356,7 +2350,7 @@
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>81</v>
@@ -2368,7 +2362,7 @@
         <v>50</v>
       </c>
       <c r="W19" s="28" t="s">
-        <v>84</v>
+        <v>121</v>
       </c>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
@@ -2383,7 +2377,7 @@
         <v>SOL</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F20" s="23">
         <v>2028</v>
@@ -2416,7 +2410,7 @@
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>82</v>
@@ -2428,7 +2422,7 @@
         <v>50</v>
       </c>
       <c r="W20" s="28" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
@@ -2443,7 +2437,7 @@
         <v>SOL</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F21" s="23">
         <v>2028</v>
@@ -2472,11 +2466,11 @@
       </c>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T21" s="32" t="s">
         <v>83</v>
@@ -2536,13 +2530,13 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>79</v>
@@ -2605,7 +2599,7 @@
         <v>50</v>
       </c>
       <c r="W23" s="28" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -2821,13 +2815,13 @@
     </row>
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>79</v>
@@ -3157,13 +3151,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>74</v>
@@ -3176,14 +3170,14 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R19" s="38"/>
       <c r="S19" s="38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T19" s="38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="U19" s="38" t="s">
         <v>79</v>
@@ -3205,7 +3199,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="23">
         <v>2028</v>
@@ -3228,14 +3222,14 @@
         <v>1</v>
       </c>
       <c r="Q20" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R20" s="38"/>
       <c r="S20" s="38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T20" s="38" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="U20" s="38" t="s">
         <v>79</v>
@@ -3257,7 +3251,7 @@
         <v>MANELC</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F21" s="23">
         <v>2028</v>
@@ -3280,13 +3274,13 @@
       </c>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S21" s="32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="U21" s="32" t="s">
         <v>79</v>
@@ -3308,7 +3302,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F22" s="23">
         <v>2028</v>
@@ -3341,13 +3335,13 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>79</v>
@@ -3367,7 +3361,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F23" s="23">
         <v>2028</v>
@@ -3410,7 +3404,7 @@
         <v>MANELC</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F24" s="23">
         <v>2028</v>
@@ -3448,7 +3442,7 @@
         <v>SOL</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F25" s="23">
         <v>2028</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A571F4-AB65-4148-B94E-F18FD4425399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E736B386-B8C5-41FF-9706-FE191A56EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="122">
   <si>
     <t>~FI_T</t>
   </si>
@@ -189,9 +189,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>ELC</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
@@ -405,7 +402,10 @@
     <t>TH$/Gwha</t>
   </si>
   <si>
-    <t>msy09/2050</t>
+    <t>ELCRNW</t>
+  </si>
+  <si>
+    <t>DayNite</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -571,6 +571,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,7 +651,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -725,6 +731,13 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -1851,8 +1864,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23:W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1925,23 +1938,23 @@
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="27" t="s">
         <v>7</v>
@@ -1957,29 +1970,29 @@
     </row>
     <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="E5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="29" t="s">
         <v>8</v>
       </c>
       <c r="R5" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S5" s="29" t="s">
         <v>6</v>
@@ -2006,29 +2019,29 @@
     <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="E6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6" s="31" t="s">
         <v>55</v>
-      </c>
-      <c r="R6" s="31" t="s">
-        <v>56</v>
       </c>
       <c r="S6" s="31" t="s">
         <v>24</v>
@@ -2040,10 +2053,10 @@
         <v>10</v>
       </c>
       <c r="V6" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="W6" s="31" t="s">
         <v>57</v>
-      </c>
-      <c r="W6" s="31" t="s">
-        <v>58</v>
       </c>
       <c r="X6" s="31" t="s">
         <v>26</v>
@@ -2055,35 +2068,35 @@
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -2099,30 +2112,30 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="Q8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -2133,21 +2146,21 @@
     </row>
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="8"/>
     </row>
@@ -2188,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>15</v>
@@ -2209,23 +2222,23 @@
         <v>36</v>
       </c>
       <c r="L17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>63</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>64</v>
       </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="29" t="s">
         <v>16</v>
       </c>
       <c r="R17" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S17" s="29" t="s">
         <v>1</v>
@@ -2251,7 +2264,7 @@
     </row>
     <row r="18" spans="2:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>33</v>
@@ -2265,10 +2278,10 @@
         <v>37</v>
       </c>
       <c r="H18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>40</v>
@@ -2277,22 +2290,22 @@
         <v>41</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>38</v>
       </c>
       <c r="O18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q18" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="31" t="s">
-        <v>70</v>
-      </c>
       <c r="R18" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S18" s="31" t="s">
         <v>28</v>
@@ -2307,10 +2320,10 @@
         <v>31</v>
       </c>
       <c r="W18" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="X18" s="31" t="s">
         <v>71</v>
-      </c>
-      <c r="X18" s="31" t="s">
-        <v>72</v>
       </c>
       <c r="Y18" s="31" t="s">
         <v>32</v>
@@ -2318,7 +2331,7 @@
     </row>
     <row r="19" spans="2:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -2327,41 +2340,41 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="L19" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U19" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V19" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W19" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="W19" s="41" t="s">
         <v>121</v>
       </c>
       <c r="X19" s="32"/>
@@ -2377,10 +2390,10 @@
         <v>SOL</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="23">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G20" s="34">
         <v>1</v>
@@ -2406,22 +2419,22 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T20" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U20" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V20" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W20" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="W20" s="41" t="s">
         <v>121</v>
       </c>
       <c r="X20" s="32"/>
@@ -2437,10 +2450,10 @@
         <v>SOL</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="23">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G21" s="34">
         <v>1</v>
@@ -2466,20 +2479,20 @@
       </c>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V21" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W21" s="28"/>
       <c r="X21" s="32"/>
@@ -2499,7 +2512,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="F22" s="23">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G22" s="34">
         <v>1</v>
@@ -2530,19 +2543,19 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="T22" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="S22" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="U22" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="V22" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W22" s="28"/>
     </row>
@@ -2560,7 +2573,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="F23" s="23">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G23" s="34">
         <v>1</v>
@@ -2592,28 +2605,41 @@
       <c r="Q23" s="32"/>
       <c r="S23" s="32"/>
       <c r="T23" s="18"/>
-      <c r="U23" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="V23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W23" s="28" t="s">
-        <v>121</v>
-      </c>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="28"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="21"/>
+      <c r="B24" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G24" s="34">
+        <v>1</v>
+      </c>
       <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
+      <c r="I24" s="21">
+        <v>3677000</v>
+      </c>
+      <c r="J24" s="21">
+        <v>175200</v>
+      </c>
       <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
+      <c r="L24" s="21">
+        <v>25</v>
+      </c>
       <c r="M24" s="35"/>
-      <c r="N24" s="21"/>
+      <c r="N24" s="21">
+        <v>8.76</v>
+      </c>
       <c r="O24" s="21"/>
       <c r="Q24" s="32"/>
       <c r="S24" s="32"/>
@@ -2740,10 +2766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2762,26 +2788,25 @@
     <col min="13" max="13" width="14.33203125" style="20" customWidth="1"/>
     <col min="14" max="14" width="15" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2" style="20" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="22" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.33203125" customWidth="1"/>
-    <col min="25" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5546875" style="20" customWidth="1"/>
+    <col min="18" max="18" width="2" style="20" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.33203125" customWidth="1"/>
+    <col min="27" max="27" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="S2" s="26"/>
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
@@ -2789,8 +2814,10 @@
       <c r="W2" s="26"/>
       <c r="X2" s="26"/>
       <c r="Y2" s="26"/>
-    </row>
-    <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+    </row>
+    <row r="3" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
         <v>43</v>
       </c>
@@ -2813,42 +2840,42 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="S4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
+      <c r="T4" s="27"/>
       <c r="U4" s="28"/>
       <c r="V4" s="28"/>
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
       <c r="Y4" s="28"/>
-    </row>
-    <row r="5" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+    </row>
+    <row r="5" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
@@ -2856,35 +2883,35 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
-      <c r="Q5" s="29" t="s">
+      <c r="S5" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="R5" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="S5" s="29" t="s">
+      <c r="T5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="T5" s="29" t="s">
+      <c r="V5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="29" t="s">
+      <c r="W5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="29" t="s">
+      <c r="X5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="W5" s="29" t="s">
+      <c r="Y5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="29" t="s">
+      <c r="Z5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="29" t="s">
+      <c r="AA5" s="29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="25"/>
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
@@ -2893,35 +2920,35 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
-      <c r="Q6" s="31" t="s">
+      <c r="S6" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="U6" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="V6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="W6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="X6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="U6" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="V6" s="31" t="s">
+      <c r="Y6" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="W6" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="X6" s="31" t="s">
+      <c r="Z6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="31" t="s">
+      <c r="AA6" s="31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
@@ -2930,16 +2957,16 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
-      <c r="Q7" s="2"/>
       <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -2947,39 +2974,39 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
-      <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U10" s="2"/>
-    </row>
-    <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="W8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W10" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="7"/>
     </row>
-    <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="8"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E16" s="5" t="s">
         <v>0</v>
       </c>
@@ -2989,19 +3016,19 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="4"/>
-      <c r="Q16" s="27" t="s">
+      <c r="S16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="R16" s="27"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="28"/>
       <c r="V16" s="28"/>
       <c r="W16" s="28"/>
       <c r="X16" s="28"/>
       <c r="Y16" s="28"/>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
@@ -3012,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>15</v>
@@ -3033,49 +3060,51 @@
         <v>36</v>
       </c>
       <c r="L17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="N17" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="N17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="O17" s="12" t="s">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="T17" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="U17" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="W17" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="X17" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z17" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA17" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="R17" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="V17" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="W17" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="X17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y17" s="29" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>65</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>33</v>
@@ -3089,10 +3118,10 @@
         <v>37</v>
       </c>
       <c r="H18" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="14" t="s">
         <v>66</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>67</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>40</v>
@@ -3101,48 +3130,50 @@
         <v>41</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N18" s="14" t="s">
         <v>38</v>
       </c>
       <c r="O18" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="S18" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="Q18" s="31" t="s">
+      <c r="T18" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="V18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y18" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="R18" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="S18" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T18" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="U18" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="V18" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="W18" s="31" t="s">
+      <c r="Z18" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="X18" s="31" t="s">
+      <c r="AA18" s="31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="Y18" s="31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -3151,47 +3182,49 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="N19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="M19" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>75</v>
-      </c>
       <c r="O19" s="16"/>
-      <c r="Q19" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="R19" s="38"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
       <c r="S19" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="T19" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="U19" s="38" t="s">
-        <v>79</v>
-      </c>
       <c r="V19" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="W19" s="38"/>
-      <c r="X19" s="38"/>
+        <v>106</v>
+      </c>
+      <c r="W19" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="X19" s="38" t="s">
+        <v>49</v>
+      </c>
       <c r="Y19" s="38"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
-        <f>S19</f>
+        <f>U19</f>
         <v>Kiln</v>
       </c>
       <c r="C20" s="33" t="str">
@@ -3199,12 +3232,14 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="23">
-        <v>2028</v>
-      </c>
-      <c r="G20" s="34"/>
+        <v>2030</v>
+      </c>
+      <c r="G20" s="34">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="H20" s="34">
         <v>1</v>
       </c>
@@ -3221,40 +3256,41 @@
       <c r="O20" s="34">
         <v>1</v>
       </c>
-      <c r="Q20" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="R20" s="38"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
       <c r="S20" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="T20" s="38" t="s">
-        <v>106</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="T20" s="38"/>
       <c r="U20" s="38" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="V20" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
+        <v>105</v>
+      </c>
+      <c r="W20" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="X20" s="38" t="s">
+        <v>49</v>
+      </c>
       <c r="Y20" s="38"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f>S$20</f>
+        <f>U$20</f>
         <v>Boiler</v>
       </c>
-      <c r="C21" s="20" t="str">
-        <f>Sector_Fuels!D20</f>
-        <v>MANELC</v>
+      <c r="C21" s="20" t="s">
+        <v>116</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="23">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G21" s="34">
         <v>1</v>
@@ -3272,29 +3308,33 @@
       <c r="N21" s="21">
         <v>8.76</v>
       </c>
-      <c r="O21" s="21"/>
-      <c r="Q21" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="O21" s="21">
+        <v>1</v>
+      </c>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
       <c r="S21" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="T21" s="18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="V21" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W21" s="28"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="V21" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="W21" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X21" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="32"/>
+      <c r="AA21" s="32"/>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
-        <f t="shared" ref="B22:B23" si="0">S$20</f>
+        <f t="shared" ref="B22:B23" si="0">U$20</f>
         <v>Boiler</v>
       </c>
       <c r="C22" s="20" t="str">
@@ -3302,10 +3342,10 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F22" s="23">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G22" s="34">
         <v>0.3</v>
@@ -3334,24 +3374,26 @@
       <c r="O22" s="34">
         <v>1</v>
       </c>
-      <c r="Q22" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
       <c r="S22" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="V22" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W22" s="28"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="V22" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="W22" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X22" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y22" s="28"/>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Boiler</v>
@@ -3361,12 +3403,14 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F23" s="23">
-        <v>2028</v>
-      </c>
-      <c r="G23" s="34"/>
+        <v>2030</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="H23" s="34">
         <v>1</v>
       </c>
@@ -3383,20 +3427,22 @@
       <c r="O23" s="34">
         <v>1</v>
       </c>
-      <c r="Q23" s="32"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
       <c r="S23" s="32"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="V23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="W23" s="28"/>
-    </row>
-    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="U23" s="32"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y23" s="28"/>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
-        <f>S21</f>
+        <f>U21</f>
         <v>Furnace</v>
       </c>
       <c r="C24" s="20" t="str">
@@ -3404,10 +3450,10 @@
         <v>MANELC</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="23">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G24" s="21">
         <v>1</v>
@@ -3426,15 +3472,17 @@
         <v>8.76</v>
       </c>
       <c r="O24" s="34"/>
-      <c r="Q24" s="32"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
       <c r="S24" s="32"/>
-      <c r="T24" s="18"/>
       <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-    </row>
-    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="V24" s="18"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="str">
-        <f>S22</f>
+        <f>U22</f>
         <v>CSP</v>
       </c>
       <c r="C25" s="20" t="str">
@@ -3442,10 +3490,10 @@
         <v>SOL</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="23">
-        <v>2028</v>
+        <v>2030</v>
       </c>
       <c r="G25" s="21">
         <v>1</v>
@@ -3462,13 +3510,15 @@
         <v>8.76</v>
       </c>
       <c r="O25" s="34"/>
-      <c r="Q25" s="32"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
       <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
-    </row>
-    <row r="26" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+    </row>
+    <row r="26" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
       <c r="F26" s="23"/>
       <c r="G26" s="34"/>
@@ -3480,13 +3530,15 @@
       <c r="M26" s="35"/>
       <c r="N26" s="21"/>
       <c r="O26" s="34"/>
-      <c r="Q26" s="32"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
       <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
-    </row>
-    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
       <c r="F27" s="23"/>
       <c r="G27" s="34"/>
@@ -3498,13 +3550,15 @@
       <c r="M27" s="35"/>
       <c r="N27" s="21"/>
       <c r="O27" s="34"/>
-      <c r="Q27" s="32"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
       <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
-    </row>
-    <row r="28" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="F28" s="23"/>
       <c r="G28" s="34"/>
@@ -3516,8 +3570,10 @@
       <c r="M28" s="35"/>
       <c r="N28" s="21"/>
       <c r="O28" s="34"/>
-    </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="F29" s="23"/>
       <c r="G29" s="34"/>
@@ -3529,15 +3585,17 @@
       <c r="M29" s="35"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q30" s="32"/>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q32" s="32"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="S30" s="32"/>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="S31" s="32"/>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="S32" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E736B386-B8C5-41FF-9706-FE191A56EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DAE501-DD13-4383-B9F2-23401D170F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="127">
   <si>
     <t>~FI_T</t>
   </si>
@@ -372,9 +372,6 @@
     <t>Furnace</t>
   </si>
   <si>
-    <t>Solar Energy</t>
-  </si>
-  <si>
     <t>Heat production from Solar</t>
   </si>
   <si>
@@ -402,10 +399,28 @@
     <t>TH$/Gwha</t>
   </si>
   <si>
-    <t>ELCRNW</t>
-  </si>
-  <si>
     <t>DayNite</t>
+  </si>
+  <si>
+    <t>Solar process heat</t>
+  </si>
+  <si>
+    <t>Renewable electricity</t>
+  </si>
+  <si>
+    <t>MANHEATMIN</t>
+  </si>
+  <si>
+    <t>ELCRNWMIN</t>
+  </si>
+  <si>
+    <t>Solar based process heat</t>
+  </si>
+  <si>
+    <t>Electricity production from solar</t>
+  </si>
+  <si>
+    <t>Electricity production from wind</t>
   </si>
 </sst>
 </file>
@@ -1864,8 +1879,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23:W23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1893,7 @@
     <col min="6" max="6" width="12.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.109375" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.33203125" style="20" customWidth="1"/>
     <col min="12" max="12" width="7" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.33203125" style="20" customWidth="1"/>
@@ -2090,7 +2105,7 @@
         <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T7" t="s">
         <v>92</v>
@@ -2115,7 +2130,7 @@
         <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T8" t="s">
         <v>93</v>
@@ -2129,16 +2144,25 @@
         <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="T9" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" t="s">
+        <v>120</v>
+      </c>
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -2340,13 +2364,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>118</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>73</v>
@@ -2359,7 +2383,7 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
@@ -2375,7 +2399,7 @@
         <v>49</v>
       </c>
       <c r="W19" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
@@ -2387,10 +2411,10 @@
       </c>
       <c r="C20" s="20" t="str">
         <f>S9</f>
-        <v>SOL</v>
+        <v>ELCRNWMIN</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2419,7 +2443,7 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
@@ -2435,7 +2459,7 @@
         <v>49</v>
       </c>
       <c r="W20" s="41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
@@ -2447,10 +2471,10 @@
       </c>
       <c r="C21" s="20" t="str">
         <f>S9</f>
-        <v>SOL</v>
+        <v>ELCRNWMIN</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2483,7 +2507,7 @@
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T21" s="32" t="s">
         <v>82</v>
@@ -2546,7 +2570,7 @@
         <v>98</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T22" s="18" t="s">
         <v>99</v>
@@ -2602,12 +2626,24 @@
       <c r="O23" s="34">
         <v>1</v>
       </c>
-      <c r="Q23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="28"/>
+      <c r="Q23" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="U23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="W23" s="28" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
@@ -2768,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3182,13 +3218,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>73</v>
@@ -3241,12 +3277,20 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H20" s="34">
-        <v>1</v>
-      </c>
-      <c r="I20" s="21"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="21"/>
+        <v>0.98</v>
+      </c>
+      <c r="I20" s="21">
+        <v>3242000</v>
+      </c>
+      <c r="J20" s="21">
+        <v>194520</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="L20" s="21">
+        <v>30</v>
+      </c>
       <c r="M20" s="21">
         <v>410040</v>
       </c>
@@ -3284,7 +3328,7 @@
         <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>88</v>
@@ -3298,17 +3342,21 @@
       <c r="H21" s="34">
         <v>1</v>
       </c>
-      <c r="I21" s="21"/>
+      <c r="I21" s="21">
+        <v>157261</v>
+      </c>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="21">
+        <v>30</v>
+      </c>
       <c r="M21" s="35">
         <v>0</v>
       </c>
       <c r="N21" s="21">
         <v>8.76</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="34">
         <v>1</v>
       </c>
       <c r="P21" s="21"/>
@@ -3351,10 +3399,10 @@
         <v>0.3</v>
       </c>
       <c r="H22" s="34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="I22" s="21">
-        <v>250</v>
+        <v>157261</v>
       </c>
       <c r="J22" s="34">
         <v>15</v>
@@ -3383,7 +3431,7 @@
         <v>103</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="W22" s="32" t="s">
         <v>78</v>
@@ -3412,12 +3460,16 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="H23" s="34">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21"/>
+        <v>0.99</v>
+      </c>
+      <c r="I23" s="21">
+        <v>157261</v>
+      </c>
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="21">
+        <v>40</v>
+      </c>
       <c r="M23" s="36">
         <v>202158</v>
       </c>
@@ -3429,9 +3481,15 @@
       </c>
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
-      <c r="S23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="18"/>
+      <c r="S23" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="U23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="V23" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="W23" s="32" t="s">
         <v>78</v>
       </c>
@@ -3461,10 +3519,14 @@
       <c r="H24" s="34">
         <v>1</v>
       </c>
-      <c r="I24" s="21"/>
+      <c r="I24" s="21">
+        <v>157261</v>
+      </c>
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
-      <c r="L24" s="21"/>
+      <c r="L24" s="21">
+        <v>40</v>
+      </c>
       <c r="M24" s="36">
         <v>0</v>
       </c>
@@ -3474,11 +3536,21 @@
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
-      <c r="S24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
+      <c r="S24" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="U24" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="V24" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="W24" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="X24" s="32" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="str">
@@ -3486,7 +3558,7 @@
         <v>CSP</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>Sector_Fuels!S9</f>
+        <f>Sector_Fuels!C24</f>
         <v>SOL</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -3498,11 +3570,21 @@
       <c r="G25" s="21">
         <v>1</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="21"/>
+      <c r="H25" s="34">
+        <v>1</v>
+      </c>
+      <c r="I25" s="21">
+        <v>3677000</v>
+      </c>
+      <c r="J25" s="21">
+        <v>175200</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
+        <v>25</v>
+      </c>
       <c r="M25" s="36">
         <v>0</v>
       </c>
@@ -3519,16 +3601,44 @@
       <c r="X25" s="32"/>
     </row>
     <row r="26" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="21"/>
+      <c r="B26" s="33" t="str">
+        <f t="shared" ref="B26:B27" si="1">U23</f>
+        <v>PP_SOL</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f>Sector_Fuels!C24</f>
+        <v>SOL</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1</v>
+      </c>
+      <c r="H26" s="34">
+        <v>0.99</v>
+      </c>
+      <c r="I26" s="21">
+        <v>691000</v>
+      </c>
+      <c r="J26" s="21">
+        <v>11000</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>25</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>8.76</v>
+      </c>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
       <c r="Q26" s="34"/>
@@ -3539,16 +3649,44 @@
       <c r="X26" s="32"/>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="21"/>
+      <c r="B27" s="33" t="str">
+        <f t="shared" si="1"/>
+        <v>PP_WND</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f>Sector_Fuels!C24</f>
+        <v>SOL</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="23">
+        <v>2030</v>
+      </c>
+      <c r="G27" s="34">
+        <v>1</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0.97</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1041000</v>
+      </c>
+      <c r="J27" s="21">
+        <v>38000</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
+        <v>25</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21">
+        <v>8.76</v>
+      </c>
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
       <c r="Q27" s="34"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DAE501-DD13-4383-B9F2-23401D170F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6484F0D0-DD97-4DD0-86D3-B7A11DF4B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="126">
   <si>
     <t>~FI_T</t>
   </si>
@@ -381,12 +381,6 @@
     <t>MANBIOMIN</t>
   </si>
   <si>
-    <t>MANBIO</t>
-  </si>
-  <si>
-    <t>MANGAS</t>
-  </si>
-  <si>
     <t>MANELC</t>
   </si>
   <si>
@@ -405,15 +399,9 @@
     <t>Solar process heat</t>
   </si>
   <si>
-    <t>Renewable electricity</t>
-  </si>
-  <si>
     <t>MANHEATMIN</t>
   </si>
   <si>
-    <t>ELCRNWMIN</t>
-  </si>
-  <si>
     <t>Solar based process heat</t>
   </si>
   <si>
@@ -421,6 +409,15 @@
   </si>
   <si>
     <t>Electricity production from wind</t>
+  </si>
+  <si>
+    <t>ELC</t>
+  </si>
+  <si>
+    <t>ELCSOLAR</t>
+  </si>
+  <si>
+    <t>ELCWND</t>
   </si>
 </sst>
 </file>
@@ -1879,8 +1876,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2144,25 +2141,16 @@
         <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="T9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q10" t="s">
-        <v>83</v>
-      </c>
-      <c r="S10" t="s">
-        <v>122</v>
-      </c>
-      <c r="T10" t="s">
-        <v>120</v>
-      </c>
       <c r="U10" s="2"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -2364,13 +2352,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>73</v>
@@ -2383,11 +2371,11 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>80</v>
@@ -2399,7 +2387,7 @@
         <v>49</v>
       </c>
       <c r="W19" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
@@ -2407,14 +2395,13 @@
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
         <f>S19</f>
-        <v>PP_SOL</v>
-      </c>
-      <c r="C20" s="20" t="str">
-        <f>S9</f>
-        <v>ELCRNWMIN</v>
+        <v>ELCSOLAR</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2443,11 +2430,11 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>81</v>
@@ -2459,7 +2446,7 @@
         <v>49</v>
       </c>
       <c r="W20" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
@@ -2467,14 +2454,13 @@
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
         <f t="shared" ref="B21:B23" si="0">S20</f>
-        <v>PP_WND</v>
-      </c>
-      <c r="C21" s="20" t="str">
-        <f>S9</f>
-        <v>ELCRNWMIN</v>
+        <v>ELCWND</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2506,8 +2492,9 @@
         <v>98</v>
       </c>
       <c r="R21" s="32"/>
-      <c r="S21" s="32" t="s">
-        <v>113</v>
+      <c r="S21" s="32" t="str">
+        <f>$Q$22&amp;$C$5</f>
+        <v>MINBIO</v>
       </c>
       <c r="T21" s="32" t="s">
         <v>82</v>
@@ -2525,11 +2512,11 @@
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>MANBIO</v>
+        <v>MINBIO</v>
       </c>
       <c r="C22" s="33" t="str">
         <f>S21</f>
-        <v>MANBIO</v>
+        <v>MINBIO</v>
       </c>
       <c r="D22" s="33" t="str">
         <f>S8</f>
@@ -2569,8 +2556,9 @@
       <c r="Q22" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="S22" s="32" t="s">
-        <v>114</v>
+      <c r="S22" s="32" t="str">
+        <f>$Q$22&amp;$C$6</f>
+        <v>MINGAS</v>
       </c>
       <c r="T22" s="18" t="s">
         <v>99</v>
@@ -2586,11 +2574,11 @@
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>MANGAS</v>
+        <v>MINGAS</v>
       </c>
       <c r="C23" s="33" t="str">
         <f>S22</f>
-        <v>MANGAS</v>
+        <v>MINGAS</v>
       </c>
       <c r="D23" s="33" t="str">
         <f>S7</f>
@@ -2633,7 +2621,7 @@
         <v>103</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="U23" s="32" t="s">
         <v>78</v>
@@ -2642,7 +2630,7 @@
         <v>49</v>
       </c>
       <c r="W23" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
@@ -3218,13 +3206,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>118</v>
-      </c>
       <c r="K19" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>73</v>
@@ -3328,7 +3316,7 @@
         <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>88</v>
@@ -3488,7 +3476,7 @@
         <v>89</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="W23" s="32" t="s">
         <v>78</v>
@@ -3543,7 +3531,7 @@
         <v>94</v>
       </c>
       <c r="V24" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="W24" s="32" t="s">
         <v>78</v>
@@ -3610,7 +3598,7 @@
         <v>SOL</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F26" s="23">
         <v>2030</v>
@@ -3658,7 +3646,7 @@
         <v>SOL</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="23">
         <v>2030</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6484F0D0-DD97-4DD0-86D3-B7A11DF4B6FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D052B-C224-4DD5-9DF7-1F23327801FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="125">
   <si>
     <t>~FI_T</t>
   </si>
@@ -396,12 +397,6 @@
     <t>DayNite</t>
   </si>
   <si>
-    <t>Solar process heat</t>
-  </si>
-  <si>
-    <t>MANHEATMIN</t>
-  </si>
-  <si>
     <t>Solar based process heat</t>
   </si>
   <si>
@@ -418,6 +413,9 @@
   </si>
   <si>
     <t>ELCWND</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
   </si>
 </sst>
 </file>
@@ -1586,6 +1584,45 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="EBF TJ"/>
+      <sheetName val="EBF"/>
+      <sheetName val="RES&amp;OBJ"/>
+      <sheetName val="Sector_Fuels"/>
+      <sheetName val="DemTechs_INDF"/>
+      <sheetName val="Demands"/>
+      <sheetName val="Emi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="5">
+          <cell r="P5" t="str">
+            <v>MANHEAT</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="P6" t="str">
+            <v>MANELC</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1876,8 +1913,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2141,17 +2178,28 @@
         <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="T9" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U10" s="2"/>
+      <c r="Q10" t="s">
+        <v>83</v>
+      </c>
+      <c r="S10" t="s">
+        <v>91</v>
+      </c>
+      <c r="T10" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U11" s="2"/>
@@ -2371,11 +2419,11 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>80</v>
@@ -2397,11 +2445,13 @@
         <f>S19</f>
         <v>ELCSOLAR</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>113</v>
+      <c r="C20" s="20" t="str">
+        <f>S9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="D20" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$6</f>
+        <v>MANELC</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2430,11 +2480,11 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>81</v>
@@ -2456,11 +2506,13 @@
         <f t="shared" ref="B21:B23" si="0">S20</f>
         <v>ELCWND</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>113</v>
+      <c r="C21" s="20" t="str">
+        <f>S10</f>
+        <v>WND</v>
+      </c>
+      <c r="D21" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$6</f>
+        <v>MANELC</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2514,10 +2566,7 @@
         <f t="shared" si="0"/>
         <v>MINBIO</v>
       </c>
-      <c r="C22" s="33" t="str">
-        <f>S21</f>
-        <v>MINBIO</v>
-      </c>
+      <c r="C22" s="33"/>
       <c r="D22" s="33" t="str">
         <f>S8</f>
         <v>MANBIOMIN</v>
@@ -2576,10 +2625,7 @@
         <f t="shared" si="0"/>
         <v>MINGAS</v>
       </c>
-      <c r="C23" s="33" t="str">
-        <f>S22</f>
-        <v>MINGAS</v>
-      </c>
+      <c r="C23" s="33"/>
       <c r="D23" s="33" t="str">
         <f>S7</f>
         <v>MANGASMIN</v>
@@ -2621,7 +2667,7 @@
         <v>103</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="U23" s="32" t="s">
         <v>78</v>
@@ -2637,11 +2683,13 @@
       <c r="B24" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>88</v>
+      <c r="C24" s="20" t="str">
+        <f>S9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="D24" s="33" t="str">
+        <f>[2]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -2793,7 +2841,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3476,7 +3524,7 @@
         <v>89</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="W23" s="32" t="s">
         <v>78</v>
@@ -3531,7 +3579,7 @@
         <v>94</v>
       </c>
       <c r="V24" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W24" s="32" t="s">
         <v>78</v>
@@ -3547,7 +3595,7 @@
       </c>
       <c r="C25" s="20" t="str">
         <f>Sector_Fuels!C24</f>
-        <v>SOL</v>
+        <v>SOLAR</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>88</v>
@@ -3595,7 +3643,7 @@
       </c>
       <c r="C26" s="20" t="str">
         <f>Sector_Fuels!C24</f>
-        <v>SOL</v>
+        <v>SOLAR</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>113</v>
@@ -3643,7 +3691,7 @@
       </c>
       <c r="C27" s="20" t="str">
         <f>Sector_Fuels!C24</f>
-        <v>SOL</v>
+        <v>SOLAR</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>113</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D052B-C224-4DD5-9DF7-1F23327801FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994F473-A082-4544-99DE-776930A5A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="124">
   <si>
     <t>~FI_T</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Biomass</t>
-  </si>
-  <si>
-    <t>MANHEAT</t>
   </si>
   <si>
     <t>PP_SOL</t>
@@ -1913,7 +1910,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1987,10 +1984,10 @@
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>78</v>
@@ -2117,10 +2114,10 @@
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>78</v>
@@ -2139,10 +2136,10 @@
         <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>78</v>
@@ -2164,10 +2161,10 @@
         <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>78</v>
@@ -2178,10 +2175,10 @@
         <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="T9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
@@ -2192,10 +2189,10 @@
         <v>83</v>
       </c>
       <c r="S10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>78</v>
@@ -2400,13 +2397,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>115</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>73</v>
@@ -2419,11 +2416,11 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>80</v>
@@ -2435,7 +2432,7 @@
         <v>49</v>
       </c>
       <c r="W19" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
@@ -2480,11 +2477,11 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>81</v>
@@ -2496,7 +2493,7 @@
         <v>49</v>
       </c>
       <c r="W20" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
@@ -2541,7 +2538,7 @@
       </c>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="str">
@@ -2603,14 +2600,14 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S22" s="32" t="str">
         <f>$Q$22&amp;$C$6</f>
         <v>MINGAS</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>78</v>
@@ -2661,13 +2658,13 @@
         <v>1</v>
       </c>
       <c r="Q23" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U23" s="32" t="s">
         <v>78</v>
@@ -2676,12 +2673,12 @@
         <v>49</v>
       </c>
       <c r="W23" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>S9</f>
@@ -2840,8 +2837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2914,13 +2911,13 @@
     </row>
     <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>78</v>
@@ -3254,13 +3251,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>73</v>
@@ -3275,14 +3272,14 @@
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
       <c r="S19" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T19" s="38"/>
       <c r="U19" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="V19" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W19" s="38" t="s">
         <v>78</v>
@@ -3303,8 +3300,9 @@
         <f>Sector_Fuels!D22</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D20" s="20" t="s">
-        <v>88</v>
+      <c r="D20" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -3339,14 +3337,14 @@
       <c r="P20" s="34"/>
       <c r="Q20" s="34"/>
       <c r="S20" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T20" s="38"/>
       <c r="U20" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V20" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="W20" s="38" t="s">
         <v>78</v>
@@ -3364,10 +3362,11 @@
         <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>88</v>
+        <v>112</v>
+      </c>
+      <c r="D21" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -3398,13 +3397,13 @@
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="S21" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U21" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="V21" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W21" s="32" t="s">
         <v>78</v>
@@ -3425,8 +3424,9 @@
         <f>Sector_Fuels!D22</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>88</v>
+      <c r="D22" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="F22" s="23">
         <v>2030</v>
@@ -3461,13 +3461,13 @@
       <c r="P22" s="34"/>
       <c r="Q22" s="34"/>
       <c r="S22" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U22" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="V22" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="W22" s="32" t="s">
         <v>78</v>
@@ -3486,8 +3486,9 @@
         <f>Sector_Fuels!D23</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>88</v>
+      <c r="D23" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="F23" s="23">
         <v>2030</v>
@@ -3518,13 +3519,13 @@
       <c r="P23" s="34"/>
       <c r="Q23" s="34"/>
       <c r="S23" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U23" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V23" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="W23" s="32" t="s">
         <v>78</v>
@@ -3543,8 +3544,9 @@
         <f>Sector_Fuels!D20</f>
         <v>MANELC</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>88</v>
+      <c r="D24" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -3573,13 +3575,13 @@
       <c r="P24" s="34"/>
       <c r="Q24" s="34"/>
       <c r="S24" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U24" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V24" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="W24" s="32" t="s">
         <v>78</v>
@@ -3597,8 +3599,9 @@
         <f>Sector_Fuels!C24</f>
         <v>SOLAR</v>
       </c>
-      <c r="D25" s="20" t="s">
-        <v>88</v>
+      <c r="D25" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="F25" s="23">
         <v>2030</v>
@@ -3645,8 +3648,9 @@
         <f>Sector_Fuels!C24</f>
         <v>SOLAR</v>
       </c>
-      <c r="D26" s="20" t="s">
-        <v>113</v>
+      <c r="D26" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$6</f>
+        <v>MANELC</v>
       </c>
       <c r="F26" s="23">
         <v>2030</v>
@@ -3693,8 +3697,9 @@
         <f>Sector_Fuels!C24</f>
         <v>SOLAR</v>
       </c>
-      <c r="D27" s="20" t="s">
-        <v>113</v>
+      <c r="D27" s="20" t="str">
+        <f>[2]DemTechs_INDF!$P$6</f>
+        <v>MANELC</v>
       </c>
       <c r="F27" s="23">
         <v>2030</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1994F473-A082-4544-99DE-776930A5A34F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AD5453-05BE-4B7C-922F-6BCE99186C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="126">
   <si>
     <t>~FI_T</t>
   </si>
@@ -391,9 +390,6 @@
     <t>TH$/Gwha</t>
   </si>
   <si>
-    <t>DayNite</t>
-  </si>
-  <si>
     <t>Solar based process heat</t>
   </si>
   <si>
@@ -406,13 +402,22 @@
     <t>ELC</t>
   </si>
   <si>
-    <t>ELCSOLAR</t>
-  </si>
-  <si>
-    <t>ELCWND</t>
-  </si>
-  <si>
-    <t>SOLAR</t>
+    <t>Solar PV</t>
+  </si>
+  <si>
+    <t>SOLELC</t>
+  </si>
+  <si>
+    <t>WNDELC</t>
+  </si>
+  <si>
+    <t>MANHEAT</t>
+  </si>
+  <si>
+    <t>Manufacturing process heat supply by solar</t>
+  </si>
+  <si>
+    <t>HEAT</t>
   </si>
 </sst>
 </file>
@@ -1581,45 +1586,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="EBF TJ"/>
-      <sheetName val="EBF"/>
-      <sheetName val="RES&amp;OBJ"/>
-      <sheetName val="Sector_Fuels"/>
-      <sheetName val="DemTechs_INDF"/>
-      <sheetName val="Demands"/>
-      <sheetName val="Emi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
-        <row r="5">
-          <cell r="P5" t="str">
-            <v>MANHEAT</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="P6" t="str">
-            <v>MANELC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -1910,8 +1876,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2174,11 +2140,11 @@
       <c r="Q9" t="s">
         <v>83</v>
       </c>
-      <c r="S9" t="s">
-        <v>123</v>
-      </c>
-      <c r="T9" t="s">
-        <v>94</v>
+      <c r="S9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
@@ -2188,8 +2154,8 @@
       <c r="Q10" t="s">
         <v>83</v>
       </c>
-      <c r="S10" t="s">
-        <v>90</v>
+      <c r="S10" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="T10" t="s">
         <v>95</v>
@@ -2199,7 +2165,18 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="U11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
@@ -2416,11 +2393,12 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R19" s="32"/>
-      <c r="S19" s="32" t="s">
-        <v>121</v>
+      <c r="S19" s="28" t="str">
+        <f>$Q$19&amp;$C$4</f>
+        <v>ELCSOL</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>80</v>
@@ -2431,24 +2409,21 @@
       <c r="V19" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="W19" s="41" t="s">
-        <v>116</v>
-      </c>
+      <c r="W19" s="41"/>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
         <f>S19</f>
-        <v>ELCSOLAR</v>
+        <v>ELCSOL</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>S9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D20" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$6</f>
-        <v>MANELC</v>
+        <v>SOLELC</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2477,11 +2452,12 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R20" s="32"/>
-      <c r="S20" s="32" t="s">
-        <v>122</v>
+      <c r="S20" s="28" t="str">
+        <f>$Q$19&amp;$C$7</f>
+        <v>ELCWND</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>81</v>
@@ -2492,9 +2468,7 @@
       <c r="V20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="W20" s="41" t="s">
-        <v>116</v>
-      </c>
+      <c r="W20" s="41"/>
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
     </row>
@@ -2505,11 +2479,10 @@
       </c>
       <c r="C21" s="20" t="str">
         <f>S10</f>
-        <v>WND</v>
-      </c>
-      <c r="D21" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$6</f>
-        <v>MANELC</v>
+        <v>WNDELC</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2657,14 +2630,15 @@
       <c r="O23" s="34">
         <v>1</v>
       </c>
-      <c r="Q23" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="S23" s="32" t="s">
-        <v>102</v>
+      <c r="Q23" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="S23" s="32" t="str">
+        <f>$Q$23&amp;$C$4</f>
+        <v>HEATSOL</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U23" s="32" t="s">
         <v>78</v>
@@ -2672,21 +2646,15 @@
       <c r="V23" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="W23" s="28" t="s">
-        <v>116</v>
-      </c>
+      <c r="W23" s="28"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B24" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="20" t="str">
-        <f>S9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D24" s="33" t="str">
-        <f>[2]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
+      <c r="B24" s="33" t="str">
+        <f>S23</f>
+        <v>HEATSOL</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>123</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -2837,8 +2805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3097,7 +3065,7 @@
       <c r="Z16" s="28"/>
       <c r="AA16" s="28"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>1</v>
       </c>
@@ -3107,71 +3075,68 @@
       <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="12" t="s">
+      <c r="E17" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="F17" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="13" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="13" t="s">
         <v>36</v>
       </c>
+      <c r="K17" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="L17" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="O17" s="12" t="s">
         <v>63</v>
       </c>
+      <c r="O17" s="39"/>
       <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="29" t="s">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="30" t="s">
+      <c r="S17" s="30" t="s">
         <v>51</v>
       </c>
+      <c r="T17" s="29" t="s">
+        <v>1</v>
+      </c>
       <c r="U17" s="29" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" s="29" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="W17" s="29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="X17" s="29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y17" s="29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA17" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>64</v>
       </c>
@@ -3181,303 +3146,298 @@
       <c r="D18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="G18" s="15" t="s">
         <v>65</v>
       </c>
+      <c r="H18" s="14" t="s">
+        <v>66</v>
+      </c>
       <c r="I18" s="14" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="J18" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K18" s="14" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="O18" s="40"/>
       <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
+      <c r="R18" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="S18" s="31" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="T18" s="31" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="U18" s="31" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V18" s="31" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="W18" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X18" s="31" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="Y18" s="31" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z18" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA18" s="31" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="E19" s="16"/>
       <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="I19" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>115</v>
-      </c>
       <c r="K19" s="16" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="N19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="O19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="40"/>
       <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="S19" s="38" t="s">
+      <c r="R19" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="T19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38" t="s">
+        <v>106</v>
+      </c>
       <c r="U19" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="V19" s="38" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="W19" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="X19" s="38" t="s">
         <v>49</v>
       </c>
+      <c r="X19" s="38"/>
       <c r="Y19" s="38"/>
       <c r="Z19" s="38"/>
-      <c r="AA19" s="38"/>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
-        <f>U19</f>
+        <f>T19</f>
         <v>Kiln</v>
       </c>
       <c r="C20" s="33" t="str">
         <f>Sector_Fuels!D22</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D20" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="F20" s="23">
+      <c r="D20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="23">
         <v>2030</v>
       </c>
+      <c r="F20" s="34">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="G20" s="34">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H20" s="34">
         <v>0.98</v>
       </c>
+      <c r="H20" s="21">
+        <v>3242000</v>
+      </c>
       <c r="I20" s="21">
-        <v>3242000</v>
+        <v>194520</v>
       </c>
       <c r="J20" s="21">
-        <v>194520</v>
+        <v>0.2</v>
       </c>
       <c r="K20" s="21">
-        <v>0.2</v>
+        <v>30</v>
       </c>
       <c r="L20" s="21">
-        <v>30</v>
+        <v>410040</v>
       </c>
       <c r="M20" s="21">
-        <v>410040</v>
-      </c>
-      <c r="N20" s="21">
         <v>8.76</v>
       </c>
-      <c r="O20" s="34">
+      <c r="N20" s="34">
         <v>1</v>
       </c>
+      <c r="O20" s="34"/>
       <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="S20" s="38" t="s">
+      <c r="R20" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="T20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38" t="s">
+        <v>107</v>
+      </c>
       <c r="U20" s="38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="V20" s="38" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="W20" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="X20" s="38" t="s">
         <v>49</v>
       </c>
+      <c r="X20" s="38"/>
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:26" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f>U$20</f>
+        <f>T$20</f>
         <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D21" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="F21" s="23">
+      <c r="D21" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="23">
         <v>2030</v>
+      </c>
+      <c r="F21" s="34">
+        <v>1</v>
       </c>
       <c r="G21" s="34">
         <v>1</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="21">
+        <v>157261</v>
+      </c>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="21">
+        <v>30</v>
+      </c>
+      <c r="L21" s="35">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>8.76</v>
+      </c>
+      <c r="N21" s="34">
         <v>1</v>
       </c>
-      <c r="I21" s="21">
-        <v>157261</v>
-      </c>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="21">
-        <v>30</v>
-      </c>
-      <c r="M21" s="35">
-        <v>0</v>
-      </c>
-      <c r="N21" s="21">
-        <v>8.76</v>
-      </c>
-      <c r="O21" s="34">
-        <v>1</v>
-      </c>
+      <c r="O21" s="21"/>
       <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="S21" s="32" t="s">
+      <c r="R21" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="U21" s="32" t="s">
+      <c r="T21" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="V21" s="18" t="s">
+      <c r="U21" s="18" t="s">
         <v>103</v>
       </c>
+      <c r="V21" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="W21" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="X21" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="Y21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:26" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
-        <f t="shared" ref="B22:B23" si="0">U$20</f>
+        <f t="shared" ref="B22:B23" si="0">T$20</f>
         <v>Boiler</v>
       </c>
       <c r="C22" s="20" t="str">
         <f>Sector_Fuels!D22</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D22" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="F22" s="23">
+      <c r="D22" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="23">
         <v>2030</v>
       </c>
+      <c r="F22" s="34">
+        <v>0.3</v>
+      </c>
       <c r="G22" s="34">
-        <v>0.3</v>
-      </c>
-      <c r="H22" s="34">
         <v>0.98</v>
       </c>
-      <c r="I22" s="21">
+      <c r="H22" s="21">
         <v>157261</v>
       </c>
+      <c r="I22" s="34">
+        <v>15</v>
+      </c>
       <c r="J22" s="34">
-        <v>15</v>
-      </c>
-      <c r="K22" s="34">
         <v>0.2</v>
       </c>
-      <c r="L22" s="21">
+      <c r="K22" s="21">
         <v>40</v>
       </c>
-      <c r="M22" s="36">
+      <c r="L22" s="36">
         <v>410040</v>
       </c>
-      <c r="N22" s="21">
+      <c r="M22" s="21">
         <v>8.76</v>
       </c>
-      <c r="O22" s="34">
+      <c r="N22" s="34">
         <v>1</v>
       </c>
+      <c r="O22" s="34"/>
       <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="S22" s="32" t="s">
+      <c r="R22" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="U22" s="32" t="s">
+      <c r="T22" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="V22" s="18" t="s">
+      <c r="U22" s="18" t="s">
         <v>109</v>
       </c>
+      <c r="V22" s="32" t="s">
+        <v>78</v>
+      </c>
       <c r="W22" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="X22" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="Y22" s="28"/>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X22" s="28"/>
+    </row>
+    <row r="23" spans="2:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Boiler</v>
@@ -3486,258 +3446,241 @@
         <f>Sector_Fuels!D23</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D23" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="F23" s="23">
+      <c r="D23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="23">
         <v>2030</v>
       </c>
+      <c r="F23" s="34">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="G23" s="34">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H23" s="34">
         <v>0.99</v>
       </c>
-      <c r="I23" s="21">
+      <c r="H23" s="21">
         <v>157261</v>
       </c>
+      <c r="I23" s="34"/>
       <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="21">
+      <c r="K23" s="21">
         <v>40</v>
       </c>
-      <c r="M23" s="36">
+      <c r="L23" s="36">
         <v>202158</v>
       </c>
-      <c r="N23" s="21">
+      <c r="M23" s="21">
         <v>8.76</v>
       </c>
-      <c r="O23" s="34">
+      <c r="N23" s="34">
         <v>1</v>
       </c>
+      <c r="O23" s="34"/>
       <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="S23" s="32" t="s">
+      <c r="R23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="U23" s="33" t="s">
+      <c r="T23" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="V23" s="18" t="s">
-        <v>119</v>
+      <c r="U23" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="V23" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="W23" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="X23" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="Y23" s="28"/>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="X23" s="28"/>
+    </row>
+    <row r="24" spans="2:26" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
-        <f>U21</f>
+        <f>T21</f>
         <v>Furnace</v>
       </c>
       <c r="C24" s="20" t="str">
         <f>Sector_Fuels!D20</f>
         <v>MANELC</v>
       </c>
-      <c r="D24" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="F24" s="23">
+      <c r="D24" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="23">
         <v>2030</v>
       </c>
-      <c r="G24" s="21">
+      <c r="F24" s="21">
         <v>1</v>
       </c>
-      <c r="H24" s="34">
+      <c r="G24" s="34">
         <v>1</v>
       </c>
-      <c r="I24" s="21">
+      <c r="H24" s="21">
         <v>157261</v>
       </c>
+      <c r="I24" s="34"/>
       <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="21">
+      <c r="K24" s="21">
         <v>40</v>
       </c>
-      <c r="M24" s="36">
+      <c r="L24" s="36">
         <v>0</v>
       </c>
-      <c r="N24" s="21">
+      <c r="M24" s="21">
         <v>8.76</v>
       </c>
+      <c r="N24" s="34"/>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="S24" s="32" t="s">
+      <c r="R24" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="U24" s="33" t="s">
+      <c r="T24" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="V24" s="18" t="s">
-        <v>118</v>
+      <c r="U24" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="V24" s="32" t="s">
+        <v>78</v>
       </c>
       <c r="W24" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="X24" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="str">
-        <f>U22</f>
+        <f>T22</f>
         <v>CSP</v>
       </c>
-      <c r="C25" s="20" t="str">
-        <f>Sector_Fuels!C24</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D25" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
-      </c>
-      <c r="F25" s="23">
+      <c r="D25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="23">
         <v>2030</v>
       </c>
-      <c r="G25" s="21">
+      <c r="F25" s="21">
         <v>1</v>
       </c>
-      <c r="H25" s="34">
+      <c r="G25" s="34">
         <v>1</v>
       </c>
+      <c r="H25" s="21">
+        <v>3677000</v>
+      </c>
       <c r="I25" s="21">
-        <v>3677000</v>
+        <v>175200</v>
       </c>
       <c r="J25" s="21">
-        <v>175200</v>
+        <v>0</v>
       </c>
       <c r="K25" s="21">
+        <v>25</v>
+      </c>
+      <c r="L25" s="36">
         <v>0</v>
       </c>
-      <c r="L25" s="21">
-        <v>25</v>
-      </c>
-      <c r="M25" s="36">
-        <v>0</v>
-      </c>
-      <c r="N25" s="21">
+      <c r="M25" s="21">
         <v>8.76</v>
       </c>
+      <c r="N25" s="34"/>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="S25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="T25" s="32"/>
       <c r="U25" s="32"/>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-    </row>
-    <row r="26" spans="2:27" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="str">
-        <f t="shared" ref="B26:B27" si="1">U23</f>
+        <f t="shared" ref="B26:B27" si="1">T23</f>
         <v>PP_SOL</v>
       </c>
-      <c r="C26" s="20" t="str">
-        <f>Sector_Fuels!C24</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D26" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="F26" s="23">
+      <c r="D26" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="23">
         <v>2030</v>
       </c>
-      <c r="G26" s="21">
+      <c r="F26" s="21">
         <v>1</v>
       </c>
-      <c r="H26" s="34">
+      <c r="G26" s="34">
         <v>0.99</v>
       </c>
+      <c r="H26" s="21">
+        <v>691000</v>
+      </c>
       <c r="I26" s="21">
-        <v>691000</v>
+        <v>11000</v>
       </c>
       <c r="J26" s="21">
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="21">
+        <v>25</v>
+      </c>
+      <c r="L26" s="21">
         <v>0</v>
       </c>
-      <c r="L26" s="21">
-        <v>25</v>
-      </c>
       <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="21">
         <v>8.76</v>
       </c>
+      <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="S26" s="32"/>
+      <c r="R26" s="32"/>
+      <c r="T26" s="32"/>
       <c r="U26" s="32"/>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="str">
         <f t="shared" si="1"/>
         <v>PP_WND</v>
       </c>
-      <c r="C27" s="20" t="str">
-        <f>Sector_Fuels!C24</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D27" s="20" t="str">
-        <f>[2]DemTechs_INDF!$P$6</f>
-        <v>MANELC</v>
-      </c>
-      <c r="F27" s="23">
+      <c r="D27" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="23">
         <v>2030</v>
       </c>
+      <c r="F27" s="34">
+        <v>1</v>
+      </c>
       <c r="G27" s="34">
-        <v>1</v>
-      </c>
-      <c r="H27" s="34">
         <v>0.97</v>
       </c>
+      <c r="H27" s="21">
+        <v>1041000</v>
+      </c>
       <c r="I27" s="21">
-        <v>1041000</v>
+        <v>38000</v>
       </c>
       <c r="J27" s="21">
-        <v>38000</v>
+        <v>0</v>
       </c>
       <c r="K27" s="21">
+        <v>25</v>
+      </c>
+      <c r="L27" s="21">
         <v>0</v>
       </c>
-      <c r="L27" s="21">
-        <v>25</v>
-      </c>
       <c r="M27" s="21">
-        <v>0</v>
-      </c>
-      <c r="N27" s="21">
         <v>8.76</v>
       </c>
+      <c r="N27" s="34"/>
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>
-      <c r="Q27" s="34"/>
-      <c r="S27" s="32"/>
+      <c r="R27" s="32"/>
+      <c r="T27" s="32"/>
       <c r="U27" s="32"/>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
       <c r="F28" s="23"/>
       <c r="G28" s="34"/>
@@ -3752,7 +3695,7 @@
       <c r="P28" s="34"/>
       <c r="Q28" s="34"/>
     </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
       <c r="F29" s="23"/>
       <c r="G29" s="34"/>
@@ -3767,13 +3710,13 @@
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S30" s="32"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S31" s="32"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
       <c r="S32" s="32"/>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDUP\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF44C51D-3C7A-46FC-B931-50185A042FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEC6CB3-1DE8-489E-BAB8-52783CC4671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="127">
   <si>
     <t>~FI_T</t>
   </si>
@@ -402,25 +402,25 @@
     <t>ELC</t>
   </si>
   <si>
-    <t>SOLELC</t>
-  </si>
-  <si>
-    <t>WNDELC</t>
-  </si>
-  <si>
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>Manufacturing process heat supply by solar</t>
-  </si>
-  <si>
-    <t>HEAT</t>
-  </si>
-  <si>
-    <t>Electricity from Solar PV</t>
-  </si>
-  <si>
-    <t>SOLTHERM</t>
+    <t>SOLTHERMAL</t>
+  </si>
+  <si>
+    <t>RNG</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>Wind power</t>
+  </si>
+  <si>
+    <t>Solar power</t>
+  </si>
+  <si>
+    <t>PV</t>
   </si>
 </sst>
 </file>
@@ -1879,7 +1879,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -2144,10 +2144,10 @@
         <v>83</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
@@ -2155,31 +2155,23 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T10" t="s">
-        <v>95</v>
+        <v>90</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>124</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
@@ -2396,12 +2388,12 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="28" t="str">
-        <f>$Q$19&amp;$C$4</f>
-        <v>ELCSOL</v>
+        <f>"SOLAR"&amp;$Q$19</f>
+        <v>SOLARPV</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>80</v>
@@ -2419,10 +2411,10 @@
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
         <f>S19</f>
-        <v>ELCSOL</v>
+        <v>SOLARPV</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2451,12 +2443,12 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="28" t="str">
-        <f>$Q$19&amp;$C$7</f>
-        <v>ELCWND</v>
+        <f>$Q$20&amp;"TRBN"</f>
+        <v>WNDTRBN</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>81</v>
@@ -2474,10 +2466,10 @@
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
         <f t="shared" ref="B21:B23" si="0">S20</f>
-        <v>ELCWND</v>
+        <v>WNDTRBN</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2626,11 +2618,11 @@
         <v>1</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="S23" s="32" t="str">
-        <f>$Q$23&amp;$C$4</f>
-        <v>HEATSOL</v>
+        <f>$Q$23&amp;"THERMAL"</f>
+        <v>MINTHERMAL</v>
       </c>
       <c r="T23" s="18" t="s">
         <v>116</v>
@@ -2646,10 +2638,10 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
         <f>S23</f>
-        <v>HEATSOL</v>
+        <v>MINTHERMAL</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -2800,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2820,8 +2812,9 @@
     <col min="13" max="13" width="14.33203125" style="20" customWidth="1"/>
     <col min="14" max="14" width="15" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="11.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.5546875" style="20" customWidth="1"/>
-    <col min="18" max="18" width="2" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" style="20" customWidth="1"/>
+    <col min="17" max="17" width="7.21875" style="20" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.44140625" bestFit="1" customWidth="1"/>
@@ -3259,7 +3252,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E20" s="23">
         <v>2030</v>
@@ -3318,11 +3311,12 @@
         <f>T$20</f>
         <v>Boiler</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>112</v>
+      <c r="C21" s="20" t="str">
+        <f>Sector_Fuels!D20</f>
+        <v>ELC</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E21" s="23">
         <v>2030</v>
@@ -3381,7 +3375,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="23">
         <v>2030</v>
@@ -3442,7 +3436,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E23" s="23">
         <v>2030</v>
@@ -3496,10 +3490,10 @@
       </c>
       <c r="C24" s="20" t="str">
         <f>Sector_Fuels!D20</f>
-        <v>MANELC</v>
+        <v>ELC</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E24" s="23">
         <v>2030</v>
@@ -3548,11 +3542,12 @@
         <f>T22</f>
         <v>CSP</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>89</v>
+      <c r="C25" s="20" t="str">
+        <f>Sector_Fuels!D24</f>
+        <v>SOLTHERMAL</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E25" s="23">
         <v>2030</v>
@@ -3595,8 +3590,9 @@
         <f t="shared" ref="B26:B27" si="1">T23</f>
         <v>PP_SOL</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>89</v>
+      <c r="C26" s="20" t="str">
+        <f>Sector_Fuels!D20</f>
+        <v>ELC</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>112</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEC6CB3-1DE8-489E-BAB8-52783CC4671A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B21C02-086A-40BE-8522-39E40E829C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sector_Fuels" sheetId="4" r:id="rId1"/>
-    <sheet name="DemTechs_INDF" sheetId="5" r:id="rId2"/>
+    <sheet name="PRI_SectorFuels" sheetId="4" r:id="rId1"/>
+    <sheet name="PRI_DemTechsINDF" sheetId="5" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -1879,8 +1879,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2792,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3248,7 +3248,7 @@
         <v>Kiln</v>
       </c>
       <c r="C20" s="33" t="str">
-        <f>Sector_Fuels!D22</f>
+        <f>PRI_SectorFuels!D22</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D20" s="20" t="s">
@@ -3312,7 +3312,7 @@
         <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f>Sector_Fuels!D20</f>
+        <f>PRI_SectorFuels!D20</f>
         <v>ELC</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -3371,7 +3371,7 @@
         <v>Boiler</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f>Sector_Fuels!D22</f>
+        <f>PRI_SectorFuels!D22</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D22" s="20" t="s">
@@ -3432,7 +3432,7 @@
         <v>Boiler</v>
       </c>
       <c r="C23" s="20" t="str">
-        <f>Sector_Fuels!D23</f>
+        <f>PRI_SectorFuels!D23</f>
         <v>MANGASMIN</v>
       </c>
       <c r="D23" s="20" t="s">
@@ -3489,7 +3489,7 @@
         <v>Furnace</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>Sector_Fuels!D20</f>
+        <f>PRI_SectorFuels!D20</f>
         <v>ELC</v>
       </c>
       <c r="D24" s="20" t="s">
@@ -3543,7 +3543,7 @@
         <v>CSP</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f>Sector_Fuels!D24</f>
+        <f>PRI_SectorFuels!D24</f>
         <v>SOLTHERMAL</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -3591,7 +3591,7 @@
         <v>PP_SOL</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f>Sector_Fuels!D20</f>
+        <f>PRI_SectorFuels!D20</f>
         <v>ELC</v>
       </c>
       <c r="D26" s="20" t="s">

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B21C02-086A-40BE-8522-39E40E829C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8AE556-23BD-478A-B84B-69C37A01554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_SectorFuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1879,8 +1879,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2792,8 +2792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2816,7 +2816,7 @@
     <col min="17" max="17" width="7.21875" style="20" customWidth="1"/>
     <col min="18" max="18" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.33203125" customWidth="1"/>
@@ -3370,9 +3370,9 @@
         <f t="shared" ref="B22:B23" si="0">T$20</f>
         <v>Boiler</v>
       </c>
-      <c r="C22" s="20" t="str">
-        <f>PRI_SectorFuels!D22</f>
-        <v>MANBIOMIN</v>
+      <c r="C22" s="20">
+        <f>U7</f>
+        <v>0</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>120</v>
@@ -3431,9 +3431,9 @@
         <f t="shared" si="0"/>
         <v>Boiler</v>
       </c>
-      <c r="C23" s="20" t="str">
-        <f>PRI_SectorFuels!D23</f>
-        <v>MANGASMIN</v>
+      <c r="C23" s="20">
+        <f>U7</f>
+        <v>0</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>120</v>
@@ -3542,9 +3542,9 @@
         <f>T22</f>
         <v>CSP</v>
       </c>
-      <c r="C25" s="20" t="str">
-        <f>PRI_SectorFuels!D24</f>
-        <v>SOLTHERMAL</v>
+      <c r="C25" s="20">
+        <f>U9</f>
+        <v>0</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>120</v>
@@ -3590,9 +3590,9 @@
         <f t="shared" ref="B26:B27" si="1">T23</f>
         <v>PP_SOL</v>
       </c>
-      <c r="C26" s="20" t="str">
-        <f>PRI_SectorFuels!D20</f>
-        <v>ELC</v>
+      <c r="C26" s="20">
+        <f>U9</f>
+        <v>0</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>112</v>
@@ -3638,8 +3638,9 @@
         <f t="shared" si="1"/>
         <v>PP_WND</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>89</v>
+      <c r="C27" s="20">
+        <f>U10</f>
+        <v>0</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>112</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8AE556-23BD-478A-B84B-69C37A01554D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8837250-D536-47E8-A63F-1584AB905BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_SectorFuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="125">
   <si>
     <t>~FI_T</t>
   </si>
@@ -378,9 +378,6 @@
     <t>MANBIOMIN</t>
   </si>
   <si>
-    <t>MANELC</t>
-  </si>
-  <si>
     <t>TH$/GW</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
   </si>
   <si>
     <t>MANHEAT</t>
-  </si>
-  <si>
-    <t>SOLTHERMAL</t>
   </si>
   <si>
     <t>RNG</t>
@@ -1879,8 +1873,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:U10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2144,10 +2138,10 @@
         <v>83</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
@@ -2155,13 +2149,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>78</v>
@@ -2369,13 +2363,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K19" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>114</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>73</v>
@@ -2388,7 +2382,7 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="28" t="str">
@@ -2413,8 +2407,12 @@
         <f>S19</f>
         <v>SOLARPV</v>
       </c>
+      <c r="C20" s="20" t="str">
+        <f>S9</f>
+        <v>SOLAR</v>
+      </c>
       <c r="D20" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2468,8 +2466,12 @@
         <f t="shared" ref="B21:B23" si="0">S20</f>
         <v>WNDTRBN</v>
       </c>
+      <c r="C21" s="20" t="str">
+        <f>S10</f>
+        <v>WND</v>
+      </c>
       <c r="D21" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2618,14 +2620,14 @@
         <v>1</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="S23" s="32" t="str">
-        <f>$Q$23&amp;"THERMAL"</f>
-        <v>MINTHERMAL</v>
+        <f>$Q$23</f>
+        <v>CSP</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U23" s="32" t="s">
         <v>78</v>
@@ -2638,10 +2640,14 @@
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
         <f>S23</f>
-        <v>MINTHERMAL</v>
+        <v>CSP</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f>S9</f>
+        <v>SOLAR</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -2792,8 +2798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3202,13 +3208,13 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>73</v>
@@ -3252,7 +3258,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="23">
         <v>2030</v>
@@ -3316,7 +3322,7 @@
         <v>ELC</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="23">
         <v>2030</v>
@@ -3370,12 +3376,12 @@
         <f t="shared" ref="B22:B23" si="0">T$20</f>
         <v>Boiler</v>
       </c>
-      <c r="C22" s="20">
-        <f>U7</f>
-        <v>0</v>
+      <c r="C22" s="20" t="str">
+        <f>PRI_SectorFuels!D23</f>
+        <v>MANGASMIN</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="23">
         <v>2030</v>
@@ -3431,12 +3437,12 @@
         <f t="shared" si="0"/>
         <v>Boiler</v>
       </c>
-      <c r="C23" s="20">
-        <f>U7</f>
-        <v>0</v>
+      <c r="C23" s="20" t="str">
+        <f>PRI_SectorFuels!D22</f>
+        <v>MANBIOMIN</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="23">
         <v>2030</v>
@@ -3473,7 +3479,7 @@
         <v>88</v>
       </c>
       <c r="U23" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="V23" s="32" t="s">
         <v>78</v>
@@ -3493,7 +3499,7 @@
         <v>ELC</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="23">
         <v>2030</v>
@@ -3528,7 +3534,7 @@
         <v>93</v>
       </c>
       <c r="U24" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="V24" s="32" t="s">
         <v>78</v>
@@ -3538,44 +3544,16 @@
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" s="33" t="str">
-        <f>T22</f>
-        <v>CSP</v>
-      </c>
-      <c r="C25" s="20">
-        <f>U9</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="23">
-        <v>2030</v>
-      </c>
-      <c r="F25" s="21">
-        <v>1</v>
-      </c>
-      <c r="G25" s="34">
-        <v>1</v>
-      </c>
-      <c r="H25" s="21">
-        <v>3677000</v>
-      </c>
-      <c r="I25" s="21">
-        <v>175200</v>
-      </c>
-      <c r="J25" s="21">
-        <v>0</v>
-      </c>
-      <c r="K25" s="21">
-        <v>25</v>
-      </c>
-      <c r="L25" s="36">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21">
-        <v>8.76</v>
-      </c>
+      <c r="B25" s="33"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="21"/>
       <c r="N25" s="34"/>
       <c r="O25" s="34"/>
       <c r="P25" s="34"/>
@@ -3586,44 +3564,16 @@
       <c r="W25" s="32"/>
     </row>
     <row r="26" spans="2:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="33" t="str">
-        <f t="shared" ref="B26:B27" si="1">T23</f>
-        <v>PP_SOL</v>
-      </c>
-      <c r="C26" s="20">
-        <f>U9</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="23">
-        <v>2030</v>
-      </c>
-      <c r="F26" s="21">
-        <v>1</v>
-      </c>
-      <c r="G26" s="34">
-        <v>0.99</v>
-      </c>
-      <c r="H26" s="21">
-        <v>691000</v>
-      </c>
-      <c r="I26" s="21">
-        <v>11000</v>
-      </c>
-      <c r="J26" s="21">
-        <v>0</v>
-      </c>
-      <c r="K26" s="21">
-        <v>25</v>
-      </c>
-      <c r="L26" s="21">
-        <v>0</v>
-      </c>
-      <c r="M26" s="21">
-        <v>8.76</v>
-      </c>
+      <c r="B26" s="33"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
       <c r="N26" s="34"/>
       <c r="O26" s="34"/>
       <c r="P26" s="34"/>
@@ -3634,44 +3584,16 @@
       <c r="W26" s="32"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="str">
-        <f t="shared" si="1"/>
-        <v>PP_WND</v>
-      </c>
-      <c r="C27" s="20">
-        <f>U10</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="23">
-        <v>2030</v>
-      </c>
-      <c r="F27" s="34">
-        <v>1</v>
-      </c>
-      <c r="G27" s="34">
-        <v>0.97</v>
-      </c>
-      <c r="H27" s="21">
-        <v>1041000</v>
-      </c>
-      <c r="I27" s="21">
-        <v>38000</v>
-      </c>
-      <c r="J27" s="21">
-        <v>0</v>
-      </c>
-      <c r="K27" s="21">
-        <v>25</v>
-      </c>
-      <c r="L27" s="21">
-        <v>0</v>
-      </c>
-      <c r="M27" s="21">
-        <v>8.76</v>
-      </c>
+      <c r="B27" s="33"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
       <c r="N27" s="34"/>
       <c r="O27" s="34"/>
       <c r="P27" s="34"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8837250-D536-47E8-A63F-1584AB905BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF2AF3-4C60-4123-891D-C2ADCD444826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_SectorFuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
   <si>
     <t>~FI_T</t>
   </si>
@@ -306,9 +306,6 @@
     <t>Biomass</t>
   </si>
   <si>
-    <t>PP_SOL</t>
-  </si>
-  <si>
     <t>SOL</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>Bioenergy -doemestic supply</t>
   </si>
   <si>
-    <t>PP_WND</t>
-  </si>
-  <si>
     <t>Solar energy</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>Furnace</t>
   </si>
   <si>
-    <t>Heat production from Solar</t>
-  </si>
-  <si>
     <t>MANGASMIN</t>
   </si>
   <si>
@@ -390,12 +381,6 @@
     <t>Solar based process heat</t>
   </si>
   <si>
-    <t>Electricity production from solar</t>
-  </si>
-  <si>
-    <t>Electricity production from wind</t>
-  </si>
-  <si>
     <t>ELC</t>
   </si>
   <si>
@@ -412,9 +397,6 @@
   </si>
   <si>
     <t>Solar power</t>
-  </si>
-  <si>
-    <t>PV</t>
   </si>
 </sst>
 </file>
@@ -1873,8 +1855,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1947,10 +1929,10 @@
     <row r="4" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>78</v>
@@ -2077,10 +2059,10 @@
     <row r="7" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="24"/>
       <c r="C7" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>78</v>
@@ -2099,10 +2081,10 @@
         <v>83</v>
       </c>
       <c r="S7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="T7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>78</v>
@@ -2124,10 +2106,10 @@
         <v>83</v>
       </c>
       <c r="S8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="T8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>78</v>
@@ -2138,10 +2120,10 @@
         <v>83</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
@@ -2149,13 +2131,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>78</v>
@@ -2363,13 +2345,13 @@
       <c r="G19" s="16"/>
       <c r="H19" s="17"/>
       <c r="I19" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L19" s="16" t="s">
         <v>73</v>
@@ -2382,12 +2364,12 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="28" t="str">
         <f>"SOLAR"&amp;$Q$19</f>
-        <v>SOLARPV</v>
+        <v>SOLARELC</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>80</v>
@@ -2405,14 +2387,14 @@
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
         <f>S19</f>
-        <v>SOLARPV</v>
+        <v>SOLARELC</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>S9</f>
         <v>SOLAR</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2441,12 +2423,12 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="28" t="str">
         <f>$Q$20&amp;"TRBN"</f>
-        <v>WNDTRBN</v>
+        <v>ELCTRBN</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>81</v>
@@ -2464,14 +2446,14 @@
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
         <f t="shared" ref="B21:B23" si="0">S20</f>
-        <v>WNDTRBN</v>
+        <v>ELCTRBN</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>S10</f>
         <v>WND</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2500,7 +2482,7 @@
       </c>
       <c r="O21" s="21"/>
       <c r="Q21" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32" t="str">
@@ -2562,14 +2544,14 @@
         <v>1</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="S22" s="32" t="str">
         <f>$Q$22&amp;$C$6</f>
         <v>MINGAS</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="U22" s="32" t="s">
         <v>78</v>
@@ -2620,14 +2602,13 @@
         <v>1</v>
       </c>
       <c r="Q23" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="S23" s="32" t="str">
-        <f>$Q$23</f>
-        <v>CSP</v>
+        <v>95</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="T23" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U23" s="32" t="s">
         <v>78</v>
@@ -2647,7 +2628,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F24" s="23">
         <v>2030</v>
@@ -2798,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2823,7 +2804,7 @@
     <col min="18" max="18" width="9.6640625" style="20" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="52.44140625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="52.33203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="6.33203125" customWidth="1"/>
     <col min="24" max="24" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -2873,13 +2854,13 @@
     </row>
     <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>78</v>
@@ -3208,13 +3189,13 @@
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
       <c r="H19" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>73</v>
@@ -3229,14 +3210,14 @@
       <c r="O19" s="40"/>
       <c r="P19" s="40"/>
       <c r="R19" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S19" s="38"/>
       <c r="T19" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="U19" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V19" s="38" t="s">
         <v>78</v>
@@ -3258,7 +3239,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E20" s="23">
         <v>2030</v>
@@ -3293,14 +3274,14 @@
       <c r="O20" s="34"/>
       <c r="P20" s="34"/>
       <c r="R20" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="S20" s="38"/>
       <c r="T20" s="38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="U20" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="V20" s="38" t="s">
         <v>78</v>
@@ -3312,17 +3293,16 @@
       <c r="Y20" s="38"/>
       <c r="Z20" s="38"/>
     </row>
-    <row r="21" spans="2:26" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
         <f>T$20</f>
         <v>Boiler</v>
       </c>
-      <c r="C21" s="20" t="str">
-        <f>PRI_SectorFuels!D20</f>
-        <v>ELC</v>
+      <c r="C21" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E21" s="23">
         <v>2030</v>
@@ -3353,13 +3333,13 @@
       <c r="O21" s="21"/>
       <c r="P21" s="21"/>
       <c r="R21" s="32" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="T21" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="U21" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="V21" s="32" t="s">
         <v>78</v>
@@ -3371,7 +3351,7 @@
       <c r="Y21" s="32"/>
       <c r="Z21" s="32"/>
     </row>
-    <row r="22" spans="2:26" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
         <f t="shared" ref="B22:B23" si="0">T$20</f>
         <v>Boiler</v>
@@ -3381,7 +3361,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E22" s="23">
         <v>2030</v>
@@ -3415,24 +3395,14 @@
       </c>
       <c r="O22" s="34"/>
       <c r="P22" s="34"/>
-      <c r="R22" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="T22" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="U22" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="V22" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W22" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="R22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
       <c r="X22" s="28"/>
     </row>
-    <row r="23" spans="2:26" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
         <f t="shared" si="0"/>
         <v>Boiler</v>
@@ -3442,7 +3412,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E23" s="23">
         <v>2030</v>
@@ -3472,34 +3442,23 @@
       </c>
       <c r="O23" s="34"/>
       <c r="P23" s="34"/>
-      <c r="R23" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="T23" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="U23" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="V23" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W23" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="R23" s="32"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
       <c r="X23" s="28"/>
     </row>
-    <row r="24" spans="2:26" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
         <f>T21</f>
         <v>Furnace</v>
       </c>
-      <c r="C24" s="20" t="str">
-        <f>PRI_SectorFuels!D20</f>
-        <v>ELC</v>
+      <c r="C24" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E24" s="23">
         <v>2030</v>
@@ -3527,21 +3486,11 @@
       <c r="N24" s="34"/>
       <c r="O24" s="34"/>
       <c r="P24" s="34"/>
-      <c r="R24" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="T24" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="U24" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="V24" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="W24" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="R24" s="32"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CF2AF3-4C60-4123-891D-C2ADCD444826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E26E63-3027-4941-A81E-58BA0CFC924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_SectorFuels" sheetId="4" r:id="rId1"/>
@@ -387,9 +387,6 @@
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>RNG</t>
-  </si>
-  <si>
     <t>SOLAR</t>
   </si>
   <si>
@@ -397,6 +394,9 @@
   </si>
   <si>
     <t>Solar power</t>
+  </si>
+  <si>
+    <t>MANELC</t>
   </si>
 </sst>
 </file>
@@ -1855,8 +1855,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2120,10 +2120,10 @@
         <v>83</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
@@ -2131,13 +2131,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>89</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>78</v>
@@ -2368,8 +2368,8 @@
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="28" t="str">
-        <f>"SOLAR"&amp;$Q$19</f>
-        <v>SOLARELC</v>
+        <f>$Q$19&amp;"SOLAR"</f>
+        <v>ELCSOLAR</v>
       </c>
       <c r="T19" s="32" t="s">
         <v>80</v>
@@ -2387,14 +2387,14 @@
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
         <f>S19</f>
-        <v>SOLARELC</v>
+        <v>ELCSOLAR</v>
       </c>
       <c r="C20" s="20" t="str">
         <f>S9</f>
         <v>SOLAR</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2427,8 +2427,8 @@
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="28" t="str">
-        <f>$Q$20&amp;"TRBN"</f>
-        <v>ELCTRBN</v>
+        <f>$Q$20&amp;"WND"</f>
+        <v>ELCWND</v>
       </c>
       <c r="T20" s="32" t="s">
         <v>81</v>
@@ -2446,14 +2446,14 @@
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
         <f t="shared" ref="B21:B23" si="0">S20</f>
-        <v>ELCTRBN</v>
+        <v>ELCWND</v>
       </c>
       <c r="C21" s="20" t="str">
         <f>S10</f>
         <v>WND</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2779,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3299,7 +3299,7 @@
         <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>114</v>
@@ -3455,7 +3455,7 @@
         <v>Furnace</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>114</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E26E63-3027-4941-A81E-58BA0CFC924F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A844D94-CD19-4CBD-BB40-F98C85AB9FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
   <si>
     <t>~FI_T</t>
   </si>
@@ -393,10 +393,19 @@
     <t>Wind power</t>
   </si>
   <si>
-    <t>Solar power</t>
-  </si>
-  <si>
     <t>MANELC</t>
+  </si>
+  <si>
+    <t>SOLARELC</t>
+  </si>
+  <si>
+    <t>WNDELC</t>
+  </si>
+  <si>
+    <t>Solarthermal</t>
+  </si>
+  <si>
+    <t>Solar electricity</t>
   </si>
 </sst>
 </file>
@@ -1853,10 +1862,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2120,10 +2129,10 @@
         <v>83</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
@@ -2134,7 +2143,7 @@
         <v>83</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>116</v>
@@ -2144,10 +2153,18 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="Q11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="7" t="s">
@@ -2364,15 +2381,15 @@
       </c>
       <c r="O19" s="16"/>
       <c r="Q19" s="32" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="R19" s="32"/>
-      <c r="S19" s="28" t="str">
-        <f>$Q$19&amp;"SOLAR"</f>
-        <v>ELCSOLAR</v>
+      <c r="S19" s="32" t="str">
+        <f>$Q$20&amp;$C$5</f>
+        <v>MINBIO</v>
       </c>
       <c r="T19" s="32" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U19" s="32" t="s">
         <v>78</v>
@@ -2380,21 +2397,17 @@
       <c r="V19" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="W19" s="41"/>
+      <c r="W19" s="28"/>
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
-        <f>S19</f>
-        <v>ELCSOLAR</v>
-      </c>
-      <c r="C20" s="20" t="str">
         <f>S9</f>
-        <v>SOLAR</v>
+        <v>SOLARELC</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2423,15 +2436,14 @@
       </c>
       <c r="O20" s="34"/>
       <c r="Q20" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="28" t="str">
-        <f>$Q$20&amp;"WND"</f>
-        <v>ELCWND</v>
-      </c>
-      <c r="T20" s="32" t="s">
-        <v>81</v>
+        <v>95</v>
+      </c>
+      <c r="S20" s="32" t="str">
+        <f>$Q$20&amp;$C$6</f>
+        <v>MINGAS</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>96</v>
       </c>
       <c r="U20" s="32" t="s">
         <v>78</v>
@@ -2439,21 +2451,15 @@
       <c r="V20" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="W20" s="41"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
+      <c r="W20" s="28"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f t="shared" ref="B21:B23" si="0">S20</f>
-        <v>ELCWND</v>
-      </c>
-      <c r="C21" s="20" t="str">
         <f>S10</f>
-        <v>WND</v>
+        <v>WNDELC</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2481,16 +2487,14 @@
         <v>8.76</v>
       </c>
       <c r="O21" s="21"/>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32" t="str">
-        <f>$Q$22&amp;$C$5</f>
-        <v>MINBIO</v>
-      </c>
-      <c r="T21" s="32" t="s">
-        <v>82</v>
+      <c r="S21" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="T21" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="U21" s="32" t="s">
         <v>78</v>
@@ -2499,12 +2503,10 @@
         <v>49</v>
       </c>
       <c r="W21" s="28"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>S19</f>
         <v>MINBIO</v>
       </c>
       <c r="C22" s="33"/>
@@ -2543,27 +2545,16 @@
       <c r="O22" s="34">
         <v>1</v>
       </c>
-      <c r="Q22" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="S22" s="32" t="str">
-        <f>$Q$22&amp;$C$6</f>
-        <v>MINGAS</v>
-      </c>
-      <c r="T22" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="U22" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V22" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="W22" s="28"/>
+      <c r="Q22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="2"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="33" t="str">
-        <f t="shared" si="0"/>
+        <f>S20</f>
         <v>MINGAS</v>
       </c>
       <c r="C23" s="33"/>
@@ -2601,30 +2592,19 @@
       <c r="O23" s="34">
         <v>1</v>
       </c>
-      <c r="Q23" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="S23" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="T23" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="U23" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V23" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="W23" s="28"/>
+      <c r="Q23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
-        <f>S23</f>
+        <f>S21</f>
         <v>CSP</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f>S9</f>
+        <f>S11</f>
         <v>SOLAR</v>
       </c>
       <c r="D24" s="33" t="s">
@@ -2657,7 +2637,6 @@
       <c r="T24" s="32"/>
       <c r="U24" s="32"/>
       <c r="V24" s="32"/>
-      <c r="W24" s="2"/>
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B25" s="33"/>
@@ -2671,11 +2650,24 @@
       <c r="M25" s="36"/>
       <c r="N25" s="21"/>
       <c r="O25" s="34"/>
-      <c r="Q25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
+      <c r="Q25" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="R25" s="32"/>
+      <c r="S25" s="28" t="str">
+        <f>$Q$25&amp;"SOLAR"</f>
+        <v>ELCSOLAR</v>
+      </c>
+      <c r="T25" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V25" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="W25" s="41"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B26" s="33"/>
@@ -2689,11 +2681,24 @@
       <c r="M26" s="36"/>
       <c r="N26" s="21"/>
       <c r="O26" s="34"/>
-      <c r="Q26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
+      <c r="Q26" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="R26" s="32"/>
+      <c r="S26" s="28" t="str">
+        <f>$Q$26&amp;"WND"</f>
+        <v>ELCWND</v>
+      </c>
+      <c r="T26" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V26" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="W26" s="41"/>
     </row>
     <row r="27" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="33"/>
@@ -2707,11 +2712,6 @@
       <c r="M27" s="35"/>
       <c r="N27" s="21"/>
       <c r="O27" s="34"/>
-      <c r="Q27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B28" s="33"/>
@@ -2725,11 +2725,6 @@
       <c r="M28" s="35"/>
       <c r="N28" s="21"/>
       <c r="O28" s="34"/>
-      <c r="Q28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B29" s="33"/>
@@ -2743,6 +2738,7 @@
       <c r="M29" s="35"/>
       <c r="N29" s="21"/>
       <c r="O29" s="34"/>
+      <c r="Q29" s="32"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B30" s="33"/>
@@ -2756,15 +2752,10 @@
       <c r="M30" s="35"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
+      <c r="Q30" s="32"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
       <c r="Q31" s="32"/>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="Q32" s="32"/>
-    </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q33" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -3299,7 +3290,7 @@
         <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>114</v>
@@ -3455,7 +3446,7 @@
         <v>Furnace</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>114</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A844D94-CD19-4CBD-BB40-F98C85AB9FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF355183-3312-4BAC-8CC1-C67B45FCB38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
   <si>
     <t>~FI_T</t>
   </si>
@@ -406,6 +406,12 @@
   </si>
   <si>
     <t>Solar electricity</t>
+  </si>
+  <si>
+    <t>ELCSOLAR</t>
+  </si>
+  <si>
+    <t>ELCWND</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1871,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2545,11 +2551,21 @@
       <c r="O22" s="34">
         <v>1</v>
       </c>
-      <c r="Q22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
+      <c r="Q22" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="U22" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V22" s="32" t="s">
+        <v>49</v>
+      </c>
       <c r="W22" s="2"/>
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.25">
@@ -2592,11 +2608,21 @@
       <c r="O23" s="34">
         <v>1</v>
       </c>
-      <c r="Q23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
+      <c r="Q23" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="S23" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="T23" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="U23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="V23" s="32" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B24" s="33" t="str">
@@ -2650,23 +2676,12 @@
       <c r="M25" s="36"/>
       <c r="N25" s="21"/>
       <c r="O25" s="34"/>
-      <c r="Q25" s="32" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q25" s="32"/>
       <c r="R25" s="32"/>
-      <c r="S25" s="28" t="str">
-        <f>$Q$25&amp;"SOLAR"</f>
-        <v>ELCSOLAR</v>
-      </c>
-      <c r="T25" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="U25" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V25" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="S25" s="28"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
       <c r="W25" s="41"/>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
@@ -2681,23 +2696,12 @@
       <c r="M26" s="36"/>
       <c r="N26" s="21"/>
       <c r="O26" s="34"/>
-      <c r="Q26" s="32" t="s">
-        <v>113</v>
-      </c>
+      <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
-      <c r="S26" s="28" t="str">
-        <f>$Q$26&amp;"WND"</f>
-        <v>ELCWND</v>
-      </c>
-      <c r="T26" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="U26" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="V26" s="32" t="s">
-        <v>49</v>
-      </c>
+      <c r="S26" s="28"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
       <c r="W26" s="41"/>
     </row>
     <row r="27" spans="2:25" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2771,7 +2775,7 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3445,8 +3449,9 @@
         <f>T21</f>
         <v>Furnace</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>117</v>
+      <c r="C24" s="20" t="str">
+        <f>PRI_SectorFuels!D20</f>
+        <v>MANELC</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>114</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF355183-3312-4BAC-8CC1-C67B45FCB38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FFE8E-16DE-4536-A4BC-73CA9F458FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_SectorFuels" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="127">
   <si>
     <t>~FI_T</t>
   </si>
@@ -387,31 +387,40 @@
     <t>MANHEAT</t>
   </si>
   <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
     <t>Wind power</t>
   </si>
   <si>
     <t>MANELC</t>
   </si>
   <si>
-    <t>SOLARELC</t>
-  </si>
-  <si>
-    <t>WNDELC</t>
-  </si>
-  <si>
-    <t>Solarthermal</t>
-  </si>
-  <si>
-    <t>Solar electricity</t>
-  </si>
-  <si>
-    <t>ELCSOLAR</t>
-  </si>
-  <si>
-    <t>ELCWND</t>
+    <t>NRG_RNW</t>
+  </si>
+  <si>
+    <t>Solar radation</t>
+  </si>
+  <si>
+    <t>NRG_HEAT</t>
+  </si>
+  <si>
+    <t>Solarthermal for Process Heat</t>
+  </si>
+  <si>
+    <t>NRG_ELC</t>
+  </si>
+  <si>
+    <t>Electricity supply</t>
+  </si>
+  <si>
+    <t>WID</t>
+  </si>
+  <si>
+    <t>SOL_PV</t>
+  </si>
+  <si>
+    <t>WID_TRBN</t>
+  </si>
+  <si>
+    <t>HPL</t>
   </si>
 </sst>
 </file>
@@ -1870,8 +1879,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Y31"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2132,13 +2141,13 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="S9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T9" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>78</v>
@@ -2146,13 +2155,13 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>78</v>
@@ -2160,10 +2169,10 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q11" s="2" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>120</v>
@@ -2181,6 +2190,15 @@
         <v>53</v>
       </c>
       <c r="F12" s="7"/>
+      <c r="Q12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="13" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="8" t="s">
@@ -2409,11 +2427,11 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="str">
-        <f>S9</f>
-        <v>SOLARELC</v>
+        <f>S23</f>
+        <v>SOL_PV</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F20" s="23">
         <v>2030</v>
@@ -2461,11 +2479,11 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="str">
-        <f>S10</f>
-        <v>WNDELC</v>
+        <f>S22</f>
+        <v>WID_TRBN</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F21" s="23">
         <v>2030</v>
@@ -2494,7 +2512,7 @@
       </c>
       <c r="O21" s="21"/>
       <c r="Q21" s="28" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="S21" s="32" t="s">
         <v>100</v>
@@ -2555,7 +2573,7 @@
         <v>113</v>
       </c>
       <c r="S22" s="32" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="T22" s="32" t="s">
         <v>80</v>
@@ -2612,7 +2630,7 @@
         <v>113</v>
       </c>
       <c r="S23" s="32" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="T23" s="32" t="s">
         <v>81</v>
@@ -2628,10 +2646,6 @@
       <c r="B24" s="33" t="str">
         <f>S21</f>
         <v>CSP</v>
-      </c>
-      <c r="C24" s="20" t="str">
-        <f>S11</f>
-        <v>SOLAR</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>114</v>
@@ -2774,7 +2788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEDD22E-FD71-40F8-B6C8-D1D6DE27210C}">
   <dimension ref="A1:AA32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -3294,7 +3308,7 @@
         <v>Boiler</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>114</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64FFE8E-16DE-4536-A4BC-73CA9F458FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F73B89-476A-44D7-9C1D-5B9B173F7E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_SectorFuels" sheetId="4" r:id="rId1"/>
@@ -1880,7 +1880,7 @@
   <dimension ref="A1:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7394B5F6-D441-4C33-9ACB-7BD7FF9A3B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDFC2ED-2CED-43F8-887E-22E281BD4CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -3232,8 +3232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4258,8 +4258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BDFC2ED-2CED-43F8-887E-22E281BD4CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC7B5C-42F3-4D9A-ADCA-8AA2C157E288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,6 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -1558,7 +1559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="140">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2871,7 +2872,7 @@
       <sheetName val="Emi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="2">
           <cell r="P2" t="str">
@@ -2922,7 +2923,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="20">
           <cell r="N20" t="str">
@@ -2935,9 +2936,48 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="EBF TJ"/>
+      <sheetName val="EBF"/>
+      <sheetName val="RES&amp;OBJ"/>
+      <sheetName val="PRI_Sector_Fuels"/>
+      <sheetName val="DemTechs_INDF"/>
+      <sheetName val="Demands"/>
+      <sheetName val="Emi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="5">
+          <cell r="P5" t="str">
+            <v>MANHEAT</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="P6" t="str">
+            <v>MANELC</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4258,8 +4298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4769,8 +4809,9 @@
         <f>PRI_Sector_Fuels!O5</f>
         <v>WINDELC</v>
       </c>
-      <c r="D18" s="57" t="s">
-        <v>74</v>
+      <c r="D18" s="57" t="str">
+        <f>[3]DemTechs_INDF!$P$6</f>
+        <v>MANELC</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -4823,8 +4864,9 @@
         <f>PRI_Sector_Fuels!O6</f>
         <v>SOLELC</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>74</v>
+      <c r="D19" s="57" t="str">
+        <f>[3]DemTechs_INDF!$P$6</f>
+        <v>MANELC</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -4876,8 +4918,9 @@
         <f>PRI_Sector_Fuels!O7</f>
         <v>SOLTHT</v>
       </c>
-      <c r="D20" s="57" t="s">
-        <v>73</v>
+      <c r="D20" s="57" t="str">
+        <f>[3]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
@@ -4917,8 +4960,9 @@
         <f>PRI_Sector_Fuels!O8</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D21" s="57" t="s">
-        <v>73</v>
+      <c r="D21" s="57" t="str">
+        <f>[3]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -4947,8 +4991,9 @@
         <f>PRI_Sector_Fuels!O8</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D22" s="57" t="s">
-        <v>73</v>
+      <c r="D22" s="57" t="str">
+        <f>[3]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -4978,8 +5023,9 @@
         <f>PRI_Sector_Fuels!O10</f>
         <v>MANELC</v>
       </c>
-      <c r="D23" s="57" t="s">
-        <v>73</v>
+      <c r="D23" s="57" t="str">
+        <f>[3]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>
@@ -5008,8 +5054,9 @@
         <f>PRI_Sector_Fuels!O10</f>
         <v>MANELC</v>
       </c>
-      <c r="D24" s="57" t="s">
-        <v>73</v>
+      <c r="D24" s="57" t="str">
+        <f>[3]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="E24" s="17">
         <v>0</v>
@@ -5039,8 +5086,9 @@
         <f>PRI_Sector_Fuels!O9</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D25" s="57" t="s">
-        <v>73</v>
+      <c r="D25" s="57" t="str">
+        <f>[3]DemTechs_INDF!$P$5</f>
+        <v>MANHEAT</v>
       </c>
       <c r="E25" s="17">
         <v>0</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FC7B5C-42F3-4D9A-ADCA-8AA2C157E288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A227E-9178-41A8-A778-C30DC30CA608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S21" authorId="2" shapeId="0" xr:uid="{89F66F35-9E7D-4CFE-82E2-FED540200A65}">
+    <comment ref="S22" authorId="2" shapeId="0" xr:uid="{89F66F35-9E7D-4CFE-82E2-FED540200A65}">
       <text>
         <r>
           <rPr>
@@ -441,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T21" authorId="1" shapeId="0" xr:uid="{BFBE1E56-B2CF-4342-9D18-7A5625043F27}">
+    <comment ref="T22" authorId="1" shapeId="0" xr:uid="{BFBE1E56-B2CF-4342-9D18-7A5625043F27}">
       <text>
         <r>
           <rPr>
@@ -466,7 +466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U21" authorId="2" shapeId="0" xr:uid="{32A4C634-AF1C-4AC8-8B25-E2B72657AC1B}">
+    <comment ref="U22" authorId="2" shapeId="0" xr:uid="{32A4C634-AF1C-4AC8-8B25-E2B72657AC1B}">
       <text>
         <r>
           <rPr>
@@ -529,7 +529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="2" shapeId="0" xr:uid="{08A0A247-5B70-4F6A-BE7F-DF9684B12478}">
+    <comment ref="I23" authorId="2" shapeId="0" xr:uid="{08A0A247-5B70-4F6A-BE7F-DF9684B12478}">
       <text>
         <r>
           <rPr>
@@ -576,7 +576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="2" shapeId="0" xr:uid="{CC49012E-D54F-4799-8BAE-EA97B5C3A29A}">
+    <comment ref="M23" authorId="2" shapeId="0" xr:uid="{CC49012E-D54F-4799-8BAE-EA97B5C3A29A}">
       <text>
         <r>
           <rPr>
@@ -2251,7 +2251,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2386,6 +2386,9 @@
     <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5 2" xfId="18" xr:uid="{4C3A48E2-3C46-4D12-9A64-54698D8BF8EE}"/>
@@ -2430,13 +2433,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3270,10 +3273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
-  <dimension ref="A1:V52"/>
+  <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3442,42 +3445,31 @@
       <c r="G5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+      <c r="U5" s="68"/>
+    </row>
+    <row r="6" spans="2:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="22"/>
       <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
+      <c r="G6" s="4"/>
       <c r="M6" s="19" t="s">
         <v>59</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>58</v>
@@ -3501,10 +3493,10 @@
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q7" s="19" t="s">
         <v>58</v>
@@ -3528,10 +3520,10 @@
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>58</v>
@@ -3543,16 +3535,22 @@
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
     </row>
-    <row r="9" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="M9" s="19" t="s">
         <v>59</v>
       </c>
       <c r="N9" s="19"/>
       <c r="O9" s="19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="19" t="s">
         <v>58</v>
@@ -3566,14 +3564,14 @@
     </row>
     <row r="10" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M10" s="19" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="N10" s="19"/>
       <c r="O10" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P10" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="19" t="s">
         <v>58</v>
@@ -3581,23 +3579,27 @@
       <c r="R10" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="12"/>
+      <c r="M11" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="S11" s="12"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
@@ -3609,15 +3611,15 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13"/>
@@ -3626,36 +3628,32 @@
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="M13" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="R13" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+    </row>
+    <row r="14" spans="2:21" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
       <c r="M14" s="12" t="s">
         <v>91</v>
       </c>
       <c r="N14" s="15"/>
       <c r="O14" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>58</v>
@@ -3669,14 +3667,14 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M15" s="12" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="N15" s="15"/>
       <c r="O15" s="12" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="P15" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="12" t="s">
         <v>58</v>
@@ -3690,14 +3688,14 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M16" s="12" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="N16" s="15"/>
       <c r="O16" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="12" t="s">
         <v>58</v>
@@ -3715,10 +3713,10 @@
       </c>
       <c r="N17" s="15"/>
       <c r="O17" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="12" t="s">
         <v>58</v>
@@ -3731,245 +3729,226 @@
       <c r="U17" s="12"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M18" s="12"/>
+      <c r="M18" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="N18" s="15"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
+      <c r="O18" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>79</v>
+      </c>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="F21" s="2" t="s">
+      <c r="N21" s="11"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M21" s="13" t="s">
+      <c r="M22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="O22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P21" s="13" t="s">
+      <c r="P22" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q21" s="13" t="s">
+      <c r="Q22" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R21" s="13" t="s">
+      <c r="R22" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S21" s="13" t="s">
+      <c r="S22" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T22" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U21" s="13" t="s">
+      <c r="U22" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="23" t="s">
+    <row r="23" spans="2:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C23" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E23" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="23" t="s">
+      <c r="F23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G23" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="H22" s="25" t="s">
+      <c r="H23" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="I22" s="25" t="s">
+      <c r="I23" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="K22" s="66"/>
-      <c r="M22" s="21" t="s">
+      <c r="K23" s="66"/>
+      <c r="M23" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="21" t="s">
+      <c r="N23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O23" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P23" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q23" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S23" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="T22" s="21" t="s">
+      <c r="T23" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="U22" s="21" t="s">
+      <c r="U23" s="21" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="23" spans="2:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="K23" s="27"/>
-      <c r="M23" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="30"/>
     </row>
     <row r="24" spans="2:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24" s="27"/>
+      <c r="M24" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="30"/>
+      <c r="U24" s="30"/>
+    </row>
+    <row r="25" spans="2:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28" t="str">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28" t="str">
         <f>$E$2</f>
         <v>GWh</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H25" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="I24" s="28" t="s">
+      <c r="I25" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="M24" s="22" t="s">
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="M25" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="19" t="str">
-        <f>$M$24&amp;$C$4</f>
+      <c r="N25" s="22"/>
+      <c r="O25" s="19" t="str">
+        <f>$M$25&amp;$C$4</f>
         <v>MINBIO</v>
       </c>
-      <c r="P24" s="38" t="str">
+      <c r="P25" s="38" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="Q24" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="str">
-        <f t="shared" ref="B25:B29" si="0">O5</f>
-        <v>WINDELC</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2030</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="H25" s="32">
-        <v>4.5449999999999999</v>
-      </c>
-      <c r="I25" s="33">
-        <f>[2]EBF!D5</f>
-        <v>4518.4003614720004</v>
-      </c>
-      <c r="J25" s="34">
-        <v>8.76</v>
-      </c>
-      <c r="K25" s="34"/>
-      <c r="M25" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="19" t="str">
-        <f>$M$25&amp;$C$5</f>
-        <v>MINGAS</v>
-      </c>
-      <c r="P25" s="38" t="str">
-        <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Ngas </v>
-      </c>
       <c r="Q25" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>SOLELC</v>
+        <f t="shared" ref="B26:B30" si="0">O6</f>
+        <v>WINDELC</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="12" t="s">
@@ -3979,39 +3958,52 @@
         <v>2030</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="H26" s="36">
-        <v>21.004999999999999</v>
-      </c>
-      <c r="I26" s="37">
-        <f>[2]EBF!D6</f>
-        <v>3157.6616415018002</v>
+      <c r="H26" s="32">
+        <v>4.5449999999999999</v>
+      </c>
+      <c r="I26" s="33">
+        <f>[2]EBF!D5</f>
+        <v>4518.4003614720004</v>
       </c>
       <c r="J26" s="34">
         <v>8.76</v>
       </c>
       <c r="K26" s="34"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="35"/>
+      <c r="M26" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="N26" s="22"/>
+      <c r="O26" s="19" t="str">
+        <f>$M$26&amp;$C$6</f>
+        <v>MIN</v>
+      </c>
+      <c r="P26" s="38" t="str">
+        <f>"Domestic Supply of "&amp;$D$6&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of  </v>
+      </c>
+      <c r="Q26" s="22" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>SOLTHT</v>
+        <v>SOLELC</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1">
         <v>2030</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="32">
-        <v>29.234999999999999</v>
+      <c r="H27" s="36">
+        <v>21.004999999999999</v>
       </c>
       <c r="I27" s="37">
-        <f>[2]EBF!E18</f>
-        <v>2605.1202084096003</v>
+        <f>[2]EBF!D6</f>
+        <v>3157.6616415018002</v>
       </c>
       <c r="J27" s="34">
         <v>8.76</v>
@@ -4022,24 +4014,23 @@
     </row>
     <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="str">
-        <f>O8</f>
-        <v>MANBIOMIN</v>
+        <f t="shared" si="0"/>
+        <v>SOLTHT</v>
       </c>
       <c r="C28" s="15"/>
-      <c r="D28" s="12" t="str">
-        <f>O8</f>
-        <v>MANBIOMIN</v>
+      <c r="D28" s="12" t="s">
+        <v>73</v>
       </c>
       <c r="E28" s="1">
         <v>2030</v>
       </c>
       <c r="F28" s="1"/>
       <c r="H28" s="32">
-        <v>100</v>
+        <v>29.234999999999999</v>
       </c>
       <c r="I28" s="37">
-        <f>[2]EBF!J18</f>
-        <v>2861.5612011470998</v>
+        <f>[2]EBF!E18</f>
+        <v>2605.1202084096003</v>
       </c>
       <c r="J28" s="34">
         <v>8.76</v>
@@ -4050,30 +4041,45 @@
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>MANGASMIN</v>
+        <f>O9</f>
+        <v>MANBIOMIN</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="12" t="str">
         <f>O9</f>
-        <v>MANGASMIN</v>
+        <v>MANBIOMIN</v>
       </c>
       <c r="E29" s="1">
         <v>2030</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="34"/>
+      <c r="H29" s="32">
+        <v>100</v>
+      </c>
+      <c r="I29" s="37">
+        <f>[2]EBF!J18</f>
+        <v>2861.5612011470998</v>
+      </c>
+      <c r="J29" s="34">
+        <v>8.76</v>
+      </c>
       <c r="K29" s="34"/>
       <c r="O29" s="15"/>
       <c r="P29" s="35"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
+      <c r="B30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>MANGASMIN</v>
+      </c>
       <c r="C30" s="15"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="1"/>
+      <c r="D30" s="12" t="str">
+        <f>O10</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2030</v>
+      </c>
       <c r="F30" s="1"/>
       <c r="H30" s="32"/>
       <c r="I30" s="37"/>
@@ -4136,6 +4142,7 @@
     </row>
     <row r="35" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
       <c r="D35" s="12"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -4155,46 +4162,39 @@
       <c r="I36" s="37"/>
       <c r="J36" s="34"/>
       <c r="K36" s="34"/>
-      <c r="M36" t="s">
-        <v>72</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="P36" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>58</v>
-      </c>
+      <c r="O36" s="15"/>
+      <c r="P36" s="35"/>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="12" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D37" s="12" t="str">
-        <f>O16</f>
-        <v>CONMDRIVE</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2022</v>
-      </c>
+      <c r="B37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="H37" s="32"/>
       <c r="I37" s="37"/>
       <c r="J37" s="34"/>
       <c r="K37" s="34"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="35"/>
+      <c r="M37" t="s">
+        <v>72</v>
+      </c>
+      <c r="O37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P37" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="38" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
-        <v>82</v>
+      <c r="B38" s="12" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="D38" s="12" t="str">
         <f>O17</f>
-        <v>CONELC</v>
+        <v>CONMDRIVE</v>
       </c>
       <c r="E38" s="1">
         <v>2022</v>
@@ -4208,82 +4208,101 @@
       <c r="P38" s="35"/>
     </row>
     <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="12" t="str">
+        <f>O18</f>
+        <v>CONELC</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="H39" s="32"/>
       <c r="I39" s="37"/>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
+      <c r="O39" s="15"/>
+      <c r="P39" s="35"/>
     </row>
     <row r="40" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B40" s="31"/>
-      <c r="C40" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="H40" s="32"/>
       <c r="I40" s="37"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
+      <c r="B41" s="31"/>
       <c r="C41" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="39"/>
+      <c r="C42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H41" s="32">
-        <f>H27</f>
+      <c r="H42" s="32">
+        <f>H28</f>
         <v>29.234999999999999</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I42" s="37">
         <f>[2]EBF!E19</f>
         <v>8781.4640358504003</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J42" s="34">
         <v>8.76</v>
       </c>
-      <c r="K41" s="34"/>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="H42" s="32">
-        <f>H28</f>
+      <c r="K42" s="34"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="H43" s="32">
+        <f>H29</f>
         <v>100</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I43" s="37">
         <f>[2]EBF!J19</f>
         <v>150.60848427090019</v>
       </c>
-      <c r="J42" s="34">
+      <c r="J43" s="34">
         <v>8.76</v>
       </c>
-      <c r="K42" s="34"/>
-    </row>
-    <row r="50" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="V51" s="1"/>
+      <c r="K43" s="34"/>
+    </row>
+    <row r="51" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4298,8 +4317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4806,7 +4825,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="9" t="str">
-        <f>PRI_Sector_Fuels!O5</f>
+        <f>PRI_Sector_Fuels!O6</f>
         <v>WINDELC</v>
       </c>
       <c r="D18" s="57" t="str">
@@ -4861,7 +4880,7 @@
         <v>72</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>PRI_Sector_Fuels!O6</f>
+        <f>PRI_Sector_Fuels!O7</f>
         <v>SOLELC</v>
       </c>
       <c r="D19" s="57" t="str">
@@ -4915,7 +4934,7 @@
         <v>CSP</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>PRI_Sector_Fuels!O7</f>
+        <f>PRI_Sector_Fuels!O8</f>
         <v>SOLTHT</v>
       </c>
       <c r="D20" s="57" t="str">
@@ -4957,7 +4976,7 @@
         <v>67</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>PRI_Sector_Fuels!O8</f>
+        <f>PRI_Sector_Fuels!O9</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="57" t="str">
@@ -4988,7 +5007,7 @@
         <v>68</v>
       </c>
       <c r="C22" s="9" t="str">
-        <f>PRI_Sector_Fuels!O8</f>
+        <f>PRI_Sector_Fuels!O9</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D22" s="57" t="str">
@@ -5020,7 +5039,7 @@
         <v>Furnace</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>PRI_Sector_Fuels!O10</f>
+        <f>PRI_Sector_Fuels!O11</f>
         <v>MANELC</v>
       </c>
       <c r="D23" s="57" t="str">
@@ -5051,7 +5070,7 @@
         <v>68</v>
       </c>
       <c r="C24" s="9" t="str">
-        <f>PRI_Sector_Fuels!O10</f>
+        <f>PRI_Sector_Fuels!O11</f>
         <v>MANELC</v>
       </c>
       <c r="D24" s="57" t="str">
@@ -5083,7 +5102,7 @@
         <v>68</v>
       </c>
       <c r="C25" s="16" t="str">
-        <f>PRI_Sector_Fuels!O9</f>
+        <f>PRI_Sector_Fuels!O10</f>
         <v>MANGASMIN</v>
       </c>
       <c r="D25" s="57" t="str">

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0A227E-9178-41A8-A778-C30DC30CA608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2052C9-2535-4FB5-B8D2-742F75D464A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -3275,8 +3275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4317,7 +4317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="N6" sqref="N6:R10"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND_DIS - Original\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9536A801-A6BE-4529-85EF-6839D8D0FDDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A6604-C3EA-4301-8CA0-68DD1DFC3AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1559,7 +1559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
   <si>
     <t>~FI_T</t>
   </si>
@@ -3179,8 +3179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4140,8 +4140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4590,9 +4590,8 @@
         <f>PRI_Sector_Fuels!O6</f>
         <v>SOLTHT</v>
       </c>
-      <c r="D18" s="56" t="str">
-        <f>[3]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
+      <c r="D18" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -4645,9 +4644,8 @@
         <f>PRI_Sector_Fuels!O7</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D19" s="56" t="str">
-        <f>[3]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
+      <c r="D19" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -4688,9 +4686,8 @@
         <f>PRI_Sector_Fuels!O8</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D20" s="56" t="str">
-        <f>[3]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
+      <c r="D20" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
@@ -4730,9 +4727,8 @@
         <f>PRI_Sector_Fuels!O7</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D21" s="56" t="str">
-        <f>[3]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
+      <c r="D21" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -4761,9 +4757,8 @@
         <f>[3]PRI_Sector_Fuels!$N$8</f>
         <v>ELC</v>
       </c>
-      <c r="D22" s="56" t="str">
-        <f>[3]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
+      <c r="D22" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -4792,9 +4787,8 @@
         <f>[3]PRI_Sector_Fuels!$N$8</f>
         <v>ELC</v>
       </c>
-      <c r="D23" s="56" t="str">
-        <f>[3]DemTechs_INDF!$P$5</f>
-        <v>MANHEAT</v>
+      <c r="D23" s="56" t="s">
+        <v>73</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,21 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823A6604-C3EA-4301-8CA0-68DD1DFC3AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0463D66B-B90F-4D87-9705-E3C051724C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
     <sheet name="DemTechs_INDF" sheetId="7" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
+    <definedName name="FID_1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1559,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1762,12 +1757,6 @@
     <t>CSP</t>
   </si>
   <si>
-    <t>Kiln</t>
-  </si>
-  <si>
-    <t>Boiler</t>
-  </si>
-  <si>
     <t>Furnace</t>
   </si>
   <si>
@@ -1895,6 +1884,42 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>MAN</t>
+  </si>
+  <si>
+    <t>Mamufacturing</t>
+  </si>
+  <si>
+    <t>TH$2022</t>
+  </si>
+  <si>
+    <t>BoilerG</t>
+  </si>
+  <si>
+    <t>BoilerB</t>
+  </si>
+  <si>
+    <t>KilnB</t>
+  </si>
+  <si>
+    <t>BoilerE</t>
+  </si>
+  <si>
+    <t>Biomass boiler</t>
+  </si>
+  <si>
+    <t>Natural Gas boiler</t>
+  </si>
+  <si>
+    <t>Biomas kiln</t>
+  </si>
+  <si>
+    <t>Electric boiler</t>
+  </si>
+  <si>
+    <t>Concentreted Solar thermal</t>
   </si>
 </sst>
 </file>
@@ -2640,256 +2665,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="IEA Data"/>
-      <sheetName val="E&amp;D Drivers"/>
-      <sheetName val="AGR_Fuels"/>
-      <sheetName val="AGR"/>
-      <sheetName val="RES_Fuels"/>
-      <sheetName val="RH1"/>
-      <sheetName val="RH2"/>
-      <sheetName val="RH3"/>
-      <sheetName val="RH4"/>
-      <sheetName val="RC1"/>
-      <sheetName val="RC2"/>
-      <sheetName val="RC3"/>
-      <sheetName val="RC4"/>
-      <sheetName val="RHW"/>
-      <sheetName val="RRF"/>
-      <sheetName val="RCW"/>
-      <sheetName val="RCD"/>
-      <sheetName val="RK1"/>
-      <sheetName val="RK2"/>
-      <sheetName val="RK3"/>
-      <sheetName val="RK4"/>
-      <sheetName val="RDW"/>
-      <sheetName val="RME"/>
-      <sheetName val="RL1"/>
-      <sheetName val="RL2"/>
-      <sheetName val="RL3"/>
-      <sheetName val="RL4"/>
-      <sheetName val="COM_Fuels"/>
-      <sheetName val="CH1"/>
-      <sheetName val="CH2"/>
-      <sheetName val="CH3"/>
-      <sheetName val="CH4"/>
-      <sheetName val="CC1"/>
-      <sheetName val="CC2"/>
-      <sheetName val="CC3"/>
-      <sheetName val="CC4"/>
-      <sheetName val="CHW"/>
-      <sheetName val="CAA"/>
-      <sheetName val="CLA"/>
-      <sheetName val="ElastPar"/>
-      <sheetName val="Conversion Factors"/>
-      <sheetName val="Intro"/>
-      <sheetName val="TechRep"/>
-      <sheetName val="Other_HYDRO"/>
-      <sheetName val="Other_NUCL"/>
-      <sheetName val="Other_THERM"/>
-      <sheetName val="Other_CHP"/>
-      <sheetName val="Other_RENEW"/>
-      <sheetName val="Other_HEAT"/>
-      <sheetName val="ELC_FUELS"/>
-      <sheetName val="ELC"/>
-      <sheetName val="HEAT"/>
-      <sheetName val="CHP"/>
-      <sheetName val="ELC_EMI"/>
-      <sheetName val="Constant Table"/>
-      <sheetName val="ANS_ITEMS_DEL"/>
-      <sheetName val="ANS_ITEMS"/>
-      <sheetName val="ANS_TIDDATA"/>
-      <sheetName val="ANS_TSDATA"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>^FI_ST: TCH, PRC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="EBF TJ"/>
-      <sheetName val="EBF"/>
-      <sheetName val="RES&amp;OBJ"/>
-      <sheetName val="PRI_Sector_Fuels"/>
-      <sheetName val="DemTechs_INDF"/>
-      <sheetName val="Demands"/>
-      <sheetName val="Emi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="P2" t="str">
-            <v>TH$2022</v>
-          </cell>
-          <cell r="Q2" t="str">
-            <v>GWh</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>4518.4003614720004</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>3157.6616415018002</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>MAN</v>
-          </cell>
-          <cell r="C18" t="str">
-            <v>Manufacturing</v>
-          </cell>
-          <cell r="E18">
-            <v>2605.1202084096003</v>
-          </cell>
-          <cell r="J18">
-            <v>2861.5612011470998</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>8781.4640358504003</v>
-          </cell>
-          <cell r="J19">
-            <v>150.60848427090019</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="20">
-          <cell r="N20" t="str">
-            <v>CONMDRIVE</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="EBF TJ"/>
-      <sheetName val="EBF"/>
-      <sheetName val="RES&amp;OBJ"/>
-      <sheetName val="PRI_Sector_Fuels"/>
-      <sheetName val="DemTechs_INDF"/>
-      <sheetName val="Demands"/>
-      <sheetName val="Emi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="8">
-          <cell r="N8" t="str">
-            <v>ELC</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="5">
-          <cell r="P5" t="str">
-            <v>MANHEAT</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3179,8 +2954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3212,13 +2987,13 @@
         <v>38</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7" t="s">
@@ -3227,17 +3002,17 @@
     </row>
     <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>7</v>
@@ -3256,14 +3031,14 @@
         <v>63</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>8</v>
@@ -3305,7 +3080,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>43</v>
@@ -3340,14 +3115,14 @@
         <v>60</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M5" s="67"/>
       <c r="N5" s="67"/>
@@ -3370,10 +3145,10 @@
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>58</v>
@@ -3395,7 +3170,7 @@
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P7" s="19" t="s">
         <v>62</v>
@@ -3420,10 +3195,10 @@
       </c>
       <c r="N8" s="19"/>
       <c r="O8" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P8" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q8" s="19" t="s">
         <v>58</v>
@@ -3650,13 +3425,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="H23" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>84</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>56</v>
@@ -3703,20 +3478,20 @@
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="I24" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="J24" s="26" t="s">
         <v>86</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="K24" s="26"/>
       <c r="M24" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="N24" s="29"/>
       <c r="O24" s="29"/>
@@ -3740,7 +3515,7 @@
         <v>GWh</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>58</v>
@@ -3777,13 +3552,8 @@
         <v>2030</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="H26" s="31">
-        <v>4.5449999999999999</v>
-      </c>
-      <c r="I26" s="32">
-        <f>[2]EBF!D5</f>
-        <v>4518.4003614720004</v>
-      </c>
+      <c r="H26" s="31"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="33">
         <v>8.76</v>
       </c>
@@ -3818,25 +3588,20 @@
         <v>2030</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="35">
-        <v>21.004999999999999</v>
-      </c>
-      <c r="I27" s="36">
-        <f>[2]EBF!D6</f>
-        <v>3157.6616415018002</v>
-      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="36"/>
       <c r="J27" s="33">
         <v>8.76</v>
       </c>
       <c r="K27" s="33"/>
       <c r="M27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O27" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P27" s="34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q27" t="s">
         <v>58</v>
@@ -3849,31 +3614,26 @@
       </c>
       <c r="C28" s="15"/>
       <c r="D28" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1">
         <v>2030</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="H28" s="31">
-        <v>29.234999999999999</v>
-      </c>
-      <c r="I28" s="36">
-        <f>[2]EBF!E18</f>
-        <v>2605.1202084096003</v>
-      </c>
+      <c r="H28" s="31"/>
+      <c r="I28" s="36"/>
       <c r="J28" s="33">
         <v>8.76</v>
       </c>
       <c r="K28" s="33"/>
       <c r="M28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
@@ -3886,19 +3646,14 @@
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1">
         <v>2030</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="H29" s="31">
-        <v>100</v>
-      </c>
-      <c r="I29" s="36">
-        <f>[2]EBF!J18</f>
-        <v>2861.5612011470998</v>
-      </c>
+      <c r="H29" s="31"/>
+      <c r="I29" s="36"/>
       <c r="J29" s="33">
         <v>8.76</v>
       </c>
@@ -3910,7 +3665,7 @@
         <v>66</v>
       </c>
       <c r="P29" s="34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q29" t="s">
         <v>58</v>
@@ -3923,7 +3678,7 @@
       </c>
       <c r="C30" s="15"/>
       <c r="D30" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1">
         <v>2030</v>
@@ -4058,7 +3813,7 @@
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H41" s="31"/>
       <c r="I41" s="36"/>
@@ -4068,15 +3823,14 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H42" s="31">
         <f>H28</f>
-        <v>29.234999999999999</v>
+        <v>0</v>
       </c>
       <c r="I42" s="36">
-        <f>[2]EBF!E19</f>
-        <v>8781.4640358504003</v>
+        <v>8781</v>
       </c>
       <c r="J42" s="33">
         <v>8.76</v>
@@ -4086,11 +3840,10 @@
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="H43" s="31">
         <f>H29</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="36">
-        <f>[2]EBF!J19</f>
-        <v>150.60848427090019</v>
+        <v>151</v>
       </c>
       <c r="J43" s="33">
         <v>8.76</v>
@@ -4140,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4180,40 +3933,36 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="str">
-        <f>[2]EBF!B18</f>
-        <v>MAN</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>[2]EBF!C18</f>
-        <v>Manufacturing</v>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="D2" s="39" t="str">
         <f>"Demand Technologies"</f>
         <v>Demand Technologies</v>
       </c>
-      <c r="E2" s="4" t="str">
-        <f>[2]EBF!Q2</f>
-        <v>GWh</v>
-      </c>
-      <c r="F2" s="4" t="str">
-        <f>[2]EBF!P2</f>
-        <v>TH$2022</v>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>7</v>
@@ -4438,10 +4187,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>16</v>
@@ -4499,10 +4248,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>35</v>
@@ -4514,7 +4263,7 @@
         <v>57</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>37</v>
@@ -4556,7 +4305,7 @@
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -4565,13 +4314,13 @@
         <v>54</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
       <c r="N17" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
@@ -4583,15 +4332,15 @@
       <c r="V17" s="44"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="9" t="str">
-        <f>PRI_Sector_Fuels!O6</f>
-        <v>SOLTHT</v>
+      <c r="B18" s="9" t="str">
+        <f>P18</f>
+        <v>Furnace</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -4619,33 +4368,34 @@
       </c>
       <c r="O18" s="58"/>
       <c r="P18" s="58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q18" s="58" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="T18" s="59" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="U18" s="58"/>
       <c r="V18" s="58"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="s">
-        <v>68</v>
+      <c r="B19" s="9" t="str">
+        <f>P19</f>
+        <v>BoilerB</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>PRI_Sector_Fuels!O7</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -4668,26 +4418,37 @@
       <c r="K19" s="58"/>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
-      <c r="N19" s="58"/>
+      <c r="N19" s="58" t="s">
+        <v>64</v>
+      </c>
       <c r="O19" s="58"/>
-      <c r="P19" s="58"/>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
+      <c r="P19" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="T19" s="58"/>
       <c r="U19" s="58"/>
       <c r="V19" s="58"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="s">
-        <v>68</v>
+      <c r="B20" s="9" t="str">
+        <f t="shared" ref="B20:B21" si="0">P20</f>
+        <v>BoilerG</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>PRI_Sector_Fuels!O8</f>
         <v>MANGASMIN</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
@@ -4709,26 +4470,37 @@
       </c>
       <c r="K20" s="58"/>
       <c r="L20" s="55"/>
-      <c r="N20" s="58"/>
+      <c r="N20" s="58" t="s">
+        <v>64</v>
+      </c>
       <c r="O20" s="58"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="58"/>
-      <c r="R20" s="58"/>
-      <c r="S20" s="58"/>
+      <c r="P20" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>98</v>
+      </c>
       <c r="T20" s="58"/>
       <c r="U20" s="58"/>
       <c r="V20" s="58"/>
     </row>
     <row r="21" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="s">
-        <v>67</v>
+      <c r="B21" s="9" t="str">
+        <f>P21</f>
+        <v>KilnB</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>PRI_Sector_Fuels!O7</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -4748,17 +4520,32 @@
       <c r="J21" s="58">
         <v>0</v>
       </c>
+      <c r="N21" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q21" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f>[3]PRI_Sector_Fuels!$N$8</f>
-        <v>ELC</v>
+      <c r="B22" s="9" t="str">
+        <f>P22</f>
+        <v>BoilerE</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>70</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -4778,17 +4565,36 @@
       <c r="J22" s="58">
         <v>0</v>
       </c>
+      <c r="N22" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T22" s="58" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="23" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="s">
-        <v>68</v>
+      <c r="B23" s="9" t="str">
+        <f>P23</f>
+        <v>CSP</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>[3]PRI_Sector_Fuels!$N$8</f>
-        <v>ELC</v>
+        <f>PRI_Sector_Fuels!O6</f>
+        <v>SOLTHT</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>
@@ -4807,6 +4613,24 @@
       </c>
       <c r="J23" s="58">
         <v>0</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q23" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="T23" s="58" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
@@ -4883,29 +4707,29 @@
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="55"/>
       <c r="C29" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="64"/>
       <c r="C30" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H31" s="63"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F33" s="8">
         <f>24*365</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0463D66B-B90F-4D87-9705-E3C051724C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7C4EA-2AC1-448F-9DDA-D354E022E241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1895,18 +1895,6 @@
     <t>TH$2022</t>
   </si>
   <si>
-    <t>BoilerG</t>
-  </si>
-  <si>
-    <t>BoilerB</t>
-  </si>
-  <si>
-    <t>KilnB</t>
-  </si>
-  <si>
-    <t>BoilerE</t>
-  </si>
-  <si>
     <t>Biomass boiler</t>
   </si>
   <si>
@@ -1920,6 +1908,12 @@
   </si>
   <si>
     <t>Concentreted Solar thermal</t>
+  </si>
+  <si>
+    <t>Boiler</t>
+  </si>
+  <si>
+    <t>Kiln</t>
   </si>
 </sst>
 </file>
@@ -2954,8 +2948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3612,7 +3606,9 @@
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="C28" s="15"/>
+      <c r="C28" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="D28" s="12" t="s">
         <v>70</v>
       </c>
@@ -3644,7 +3640,9 @@
         <f t="shared" si="0"/>
         <v>SOLPV</v>
       </c>
-      <c r="C29" s="15"/>
+      <c r="C29" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="D29" s="12" t="s">
         <v>70</v>
       </c>
@@ -3676,7 +3674,9 @@
         <f t="shared" si="0"/>
         <v>CSP</v>
       </c>
-      <c r="C30" s="15"/>
+      <c r="C30" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="D30" s="12" t="s">
         <v>71</v>
       </c>
@@ -3893,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4388,7 +4388,7 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="str">
         <f>P19</f>
-        <v>BoilerB</v>
+        <v>Boiler</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>PRI_Sector_Fuels!O7</f>
@@ -4423,10 +4423,10 @@
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>58</v>
@@ -4440,8 +4440,8 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="str">
-        <f t="shared" ref="B20:B21" si="0">P20</f>
-        <v>BoilerG</v>
+        <f t="shared" ref="B20" si="0">P20</f>
+        <v>Boiler</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>PRI_Sector_Fuels!O8</f>
@@ -4474,11 +4474,11 @@
         <v>64</v>
       </c>
       <c r="O20" s="58"/>
-      <c r="P20" s="16" t="s">
-        <v>113</v>
+      <c r="P20" s="58" t="s">
+        <v>118</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
@@ -4493,7 +4493,7 @@
     <row r="21" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="str">
         <f>P21</f>
-        <v>KilnB</v>
+        <v>Kiln</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>PRI_Sector_Fuels!O7</f>
@@ -4524,10 +4524,10 @@
         <v>64</v>
       </c>
       <c r="P21" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q21" s="58" t="s">
         <v>115</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>119</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>58</v>
@@ -4539,7 +4539,7 @@
     <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="str">
         <f>P22</f>
-        <v>BoilerE</v>
+        <v>Boiler</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>70</v>
@@ -4569,10 +4569,10 @@
         <v>64</v>
       </c>
       <c r="P22" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="58" t="s">
         <v>116</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>120</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>58</v>
@@ -4621,7 +4621,7 @@
         <v>66</v>
       </c>
       <c r="Q23" s="58" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>58</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E7C4EA-2AC1-448F-9DDA-D354E022E241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C0122F-E410-4BCC-8224-A7EAD2EB1E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,7 +343,54 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="2" shapeId="0" xr:uid="{89F66F35-9E7D-4CFE-82E2-FED540200A65}">
+    <comment ref="I23" authorId="2" shapeId="0" xr:uid="{08A0A247-5B70-4F6A-BE7F-DF9684B12478}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This attribute is used to assign a production limit by period.
+By defautt is defined like fixed share
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>UP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If you want fix or lower add
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>~FX
+~LO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S23" authorId="2" shapeId="0" xr:uid="{89F66F35-9E7D-4CFE-82E2-FED540200A65}">
       <text>
         <r>
           <rPr>
@@ -436,7 +483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T22" authorId="1" shapeId="0" xr:uid="{BFBE1E56-B2CF-4342-9D18-7A5625043F27}">
+    <comment ref="T23" authorId="1" shapeId="0" xr:uid="{BFBE1E56-B2CF-4342-9D18-7A5625043F27}">
       <text>
         <r>
           <rPr>
@@ -461,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U22" authorId="2" shapeId="0" xr:uid="{32A4C634-AF1C-4AC8-8B25-E2B72657AC1B}">
+    <comment ref="U23" authorId="2" shapeId="0" xr:uid="{32A4C634-AF1C-4AC8-8B25-E2B72657AC1B}">
       <text>
         <r>
           <rPr>
@@ -524,54 +571,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="2" shapeId="0" xr:uid="{08A0A247-5B70-4F6A-BE7F-DF9684B12478}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">This attribute is used to assign a production limit by period.
-By defautt is defined like fixed share
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>UP</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-If you want fix or lower add
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>~FX
-~LO</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M23" authorId="2" shapeId="0" xr:uid="{CC49012E-D54F-4799-8BAE-EA97B5C3A29A}">
+    <comment ref="M24" authorId="2" shapeId="0" xr:uid="{CC49012E-D54F-4799-8BAE-EA97B5C3A29A}">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1896,15 +1896,6 @@
   </si>
   <si>
     <t>Biomass boiler</t>
-  </si>
-  <si>
-    <t>Natural Gas boiler</t>
-  </si>
-  <si>
-    <t>Biomas kiln</t>
-  </si>
-  <si>
-    <t>Electric boiler</t>
   </si>
   <si>
     <t>Concentreted Solar thermal</t>
@@ -2368,13 +2359,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2948,8 +2939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3348,61 +3339,43 @@
       <c r="U19" s="12"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
+      <c r="M21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="F22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="S22" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="U22" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>1</v>
       </c>
@@ -3431,32 +3404,32 @@
         <v>56</v>
       </c>
       <c r="K23" s="65"/>
-      <c r="M23" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="O23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="T23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="20" t="s">
-        <v>31</v>
+      <c r="M23" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="N23" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
@@ -3485,16 +3458,32 @@
       </c>
       <c r="K24" s="26"/>
       <c r="M24" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="29"/>
+        <v>50</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="U24" s="20" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="25" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
@@ -3516,25 +3505,21 @@
       </c>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
-      <c r="M25" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="N25" s="21"/>
-      <c r="O25" s="19" t="str">
-        <f>$M$25&amp;$C$4</f>
-        <v>MINBIO</v>
-      </c>
-      <c r="P25" s="37" t="str">
-        <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Biomass </v>
-      </c>
-      <c r="Q25" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="M25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="str">
-        <f>O25</f>
+        <f>O26</f>
         <v>MINBIO</v>
       </c>
       <c r="C26" s="15"/>
@@ -3557,12 +3542,12 @@
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="19" t="str">
-        <f>$M$26&amp;$C$5</f>
-        <v>MINGAS</v>
+        <f>$M$26&amp;$C$4</f>
+        <v>MINBIO</v>
       </c>
       <c r="P26" s="37" t="str">
-        <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
-        <v xml:space="preserve">Domestic Supply of Ngas </v>
+        <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
       <c r="Q26" s="21" t="s">
         <v>58</v>
@@ -3570,7 +3555,7 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="str">
-        <f t="shared" ref="B27:B30" si="0">O26</f>
+        <f t="shared" ref="B27:B30" si="0">O27</f>
         <v>MINGAS</v>
       </c>
       <c r="C27" s="15"/>
@@ -3588,16 +3573,19 @@
         <v>8.76</v>
       </c>
       <c r="K27" s="33"/>
-      <c r="M27" t="s">
-        <v>70</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="M27" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="N27" s="21"/>
+      <c r="O27" s="19" t="str">
+        <f>$M$27&amp;$C$5</f>
+        <v>MINGAS</v>
+      </c>
+      <c r="P27" s="37" t="str">
+        <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
+        <v xml:space="preserve">Domestic Supply of Ngas </v>
+      </c>
+      <c r="Q27" s="21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3626,10 +3614,10 @@
         <v>70</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
@@ -3657,13 +3645,13 @@
       </c>
       <c r="K29" s="33"/>
       <c r="M29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="P29" s="34" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="Q29" t="s">
         <v>58</v>
@@ -3688,8 +3676,18 @@
       <c r="I30" s="36"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="34"/>
+      <c r="M30" t="s">
+        <v>65</v>
+      </c>
+      <c r="O30" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
@@ -3809,6 +3807,8 @@
       <c r="I40" s="36"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="34"/>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
@@ -3894,7 +3894,7 @@
   <dimension ref="B1:V34"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="str">
-        <f>P19</f>
+        <f>P$19</f>
         <v>Boiler</v>
       </c>
       <c r="C19" s="9" t="str">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="58" t="s">
         <v>113</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="str">
-        <f t="shared" ref="B20" si="0">P20</f>
+        <f>P$19</f>
         <v>Boiler</v>
       </c>
       <c r="C20" s="9" t="str">
@@ -4475,10 +4475,10 @@
       </c>
       <c r="O20" s="58"/>
       <c r="P20" s="58" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
@@ -4492,7 +4492,7 @@
     </row>
     <row r="21" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="str">
-        <f>P21</f>
+        <f>P20</f>
         <v>Kiln</v>
       </c>
       <c r="C21" s="9" t="str">
@@ -4524,10 +4524,10 @@
         <v>64</v>
       </c>
       <c r="P21" s="58" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="Q21" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>58</v>
@@ -4538,7 +4538,7 @@
     </row>
     <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="str">
-        <f>P22</f>
+        <f>P19</f>
         <v>Boiler</v>
       </c>
       <c r="C22" s="9" t="s">
@@ -4565,28 +4565,12 @@
       <c r="J22" s="58">
         <v>0</v>
       </c>
-      <c r="N22" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="P22" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>116</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="T22" s="58" t="s">
-        <v>99</v>
-      </c>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
     </row>
     <row r="23" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="str">
-        <f>P23</f>
+        <f>P21</f>
         <v>CSP</v>
       </c>
       <c r="C23" s="9" t="str">
@@ -4614,24 +4598,8 @@
       <c r="J23" s="58">
         <v>0</v>
       </c>
-      <c r="N23" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="P23" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q23" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="T23" s="58" t="s">
-        <v>99</v>
-      </c>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
     </row>
     <row r="24" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C0122F-E410-4BCC-8224-A7EAD2EB1E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BEB04-566E-4D0C-90F5-264B61FA6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2177,7 +2177,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2309,9 +2309,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2939,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3109,15 +3106,23 @@
       <c r="G5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
+      <c r="M5" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
     </row>
     <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="21"/>
@@ -3130,10 +3135,10 @@
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>58</v>
@@ -3155,10 +3160,10 @@
       </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="Q7" s="19" t="s">
         <v>58</v>
@@ -3175,19 +3180,11 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="M8" s="19" t="s">
-        <v>59</v>
-      </c>
+      <c r="M8" s="19"/>
       <c r="N8" s="19"/>
-      <c r="O8" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P8" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>58</v>
-      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -3524,7 +3521,7 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="12" t="str">
-        <f>O7</f>
+        <f>O6</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="E26" s="1">
@@ -3560,7 +3557,7 @@
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="12" t="str">
-        <f>O8</f>
+        <f>O7</f>
         <v>MANGASMIN</v>
       </c>
       <c r="E27" s="1">
@@ -4391,7 +4388,7 @@
         <v>Boiler</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>PRI_Sector_Fuels!O7</f>
+        <f>PRI_Sector_Fuels!O6</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D19" s="56" t="s">
@@ -4444,7 +4441,7 @@
         <v>Boiler</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>PRI_Sector_Fuels!O8</f>
+        <f>PRI_Sector_Fuels!O7</f>
         <v>MANGASMIN</v>
       </c>
       <c r="D20" s="56" t="s">
@@ -4496,7 +4493,7 @@
         <v>Kiln</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>PRI_Sector_Fuels!O7</f>
+        <f>PRI_Sector_Fuels!O6</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="56" t="s">
@@ -4574,7 +4571,7 @@
         <v>CSP</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>PRI_Sector_Fuels!O6</f>
+        <f>PRI_Sector_Fuels!O5</f>
         <v>SOLTHT</v>
       </c>
       <c r="D23" s="56" t="s">
@@ -4656,7 +4653,7 @@
       <c r="Q26" s="8"/>
       <c r="R26" s="16"/>
       <c r="S26" s="16"/>
-      <c r="T26" s="68"/>
+      <c r="T26" s="67"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
     </row>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5BEB04-566E-4D0C-90F5-264B61FA6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFC529F-BBF3-4407-BFFE-F39B978A6435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1896,9 +1896,6 @@
   </si>
   <si>
     <t>Biomass boiler</t>
-  </si>
-  <si>
-    <t>Concentreted Solar thermal</t>
   </si>
   <si>
     <t>Boiler</t>
@@ -2936,7 +2933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -3890,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4420,7 +4417,7 @@
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="58" t="s">
         <v>113</v>
@@ -4472,10 +4469,10 @@
       </c>
       <c r="O20" s="58"/>
       <c r="P20" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
@@ -4517,15 +4514,6 @@
       <c r="J21" s="58">
         <v>0</v>
       </c>
-      <c r="N21" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="P21" s="58" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>114</v>
-      </c>
       <c r="R21" s="9" t="s">
         <v>58</v>
       </c>
@@ -4566,9 +4554,9 @@
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="str">
+      <c r="B23" s="9">
         <f>P21</f>
-        <v>CSP</v>
+        <v>0</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>PRI_Sector_Fuels!O5</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CFC529F-BBF3-4407-BFFE-F39B978A6435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC2462-0A99-4CDB-A301-51A32B683CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2933,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3887,8 +3887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21:Q21"/>
+    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4514,6 +4514,15 @@
       <c r="J21" s="58">
         <v>0</v>
       </c>
+      <c r="N21" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q21" s="58" t="s">
+        <v>79</v>
+      </c>
       <c r="R21" s="9" t="s">
         <v>58</v>
       </c>
@@ -4554,9 +4563,9 @@
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9">
+      <c r="B23" s="9" t="str">
         <f>P21</f>
-        <v>0</v>
+        <v>CSP</v>
       </c>
       <c r="C23" s="9" t="str">
         <f>PRI_Sector_Fuels!O5</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EC2462-0A99-4CDB-A301-51A32B683CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6161824-8FFB-45D2-A2F3-B982B05B8750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2934,7 +2934,7 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B30" sqref="B30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3652,17 +3652,16 @@
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>CSP</v>
-      </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="21">
         <v>2030</v>
       </c>
       <c r="F30" s="1"/>
@@ -3670,18 +3669,8 @@
       <c r="I30" s="36"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
-      <c r="M30" t="s">
-        <v>65</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>58</v>
-      </c>
+      <c r="O30" s="15"/>
+      <c r="P30" s="34"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6161824-8FFB-45D2-A2F3-B982B05B8750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81FAA6F-FDE1-4743-96C8-4AD28D90EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2174,7 +2174,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2309,6 +2309,9 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5 2" xfId="18" xr:uid="{4C3A48E2-3C46-4D12-9A64-54698D8BF8EE}"/>
@@ -2933,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3549,7 +3552,7 @@
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="str">
-        <f t="shared" ref="B27:B30" si="0">O27</f>
+        <f t="shared" ref="B27:B29" si="0">O27</f>
         <v>MINGAS</v>
       </c>
       <c r="C27" s="15"/>
@@ -3678,10 +3681,10 @@
       <c r="D31" s="12"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
+      <c r="H31" s="68"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
       <c r="O31" s="15"/>
       <c r="P31" s="34"/>
     </row>
@@ -3691,10 +3694,10 @@
       <c r="D32" s="12"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="68"/>
+      <c r="K32" s="68"/>
       <c r="O32" s="15"/>
       <c r="P32" s="34"/>
     </row>
@@ -3704,10 +3707,10 @@
       <c r="D33" s="12"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
       <c r="O33" s="15"/>
       <c r="P33" s="34"/>
     </row>
@@ -3717,10 +3720,10 @@
       <c r="D34" s="12"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
       <c r="O34" s="15"/>
       <c r="P34" s="34"/>
     </row>
@@ -3730,10 +3733,10 @@
       <c r="D35" s="12"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
+      <c r="H35" s="68"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="68"/>
+      <c r="K35" s="68"/>
       <c r="O35" s="15"/>
       <c r="P35" s="34"/>
     </row>
@@ -3742,10 +3745,10 @@
       <c r="D36" s="12"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="68"/>
+      <c r="K36" s="68"/>
       <c r="O36" s="15"/>
       <c r="P36" s="34"/>
     </row>
@@ -3754,10 +3757,10 @@
       <c r="D37" s="12"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="36"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="68"/>
+      <c r="K37" s="68"/>
       <c r="O37" s="15"/>
       <c r="P37" s="34"/>
     </row>
@@ -3766,10 +3769,10 @@
       <c r="D38" s="12"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
+      <c r="H38" s="68"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="68"/>
       <c r="O38" s="15"/>
       <c r="P38" s="34"/>
     </row>
@@ -3778,18 +3781,18 @@
       <c r="D39" s="12"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
+      <c r="H39" s="68"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="68"/>
       <c r="O39" s="15"/>
       <c r="P39" s="34"/>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H40" s="31"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="68"/>
       <c r="O40" s="15"/>
       <c r="P40" s="34"/>
     </row>
@@ -3798,40 +3801,32 @@
       <c r="C41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
       <c r="C42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="31">
-        <f>H28</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="36">
-        <v>8781</v>
-      </c>
-      <c r="J42" s="33">
-        <v>8.76</v>
-      </c>
-      <c r="K42" s="33"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="68"/>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H43" s="31">
-        <f>H29</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="36">
-        <v>151</v>
-      </c>
-      <c r="J43" s="33">
-        <v>8.76</v>
-      </c>
-      <c r="K43" s="33"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="68"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="H44" s="70"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
     </row>
     <row r="51" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81FAA6F-FDE1-4743-96C8-4AD28D90EB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E4BD6-BB88-4689-BA95-29956942A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
     <sheet name="DemTechs_INDF" sheetId="7" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
   </definedNames>
@@ -2647,6 +2650,66 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Energybalance history"/>
+      <sheetName val="Enrgy growth"/>
+      <sheetName val="TechnologydataTech"/>
+      <sheetName val="EBF TJ"/>
+      <sheetName val="EBF"/>
+      <sheetName val="RES&amp;OBJ"/>
+      <sheetName val="PRI_Sector_Fuels"/>
+      <sheetName val="DemTechs_INDF"/>
+      <sheetName val="Demands"/>
+      <sheetName val="Emi"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="4">
+          <cell r="D4">
+            <v>691</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>1041</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>3677</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>14003.99887968009</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>27575.997793920178</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -2936,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2949,7 +3012,7 @@
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="2" customWidth="1"/>
@@ -3528,7 +3591,10 @@
         <v>2030</v>
       </c>
       <c r="F26" s="1"/>
-      <c r="H26" s="31"/>
+      <c r="H26" s="31">
+        <f>[1]TechnologydataTech!$C$33/1000</f>
+        <v>14.00399887968009</v>
+      </c>
       <c r="I26" s="32"/>
       <c r="J26" s="33">
         <v>8.76</v>
@@ -3564,7 +3630,10 @@
         <v>2030</v>
       </c>
       <c r="F27" s="1"/>
-      <c r="H27" s="35"/>
+      <c r="H27" s="35">
+        <f>[1]TechnologydataTech!$C$34/1000</f>
+        <v>27.575997793920177</v>
+      </c>
       <c r="I27" s="36"/>
       <c r="J27" s="33">
         <v>8.76</v>
@@ -3601,7 +3670,10 @@
         <v>2030</v>
       </c>
       <c r="F28" s="1"/>
-      <c r="H28" s="31"/>
+      <c r="H28" s="31">
+        <f>[1]TechnologydataTech!$D$6*365*24/1000000000</f>
+        <v>9.1191599999999994E-3</v>
+      </c>
       <c r="I28" s="36"/>
       <c r="J28" s="33">
         <v>8.76</v>
@@ -3635,7 +3707,10 @@
         <v>2030</v>
       </c>
       <c r="F29" s="1"/>
-      <c r="H29" s="31"/>
+      <c r="H29" s="31">
+        <f>[1]TechnologydataTech!$D$4*365*24/1000000000</f>
+        <v>6.0531600000000001E-3</v>
+      </c>
       <c r="I29" s="36"/>
       <c r="J29" s="33">
         <v>8.76</v>
@@ -3668,7 +3743,10 @@
         <v>2030</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="H30" s="31"/>
+      <c r="H30" s="31">
+        <f>[1]TechnologydataTech!$D$12*365*24/1000000000</f>
+        <v>3.2210519999999999E-2</v>
+      </c>
       <c r="I30" s="36"/>
       <c r="J30" s="33"/>
       <c r="K30" s="33"/>
@@ -3871,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView topLeftCell="A3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4385,7 +4463,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I19" s="58">
         <v>50</v>
@@ -4438,7 +4516,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I20" s="58">
         <v>50</v>
@@ -4490,7 +4568,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="58">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="I21" s="58">
         <v>50</v>
@@ -4535,7 +4613,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I22" s="58">
         <v>50</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E4BD6-BB88-4689-BA95-29956942A70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A74492F-5CD6-4CDB-8549-029A9C730776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -2669,8 +2669,8 @@
       <sheetName val="Emi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="D4">
@@ -2698,13 +2698,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2999,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
@@ -3949,7 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A74492F-5CD6-4CDB-8549-029A9C730776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A4767-1498-415A-9926-D4D355577A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -2669,8 +2669,8 @@
       <sheetName val="Emi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="D4">
@@ -2698,13 +2698,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2999,8 +2999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3949,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4401,9 +4401,7 @@
       <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="57">
-        <v>1</v>
-      </c>
+      <c r="F18" s="57"/>
       <c r="G18" s="58">
         <v>1</v>
       </c>
@@ -4456,9 +4454,7 @@
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="57">
-        <v>1</v>
-      </c>
+      <c r="F19" s="57"/>
       <c r="G19" s="58">
         <v>1</v>
       </c>
@@ -4509,9 +4505,7 @@
       <c r="E20" s="17">
         <v>0</v>
       </c>
-      <c r="F20" s="57">
-        <v>1</v>
-      </c>
+      <c r="F20" s="57"/>
       <c r="G20" s="58">
         <v>1</v>
       </c>
@@ -4561,9 +4555,7 @@
       <c r="E21" s="17">
         <v>0</v>
       </c>
-      <c r="F21" s="57">
-        <v>1</v>
-      </c>
+      <c r="F21" s="57"/>
       <c r="G21" s="58">
         <v>1</v>
       </c>
@@ -4606,9 +4598,7 @@
       <c r="E22" s="17">
         <v>0</v>
       </c>
-      <c r="F22" s="57">
-        <v>1</v>
-      </c>
+      <c r="F22" s="57"/>
       <c r="G22" s="58">
         <v>1</v>
       </c>
@@ -4639,9 +4629,7 @@
       <c r="E23" s="17">
         <v>0</v>
       </c>
-      <c r="F23" s="57">
-        <v>1</v>
-      </c>
+      <c r="F23" s="57"/>
       <c r="G23" s="58">
         <v>1</v>
       </c>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D34A4767-1498-415A-9926-D4D355577A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396754A2-CF6F-4D8E-903C-3A23765B50E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1905,6 +1905,27 @@
   </si>
   <si>
     <t>Kiln</t>
+  </si>
+  <si>
+    <t>Wind Energy</t>
+  </si>
+  <si>
+    <t>Solar Energy</t>
+  </si>
+  <si>
+    <t>MINWIND</t>
+  </si>
+  <si>
+    <t>MINSOL</t>
+  </si>
+  <si>
+    <t>Solar radation-domestic</t>
+  </si>
+  <si>
+    <t>Wind Supply-domestic</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1936,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2035,6 +2056,12 @@
       <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2177,7 +2204,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2315,6 +2342,14 @@
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="20" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5 2" xfId="18" xr:uid="{4C3A48E2-3C46-4D12-9A64-54698D8BF8EE}"/>
@@ -2669,8 +2704,8 @@
       <sheetName val="Emi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="D4">
@@ -2698,13 +2733,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2999,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3243,11 +3278,19 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
+      <c r="M8" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" s="72" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="72" t="s">
+        <v>58</v>
+      </c>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -3260,11 +3303,19 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
+      <c r="M9" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q9" s="72" t="s">
+        <v>58</v>
+      </c>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -3660,8 +3711,9 @@
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>74</v>
+      <c r="C28" s="15" t="str">
+        <f>O8</f>
+        <v>WIND</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>70</v>
@@ -3697,8 +3749,9 @@
         <f t="shared" si="0"/>
         <v>SOLPV</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>63</v>
+      <c r="C29" s="15" t="str">
+        <f>O9</f>
+        <v>SOLAR</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>70</v>
@@ -3733,8 +3786,9 @@
       <c r="B30" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="19" t="s">
-        <v>63</v>
+      <c r="C30" s="19" t="str">
+        <f>O9</f>
+        <v>SOLAR</v>
       </c>
       <c r="D30" s="19" t="s">
         <v>71</v>
@@ -3748,33 +3802,83 @@
         <v>3.2210519999999999E-2</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="33"/>
+      <c r="J30" s="33">
+        <v>8.76</v>
+      </c>
       <c r="K30" s="33"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="34"/>
+      <c r="M30" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="71"/>
+      <c r="O30" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q30" s="71" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="H31" s="68"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="68"/>
+      <c r="B31" s="72" t="str">
+        <f>O30</f>
+        <v>MINWIND</v>
+      </c>
+      <c r="C31" s="72"/>
+      <c r="D31" s="72" t="str">
+        <f>O8</f>
+        <v>WIND</v>
+      </c>
+      <c r="E31" s="71">
+        <v>2030</v>
+      </c>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="74">
+        <v>0</v>
+      </c>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76">
+        <v>8.76</v>
+      </c>
       <c r="K31" s="68"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="34"/>
+      <c r="M31" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="N31" s="71"/>
+      <c r="O31" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="P31" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q31" s="71" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="68"/>
+      <c r="B32" s="72" t="str">
+        <f>O31</f>
+        <v>MINSOL</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72" t="str">
+        <f>O9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E32" s="71">
+        <v>2030</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="71"/>
+      <c r="H32" s="74">
+        <v>0</v>
+      </c>
+      <c r="I32" s="75"/>
+      <c r="J32" s="76">
+        <v>8.76</v>
+      </c>
       <c r="K32" s="68"/>
       <c r="O32" s="15"/>
       <c r="P32" s="34"/>
@@ -3949,8 +4053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396754A2-CF6F-4D8E-903C-3A23765B50E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E200500-3CAB-44B1-A7CE-2C484D620D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="123">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1838,9 +1838,6 @@
     <t>STOCK</t>
   </si>
   <si>
-    <t>Share-I~UP</t>
-  </si>
-  <si>
     <t>Existing Installed Capacity</t>
   </si>
   <si>
@@ -1926,15 +1923,31 @@
   </si>
   <si>
     <t>SOLAR</t>
+  </si>
+  <si>
+    <r>
+      <t>Share-I~UP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~2030</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2204,7 +2217,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2350,6 +2363,7 @@
     <xf numFmtId="2" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="20" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5 2" xfId="18" xr:uid="{4C3A48E2-3C46-4D12-9A64-54698D8BF8EE}"/>
@@ -2704,8 +2718,8 @@
       <sheetName val="Emi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="D4">
@@ -2733,13 +2747,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3035,7 +3049,7 @@
   <dimension ref="A1:V53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3261,7 +3275,7 @@
         <v>68</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="19" t="s">
         <v>58</v>
@@ -3286,7 +3300,7 @@
         <v>74</v>
       </c>
       <c r="P8" s="72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q8" s="72" t="s">
         <v>58</v>
@@ -3308,10 +3322,10 @@
       </c>
       <c r="N9" s="72"/>
       <c r="O9" s="72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P9" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q9" s="72" t="s">
         <v>58</v>
@@ -3553,7 +3567,9 @@
       <c r="D24" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="25"/>
+      <c r="E24" s="25" t="s">
+        <v>54</v>
+      </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25" t="s">
         <v>83</v>
@@ -3735,10 +3751,10 @@
         <v>70</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
@@ -3773,10 +3789,10 @@
         <v>70</v>
       </c>
       <c r="O29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P29" s="34" t="s">
         <v>106</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>107</v>
       </c>
       <c r="Q29" t="s">
         <v>58</v>
@@ -3797,7 +3813,7 @@
         <v>2030</v>
       </c>
       <c r="F30" s="1"/>
-      <c r="H30" s="31">
+      <c r="H30" s="77">
         <f>[1]TechnologydataTech!$D$12*365*24/1000000000</f>
         <v>3.2210519999999999E-2</v>
       </c>
@@ -3811,10 +3827,10 @@
       </c>
       <c r="N30" s="71"/>
       <c r="O30" s="72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P30" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q30" s="71" t="s">
         <v>58</v>
@@ -3848,10 +3864,10 @@
       </c>
       <c r="N31" s="71"/>
       <c r="O31" s="72" t="s">
+        <v>118</v>
+      </c>
+      <c r="P31" s="73" t="s">
         <v>119</v>
-      </c>
-      <c r="P31" s="73" t="s">
-        <v>120</v>
       </c>
       <c r="Q31" s="71" t="s">
         <v>58</v>
@@ -4053,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4105,10 +4121,10 @@
     </row>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>111</v>
       </c>
       <c r="D2" s="39" t="str">
         <f>"Demand Technologies"</f>
@@ -4118,11 +4134,11 @@
         <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>7</v>
@@ -4350,7 +4366,7 @@
         <v>92</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>16</v>
@@ -4408,10 +4424,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>94</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>95</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>35</v>
@@ -4423,7 +4439,7 @@
         <v>57</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>37</v>
@@ -4465,7 +4481,7 @@
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -4513,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="58">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J18" s="58">
         <v>0</v>
@@ -4529,16 +4545,16 @@
         <v>67</v>
       </c>
       <c r="Q18" s="58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T18" s="59" t="s">
         <v>98</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>99</v>
       </c>
       <c r="U18" s="58"/>
       <c r="V18" s="58"/>
@@ -4560,13 +4576,13 @@
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="H19" s="58">
         <v>1</v>
       </c>
-      <c r="H19" s="58">
-        <v>0.8</v>
-      </c>
       <c r="I19" s="58">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J19" s="58">
         <v>0</v>
@@ -4579,16 +4595,16 @@
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T19" s="58"/>
       <c r="U19" s="58"/>
@@ -4611,13 +4627,13 @@
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="58">
         <v>1</v>
       </c>
-      <c r="H20" s="58">
-        <v>0.8</v>
-      </c>
       <c r="I20" s="58">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J20" s="58">
         <v>0</v>
@@ -4629,16 +4645,16 @@
       </c>
       <c r="O20" s="58"/>
       <c r="P20" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T20" s="58"/>
       <c r="U20" s="58"/>
@@ -4661,13 +4677,13 @@
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H21" s="58">
         <v>1</v>
       </c>
-      <c r="H21" s="58">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="I21" s="58">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J21" s="58">
         <v>0</v>
@@ -4685,7 +4701,7 @@
         <v>58</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
@@ -4707,10 +4723,10 @@
         <v>1</v>
       </c>
       <c r="H22" s="58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I22" s="58">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J22" s="58">
         <v>0</v>
@@ -4741,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="58">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J23" s="58">
         <v>0</v>
@@ -4836,16 +4852,16 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="H31" s="63"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F33" s="8">
         <f>24*365</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E200500-3CAB-44B1-A7CE-2C484D620D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDB1755-8B97-44EB-9841-D63E06CB5237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -3048,7 +3048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -4069,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDB1755-8B97-44EB-9841-D63E06CB5237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B04FE8D-3B3E-4906-82CC-51C09EF5F84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="128">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1856,9 +1856,6 @@
     <t>DayNite</t>
   </si>
   <si>
-    <t>Electricity to MANHEAT</t>
-  </si>
-  <si>
     <t>GW per annum</t>
   </si>
   <si>
@@ -1896,12 +1893,6 @@
   </si>
   <si>
     <t>Biomass boiler</t>
-  </si>
-  <si>
-    <t>Boiler</t>
-  </si>
-  <si>
-    <t>Kiln</t>
   </si>
   <si>
     <t>Wind Energy</t>
@@ -1938,6 +1929,30 @@
       </rPr>
       <t>~2030</t>
     </r>
+  </si>
+  <si>
+    <t>BIOBoiler</t>
+  </si>
+  <si>
+    <t>BIOKiln</t>
+  </si>
+  <si>
+    <t>GASBoiler</t>
+  </si>
+  <si>
+    <t>Gas boiler</t>
+  </si>
+  <si>
+    <t>ELCBoiler</t>
+  </si>
+  <si>
+    <t>Electricity boiler</t>
+  </si>
+  <si>
+    <t>Biomass kiln</t>
+  </si>
+  <si>
+    <t>Industrial heat supplier using electricity</t>
   </si>
 </sst>
 </file>
@@ -3048,7 +3063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
@@ -3275,7 +3290,7 @@
         <v>68</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Q7" s="19" t="s">
         <v>58</v>
@@ -3300,7 +3315,7 @@
         <v>74</v>
       </c>
       <c r="P8" s="72" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="72" t="s">
         <v>58</v>
@@ -3322,10 +3337,10 @@
       </c>
       <c r="N9" s="72"/>
       <c r="O9" s="72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P9" s="72" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q9" s="72" t="s">
         <v>58</v>
@@ -3751,10 +3766,10 @@
         <v>70</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
@@ -3789,10 +3804,10 @@
         <v>70</v>
       </c>
       <c r="O29" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="P29" s="34" t="s">
         <v>105</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>106</v>
       </c>
       <c r="Q29" t="s">
         <v>58</v>
@@ -3827,10 +3842,10 @@
       </c>
       <c r="N30" s="71"/>
       <c r="O30" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="P30" s="73" t="s">
         <v>117</v>
-      </c>
-      <c r="P30" s="73" t="s">
-        <v>120</v>
       </c>
       <c r="Q30" s="71" t="s">
         <v>58</v>
@@ -3864,10 +3879,10 @@
       </c>
       <c r="N31" s="71"/>
       <c r="O31" s="72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="P31" s="73" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q31" s="71" t="s">
         <v>58</v>
@@ -4070,7 +4085,7 @@
   <dimension ref="B1:V34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4121,10 +4136,10 @@
     </row>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="D2" s="39" t="str">
         <f>"Demand Technologies"</f>
@@ -4134,11 +4149,11 @@
         <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>7</v>
@@ -4366,7 +4381,7 @@
         <v>92</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>16</v>
@@ -4545,7 +4560,7 @@
         <v>67</v>
       </c>
       <c r="Q18" s="58" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>58</v>
@@ -4562,7 +4577,7 @@
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="str">
         <f>P$19</f>
-        <v>Boiler</v>
+        <v>BIOBoiler</v>
       </c>
       <c r="C19" s="9" t="str">
         <f>PRI_Sector_Fuels!O6</f>
@@ -4595,10 +4610,10 @@
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>58</v>
@@ -4612,8 +4627,8 @@
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="str">
-        <f>P$19</f>
-        <v>Boiler</v>
+        <f>P22</f>
+        <v>GASBoiler</v>
       </c>
       <c r="C20" s="9" t="str">
         <f>PRI_Sector_Fuels!O7</f>
@@ -4645,10 +4660,10 @@
       </c>
       <c r="O20" s="58"/>
       <c r="P20" s="58" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
@@ -4663,7 +4678,7 @@
     <row r="21" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="str">
         <f>P20</f>
-        <v>Kiln</v>
+        <v>BIOKiln</v>
       </c>
       <c r="C21" s="9" t="str">
         <f>PRI_Sector_Fuels!O6</f>
@@ -4706,8 +4721,8 @@
     </row>
     <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="str">
-        <f>P19</f>
-        <v>Boiler</v>
+        <f>P23</f>
+        <v>ELCBoiler</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>70</v>
@@ -4730,6 +4745,15 @@
       </c>
       <c r="J22" s="58">
         <v>0</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>123</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
@@ -4761,6 +4785,15 @@
       </c>
       <c r="J23" s="58">
         <v>0</v>
+      </c>
+      <c r="N23" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="58" t="s">
+        <v>125</v>
       </c>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
@@ -4852,16 +4885,16 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="H31" s="63"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F33" s="8">
         <f>24*365</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B04FE8D-3B3E-4906-82CC-51C09EF5F84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4A80B3-68DC-40C9-B2B5-E51869C45181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1791,9 +1791,6 @@
   </si>
   <si>
     <t>Ngas</t>
-  </si>
-  <si>
-    <t>SOLTHT</t>
   </si>
   <si>
     <t>Solar thermal</t>
@@ -3063,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3121,7 +3118,7 @@
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>7</v>
@@ -3147,7 +3144,7 @@
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>8</v>
@@ -3189,7 +3186,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>43</v>
@@ -3231,17 +3228,17 @@
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>59</v>
       </c>
       <c r="N5" s="19"/>
       <c r="O5" s="19" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="19" t="s">
         <v>58</v>
@@ -3262,10 +3259,10 @@
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>58</v>
@@ -3282,17 +3279,17 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q7" s="19" t="s">
+      <c r="N7" s="72"/>
+      <c r="O7" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="72" t="s">
         <v>58</v>
       </c>
       <c r="R7" s="19"/>
@@ -3312,7 +3309,7 @@
       </c>
       <c r="N8" s="72"/>
       <c r="O8" s="72" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="P8" s="72" t="s">
         <v>112</v>
@@ -3332,19 +3329,11 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="M9" s="72" t="s">
-        <v>59</v>
-      </c>
+      <c r="M9" s="72"/>
       <c r="N9" s="72"/>
-      <c r="O9" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q9" s="72" t="s">
-        <v>58</v>
-      </c>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
@@ -3532,13 +3521,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="I23" s="24" t="s">
         <v>81</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>82</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>56</v>
@@ -3587,16 +3576,16 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="I24" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="J24" s="26" t="s">
         <v>85</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>86</v>
       </c>
       <c r="K24" s="26"/>
       <c r="M24" s="20" t="s">
@@ -3640,7 +3629,7 @@
         <v>GWh</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>58</v>
@@ -3648,7 +3637,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="M25" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
@@ -3666,7 +3655,7 @@
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="12" t="str">
-        <f>O6</f>
+        <f>O5</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="E26" s="1">
@@ -3705,7 +3694,7 @@
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="12" t="str">
-        <f>O7</f>
+        <f>O6</f>
         <v>MANGASMIN</v>
       </c>
       <c r="E27" s="1">
@@ -3743,7 +3732,7 @@
         <v>WNDTRBN</v>
       </c>
       <c r="C28" s="15" t="str">
-        <f>O8</f>
+        <f>O7</f>
         <v>WIND</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -3766,10 +3755,10 @@
         <v>70</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
@@ -3781,7 +3770,7 @@
         <v>SOLPV</v>
       </c>
       <c r="C29" s="15" t="str">
-        <f>O9</f>
+        <f>O8</f>
         <v>SOLAR</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -3804,10 +3793,10 @@
         <v>70</v>
       </c>
       <c r="O29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="P29" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>105</v>
       </c>
       <c r="Q29" t="s">
         <v>58</v>
@@ -3818,7 +3807,7 @@
         <v>66</v>
       </c>
       <c r="C30" s="19" t="str">
-        <f>O9</f>
+        <f>O8</f>
         <v>SOLAR</v>
       </c>
       <c r="D30" s="19" t="s">
@@ -3842,10 +3831,10 @@
       </c>
       <c r="N30" s="71"/>
       <c r="O30" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P30" s="73" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q30" s="71" t="s">
         <v>58</v>
@@ -3858,7 +3847,7 @@
       </c>
       <c r="C31" s="72"/>
       <c r="D31" s="72" t="str">
-        <f>O8</f>
+        <f>O7</f>
         <v>WIND</v>
       </c>
       <c r="E31" s="71">
@@ -3879,10 +3868,10 @@
       </c>
       <c r="N31" s="71"/>
       <c r="O31" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="P31" s="73" t="s">
         <v>115</v>
-      </c>
-      <c r="P31" s="73" t="s">
-        <v>116</v>
       </c>
       <c r="Q31" s="71" t="s">
         <v>58</v>
@@ -3895,7 +3884,7 @@
       </c>
       <c r="C32" s="72"/>
       <c r="D32" s="72" t="str">
-        <f>O9</f>
+        <f>O8</f>
         <v>SOLAR</v>
       </c>
       <c r="E32" s="71">
@@ -4012,7 +4001,7 @@
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="69"/>
@@ -4022,7 +4011,7 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H42" s="68"/>
       <c r="I42" s="69"/>
@@ -4084,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4131,15 +4120,15 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="D2" s="39" t="str">
         <f>"Demand Technologies"</f>
@@ -4149,11 +4138,11 @@
         <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>7</v>
@@ -4378,10 +4367,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>16</v>
@@ -4439,10 +4428,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>93</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>94</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>35</v>
@@ -4454,7 +4443,7 @@
         <v>57</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>37</v>
@@ -4496,7 +4485,7 @@
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -4505,13 +4494,13 @@
         <v>54</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
       <c r="N17" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
@@ -4547,7 +4536,7 @@
         <v>30</v>
       </c>
       <c r="J18" s="58">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="K18" s="58"/>
       <c r="L18" s="55"/>
@@ -4560,16 +4549,16 @@
         <v>67</v>
       </c>
       <c r="Q18" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S18" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="T18" s="59" t="s">
         <v>97</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>98</v>
       </c>
       <c r="U18" s="58"/>
       <c r="V18" s="58"/>
@@ -4580,7 +4569,7 @@
         <v>BIOBoiler</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>PRI_Sector_Fuels!O6</f>
+        <f>PRI_Sector_Fuels!O5</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D19" s="56" t="s">
@@ -4600,7 +4589,7 @@
         <v>20</v>
       </c>
       <c r="J19" s="58">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="K19" s="58"/>
       <c r="L19" s="55"/>
@@ -4610,16 +4599,16 @@
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q19" s="58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T19" s="58"/>
       <c r="U19" s="58"/>
@@ -4631,7 +4620,7 @@
         <v>GASBoiler</v>
       </c>
       <c r="C20" s="9" t="str">
-        <f>PRI_Sector_Fuels!O7</f>
+        <f>PRI_Sector_Fuels!O6</f>
         <v>MANGASMIN</v>
       </c>
       <c r="D20" s="56" t="s">
@@ -4651,7 +4640,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="58">
-        <v>0</v>
+        <v>2121</v>
       </c>
       <c r="K20" s="58"/>
       <c r="L20" s="55"/>
@@ -4660,16 +4649,16 @@
       </c>
       <c r="O20" s="58"/>
       <c r="P20" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T20" s="58"/>
       <c r="U20" s="58"/>
@@ -4681,7 +4670,7 @@
         <v>BIOKiln</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>PRI_Sector_Fuels!O6</f>
+        <f>PRI_Sector_Fuels!O5</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="56" t="s">
@@ -4701,7 +4690,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="58">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N21" s="58" t="s">
         <v>64</v>
@@ -4710,13 +4699,13 @@
         <v>66</v>
       </c>
       <c r="Q21" s="58" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
@@ -4744,16 +4733,16 @@
         <v>25</v>
       </c>
       <c r="J22" s="58">
-        <v>0</v>
+        <v>2145</v>
       </c>
       <c r="N22" s="58" t="s">
         <v>64</v>
       </c>
       <c r="P22" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="58" t="s">
         <v>122</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>123</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
@@ -4764,8 +4753,8 @@
         <v>CSP</v>
       </c>
       <c r="C23" s="9" t="str">
-        <f>PRI_Sector_Fuels!O5</f>
-        <v>SOLTHT</v>
+        <f>PRI_Sector_Fuels!O8</f>
+        <v>SOLAR</v>
       </c>
       <c r="D23" s="56" t="s">
         <v>71</v>
@@ -4790,10 +4779,10 @@
         <v>64</v>
       </c>
       <c r="P23" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q23" s="58" t="s">
         <v>124</v>
-      </c>
-      <c r="Q23" s="58" t="s">
-        <v>125</v>
       </c>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
@@ -4872,29 +4861,29 @@
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="55"/>
       <c r="C29" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="64"/>
       <c r="C30" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>100</v>
       </c>
       <c r="H31" s="63"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F33" s="8">
         <f>24*365</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4A80B3-68DC-40C9-B2B5-E51869C45181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E0B5E1-789F-4116-A7AA-8B8D6CA57691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -2730,8 +2730,8 @@
       <sheetName val="Emi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="D4">
@@ -2759,13 +2759,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3060,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
@@ -4073,8 +4073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E0B5E1-789F-4116-A7AA-8B8D6CA57691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425BA57E-1CE9-4EEE-B3EA-66A3C20DFBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2730,8 +2730,8 @@
       <sheetName val="Emi"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="4">
           <cell r="D4">
@@ -2759,13 +2759,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425BA57E-1CE9-4EEE-B3EA-66A3C20DFBCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E81AE8-59BD-4370-996C-0013863406E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1950,6 +1950,9 @@
   </si>
   <si>
     <t>Industrial heat supplier using electricity</t>
+  </si>
+  <si>
+    <t>PHEAT</t>
   </si>
 </sst>
 </file>
@@ -3060,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="U37" sqref="U37"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3763,6 +3766,9 @@
       <c r="Q28" t="s">
         <v>58</v>
       </c>
+      <c r="S28" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="12" t="str">
@@ -3801,6 +3807,9 @@
       <c r="Q29" t="s">
         <v>58</v>
       </c>
+      <c r="S29" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
@@ -3811,7 +3820,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="E30" s="21">
         <v>2030</v>
@@ -4073,7 +4082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E81AE8-59BD-4370-996C-0013863406E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012BAB7-1228-4B52-9310-A0B60ACCD1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1770,9 +1770,6 @@
   </si>
   <si>
     <t>ELC</t>
-  </si>
-  <si>
-    <t>MANHEAT</t>
   </si>
   <si>
     <t>Commodity</t>
@@ -3063,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
@@ -3096,13 +3093,13 @@
         <v>38</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7" t="s">
@@ -3111,17 +3108,17 @@
     </row>
     <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>7</v>
@@ -3140,14 +3137,14 @@
         <v>63</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>8</v>
@@ -3189,7 +3186,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>43</v>
@@ -3224,14 +3221,14 @@
         <v>60</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>59</v>
@@ -3265,7 +3262,7 @@
         <v>68</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>58</v>
@@ -3287,10 +3284,10 @@
       </c>
       <c r="N7" s="72"/>
       <c r="O7" s="72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P7" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="72" t="s">
         <v>58</v>
@@ -3312,10 +3309,10 @@
       </c>
       <c r="N8" s="72"/>
       <c r="O8" s="72" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P8" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="72" t="s">
         <v>58</v>
@@ -3524,13 +3521,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="I23" s="24" t="s">
         <v>80</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>81</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>56</v>
@@ -3579,16 +3576,16 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="I24" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="J24" s="26" t="s">
         <v>84</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>85</v>
       </c>
       <c r="K24" s="26"/>
       <c r="M24" s="20" t="s">
@@ -3632,7 +3629,7 @@
         <v>GWh</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>58</v>
@@ -3640,7 +3637,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="M25" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
@@ -3758,16 +3755,16 @@
         <v>70</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
@@ -3799,16 +3796,16 @@
         <v>70</v>
       </c>
       <c r="O29" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" s="34" t="s">
         <v>103</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>104</v>
       </c>
       <c r="Q29" t="s">
         <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
@@ -3820,7 +3817,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" s="21">
         <v>2030</v>
@@ -3840,10 +3837,10 @@
       </c>
       <c r="N30" s="71"/>
       <c r="O30" s="72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P30" s="73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q30" s="71" t="s">
         <v>58</v>
@@ -3877,10 +3874,10 @@
       </c>
       <c r="N31" s="71"/>
       <c r="O31" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="P31" s="73" t="s">
         <v>114</v>
-      </c>
-      <c r="P31" s="73" t="s">
-        <v>115</v>
       </c>
       <c r="Q31" s="71" t="s">
         <v>58</v>
@@ -4010,7 +4007,7 @@
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="69"/>
@@ -4020,7 +4017,7 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
       <c r="C42" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H42" s="68"/>
       <c r="I42" s="69"/>
@@ -4082,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4122,22 +4119,22 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D2" s="39" t="str">
         <f>"Demand Technologies"</f>
@@ -4147,11 +4144,11 @@
         <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>7</v>
@@ -4376,10 +4373,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>16</v>
@@ -4437,10 +4434,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>93</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>35</v>
@@ -4452,7 +4449,7 @@
         <v>57</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>37</v>
@@ -4494,7 +4491,7 @@
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="52" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -4503,13 +4500,13 @@
         <v>54</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
       <c r="N17" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
@@ -4529,7 +4526,7 @@
         <v>70</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -4558,16 +4555,16 @@
         <v>67</v>
       </c>
       <c r="Q18" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="T18" s="59" t="s">
         <v>96</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>97</v>
       </c>
       <c r="U18" s="58"/>
       <c r="V18" s="58"/>
@@ -4582,7 +4579,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -4608,16 +4605,16 @@
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T19" s="58"/>
       <c r="U19" s="58"/>
@@ -4633,7 +4630,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
@@ -4658,16 +4655,16 @@
       </c>
       <c r="O20" s="58"/>
       <c r="P20" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T20" s="58"/>
       <c r="U20" s="58"/>
@@ -4683,7 +4680,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -4708,13 +4705,13 @@
         <v>66</v>
       </c>
       <c r="Q21" s="58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
@@ -4726,7 +4723,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -4748,10 +4745,10 @@
         <v>64</v>
       </c>
       <c r="P22" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="58" t="s">
         <v>121</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>122</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
@@ -4766,7 +4763,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>71</v>
+        <v>126</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>
@@ -4788,10 +4785,10 @@
         <v>64</v>
       </c>
       <c r="P23" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="58" t="s">
         <v>123</v>
-      </c>
-      <c r="Q23" s="58" t="s">
-        <v>124</v>
       </c>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
@@ -4870,29 +4867,29 @@
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="55"/>
       <c r="C29" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H29" s="63"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="64"/>
       <c r="C30" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="63"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="E31" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="H31" s="63"/>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E33" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F33" s="8">
         <f>24*365</f>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0012BAB7-1228-4B52-9310-A0B60ACCD1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254B9C2E-0AD6-4733-B6C0-213D18ECFF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1950,6 +1950,9 @@
   </si>
   <si>
     <t>PHEAT</t>
+  </si>
+  <si>
+    <t>MANHEAT</t>
   </si>
 </sst>
 </file>
@@ -4079,8 +4082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4526,7 +4529,7 @@
         <v>70</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -4579,7 +4582,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -4630,7 +4633,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
@@ -4680,7 +4683,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -4723,7 +4726,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -4763,7 +4766,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254B9C2E-0AD6-4733-B6C0-213D18ECFF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412570E9-04F6-4D88-9707-6CEDE3BB513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1947,9 +1947,6 @@
   </si>
   <si>
     <t>Industrial heat supplier using electricity</t>
-  </si>
-  <si>
-    <t>PHEAT</t>
   </si>
   <si>
     <t>MANHEAT</t>
@@ -3063,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4082,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:D23"/>
+    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4529,7 +4526,7 @@
         <v>70</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -4582,7 +4579,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D19" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -4633,7 +4630,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D20" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
@@ -4683,7 +4680,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -4726,7 +4723,7 @@
         <v>70</v>
       </c>
       <c r="D22" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -4766,7 +4763,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D23" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412570E9-04F6-4D88-9707-6CEDE3BB513D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D81431-89D0-40DC-9113-195B0887EAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="135">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1749,9 +1749,6 @@
   </si>
   <si>
     <t>SOL</t>
-  </si>
-  <si>
-    <t>DMD</t>
   </si>
   <si>
     <t>MIN</t>
@@ -1950,6 +1947,33 @@
   </si>
   <si>
     <t>MANHEAT</t>
+  </si>
+  <si>
+    <t>Manufacturing heat from Solar</t>
+  </si>
+  <si>
+    <t>HEAT</t>
+  </si>
+  <si>
+    <t>ELCHEAT</t>
+  </si>
+  <si>
+    <t>BIOKHEAT</t>
+  </si>
+  <si>
+    <t>SOLHEAT</t>
+  </si>
+  <si>
+    <t>BIOBHEAT</t>
+  </si>
+  <si>
+    <t>GASBHEAT</t>
+  </si>
+  <si>
+    <t>PHEAT</t>
+  </si>
+  <si>
+    <t>ELCHEAT,BIOBHEAT,GASBHEAT,BIOKHEAT,SOLHEAT</t>
   </si>
 </sst>
 </file>
@@ -2534,13 +2558,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3060,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3093,13 +3117,13 @@
         <v>38</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="7" t="s">
@@ -3108,17 +3132,17 @@
     </row>
     <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>74</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>7</v>
@@ -3137,14 +3161,14 @@
         <v>63</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E3" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="21"/>
       <c r="G3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>8</v>
@@ -3186,7 +3210,7 @@
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M4" s="20" t="s">
         <v>43</v>
@@ -3221,21 +3245,21 @@
         <v>60</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F5" s="21"/>
       <c r="G5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M5" s="19" t="s">
         <v>59</v>
       </c>
       <c r="N5" s="19"/>
       <c r="O5" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P5" s="19" t="s">
         <v>62</v>
@@ -3259,10 +3283,10 @@
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P6" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>58</v>
@@ -3284,10 +3308,10 @@
       </c>
       <c r="N7" s="72"/>
       <c r="O7" s="72" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P7" s="72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="72" t="s">
         <v>58</v>
@@ -3309,10 +3333,10 @@
       </c>
       <c r="N8" s="72"/>
       <c r="O8" s="72" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P8" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="72" t="s">
         <v>58</v>
@@ -3521,13 +3545,13 @@
         <v>11</v>
       </c>
       <c r="G23" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="I23" s="24" t="s">
         <v>79</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="J23" s="24" t="s">
         <v>56</v>
@@ -3576,16 +3600,16 @@
       </c>
       <c r="F24" s="25"/>
       <c r="G24" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="I24" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="J24" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="K24" s="26"/>
       <c r="M24" s="20" t="s">
@@ -3629,7 +3653,7 @@
         <v>GWh</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I25" s="27" t="s">
         <v>58</v>
@@ -3637,7 +3661,7 @@
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
       <c r="M25" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N25" s="29"/>
       <c r="O25" s="29"/>
@@ -3672,7 +3696,7 @@
       </c>
       <c r="K26" s="33"/>
       <c r="M26" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N26" s="21"/>
       <c r="O26" s="19" t="str">
@@ -3711,7 +3735,7 @@
       </c>
       <c r="K27" s="33"/>
       <c r="M27" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N27" s="21"/>
       <c r="O27" s="19" t="str">
@@ -3736,7 +3760,7 @@
         <v>WIND</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1">
         <v>2030</v>
@@ -3752,19 +3776,19 @@
       </c>
       <c r="K28" s="33"/>
       <c r="M28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O28" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P28" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q28" t="s">
         <v>58</v>
       </c>
       <c r="S28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.2">
@@ -3777,7 +3801,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1">
         <v>2030</v>
@@ -3793,31 +3817,32 @@
       </c>
       <c r="K29" s="33"/>
       <c r="M29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O29" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="34" t="s">
         <v>102</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>103</v>
       </c>
       <c r="Q29" t="s">
         <v>58</v>
       </c>
       <c r="S29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="s">
-        <v>66</v>
+      <c r="B30" s="19" t="str">
+        <f>O32</f>
+        <v>CSP</v>
       </c>
       <c r="C30" s="19" t="str">
         <f>O8</f>
         <v>SOLAR</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="21">
         <v>2030</v>
@@ -3833,14 +3858,14 @@
       </c>
       <c r="K30" s="33"/>
       <c r="M30" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N30" s="71"/>
       <c r="O30" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P30" s="73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q30" s="71" t="s">
         <v>58</v>
@@ -3870,14 +3895,14 @@
       </c>
       <c r="K31" s="68"/>
       <c r="M31" s="71" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N31" s="71"/>
       <c r="O31" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="P31" s="73" t="s">
         <v>113</v>
-      </c>
-      <c r="P31" s="73" t="s">
-        <v>114</v>
       </c>
       <c r="Q31" s="71" t="s">
         <v>58</v>
@@ -3906,8 +3931,21 @@
         <v>8.76</v>
       </c>
       <c r="K32" s="68"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="34"/>
+      <c r="M32" t="s">
+        <v>127</v>
+      </c>
+      <c r="O32" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>58</v>
+      </c>
+      <c r="S32" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
@@ -4007,7 +4045,7 @@
     <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B41" s="30"/>
       <c r="C41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" s="68"/>
       <c r="I41" s="69"/>
@@ -4017,7 +4055,7 @@
     <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B42" s="38"/>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H42" s="68"/>
       <c r="I42" s="69"/>
@@ -4077,17 +4115,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:V34"/>
+  <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="8" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.140625" style="8" bestFit="1" customWidth="1"/>
@@ -4119,22 +4157,22 @@
         <v>40</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>41</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="D2" s="39" t="str">
         <f>"Demand Technologies"</f>
@@ -4144,11 +4182,11 @@
         <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>7</v>
@@ -4233,11 +4271,17 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
+      <c r="N5" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="66" t="s">
+        <v>58</v>
+      </c>
       <c r="S5" s="66"/>
       <c r="T5" s="66"/>
       <c r="U5" s="66"/>
@@ -4250,11 +4294,17 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="N6" s="16"/>
+      <c r="N6" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="P6" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
+      <c r="R6" s="66" t="s">
+        <v>58</v>
+      </c>
       <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
@@ -4267,11 +4317,17 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="N7" s="16"/>
+      <c r="N7" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="P7" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
+      <c r="R7" s="66" t="s">
+        <v>58</v>
+      </c>
       <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
@@ -4284,22 +4340,34 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="N8" s="16"/>
+      <c r="N8" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="P8" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
+      <c r="R8" s="66" t="s">
+        <v>58</v>
+      </c>
       <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N9" s="16"/>
+      <c r="N9" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
+      <c r="P9" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="R9" s="66" t="s">
+        <v>58</v>
+      </c>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
@@ -4373,10 +4441,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>16</v>
@@ -4434,10 +4502,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" s="48" t="s">
         <v>91</v>
-      </c>
-      <c r="F16" s="48" t="s">
-        <v>92</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>35</v>
@@ -4449,7 +4517,7 @@
         <v>57</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>37</v>
@@ -4491,7 +4559,7 @@
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
       <c r="E17" s="52" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
@@ -4500,13 +4568,13 @@
         <v>54</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K17" s="53"/>
       <c r="L17" s="54"/>
       <c r="M17" s="54"/>
       <c r="N17" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O17" s="44"/>
       <c r="P17" s="44"/>
@@ -4523,10 +4591,11 @@
         <v>Furnace</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>126</v>
+        <v>69</v>
+      </c>
+      <c r="D18" s="56" t="str">
+        <f>P5</f>
+        <v>ELCHEAT</v>
       </c>
       <c r="E18" s="17">
         <v>0</v>
@@ -4548,23 +4617,23 @@
       <c r="L18" s="55"/>
       <c r="M18" s="55"/>
       <c r="N18" s="58" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="O18" s="58"/>
       <c r="P18" s="58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q18" s="58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S18" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="T18" s="59" t="s">
         <v>95</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>96</v>
       </c>
       <c r="U18" s="58"/>
       <c r="V18" s="58"/>
@@ -4578,8 +4647,9 @@
         <f>PRI_Sector_Fuels!O5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D19" s="56" t="s">
-        <v>126</v>
+      <c r="D19" s="56" t="str">
+        <f>P6</f>
+        <v>BIOBHEAT</v>
       </c>
       <c r="E19" s="17">
         <v>0</v>
@@ -4601,20 +4671,20 @@
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
       <c r="N19" s="58" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="O19" s="58"/>
       <c r="P19" s="58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T19" s="58"/>
       <c r="U19" s="58"/>
@@ -4629,8 +4699,9 @@
         <f>PRI_Sector_Fuels!O6</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D20" s="56" t="s">
-        <v>126</v>
+      <c r="D20" s="56" t="str">
+        <f>P7</f>
+        <v>GASBHEAT</v>
       </c>
       <c r="E20" s="17">
         <v>0</v>
@@ -4651,20 +4722,20 @@
       <c r="K20" s="58"/>
       <c r="L20" s="55"/>
       <c r="N20" s="58" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="O20" s="58"/>
       <c r="P20" s="58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T20" s="58"/>
       <c r="U20" s="58"/>
@@ -4679,8 +4750,9 @@
         <f>PRI_Sector_Fuels!O5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>126</v>
+      <c r="D21" s="56" t="str">
+        <f>P8</f>
+        <v>BIOKHEAT</v>
       </c>
       <c r="E21" s="17">
         <v>0</v>
@@ -4699,19 +4771,19 @@
         <v>444</v>
       </c>
       <c r="N21" s="58" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="P21" s="58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
@@ -4720,10 +4792,11 @@
         <v>ELCBoiler</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D22" s="56" t="s">
-        <v>126</v>
+        <v>69</v>
+      </c>
+      <c r="D22" s="56" t="str">
+        <f>P5</f>
+        <v>ELCHEAT</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -4742,13 +4815,13 @@
         <v>2145</v>
       </c>
       <c r="N22" s="58" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="P22" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q22" s="58" t="s">
         <v>120</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>121</v>
       </c>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
@@ -4762,8 +4835,9 @@
         <f>PRI_Sector_Fuels!O8</f>
         <v>SOLAR</v>
       </c>
-      <c r="D23" s="56" t="s">
-        <v>126</v>
+      <c r="D23" s="56" t="str">
+        <f>P9</f>
+        <v>SOLHEAT</v>
       </c>
       <c r="E23" s="17">
         <v>0</v>
@@ -4782,23 +4856,41 @@
         <v>0</v>
       </c>
       <c r="N23" s="58" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="P23" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q23" s="58" t="s">
         <v>122</v>
-      </c>
-      <c r="Q23" s="58" t="s">
-        <v>123</v>
       </c>
       <c r="R23" s="9"/>
       <c r="S23" s="9"/>
     </row>
     <row r="24" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="56"/>
+      <c r="B24" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="56" t="s">
+        <v>125</v>
+      </c>
       <c r="E24" s="17"/>
       <c r="F24" s="57"/>
+      <c r="G24" s="58">
+        <v>1</v>
+      </c>
+      <c r="H24" s="58">
+        <v>1</v>
+      </c>
+      <c r="I24" s="58">
+        <v>50</v>
+      </c>
+      <c r="J24" s="58">
+        <v>0</v>
+      </c>
       <c r="K24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -4812,14 +4904,10 @@
     </row>
     <row r="25" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="57"/>
       <c r="K25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -4831,73 +4919,145 @@
       <c r="U25" s="8"/>
       <c r="V25" s="8"/>
     </row>
-    <row r="26" spans="2:22" s="60" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="57"/>
       <c r="K26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="67"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F27" s="61"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="63"/>
-      <c r="O27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="H28" s="63"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="55"/>
-      <c r="C29" s="8" t="s">
+    <row r="27" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="8"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="57"/>
+      <c r="K27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+    </row>
+    <row r="28" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="8"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="57"/>
+      <c r="K28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+    </row>
+    <row r="29" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+    </row>
+    <row r="30" spans="2:22" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F31" s="61"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="63"/>
+      <c r="O31" s="60"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="H32" s="63"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="55"/>
+      <c r="C33" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" s="63"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="64"/>
+      <c r="C34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H29" s="63"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="64"/>
-      <c r="C30" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" s="63"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="E31" s="8" t="s">
+      <c r="H34" s="63"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E35" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="H35" s="63"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E37" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="H31" s="63"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="F37" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E34" s="10"/>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E38" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D81431-89D0-40DC-9113-195B0887EAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A31D81-AB21-4147-9E17-A1D8ECC7DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1971,9 +1971,6 @@
   </si>
   <si>
     <t>PHEAT</t>
-  </si>
-  <si>
-    <t>ELCHEAT,BIOBHEAT,GASBHEAT,BIOKHEAT,SOLHEAT</t>
   </si>
 </sst>
 </file>
@@ -3084,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3841,8 +3838,9 @@
         <f>O8</f>
         <v>SOLAR</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>125</v>
+      <c r="D30" s="19" t="str">
+        <f>DemTechs_INDF!P9</f>
+        <v>SOLHEAT</v>
       </c>
       <c r="E30" s="21">
         <v>2030</v>
@@ -4117,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4823,8 +4821,12 @@
       <c r="Q22" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
+      <c r="R22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="23" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="str">
@@ -4864,20 +4866,27 @@
       <c r="Q23" s="58" t="s">
         <v>122</v>
       </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
+      <c r="R23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="24" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>134</v>
+      <c r="C24" s="16" t="str">
+        <f>P5</f>
+        <v>ELCHEAT</v>
       </c>
       <c r="D24" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="17"/>
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
       <c r="F24" s="57"/>
       <c r="G24" s="58">
         <v>1</v>
@@ -4903,11 +4912,32 @@
       <c r="V24" s="8"/>
     </row>
     <row r="25" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="17"/>
+      <c r="B25" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="16" t="str">
+        <f>P6</f>
+        <v>BIOBHEAT</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
       <c r="F25" s="57"/>
+      <c r="G25" s="58">
+        <v>1</v>
+      </c>
+      <c r="H25" s="58">
+        <v>1</v>
+      </c>
+      <c r="I25" s="58">
+        <v>50</v>
+      </c>
+      <c r="J25" s="58">
+        <v>0</v>
+      </c>
       <c r="K25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -4920,11 +4950,32 @@
       <c r="V25" s="8"/>
     </row>
     <row r="26" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="17"/>
+      <c r="B26" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" s="16" t="str">
+        <f>P7</f>
+        <v>GASBHEAT</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
       <c r="F26" s="57"/>
+      <c r="G26" s="58">
+        <v>1</v>
+      </c>
+      <c r="H26" s="58">
+        <v>1</v>
+      </c>
+      <c r="I26" s="58">
+        <v>50</v>
+      </c>
+      <c r="J26" s="58">
+        <v>0</v>
+      </c>
       <c r="K26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -4937,11 +4988,32 @@
       <c r="V26" s="8"/>
     </row>
     <row r="27" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="17"/>
+      <c r="B27" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="16" t="str">
+        <f>P8</f>
+        <v>BIOKHEAT</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
       <c r="F27" s="57"/>
+      <c r="G27" s="58">
+        <v>1</v>
+      </c>
+      <c r="H27" s="58">
+        <v>1</v>
+      </c>
+      <c r="I27" s="58">
+        <v>50</v>
+      </c>
+      <c r="J27" s="58">
+        <v>0</v>
+      </c>
       <c r="K27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -4954,11 +5026,32 @@
       <c r="V27" s="8"/>
     </row>
     <row r="28" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="17"/>
+      <c r="B28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="16" t="str">
+        <f>P9</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
       <c r="F28" s="57"/>
+      <c r="G28" s="58">
+        <v>1</v>
+      </c>
+      <c r="H28" s="58">
+        <v>1</v>
+      </c>
+      <c r="I28" s="58">
+        <v>50</v>
+      </c>
+      <c r="J28" s="58">
+        <v>0</v>
+      </c>
       <c r="K28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A31D81-AB21-4147-9E17-A1D8ECC7DAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760CCF4-E1C7-457E-8A99-55806F97C1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -3081,7 +3081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:V53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -4115,8 +4115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6760CCF4-E1C7-457E-8A99-55806F97C1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933847A3-2074-4612-B44C-351A1EC8F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{2A19E25C-9533-4C9F-A407-57D984DCF506}">
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{2A19E25C-9533-4C9F-A407-57D984DCF506}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{F7F5F318-75A1-4325-A88B-2F82BF3DD5FC}">
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{F7F5F318-75A1-4325-A88B-2F82BF3DD5FC}">
       <text>
         <r>
           <rPr>
@@ -187,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{53BB6E19-8339-471B-8B5C-196BDFD2E19C}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{53BB6E19-8339-471B-8B5C-196BDFD2E19C}">
       <text>
         <r>
           <rPr>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{11D04B3A-3D96-45B8-B9E2-F02C1D38F09E}">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{11D04B3A-3D96-45B8-B9E2-F02C1D38F09E}">
       <text>
         <r>
           <rPr>
@@ -313,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{EC1F27C8-E4A5-4958-8210-00C9EAD805E1}">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{EC1F27C8-E4A5-4958-8210-00C9EAD805E1}">
       <text>
         <r>
           <rPr>
@@ -346,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="2" shapeId="0" xr:uid="{08A0A247-5B70-4F6A-BE7F-DF9684B12478}">
+    <comment ref="J23" authorId="2" shapeId="0" xr:uid="{08A0A247-5B70-4F6A-BE7F-DF9684B12478}">
       <text>
         <r>
           <rPr>
@@ -393,7 +393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S23" authorId="2" shapeId="0" xr:uid="{89F66F35-9E7D-4CFE-82E2-FED540200A65}">
+    <comment ref="T23" authorId="2" shapeId="0" xr:uid="{89F66F35-9E7D-4CFE-82E2-FED540200A65}">
       <text>
         <r>
           <rPr>
@@ -486,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T23" authorId="1" shapeId="0" xr:uid="{BFBE1E56-B2CF-4342-9D18-7A5625043F27}">
+    <comment ref="U23" authorId="1" shapeId="0" xr:uid="{BFBE1E56-B2CF-4342-9D18-7A5625043F27}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U23" authorId="2" shapeId="0" xr:uid="{32A4C634-AF1C-4AC8-8B25-E2B72657AC1B}">
+    <comment ref="V23" authorId="2" shapeId="0" xr:uid="{32A4C634-AF1C-4AC8-8B25-E2B72657AC1B}">
       <text>
         <r>
           <rPr>
@@ -574,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M24" authorId="2" shapeId="0" xr:uid="{CC49012E-D54F-4799-8BAE-EA97B5C3A29A}">
+    <comment ref="N24" authorId="2" shapeId="0" xr:uid="{CC49012E-D54F-4799-8BAE-EA97B5C3A29A}">
       <text>
         <r>
           <rPr>
@@ -829,7 +829,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{55A1C4CC-2CE1-4EC9-89C3-19F6C183A19B}">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{55A1C4CC-2CE1-4EC9-89C3-19F6C183A19B}">
       <text>
         <r>
           <rPr>
@@ -943,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{B2B38135-7F48-40C5-9C6D-9368B3BD2092}">
+    <comment ref="T3" authorId="1" shapeId="0" xr:uid="{B2B38135-7F48-40C5-9C6D-9368B3BD2092}">
       <text>
         <r>
           <rPr>
@@ -969,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{345773E6-DE00-4CE0-B8BB-8B089B629421}">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{345773E6-DE00-4CE0-B8BB-8B089B629421}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{31DAF2B0-786F-4E95-9CBB-D182F2EED3B5}">
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{31DAF2B0-786F-4E95-9CBB-D182F2EED3B5}">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{555C1793-7B9E-49B9-8EB3-17347BDEF241}">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{555C1793-7B9E-49B9-8EB3-17347BDEF241}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T15" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
+    <comment ref="U15" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U15" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
+    <comment ref="V15" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V15" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
+    <comment ref="W15" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N16" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
+    <comment ref="O16" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="134">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1787,21 +1787,12 @@
     <t>Ngas</t>
   </si>
   <si>
-    <t>Solar thermal</t>
-  </si>
-  <si>
-    <t>CUM</t>
-  </si>
-  <si>
     <t>COST</t>
   </si>
   <si>
     <t>ACT_BND</t>
   </si>
   <si>
-    <t>Reserves Cumulative Value</t>
-  </si>
-  <si>
     <t>Cost</t>
   </si>
   <si>
@@ -1826,19 +1817,10 @@
     <t>Existing</t>
   </si>
   <si>
-    <t>STOCK</t>
-  </si>
-  <si>
-    <t>Existing Installed Capacity</t>
-  </si>
-  <si>
     <t>Input Share</t>
   </si>
   <si>
     <t>Inestment Cost</t>
-  </si>
-  <si>
-    <t>MWa</t>
   </si>
   <si>
     <t>MW</t>
@@ -1958,31 +1940,50 @@
     <t>ELCHEAT</t>
   </si>
   <si>
-    <t>BIOKHEAT</t>
-  </si>
-  <si>
     <t>SOLHEAT</t>
   </si>
   <si>
-    <t>BIOBHEAT</t>
-  </si>
-  <si>
-    <t>GASBHEAT</t>
-  </si>
-  <si>
     <t>PHEAT</t>
+  </si>
+  <si>
+    <t>BIOHEAT</t>
+  </si>
+  <si>
+    <t>GASHEAT</t>
+  </si>
+  <si>
+    <t>Electricity based process heat</t>
+  </si>
+  <si>
+    <t>Bio based process heat</t>
+  </si>
+  <si>
+    <t>Gas based process heat</t>
+  </si>
+  <si>
+    <t>Solar thermal for process heat</t>
+  </si>
+  <si>
+    <t>TH2022USD/MW</t>
+  </si>
+  <si>
+    <t>VAROM</t>
+  </si>
+  <si>
+    <t>Variable O&amp;M Cost</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2111,8 +2112,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2173,6 +2180,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2250,7 +2263,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2388,15 +2401,38 @@
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="20" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="15" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5 2" xfId="18" xr:uid="{4C3A48E2-3C46-4D12-9A64-54698D8BF8EE}"/>
@@ -2439,15 +2475,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2553,15 +2589,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3079,10 +3115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
-  <dimension ref="A1:V53"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3092,24 +3128,25 @@
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" customWidth="1"/>
-    <col min="15" max="15" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
@@ -3122,12 +3159,12 @@
       <c r="E1" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
         <v>72</v>
       </c>
@@ -3137,23 +3174,23 @@
       <c r="E2" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="F2" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="N2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V2" s="12"/>
+    </row>
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="s">
         <v>63</v>
       </c>
@@ -3163,39 +3200,39 @@
       <c r="E3" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" s="13" t="s">
+      <c r="F3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="N3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="O3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="P3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="Q3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="U3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="V3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="21" t="s">
         <v>61</v>
       </c>
@@ -3205,39 +3242,39 @@
       <c r="E4" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M4" s="20" t="s">
+      <c r="F4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="N4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="R4" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="S4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="T4" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="U4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="V4" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
         <v>60</v>
       </c>
@@ -3247,166 +3284,167 @@
       <c r="E5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="M5" s="19" t="s">
+      <c r="F5" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="N5" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="19"/>
+      <c r="P5" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="Q5" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="R5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="19"/>
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="18"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="4"/>
-      <c r="M6" s="19" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="21"/>
+      <c r="N6" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="Q6" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="19"/>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
       <c r="U6" s="19"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="21"/>
+      <c r="V6" s="19"/>
+    </row>
+    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="21"/>
-      <c r="M7" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72" t="s">
-        <v>72</v>
-      </c>
-      <c r="P7" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q7" s="72" t="s">
-        <v>58</v>
-      </c>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
       <c r="U7" s="19"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="M8" s="72" t="s">
+      <c r="N8" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="P8" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q8" s="72" t="s">
+      <c r="O8" s="71"/>
+      <c r="P8" s="71" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="R8" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="19"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="19"/>
+      <c r="H9" s="21"/>
+      <c r="N9" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q9" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9" s="71" t="s">
+        <v>58</v>
+      </c>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
-    </row>
-    <row r="10" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
       <c r="S10" s="19"/>
       <c r="T10" s="19"/>
       <c r="U10" s="19"/>
-    </row>
-    <row r="11" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-    </row>
-    <row r="12" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="V10" s="19"/>
+    </row>
+    <row r="11" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12" s="19"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
-    </row>
-    <row r="13" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="12"/>
+    </row>
+    <row r="13" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="M13"/>
+      <c r="H13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
@@ -3415,117 +3453,117 @@
       <c r="S13"/>
       <c r="T13"/>
       <c r="U13"/>
-    </row>
-    <row r="14" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V13"/>
+    </row>
+    <row r="14" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="12"/>
+      <c r="H14"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="15"/>
       <c r="P14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M15" s="12"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="12"/>
+      <c r="V14" s="12"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N15" s="12"/>
+      <c r="O15" s="15"/>
       <c r="P15" s="12"/>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="12"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M16" s="12"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="12"/>
+      <c r="V15" s="12"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N16" s="12"/>
+      <c r="O16" s="15"/>
       <c r="P16" s="12"/>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M17" s="12"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="12"/>
+      <c r="V16" s="12"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N17" s="12"/>
+      <c r="O17" s="15"/>
       <c r="P17" s="12"/>
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="12"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M18" s="12"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="12"/>
+      <c r="V17" s="12"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N18" s="12"/>
+      <c r="O18" s="15"/>
       <c r="P18" s="12"/>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="12"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M19" s="12"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="12"/>
+      <c r="V18" s="12"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N19" s="12"/>
+      <c r="O19" s="15"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M20" s="12"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="12"/>
+      <c r="V19" s="12"/>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N20" s="12"/>
+      <c r="O20" s="15"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="M21" s="1"/>
-      <c r="O21" s="1"/>
+      <c r="V20" s="12"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="N21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="F22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M22" s="11" t="s">
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="G22" s="2"/>
+      <c r="N22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="15"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>1</v>
       </c>
@@ -3539,50 +3577,53 @@
         <v>55</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J23" s="24" t="s">
+      <c r="K23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="K23" s="65"/>
-      <c r="M23" s="13" t="s">
+      <c r="L23" s="65"/>
+      <c r="N23" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="O23" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O23" s="13" t="s">
+      <c r="P23" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="Q23" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="R23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="S23" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="T23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="U23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="U23" s="13" t="s">
+      <c r="V23" s="13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
         <v>48</v>
       </c>
@@ -3595,49 +3636,54 @@
       <c r="E24" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="25" t="s">
+        <v>35</v>
+      </c>
       <c r="G24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="M24" s="20" t="s">
+      <c r="L24" s="26"/>
+      <c r="N24" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="O24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="P24" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="Q24" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="R24" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="S24" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="T24" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="U24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="U24" s="20" t="s">
+      <c r="V24" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:21" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>53</v>
       </c>
@@ -3645,22 +3691,21 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="27" t="str">
-        <f>$E$2</f>
-        <v>GWh</v>
-      </c>
+      <c r="G25" s="27"/>
       <c r="H25" s="27" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="I25" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="28"/>
       <c r="K25" s="28"/>
-      <c r="M25" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="N25" s="29"/>
+      <c r="L25" s="28"/>
+      <c r="N25" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="O25" s="29"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
@@ -3668,439 +3713,631 @@
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
       <c r="U25" s="29"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="29"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="str">
-        <f>O26</f>
+        <f>P26</f>
         <v>MINBIO</v>
       </c>
       <c r="C26" s="15"/>
       <c r="D26" s="12" t="str">
-        <f>O5</f>
+        <f>P5</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="E26" s="1">
         <v>2030</v>
       </c>
-      <c r="F26" s="1"/>
-      <c r="H26" s="31">
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>50</v>
+      </c>
+      <c r="I26" s="31">
         <f>[1]TechnologydataTech!$C$33/1000</f>
         <v>14.00399887968009</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33">
+      <c r="J26" s="32"/>
+      <c r="K26" s="33">
         <v>8.76</v>
       </c>
-      <c r="K26" s="33"/>
-      <c r="M26" s="21" t="s">
+      <c r="L26" s="33"/>
+      <c r="N26" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="N26" s="21"/>
-      <c r="O26" s="19" t="str">
-        <f>$M$26&amp;$C$4</f>
+      <c r="O26" s="85"/>
+      <c r="P26" s="86" t="str">
+        <f>$N$26&amp;$C$4</f>
         <v>MINBIO</v>
       </c>
-      <c r="P26" s="37" t="str">
+      <c r="Q26" s="87" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="Q26" s="21" t="s">
+      <c r="R26" s="85" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S26" s="85"/>
+      <c r="T26" s="85"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="str">
-        <f t="shared" ref="B27:B29" si="0">O27</f>
+        <f t="shared" ref="B27:B30" si="0">P27</f>
         <v>MINGAS</v>
       </c>
       <c r="C27" s="15"/>
       <c r="D27" s="12" t="str">
-        <f>O6</f>
+        <f>P6</f>
         <v>MANGASMIN</v>
       </c>
       <c r="E27" s="1">
         <v>2030</v>
       </c>
-      <c r="F27" s="1"/>
-      <c r="H27" s="35">
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>50</v>
+      </c>
+      <c r="I27" s="35">
         <f>[1]TechnologydataTech!$C$34/1000</f>
         <v>27.575997793920177</v>
       </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="33">
+      <c r="J27" s="36"/>
+      <c r="K27" s="33">
         <v>8.76</v>
       </c>
-      <c r="K27" s="33"/>
-      <c r="M27" s="21" t="s">
+      <c r="L27" s="33"/>
+      <c r="N27" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="N27" s="21"/>
-      <c r="O27" s="19" t="str">
-        <f>$M$27&amp;$C$5</f>
+      <c r="O27" s="85"/>
+      <c r="P27" s="86" t="str">
+        <f>$N$27&amp;$C$5</f>
         <v>MINGAS</v>
       </c>
-      <c r="P27" s="37" t="str">
+      <c r="Q27" s="87" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Ngas </v>
       </c>
-      <c r="Q27" s="21" t="s">
+      <c r="R27" s="85" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="12" t="str">
+      <c r="S27" s="85"/>
+      <c r="T27" s="85"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="N28" s="85"/>
+      <c r="O28" s="85"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="85"/>
+      <c r="S28" s="85"/>
+      <c r="T28" s="85"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="C28" s="15" t="str">
-        <f>O7</f>
+      <c r="C29" s="19" t="str">
+        <f>P8</f>
         <v>WIND</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E29" s="21">
         <v>2030</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="H28" s="31">
+      <c r="F29" s="21">
+        <v>0.34</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="H29" s="21">
+        <v>25</v>
+      </c>
+      <c r="I29" s="81">
         <f>[1]TechnologydataTech!$D$6*365*24/1000000000</f>
         <v>9.1191599999999994E-3</v>
       </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="33">
+      <c r="J29" s="36"/>
+      <c r="K29" s="82">
         <v>8.76</v>
       </c>
-      <c r="K28" s="33"/>
-      <c r="M28" t="s">
+      <c r="L29" s="33"/>
+      <c r="N29" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="O28" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="P28" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="O29" s="21"/>
+      <c r="P29" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q29" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="R29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="S28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="12" t="str">
+      <c r="S29" s="21"/>
+      <c r="T29" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SOLPV</v>
       </c>
-      <c r="C29" s="15" t="str">
-        <f>O8</f>
+      <c r="C30" s="19" t="str">
+        <f>P9</f>
         <v>SOLAR</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D30" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E30" s="21">
         <v>2030</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="H29" s="31">
+      <c r="F30" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="H30" s="21">
+        <v>25</v>
+      </c>
+      <c r="I30" s="81">
         <f>[1]TechnologydataTech!$D$4*365*24/1000000000</f>
         <v>6.0531600000000001E-3</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="33">
+      <c r="J30" s="36"/>
+      <c r="K30" s="82">
         <v>8.76</v>
       </c>
-      <c r="K29" s="33"/>
-      <c r="M29" t="s">
+      <c r="L30" s="33"/>
+      <c r="N30" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="O29" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="O30" s="21"/>
+      <c r="P30" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q30" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="R30" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="S29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="str">
-        <f>O32</f>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="19" t="str">
+        <f>P33</f>
         <v>CSP</v>
       </c>
-      <c r="C30" s="19" t="str">
-        <f>O8</f>
+      <c r="C31" s="19" t="str">
+        <f>P9</f>
         <v>SOLAR</v>
       </c>
-      <c r="D30" s="19" t="str">
-        <f>DemTechs_INDF!P9</f>
+      <c r="D31" s="19" t="str">
+        <f>DemTechs_INDF!Q8</f>
         <v>SOLHEAT</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E31" s="21">
         <v>2030</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="H30" s="77">
+      <c r="F31" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="H31" s="21">
+        <v>25</v>
+      </c>
+      <c r="I31" s="83">
         <f>[1]TechnologydataTech!$D$12*365*24/1000000000</f>
         <v>3.2210519999999999E-2</v>
       </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="33">
+      <c r="J31" s="36"/>
+      <c r="K31" s="82">
         <v>8.76</v>
       </c>
-      <c r="K30" s="33"/>
-      <c r="M30" s="71" t="s">
+      <c r="L31" s="33"/>
+      <c r="N31" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N30" s="71"/>
-      <c r="O30" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="P30" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q30" s="71" t="s">
+      <c r="O31" s="21"/>
+      <c r="P31" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q31" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="R31" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="72" t="str">
-        <f>O30</f>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="19" t="str">
+        <f>P31</f>
         <v>MINWIND</v>
       </c>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72" t="str">
-        <f>O7</f>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19" t="str">
+        <f>P8</f>
         <v>WIND</v>
       </c>
-      <c r="E31" s="71">
+      <c r="E32" s="21">
         <v>2030</v>
       </c>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="74">
+      <c r="F32" s="21">
+        <v>1</v>
+      </c>
+      <c r="G32" s="21">
+        <v>1</v>
+      </c>
+      <c r="H32" s="21">
+        <v>50</v>
+      </c>
+      <c r="I32" s="84">
         <v>0</v>
       </c>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76">
+      <c r="J32" s="69"/>
+      <c r="K32" s="82">
         <v>8.76</v>
       </c>
-      <c r="K31" s="68"/>
-      <c r="M31" s="71" t="s">
+      <c r="L32" s="68"/>
+      <c r="N32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="N31" s="71"/>
-      <c r="O31" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="P31" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q31" s="71" t="s">
+      <c r="O32" s="21"/>
+      <c r="P32" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="R32" s="21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="72" t="str">
-        <f>O31</f>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="19" t="str">
+        <f>P32</f>
         <v>MINSOL</v>
       </c>
-      <c r="C32" s="72"/>
-      <c r="D32" s="72" t="str">
-        <f>O8</f>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19" t="str">
+        <f>P9</f>
         <v>SOLAR</v>
       </c>
-      <c r="E32" s="71">
+      <c r="E33" s="21">
         <v>2030</v>
       </c>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="74">
+      <c r="F33" s="21">
+        <v>1</v>
+      </c>
+      <c r="G33" s="21">
+        <v>1</v>
+      </c>
+      <c r="H33" s="21">
+        <v>50</v>
+      </c>
+      <c r="I33" s="84">
         <v>0</v>
       </c>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76">
+      <c r="J33" s="69"/>
+      <c r="K33" s="82">
         <v>8.76</v>
       </c>
-      <c r="K32" s="68"/>
-      <c r="M32" t="s">
-        <v>127</v>
-      </c>
-      <c r="O32" s="15" t="s">
+      <c r="L33" s="68"/>
+      <c r="N33" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O33" s="21"/>
+      <c r="P33" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="P32" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q32" t="s">
+      <c r="Q33" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="S32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="H33" s="68"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="68"/>
-      <c r="K33" s="68"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="34"/>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="S33" s="21"/>
+      <c r="T33" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="12"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="34"/>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G34" s="1"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="68"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="80"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
       <c r="C35" s="15"/>
       <c r="D35" s="12"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="34"/>
-    </row>
-    <row r="36" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G35" s="1"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="68"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="75"/>
+      <c r="Q35" s="80"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="12"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="34"/>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G36" s="1"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="68"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="80"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
       <c r="D37" s="12"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="34"/>
-    </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="G37" s="1"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="69"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="68"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="76"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="80"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="12"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="12"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="34"/>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B39" s="12"/>
+      <c r="G38" s="1"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="69"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="68"/>
+      <c r="N38" s="76"/>
+      <c r="O38" s="76"/>
+      <c r="P38" s="75"/>
+      <c r="Q38" s="80"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B39" s="8"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="12"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="34"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H40" s="68"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="34"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B41" s="30"/>
-      <c r="C41" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H41" s="68"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B42" s="38"/>
-      <c r="C42" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H42" s="68"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H43" s="68"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="68"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="69"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="68"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="75"/>
+      <c r="Q39" s="80"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B40" s="8"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="69"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="68"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="75"/>
+      <c r="Q40" s="80"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B41" s="8"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="68"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="80"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B42" s="8"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="68"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="75"/>
+      <c r="Q42" s="80"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B43" s="12"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="68"/>
+      <c r="J43" s="69"/>
       <c r="K43" s="68"/>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-    </row>
-    <row r="51" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="V52" s="1"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="L43" s="68"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="75"/>
+      <c r="Q43" s="80"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B44" s="12"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" s="68"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="68"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="75"/>
+      <c r="Q44" s="80"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="68"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="68"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="34"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I46" s="68"/>
+      <c r="J46" s="69"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="34"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B47" s="30"/>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I47" s="68"/>
+      <c r="J47" s="69"/>
+      <c r="K47" s="68"/>
+      <c r="L47" s="68"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="38"/>
+      <c r="C48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="68"/>
+      <c r="J48" s="69"/>
+      <c r="K48" s="68"/>
+      <c r="L48" s="68"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I49" s="68"/>
+      <c r="J49" s="69"/>
+      <c r="K49" s="68"/>
+      <c r="L49" s="68"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+    </row>
+    <row r="57" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W58" s="1"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4113,10 +4350,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:V38"/>
+  <dimension ref="B1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4130,21 +4367,22 @@
     <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="8.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" style="8" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="63.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="8" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" style="8" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" style="8" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="8"/>
+    <col min="14" max="14" width="8.140625" style="60" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="63.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="8" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" style="8" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" style="8" customWidth="1"/>
+    <col min="24" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:23" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
@@ -4162,15 +4400,15 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D2" s="39" t="str">
         <f>"Demand Technologies"</f>
@@ -4180,199 +4418,200 @@
         <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="16"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
-    </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N3" s="41" t="s">
+      <c r="W2" s="16"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="O3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="P3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="Q3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="R3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="S3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="T3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="U3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="V3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="W3" s="41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
-      <c r="N4" s="44" t="s">
+      <c r="O4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="44" t="s">
+      <c r="P4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="Q4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="R4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="S4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="T4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="U4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="V4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="W4" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
-      <c r="N5" s="16" t="s">
+      <c r="O5" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="66" t="s">
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="R5" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="66"/>
       <c r="T5" s="66"/>
       <c r="U5" s="66"/>
       <c r="V5" s="66"/>
-    </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W5" s="66"/>
+    </row>
+    <row r="6" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="N6" s="16" t="s">
+      <c r="O6" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="66" t="s">
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="R6" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="S6" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="16"/>
       <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16"/>
-    </row>
-    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W6" s="16"/>
+    </row>
+    <row r="7" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="66" t="s">
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="S7" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="S7" s="16"/>
       <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
-    </row>
-    <row r="8" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="W7" s="16"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="66" t="s">
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="S8" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="S8" s="16"/>
       <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N9" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="W8" s="16"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
       <c r="O9" s="16"/>
-      <c r="P9" s="16" t="s">
-        <v>130</v>
-      </c>
+      <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
-      <c r="R9" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="S9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="66"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N10" s="16"/>
+      <c r="W9" s="16"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -4381,9 +4620,9 @@
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N11" s="16"/>
+      <c r="W10" s="16"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -4392,9 +4631,9 @@
       <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N12" s="16"/>
+      <c r="W11" s="16"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -4403,8 +4642,9 @@
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="16"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
       <c r="D14" s="2" t="s">
         <v>0</v>
       </c>
@@ -4416,19 +4656,20 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
-      <c r="N14" s="40" t="s">
+      <c r="N14" s="58"/>
+      <c r="O14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="40"/>
-      <c r="P14" s="16"/>
+      <c r="P14" s="40"/>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
-    </row>
-    <row r="15" spans="2:22" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="W14" s="16"/>
+    </row>
+    <row r="15" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>1</v>
       </c>
@@ -4439,10 +4680,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="45" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G15" s="45" t="s">
         <v>16</v>
@@ -4459,37 +4700,40 @@
       <c r="K15" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="47"/>
+      <c r="L15" s="47" t="s">
+        <v>132</v>
+      </c>
       <c r="M15" s="47"/>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="90"/>
+      <c r="O15" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="42" t="s">
+      <c r="P15" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="P15" s="41" t="s">
+      <c r="Q15" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="Q15" s="41" t="s">
+      <c r="R15" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="S15" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="S15" s="41" t="s">
+      <c r="T15" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="U15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="41" t="s">
+      <c r="V15" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="V15" s="41" t="s">
+      <c r="W15" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="48" t="s">
         <v>48</v>
       </c>
@@ -4500,10 +4744,10 @@
         <v>33</v>
       </c>
       <c r="E16" s="48" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="F16" s="48" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G16" s="48" t="s">
         <v>35</v>
@@ -4515,50 +4759,51 @@
         <v>57</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K16" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="50"/>
+      <c r="L16" s="49" t="s">
+        <v>133</v>
+      </c>
       <c r="M16" s="50"/>
-      <c r="N16" s="44" t="s">
+      <c r="N16" s="91"/>
+      <c r="O16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="O16" s="44" t="s">
+      <c r="P16" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="44" t="s">
+      <c r="Q16" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="R16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="S16" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="S16" s="44" t="s">
+      <c r="T16" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="U16" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="U16" s="44" t="s">
+      <c r="V16" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="V16" s="44" t="s">
+      <c r="W16" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="51" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
-      <c r="E17" s="52" t="s">
-        <v>93</v>
-      </c>
+      <c r="E17" s="52"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
       <c r="H17" s="53"/>
@@ -4566,15 +4811,17 @@
         <v>54</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="K17" s="53"/>
-      <c r="L17" s="54"/>
+      <c r="L17" s="54" t="s">
+        <v>81</v>
+      </c>
       <c r="M17" s="54"/>
-      <c r="N17" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="O17" s="44"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="44" t="s">
+        <v>82</v>
+      </c>
       <c r="P17" s="44"/>
       <c r="Q17" s="44"/>
       <c r="R17" s="44"/>
@@ -4582,21 +4829,22 @@
       <c r="T17" s="44"/>
       <c r="U17" s="44"/>
       <c r="V17" s="44"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="44"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="str">
-        <f>P18</f>
+        <f>Q18</f>
         <v>Furnace</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D18" s="56" t="str">
-        <f>P5</f>
+        <f>Q5</f>
         <v>ELCHEAT</v>
       </c>
       <c r="E18" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F18" s="57"/>
       <c r="G18" s="58">
@@ -4614,43 +4862,43 @@
       <c r="K18" s="58"/>
       <c r="L18" s="55"/>
       <c r="M18" s="55"/>
-      <c r="N18" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58" t="s">
+      <c r="O18" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="Q18" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="S18" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S18" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T18" s="59" t="s">
-        <v>95</v>
-      </c>
-      <c r="U18" s="58"/>
+      <c r="T18" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" s="59" t="s">
+        <v>89</v>
+      </c>
       <c r="V18" s="58"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="58"/>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="str">
-        <f>P$19</f>
+        <f>Q$19</f>
         <v>BIOBoiler</v>
       </c>
       <c r="C19" s="9" t="str">
-        <f>PRI_Sector_Fuels!O5</f>
+        <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D19" s="56" t="str">
-        <f>P6</f>
-        <v>BIOBHEAT</v>
+        <f>Q6</f>
+        <v>BIOHEAT</v>
       </c>
       <c r="E19" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F19" s="57"/>
       <c r="G19" s="58">
@@ -4668,41 +4916,40 @@
       <c r="K19" s="58"/>
       <c r="L19" s="55"/>
       <c r="M19" s="55"/>
-      <c r="N19" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="O19" s="58"/>
-      <c r="P19" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q19" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="R19" s="9" t="s">
+      <c r="O19" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="R19" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="S19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S19" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T19" s="58"/>
+      <c r="T19" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="U19" s="58"/>
       <c r="V19" s="58"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="58"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="str">
-        <f>P22</f>
-        <v>GASBoiler</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f>PRI_Sector_Fuels!O6</f>
-        <v>MANGASMIN</v>
+        <f>Q22</f>
+        <v>ELCBoiler</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="D20" s="56" t="str">
-        <f>P7</f>
-        <v>GASBHEAT</v>
+        <f>Q5</f>
+        <v>ELCHEAT</v>
       </c>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F20" s="57"/>
       <c r="G20" s="58">
@@ -4719,41 +4966,42 @@
       </c>
       <c r="K20" s="58"/>
       <c r="L20" s="55"/>
-      <c r="N20" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="O20" s="58"/>
-      <c r="P20" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="R20" s="9" t="s">
+      <c r="M20" s="55"/>
+      <c r="O20" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="R20" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="T20" s="58"/>
+      <c r="T20" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="U20" s="58"/>
       <c r="V20" s="58"/>
-    </row>
-    <row r="21" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W20" s="58"/>
+    </row>
+    <row r="21" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="str">
-        <f>P20</f>
+        <f>Q20</f>
         <v>BIOKiln</v>
       </c>
       <c r="C21" s="9" t="str">
-        <f>PRI_Sector_Fuels!O5</f>
+        <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="56" t="str">
-        <f>P8</f>
-        <v>BIOKHEAT</v>
+        <f>Q6</f>
+        <v>BIOHEAT</v>
       </c>
       <c r="E21" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F21" s="57"/>
       <c r="G21" s="58">
@@ -4768,36 +5016,38 @@
       <c r="J21" s="58">
         <v>444</v>
       </c>
-      <c r="N21" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="P21" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="R21" s="9" t="s">
+      <c r="O21" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="76"/>
+      <c r="Q21" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="R21" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="S21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="S21" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="9" t="str">
-        <f>P23</f>
-        <v>ELCBoiler</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>69</v>
+      <c r="T21" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="56" t="str">
+        <f>Q21</f>
+        <v>GASBoiler</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f>PRI_Sector_Fuels!P6</f>
+        <v>MANGASMIN</v>
       </c>
       <c r="D22" s="56" t="str">
-        <f>P5</f>
-        <v>ELCHEAT</v>
+        <f>Q7</f>
+        <v>GASHEAT</v>
       </c>
       <c r="E22" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F22" s="57"/>
       <c r="G22" s="58">
@@ -4812,37 +5062,36 @@
       <c r="J22" s="58">
         <v>2145</v>
       </c>
-      <c r="N22" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="P22" s="58" t="s">
+      <c r="O22" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="76"/>
+      <c r="Q22" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="R22" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="16" t="str">
+        <f>Q5</f>
+        <v>ELCHEAT</v>
+      </c>
+      <c r="D23" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="Q22" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="9" t="str">
-        <f>P21</f>
-        <v>CSP</v>
-      </c>
-      <c r="C23" s="9" t="str">
-        <f>PRI_Sector_Fuels!O8</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D23" s="56" t="str">
-        <f>P9</f>
-        <v>SOLHEAT</v>
-      </c>
       <c r="E23" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F23" s="57"/>
       <c r="G23" s="58">
@@ -4852,40 +5101,45 @@
         <v>1</v>
       </c>
       <c r="I23" s="58">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J23" s="58">
         <v>0</v>
       </c>
-      <c r="N23" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="P23" s="58" t="s">
+      <c r="K23" s="8"/>
+      <c r="O23" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="Q23" s="58" t="s">
-        <v>122</v>
-      </c>
-      <c r="R23" s="9" t="s">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="S23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="T23" s="8"/>
+      <c r="U23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+    </row>
+    <row r="24" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C24" s="16" t="str">
-        <f>P5</f>
-        <v>ELCHEAT</v>
+        <f>Q6</f>
+        <v>BIOHEAT</v>
       </c>
       <c r="D24" s="56" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E24" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="58">
@@ -4901,29 +5155,39 @@
         <v>0</v>
       </c>
       <c r="K24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
+      <c r="O24" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="R24" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="S24" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="V24" s="8"/>
-    </row>
-    <row r="25" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W24" s="8"/>
+    </row>
+    <row r="25" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C25" s="16" t="str">
-        <f>P6</f>
-        <v>BIOBHEAT</v>
+        <f>Q7</f>
+        <v>GASHEAT</v>
       </c>
       <c r="D25" s="56" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E25" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="58">
@@ -4939,45 +5203,45 @@
         <v>0</v>
       </c>
       <c r="K25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
+      <c r="O25" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R25" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="S25" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="V25" s="8"/>
-    </row>
-    <row r="26" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W25" s="8"/>
+    </row>
+    <row r="26" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C26" s="16" t="str">
-        <f>P7</f>
-        <v>GASBHEAT</v>
+        <f>Q8</f>
+        <v>SOLHEAT</v>
       </c>
       <c r="D26" s="56" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E26" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="58">
         <v>1</v>
       </c>
-      <c r="H26" s="58">
-        <v>1</v>
-      </c>
-      <c r="I26" s="58">
-        <v>50</v>
-      </c>
-      <c r="J26" s="58">
-        <v>0</v>
-      </c>
       <c r="K26" s="8"/>
-      <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
@@ -4986,36 +5250,36 @@
       <c r="T26" s="8"/>
       <c r="U26" s="8"/>
       <c r="V26" s="8"/>
-    </row>
-    <row r="27" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C27" s="16" t="str">
-        <f>P8</f>
-        <v>BIOKHEAT</v>
-      </c>
+      <c r="W26" s="8"/>
+    </row>
+    <row r="27" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="16" t="str">
+        <f>Q24</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C27" s="16"/>
       <c r="D27" s="56" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E27" s="17">
-        <v>0</v>
+        <v>2030</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58">
         <v>1</v>
       </c>
       <c r="H27" s="58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I27" s="58">
-        <v>50</v>
-      </c>
-      <c r="J27" s="58">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8"/>
-      <c r="N27" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="J27" s="88">
+        <v>1041</v>
+      </c>
+      <c r="K27" s="8">
+        <v>38</v>
+      </c>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -5024,36 +5288,36 @@
       <c r="T27" s="8"/>
       <c r="U27" s="8"/>
       <c r="V27" s="8"/>
-    </row>
-    <row r="28" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="16" t="str">
-        <f>P9</f>
-        <v>SOLHEAT</v>
-      </c>
+      <c r="W27" s="8"/>
+    </row>
+    <row r="28" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="16" t="str">
+        <f>Q25</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="56" t="s">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58">
+        <v>2030</v>
+      </c>
+      <c r="F28" s="61"/>
+      <c r="G28" s="8">
         <v>1</v>
       </c>
-      <c r="H28" s="58">
-        <v>1</v>
-      </c>
-      <c r="I28" s="58">
-        <v>50</v>
-      </c>
-      <c r="J28" s="58">
-        <v>0</v>
-      </c>
-      <c r="K28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="H28" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="I28" s="8">
+        <v>25</v>
+      </c>
+      <c r="J28" s="89">
+        <v>691</v>
+      </c>
+      <c r="K28" s="8">
+        <v>1125</v>
+      </c>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
@@ -5062,95 +5326,95 @@
       <c r="T28" s="8"/>
       <c r="U28" s="8"/>
       <c r="V28" s="8"/>
-    </row>
-    <row r="29" spans="2:22" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8"/>
+      <c r="W28" s="8"/>
+    </row>
+    <row r="29" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
+      <c r="D29" s="8" t="str">
+        <f>Q8</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2030</v>
+      </c>
       <c r="F29" s="61"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>25</v>
+      </c>
+      <c r="J29" s="89">
+        <v>36377</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="60">
+        <v>14</v>
+      </c>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="67"/>
       <c r="V29" s="8"/>
-    </row>
-    <row r="30" spans="2:22" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="W29" s="8"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
       <c r="F30" s="61"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="F31" s="61"/>
-      <c r="G31" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="63"/>
+      <c r="P30" s="60"/>
+      <c r="R30" s="60"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
       <c r="H31" s="63"/>
-      <c r="O31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B32" s="55"/>
+      <c r="C32" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H32" s="63"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="55"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H33" s="63"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="64"/>
-      <c r="C34" s="8" t="s">
-        <v>87</v>
+      <c r="E34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="H34" s="63"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E35" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="H35" s="63"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E36" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E38" s="10"/>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933847A3-2074-4612-B44C-351A1EC8F239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E5BDB7-C74A-405C-ADEA-E0F2D26EAE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1981,7 +1981,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -2422,8 +2422,8 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="15" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4353,7 +4353,7 @@
   <dimension ref="B1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E5BDB7-C74A-405C-ADEA-E0F2D26EAE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8450A1-23A6-4355-BF01-7938FF9D6545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U15" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
+    <comment ref="U21" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V15" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
+    <comment ref="V21" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W15" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
+    <comment ref="W21" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
+    <comment ref="O22" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="134">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2263,7 +2263,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2433,6 +2433,10 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="21" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5 2" xfId="18" xr:uid="{4C3A48E2-3C46-4D12-9A64-54698D8BF8EE}"/>
@@ -2591,13 +2595,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3117,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23:E25"/>
+    <sheetView topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29:I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3945,7 +3949,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D31" s="19" t="str">
-        <f>DemTechs_INDF!Q8</f>
+        <f>DemTechs_INDF!Q14</f>
         <v>SOLHEAT</v>
       </c>
       <c r="E31" s="21">
@@ -4350,10 +4354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:W37"/>
+  <dimension ref="B1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4507,23 +4511,23 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
-      <c r="O5" s="77" t="s">
+      <c r="O5" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="R5" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="S5" s="77" t="s">
+      <c r="P5" s="94"/>
+      <c r="Q5" s="94" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="S5" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
+      <c r="T5" s="94"/>
+      <c r="U5" s="94"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
@@ -4532,23 +4536,23 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="O6" s="77" t="s">
+      <c r="O6" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="R6" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="S6" s="77" t="s">
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="R6" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="S6" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
     </row>
     <row r="7" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
@@ -4557,23 +4561,15 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="O7" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="R7" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="S7" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
     </row>
     <row r="8" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="43"/>
@@ -4582,563 +4578,393 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="O8" s="78" t="s">
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+    </row>
+    <row r="9" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+    </row>
+    <row r="10" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+    </row>
+    <row r="11" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="O11" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="78"/>
-      <c r="Q8" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="R8" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="S8" s="78" t="s">
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77" t="s">
+        <v>122</v>
+      </c>
+      <c r="R11" s="77" t="s">
+        <v>127</v>
+      </c>
+      <c r="S11" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-    </row>
-    <row r="9" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-    </row>
-    <row r="10" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-    </row>
-    <row r="11" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
-    </row>
-    <row r="12" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+    </row>
+    <row r="12" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="O12" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77" t="s">
+        <v>125</v>
+      </c>
+      <c r="R12" s="77" t="s">
+        <v>128</v>
+      </c>
+      <c r="S12" s="77" t="s">
+        <v>58</v>
+      </c>
       <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
     </row>
-    <row r="14" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="D14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
+    <row r="13" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="O13" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="R13" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="S13" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+    </row>
+    <row r="14" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="O14" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78" t="s">
+        <v>123</v>
+      </c>
+      <c r="R14" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="S14" s="78" t="s">
+        <v>58</v>
+      </c>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="5" t="s">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="D20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+    </row>
+    <row r="21" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E21" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="46" t="s">
+      <c r="F21" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G21" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H21" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="45" t="s">
+      <c r="I21" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J21" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="47" t="s">
+      <c r="K21" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="47" t="s">
+      <c r="L21" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="M15" s="47"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="41" t="s">
+      <c r="M21" s="47"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P15" s="42" t="s">
+      <c r="P21" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="Q15" s="41" t="s">
+      <c r="Q21" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="R21" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S15" s="41" t="s">
+      <c r="S21" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="T21" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="U15" s="41" t="s">
+      <c r="U21" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="41" t="s">
+      <c r="V21" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W15" s="41" t="s">
+      <c r="W21" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48" t="s">
+    <row r="22" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C22" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="48" t="s">
+      <c r="D22" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E22" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="48" t="s">
+      <c r="F22" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="48" t="s">
+      <c r="G22" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="49" t="s">
+      <c r="H22" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I16" s="48" t="s">
+      <c r="I22" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J16" s="48" t="s">
+      <c r="J22" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="49" t="s">
+      <c r="K22" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="49" t="s">
+      <c r="L22" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="M16" s="50"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="44" t="s">
+      <c r="M22" s="50"/>
+      <c r="N22" s="91"/>
+      <c r="O22" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="P16" s="44" t="s">
+      <c r="P22" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="44" t="s">
+      <c r="Q22" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R22" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="S16" s="44" t="s">
+      <c r="S22" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="T16" s="44" t="s">
+      <c r="T22" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U16" s="44" t="s">
+      <c r="U22" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="V16" s="44" t="s">
+      <c r="V22" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="W16" s="44" t="s">
+      <c r="W22" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="51" t="s">
+    <row r="23" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="52" t="s">
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="J17" s="52" t="s">
+      <c r="J23" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K17" s="53"/>
-      <c r="L17" s="54" t="s">
+      <c r="K23" s="53"/>
+      <c r="L23" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="54"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="44" t="s">
+      <c r="M23" s="54"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="44"/>
-    </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B18" s="9" t="str">
-        <f>Q18</f>
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="44"/>
+      <c r="W23" s="44"/>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B24" s="9" t="str">
+        <f>Q24</f>
         <v>Furnace</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="D18" s="56" t="str">
-        <f>Q5</f>
-        <v>ELCHEAT</v>
-      </c>
-      <c r="E18" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="58">
-        <v>1</v>
-      </c>
-      <c r="H18" s="58">
-        <v>1</v>
-      </c>
-      <c r="I18" s="58">
-        <v>30</v>
-      </c>
-      <c r="J18" s="58">
-        <v>333</v>
-      </c>
-      <c r="K18" s="58"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="O18" s="79" t="s">
-        <v>121</v>
-      </c>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U18" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-    </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B19" s="9" t="str">
-        <f>Q$19</f>
-        <v>BIOBoiler</v>
-      </c>
-      <c r="C19" s="9" t="str">
-        <f>PRI_Sector_Fuels!P5</f>
-        <v>MANBIOMIN</v>
-      </c>
-      <c r="D19" s="56" t="str">
-        <f>Q6</f>
-        <v>BIOHEAT</v>
-      </c>
-      <c r="E19" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F19" s="57"/>
-      <c r="G19" s="58">
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="58">
-        <v>1</v>
-      </c>
-      <c r="I19" s="58">
-        <v>20</v>
-      </c>
-      <c r="J19" s="58">
-        <v>222</v>
-      </c>
-      <c r="K19" s="58"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="O19" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="R19" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B20" s="9" t="str">
-        <f>Q22</f>
-        <v>ELCBoiler</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="56" t="str">
-        <f>Q5</f>
-        <v>ELCHEAT</v>
-      </c>
-      <c r="E20" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58">
-        <v>0.8</v>
-      </c>
-      <c r="H20" s="58">
-        <v>1</v>
-      </c>
-      <c r="I20" s="58">
-        <v>20</v>
-      </c>
-      <c r="J20" s="58">
-        <v>2121</v>
-      </c>
-      <c r="K20" s="58"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="O20" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="R20" s="80" t="s">
-        <v>117</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-    </row>
-    <row r="21" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="str">
-        <f>Q20</f>
-        <v>BIOKiln</v>
-      </c>
-      <c r="C21" s="9" t="str">
-        <f>PRI_Sector_Fuels!P5</f>
-        <v>MANBIOMIN</v>
-      </c>
-      <c r="D21" s="56" t="str">
-        <f>Q6</f>
-        <v>BIOHEAT</v>
-      </c>
-      <c r="E21" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H21" s="58">
-        <v>1</v>
-      </c>
-      <c r="I21" s="58">
-        <v>20</v>
-      </c>
-      <c r="J21" s="58">
-        <v>444</v>
-      </c>
-      <c r="O21" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="R21" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="56" t="str">
-        <f>Q21</f>
-        <v>GASBoiler</v>
-      </c>
-      <c r="C22" s="9" t="str">
-        <f>PRI_Sector_Fuels!P6</f>
-        <v>MANGASMIN</v>
-      </c>
-      <c r="D22" s="56" t="str">
-        <f>Q7</f>
-        <v>GASHEAT</v>
-      </c>
-      <c r="E22" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58">
-        <v>1</v>
-      </c>
-      <c r="H22" s="58">
-        <v>1</v>
-      </c>
-      <c r="I22" s="58">
-        <v>25</v>
-      </c>
-      <c r="J22" s="58">
-        <v>2145</v>
-      </c>
-      <c r="O22" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="R22" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T22" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="16" t="str">
-        <f>Q5</f>
-        <v>ELCHEAT</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58">
-        <v>1</v>
-      </c>
-      <c r="H23" s="58">
-        <v>1</v>
-      </c>
-      <c r="I23" s="58">
-        <v>50</v>
-      </c>
-      <c r="J23" s="58">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8"/>
-      <c r="O23" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-    </row>
-    <row r="24" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="16" t="str">
-        <f>Q6</f>
-        <v>BIOHEAT</v>
       </c>
       <c r="D24" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="93">
         <v>2030</v>
       </c>
       <c r="F24" s="57"/>
@@ -5149,272 +4975,736 @@
         <v>1</v>
       </c>
       <c r="I24" s="58">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J24" s="58">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8"/>
-      <c r="O24" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="R24" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="S24" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="K24" s="58"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="O24" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="P24" s="76"/>
+      <c r="Q24" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21" t="s">
+      <c r="T24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U24" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-    </row>
-    <row r="25" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="16" t="str">
-        <f>Q7</f>
-        <v>GASHEAT</v>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="str">
+        <f>Q$25</f>
+        <v>BIOBoiler</v>
+      </c>
+      <c r="C25" s="9" t="str">
+        <f>PRI_Sector_Fuels!P5</f>
+        <v>MANBIOMIN</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="93">
         <v>2030</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="58">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H25" s="58">
         <v>1</v>
       </c>
       <c r="I25" s="58">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J25" s="58">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8"/>
-      <c r="O25" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" s="58"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="O25" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="76"/>
+      <c r="Q25" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="R25" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B26" s="9" t="str">
+        <f>Q28</f>
+        <v>ELCBoiler</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="R25" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="S25" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-    </row>
-    <row r="26" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="16" t="str">
-        <f>Q8</f>
-        <v>SOLHEAT</v>
       </c>
       <c r="D26" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="93">
         <v>2030</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="H26" s="58">
         <v>1</v>
       </c>
-      <c r="K26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
+      <c r="I26" s="58">
+        <v>20</v>
+      </c>
+      <c r="J26" s="58">
+        <v>2121</v>
+      </c>
+      <c r="K26" s="58"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="O26" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="R26" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
     </row>
     <row r="27" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="16" t="str">
-        <f>Q24</f>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="C27" s="16"/>
+      <c r="B27" s="9" t="str">
+        <f>Q26</f>
+        <v>BIOKiln</v>
+      </c>
+      <c r="C27" s="9" t="str">
+        <f>PRI_Sector_Fuels!P5</f>
+        <v>MANBIOMIN</v>
+      </c>
       <c r="D27" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="17">
+        <v>119</v>
+      </c>
+      <c r="E27" s="93">
         <v>2030</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H27" s="58">
         <v>1</v>
       </c>
-      <c r="H27" s="58">
+      <c r="I27" s="58">
+        <v>20</v>
+      </c>
+      <c r="J27" s="58">
+        <v>444</v>
+      </c>
+      <c r="O27" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" s="76"/>
+      <c r="Q27" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="R27" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="56" t="str">
+        <f>Q27</f>
+        <v>GASBoiler</v>
+      </c>
+      <c r="C28" s="9" t="str">
+        <f>PRI_Sector_Fuels!P6</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="93">
+        <v>2030</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58">
+        <v>1</v>
+      </c>
+      <c r="H28" s="58">
+        <v>1</v>
+      </c>
+      <c r="I28" s="58">
+        <v>25</v>
+      </c>
+      <c r="J28" s="58">
+        <v>2145</v>
+      </c>
+      <c r="O28" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="75" t="s">
+        <v>115</v>
+      </c>
+      <c r="R28" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="56" t="str">
+        <f>Q30</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="93">
+        <v>2030</v>
+      </c>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58">
+        <v>1</v>
+      </c>
+      <c r="H29" s="58">
+        <v>1</v>
+      </c>
+      <c r="I29" s="58">
+        <v>25</v>
+      </c>
+      <c r="J29" s="58">
+        <v>1041</v>
+      </c>
+      <c r="O29" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P29" s="76"/>
+      <c r="Q29" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="R29" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="S29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U29" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="56" t="str">
+        <f>Q31</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="93">
+        <v>2030</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58">
+        <v>1</v>
+      </c>
+      <c r="H30" s="58">
+        <v>1</v>
+      </c>
+      <c r="I30" s="58">
+        <v>25</v>
+      </c>
+      <c r="J30" s="58">
+        <v>691</v>
+      </c>
+      <c r="O30" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P30" s="76"/>
+      <c r="Q30" s="75" t="s">
+        <v>94</v>
+      </c>
+      <c r="R30" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T30" s="9"/>
+      <c r="U30" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="56" t="str">
+        <f>Q29</f>
+        <v>CSP</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="93">
+        <v>2030</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58">
+        <v>1</v>
+      </c>
+      <c r="H31" s="58">
+        <v>1</v>
+      </c>
+      <c r="I31" s="58">
+        <v>25</v>
+      </c>
+      <c r="J31" s="58">
+        <v>36377</v>
+      </c>
+      <c r="O31" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="P31" s="76"/>
+      <c r="Q31" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="R31" s="80" t="s">
+        <v>96</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T31" s="9"/>
+      <c r="U31" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="56"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="57"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+    </row>
+    <row r="33" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="56"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="57"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="75"/>
+      <c r="R33" s="80"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+    </row>
+    <row r="34" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="56"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="57"/>
+      <c r="O34" s="76"/>
+      <c r="P34" s="76"/>
+      <c r="Q34" s="75"/>
+      <c r="R34" s="80"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+    </row>
+    <row r="35" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="56"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="57"/>
+      <c r="O35" s="76"/>
+      <c r="P35" s="76"/>
+      <c r="Q35" s="75"/>
+      <c r="R35" s="80"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+    </row>
+    <row r="36" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="16" t="str">
+        <f>Q11</f>
+        <v>ELCHEAT</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="17">
+        <v>2030</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58">
+        <v>1</v>
+      </c>
+      <c r="H36" s="58">
+        <v>1</v>
+      </c>
+      <c r="I36" s="58">
+        <v>50</v>
+      </c>
+      <c r="J36" s="58">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+    </row>
+    <row r="37" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="16" t="str">
+        <f>Q12</f>
+        <v>BIOHEAT</v>
+      </c>
+      <c r="D37" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2030</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58">
+        <v>1</v>
+      </c>
+      <c r="H37" s="58">
+        <v>1</v>
+      </c>
+      <c r="I37" s="58">
+        <v>50</v>
+      </c>
+      <c r="J37" s="58">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="O37" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="R37" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+    </row>
+    <row r="38" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" s="16" t="str">
+        <f>Q13</f>
+        <v>GASHEAT</v>
+      </c>
+      <c r="D38" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" s="17">
+        <v>2030</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58">
+        <v>1</v>
+      </c>
+      <c r="H38" s="58">
+        <v>1</v>
+      </c>
+      <c r="I38" s="58">
+        <v>50</v>
+      </c>
+      <c r="J38" s="58">
+        <v>0</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="O38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R38" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="S38" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+    </row>
+    <row r="39" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="16" t="str">
+        <f>Q14</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="D39" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="17">
+        <v>2030</v>
+      </c>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58">
+        <v>1</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+    </row>
+    <row r="40" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="16" t="str">
+        <f>Q37</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C40" s="16"/>
+      <c r="D40" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="17">
+        <v>2030</v>
+      </c>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58">
+        <v>1</v>
+      </c>
+      <c r="H40" s="58">
         <v>0.97</v>
       </c>
-      <c r="I27" s="58">
+      <c r="I40" s="58">
         <v>25</v>
       </c>
-      <c r="J27" s="88">
+      <c r="J40" s="88">
         <v>1041</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K40" s="8">
         <v>38</v>
       </c>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-    </row>
-    <row r="28" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="16" t="str">
-        <f>Q25</f>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="U40" s="8"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="8"/>
+    </row>
+    <row r="41" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="16" t="str">
+        <f>Q38</f>
         <v>SOLPV</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="56" t="s">
+      <c r="C41" s="8"/>
+      <c r="D41" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E41" s="17">
         <v>2030</v>
       </c>
-      <c r="F28" s="61"/>
-      <c r="G28" s="8">
+      <c r="F41" s="61"/>
+      <c r="G41" s="8">
         <v>1</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H41" s="8">
         <v>0.99</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I41" s="8">
         <v>25</v>
       </c>
-      <c r="J28" s="89">
+      <c r="J41" s="89">
         <v>691</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K41" s="8">
         <v>1125</v>
       </c>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-    </row>
-    <row r="29" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="s">
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+    </row>
+    <row r="42" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="str">
-        <f>Q8</f>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="str">
+        <f>Q14</f>
         <v>SOLHEAT</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E42" s="17">
         <v>2030</v>
       </c>
-      <c r="F29" s="61"/>
-      <c r="G29" s="8">
+      <c r="F42" s="61"/>
+      <c r="G42" s="8">
         <v>1</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H42" s="8">
         <v>1</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I42" s="8">
         <v>25</v>
       </c>
-      <c r="J29" s="89">
+      <c r="J42" s="89">
         <v>36377</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K42" s="8">
         <v>0</v>
       </c>
-      <c r="L29" s="60">
+      <c r="L42" s="60">
         <v>14</v>
       </c>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="67"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-    </row>
-    <row r="30" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="F30" s="61"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="63"/>
-      <c r="P30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-    </row>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H31" s="63"/>
-    </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B32" s="55"/>
-      <c r="C32" s="8" t="s">
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="8"/>
+      <c r="S42" s="16"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="67"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="8"/>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="F43" s="61"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="63"/>
+      <c r="P43" s="60"/>
+      <c r="R43" s="60"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="H44" s="63"/>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B45" s="55"/>
+      <c r="C45" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H32" s="63"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="64"/>
-      <c r="C33" s="8" t="s">
+      <c r="H45" s="63"/>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B46" s="64"/>
+      <c r="C46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="63"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E34" s="8" t="s">
+      <c r="H46" s="63"/>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="E47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F47" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="63"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E36" s="8" t="s">
+      <c r="H47" s="63"/>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E49" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F49" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="E37" s="10"/>
+    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E50" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8450A1-23A6-4355-BF01-7938FF9D6545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EEE47-80DB-4449-A70E-59F4A4350BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U21" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
+    <comment ref="U18" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V21" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
+    <comment ref="V18" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W21" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
+    <comment ref="W18" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
+    <comment ref="O19" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="137">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1971,6 +1971,15 @@
   </si>
   <si>
     <t>Variable O&amp;M Cost</t>
+  </si>
+  <si>
+    <t>MINBIO</t>
+  </si>
+  <si>
+    <t>MINGAS</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2128,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2186,6 +2195,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2263,7 +2278,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2391,9 +2406,6 @@
     <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2407,8 +2419,6 @@
     <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2434,8 +2444,27 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="13" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -2481,13 +2510,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2595,13 +2624,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3119,10 +3148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
-  <dimension ref="A1:W59"/>
+  <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29:I30"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="S25" sqref="S25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3137,7 +3166,8 @@
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="69" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.140625" customWidth="1"/>
@@ -3357,17 +3387,17 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="N8" s="71" t="s">
+      <c r="N8" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71" t="s">
+      <c r="O8" s="70"/>
+      <c r="P8" s="70" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="71" t="s">
+      <c r="Q8" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="71" t="s">
+      <c r="R8" s="70" t="s">
         <v>58</v>
       </c>
       <c r="S8" s="19"/>
@@ -3383,17 +3413,17 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="N9" s="71" t="s">
+      <c r="N9" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71" t="s">
+      <c r="O9" s="70"/>
+      <c r="P9" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="71" t="s">
+      <c r="Q9" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="71" t="s">
+      <c r="R9" s="70" t="s">
         <v>58</v>
       </c>
       <c r="S9" s="19"/>
@@ -3420,6 +3450,7 @@
       <c r="V10" s="19"/>
     </row>
     <row r="11" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="91"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
@@ -3431,6 +3462,7 @@
       <c r="V11" s="19"/>
     </row>
     <row r="12" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="91"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -3449,6 +3481,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
+      <c r="L13" s="91"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
@@ -3467,6 +3500,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
+      <c r="L14" s="91"/>
       <c r="N14" s="12"/>
       <c r="O14" s="15"/>
       <c r="P14" s="12"/>
@@ -3598,7 +3632,7 @@
       <c r="K23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="65"/>
+      <c r="L23" s="92"/>
       <c r="N23" s="13" t="s">
         <v>15</v>
       </c>
@@ -3658,7 +3692,7 @@
       <c r="K24" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="26"/>
+      <c r="L24" s="93"/>
       <c r="N24" s="20" t="s">
         <v>50</v>
       </c>
@@ -3706,11 +3740,13 @@
         <v>58</v>
       </c>
       <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
+      <c r="L25" s="94"/>
       <c r="N25" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="O25" s="29"/>
+      <c r="O25" s="29" t="s">
+        <v>136</v>
+      </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
@@ -3749,28 +3785,27 @@
       <c r="K26" s="33">
         <v>8.76</v>
       </c>
-      <c r="L26" s="33"/>
-      <c r="N26" s="85" t="s">
+      <c r="L26" s="67"/>
+      <c r="N26" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="85"/>
-      <c r="P26" s="86" t="str">
-        <f>$N$26&amp;$C$4</f>
-        <v>MINBIO</v>
-      </c>
-      <c r="Q26" s="87" t="str">
+      <c r="O26" s="82"/>
+      <c r="P26" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q26" s="84" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="R26" s="85" t="s">
+      <c r="R26" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
+      <c r="S26" s="82"/>
+      <c r="T26" s="82"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="str">
-        <f t="shared" ref="B27:B30" si="0">P27</f>
+        <f>P27</f>
         <v>MINGAS</v>
       </c>
       <c r="C27" s="15"/>
@@ -3798,24 +3833,23 @@
       <c r="K27" s="33">
         <v>8.76</v>
       </c>
-      <c r="L27" s="33"/>
-      <c r="N27" s="85" t="s">
+      <c r="L27" s="67"/>
+      <c r="N27" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="85"/>
-      <c r="P27" s="86" t="str">
-        <f>$N$27&amp;$C$5</f>
-        <v>MINGAS</v>
-      </c>
-      <c r="Q27" s="87" t="str">
+      <c r="O27" s="82"/>
+      <c r="P27" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q27" s="84" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Ngas </v>
       </c>
-      <c r="R27" s="85" t="s">
+      <c r="R27" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
@@ -3828,252 +3862,137 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
       <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="N28" s="85"/>
-      <c r="O28" s="85"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="87"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
+      <c r="L28" s="67"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="19" t="str">
-        <f t="shared" si="0"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="67"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="84"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="67"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="83"/>
+      <c r="Q30" s="84"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="82"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B31" s="12"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="67"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="83"/>
+      <c r="Q31" s="84"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B32" s="12"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="67"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="82"/>
+      <c r="S32" s="82"/>
+      <c r="T32" s="82"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B33" s="19" t="str">
+        <f t="shared" ref="B27:B34" si="0">P33</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="C29" s="19" t="str">
+      <c r="C33" s="19" t="str">
         <f>P8</f>
         <v>WIND</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D33" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E33" s="21">
         <v>2030</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F33" s="21">
         <v>0.34</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G33" s="21">
         <v>0.97</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H33" s="21">
         <v>25</v>
       </c>
-      <c r="I29" s="81">
+      <c r="I33" s="78">
         <f>[1]TechnologydataTech!$D$6*365*24/1000000000</f>
         <v>9.1191599999999994E-3</v>
       </c>
-      <c r="J29" s="36"/>
-      <c r="K29" s="82">
+      <c r="J33" s="36"/>
+      <c r="K33" s="79">
         <v>8.76</v>
       </c>
-      <c r="L29" s="33"/>
-      <c r="N29" s="21" t="s">
+      <c r="L33" s="67"/>
+      <c r="N33" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="O29" s="21"/>
-      <c r="P29" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q29" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="R29" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="C30" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0.17</v>
-      </c>
-      <c r="G30" s="21">
-        <v>0.99</v>
-      </c>
-      <c r="H30" s="21">
-        <v>25</v>
-      </c>
-      <c r="I30" s="81">
-        <f>[1]TechnologydataTech!$D$4*365*24/1000000000</f>
-        <v>6.0531600000000001E-3</v>
-      </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="82">
-        <v>8.76</v>
-      </c>
-      <c r="L30" s="33"/>
-      <c r="N30" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q30" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="R30" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="19" t="str">
-        <f>P33</f>
-        <v>CSP</v>
-      </c>
-      <c r="C31" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D31" s="19" t="str">
-        <f>DemTechs_INDF!Q14</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E31" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F31" s="21">
-        <v>0.41</v>
-      </c>
-      <c r="G31" s="21">
-        <v>0.92</v>
-      </c>
-      <c r="H31" s="21">
-        <v>25</v>
-      </c>
-      <c r="I31" s="83">
-        <f>[1]TechnologydataTech!$D$12*365*24/1000000000</f>
-        <v>3.2210519999999999E-2</v>
-      </c>
-      <c r="J31" s="36"/>
-      <c r="K31" s="82">
-        <v>8.76</v>
-      </c>
-      <c r="L31" s="33"/>
-      <c r="N31" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O31" s="21"/>
-      <c r="P31" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q31" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="R31" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="19" t="str">
-        <f>P31</f>
-        <v>MINWIND</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19" t="str">
-        <f>P8</f>
-        <v>WIND</v>
-      </c>
-      <c r="E32" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F32" s="21">
-        <v>1</v>
-      </c>
-      <c r="G32" s="21">
-        <v>1</v>
-      </c>
-      <c r="H32" s="21">
-        <v>50</v>
-      </c>
-      <c r="I32" s="84">
-        <v>0</v>
-      </c>
-      <c r="J32" s="69"/>
-      <c r="K32" s="82">
-        <v>8.76</v>
-      </c>
-      <c r="L32" s="68"/>
-      <c r="N32" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O32" s="21"/>
-      <c r="P32" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q32" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="R32" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="19" t="str">
-        <f>P32</f>
-        <v>MINSOL</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="E33" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F33" s="21">
-        <v>1</v>
-      </c>
-      <c r="G33" s="21">
-        <v>1</v>
-      </c>
-      <c r="H33" s="21">
-        <v>50</v>
-      </c>
-      <c r="I33" s="84">
-        <v>0</v>
-      </c>
-      <c r="J33" s="69"/>
-      <c r="K33" s="82">
-        <v>8.76</v>
-      </c>
-      <c r="L33" s="68"/>
-      <c r="N33" s="21" t="s">
-        <v>121</v>
       </c>
       <c r="O33" s="21"/>
       <c r="P33" s="19" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="Q33" s="37" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="R33" s="21" t="s">
         <v>58</v>
@@ -4084,264 +4003,458 @@
       </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="73"/>
-      <c r="L34" s="68"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="80"/>
+      <c r="B34" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="C34" s="19" t="str">
+        <f>P9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="D34" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="H34" s="21">
+        <v>25</v>
+      </c>
+      <c r="I34" s="78">
+        <f>[1]TechnologydataTech!$D$4*365*24/1000000000</f>
+        <v>6.0531600000000001E-3</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="79">
+        <v>8.76</v>
+      </c>
+      <c r="L34" s="67"/>
+      <c r="N34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O34" s="21"/>
+      <c r="P34" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q34" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="12"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="68"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="75"/>
-      <c r="Q35" s="80"/>
+      <c r="B35" s="19" t="str">
+        <f>P37</f>
+        <v>CSP</v>
+      </c>
+      <c r="C35" s="19" t="str">
+        <f>P9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="D35" s="19" t="str">
+        <f>DemTechs_INDF!Q11</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="E35" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="H35" s="21">
+        <v>25</v>
+      </c>
+      <c r="I35" s="80">
+        <f>[1]TechnologydataTech!$D$12*365*24/1000000000</f>
+        <v>3.2210519999999999E-2</v>
+      </c>
+      <c r="J35" s="36"/>
+      <c r="K35" s="79">
+        <v>8.76</v>
+      </c>
+      <c r="L35" s="67"/>
+      <c r="N35" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="21"/>
+      <c r="P35" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q35" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="R35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="68"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="75"/>
-      <c r="Q36" s="80"/>
+      <c r="B36" s="19" t="str">
+        <f>P35</f>
+        <v>MINWIND</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="str">
+        <f>P8</f>
+        <v>WIND</v>
+      </c>
+      <c r="E36" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F36" s="21">
+        <v>1</v>
+      </c>
+      <c r="G36" s="21">
+        <v>1</v>
+      </c>
+      <c r="H36" s="21">
+        <v>50</v>
+      </c>
+      <c r="I36" s="81">
+        <v>0</v>
+      </c>
+      <c r="J36" s="68"/>
+      <c r="K36" s="79">
+        <v>8.76</v>
+      </c>
+      <c r="L36" s="67"/>
+      <c r="N36" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36" s="21"/>
+      <c r="P36" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q36" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="R36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="12"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="73"/>
-      <c r="L37" s="68"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="76"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="80"/>
+      <c r="B37" s="19" t="str">
+        <f>P36</f>
+        <v>MINSOL</v>
+      </c>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19" t="str">
+        <f>P9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E37" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F37" s="21">
+        <v>1</v>
+      </c>
+      <c r="G37" s="21">
+        <v>1</v>
+      </c>
+      <c r="H37" s="21">
+        <v>50</v>
+      </c>
+      <c r="I37" s="81">
+        <v>0</v>
+      </c>
+      <c r="J37" s="68"/>
+      <c r="K37" s="79">
+        <v>8.76</v>
+      </c>
+      <c r="L37" s="67"/>
+      <c r="N37" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="O37" s="21"/>
+      <c r="P37" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q37" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="12"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="69"/>
-      <c r="K38" s="73"/>
-      <c r="L38" s="68"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="68"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="67"/>
       <c r="N38" s="76"/>
-      <c r="O38" s="76"/>
-      <c r="P38" s="75"/>
-      <c r="Q38" s="80"/>
+      <c r="O38" s="75"/>
+      <c r="P38" s="73"/>
+      <c r="Q38" s="77"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="8"/>
-      <c r="C39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
       <c r="D39" s="12"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="73"/>
-      <c r="L39" s="68"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="76"/>
-      <c r="P39" s="75"/>
-      <c r="Q39" s="80"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="68"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="67"/>
+      <c r="N39" s="75"/>
+      <c r="O39" s="75"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="77"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="8"/>
-      <c r="C40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="15"/>
       <c r="D40" s="12"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="73"/>
-      <c r="L40" s="68"/>
-      <c r="N40" s="76"/>
-      <c r="O40" s="76"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="80"/>
+      <c r="I40" s="71"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="67"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="77"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="8"/>
-      <c r="C41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="15"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="73"/>
-      <c r="L41" s="68"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="75"/>
-      <c r="Q41" s="80"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="67"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="77"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="8"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="1"/>
       <c r="D42" s="12"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="73"/>
-      <c r="L42" s="68"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="75"/>
-      <c r="Q42" s="80"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="68"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="67"/>
+      <c r="N42" s="75"/>
+      <c r="O42" s="75"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="77"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="12"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="69"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="N43" s="76"/>
-      <c r="O43" s="76"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="80"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="68"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="67"/>
+      <c r="N43" s="75"/>
+      <c r="O43" s="75"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="77"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="12"/>
-      <c r="C44" s="1"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="75"/>
-      <c r="Q44" s="80"/>
+      <c r="I44" s="71"/>
+      <c r="J44" s="68"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="67"/>
+      <c r="N44" s="75"/>
+      <c r="O44" s="75"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="77"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="12"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="I45" s="68"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="68"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="34"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="68"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="67"/>
+      <c r="N45" s="75"/>
+      <c r="O45" s="75"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="77"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="I46" s="68"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="34"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="72"/>
+      <c r="L46" s="67"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="75"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="77"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="30"/>
-      <c r="C47" s="1" t="s">
+      <c r="B47" s="12"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="67"/>
+      <c r="J47" s="68"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="77"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B48" s="12"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="68"/>
+      <c r="K48" s="67"/>
+      <c r="L48" s="67"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="77"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="68"/>
+      <c r="K49" s="67"/>
+      <c r="L49" s="67"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="34"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I50" s="67"/>
+      <c r="J50" s="68"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="34"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B51" s="30"/>
+      <c r="C51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I47" s="68"/>
-      <c r="J47" s="69"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="68"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="38"/>
-      <c r="C48" s="1" t="s">
+      <c r="I51" s="67"/>
+      <c r="J51" s="68"/>
+      <c r="K51" s="67"/>
+      <c r="L51" s="67"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B52" s="38"/>
+      <c r="C52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I48" s="68"/>
-      <c r="J48" s="69"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I49" s="68"/>
-      <c r="J49" s="69"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I50" s="70"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-    </row>
-    <row r="57" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="W58" s="1"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="68"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="67"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I53" s="67"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="67"/>
+      <c r="L53" s="67"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I54" s="69"/>
+      <c r="J54" s="69"/>
+      <c r="K54" s="69"/>
+    </row>
+    <row r="61" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61" s="69"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W62" s="1"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4354,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:W50"/>
+  <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4386,7 +4499,7 @@
     <col min="24" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:24" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
@@ -4407,7 +4520,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="2:23" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>99</v>
       </c>
@@ -4440,7 +4553,7 @@
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
       <c r="O3" s="41" t="s">
         <v>8</v>
       </c>
@@ -4469,7 +4582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -4504,249 +4617,239 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
-      <c r="O5" s="94" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="94"/>
-      <c r="Q5" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="S5" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="T5" s="94"/>
-      <c r="U5" s="94"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
-    </row>
-    <row r="6" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+    </row>
+    <row r="6" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="O6" s="94" t="s">
+      <c r="O6" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="R6" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="S6" s="94" t="s">
+      <c r="P6" s="98"/>
+      <c r="Q6" s="98" t="s">
+        <v>72</v>
+      </c>
+      <c r="R6" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="94"/>
-      <c r="U6" s="94"/>
-      <c r="V6" s="94"/>
-      <c r="W6" s="94"/>
-    </row>
-    <row r="7" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T6" s="98"/>
+      <c r="U6" s="98"/>
+      <c r="V6" s="98"/>
+      <c r="W6" s="98"/>
+    </row>
+    <row r="7" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-    </row>
-    <row r="8" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O7" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="R7" s="98" t="s">
+        <v>104</v>
+      </c>
+      <c r="S7" s="98" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+    </row>
+    <row r="8" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-    </row>
-    <row r="9" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O8" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="R8" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="95"/>
+      <c r="U8" s="95"/>
+      <c r="V8" s="95"/>
+      <c r="W8" s="95"/>
+      <c r="X8" s="60"/>
+    </row>
+    <row r="9" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="66"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
-    </row>
-    <row r="10" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O9" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="S9" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="60"/>
+    </row>
+    <row r="10" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-    </row>
-    <row r="11" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O10" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="S10" s="96" t="s">
+        <v>58</v>
+      </c>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="60"/>
+    </row>
+    <row r="11" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
-      <c r="O11" s="77" t="s">
+      <c r="O11" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="R11" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="S11" s="77" t="s">
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="R11" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="S11" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="66"/>
-      <c r="U11" s="66"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-    </row>
-    <row r="12" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="43"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="43"/>
-      <c r="G12" s="43"/>
-      <c r="O12" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="R12" s="77" t="s">
-        <v>128</v>
-      </c>
-      <c r="S12" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-    </row>
-    <row r="13" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="O13" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77" t="s">
-        <v>126</v>
-      </c>
-      <c r="R13" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="S13" s="77" t="s">
-        <v>58</v>
-      </c>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="60"/>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="62"/>
+      <c r="V12" s="62"/>
+      <c r="W12" s="62"/>
+      <c r="X12" s="60"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
     </row>
-    <row r="14" spans="2:23" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="O14" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78" t="s">
-        <v>123</v>
-      </c>
-      <c r="R14" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="S14" s="78" t="s">
-        <v>58</v>
-      </c>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
     </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="66"/>
+      <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
     </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-    </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
+      <c r="D17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="40"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
@@ -4755,243 +4858,358 @@
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
-      <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-    </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="D20" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="58"/>
-      <c r="O20" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="16"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-    </row>
-    <row r="21" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5" t="s">
+    <row r="18" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E18" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="46" t="s">
+      <c r="F18" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G18" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H18" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="45" t="s">
+      <c r="I18" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="45" t="s">
+      <c r="J18" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K21" s="47" t="s">
+      <c r="K18" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="47" t="s">
+      <c r="L18" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="41" t="s">
+      <c r="M18" s="47"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P21" s="42" t="s">
+      <c r="P18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="41" t="s">
+      <c r="Q18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R21" s="41" t="s">
+      <c r="R18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S21" s="41" t="s">
+      <c r="S18" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T21" s="41" t="s">
+      <c r="T18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="U21" s="41" t="s">
+      <c r="U18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="41" t="s">
+      <c r="V18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W21" s="41" t="s">
+      <c r="W18" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48" t="s">
+    <row r="19" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C19" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D19" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E19" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="48" t="s">
+      <c r="F19" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="48" t="s">
+      <c r="G19" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="49" t="s">
+      <c r="H19" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I22" s="48" t="s">
+      <c r="I19" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J19" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="49" t="s">
+      <c r="K19" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="49" t="s">
+      <c r="L19" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="M22" s="50"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="44" t="s">
+      <c r="M19" s="50"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="P22" s="44" t="s">
+      <c r="P19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="Q22" s="44" t="s">
+      <c r="Q19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R22" s="44" t="s">
+      <c r="R19" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="S22" s="44" t="s">
+      <c r="S19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="T22" s="44" t="s">
+      <c r="T19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U22" s="44" t="s">
+      <c r="U19" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="V22" s="44" t="s">
+      <c r="V19" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="W22" s="44" t="s">
+      <c r="W19" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="51" t="s">
+    <row r="20" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="52" t="s">
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="J23" s="52" t="s">
+      <c r="J20" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="K23" s="53"/>
-      <c r="L23" s="54" t="s">
+      <c r="K20" s="53"/>
+      <c r="L20" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="54"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="44" t="s">
+      <c r="M20" s="54"/>
+      <c r="N20" s="89"/>
+      <c r="O20" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="44"/>
-    </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="44"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="44"/>
+      <c r="U20" s="44"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="44"/>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B21" s="9" t="str">
+        <f>Q21</f>
+        <v>Furnace</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" s="90">
+        <v>2030</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58">
+        <v>1</v>
+      </c>
+      <c r="H21" s="58">
+        <v>1</v>
+      </c>
+      <c r="I21" s="58">
+        <v>30</v>
+      </c>
+      <c r="J21" s="58">
+        <v>333</v>
+      </c>
+      <c r="K21" s="58"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="O21" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="73" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U21" s="59" t="s">
+        <v>89</v>
+      </c>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B22" s="9" t="str">
+        <f>Q$22</f>
+        <v>BIOBoiler</v>
+      </c>
+      <c r="C22" s="9" t="str">
+        <f>PRI_Sector_Fuels!P5</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="90">
+        <v>2030</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="58">
+        <v>1</v>
+      </c>
+      <c r="I22" s="58">
+        <v>20</v>
+      </c>
+      <c r="J22" s="58">
+        <v>222</v>
+      </c>
+      <c r="K22" s="58"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="O22" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="75"/>
+      <c r="Q22" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="R22" s="77" t="s">
+        <v>102</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B23" s="9" t="str">
+        <f>Q25</f>
+        <v>ELCBoiler</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="90">
+        <v>2030</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58">
+        <v>0.8</v>
+      </c>
+      <c r="H23" s="58">
+        <v>1</v>
+      </c>
+      <c r="I23" s="58">
+        <v>20</v>
+      </c>
+      <c r="J23" s="58">
+        <v>2121</v>
+      </c>
+      <c r="K23" s="58"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="O23" s="75" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="75"/>
+      <c r="Q23" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="R23" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+    </row>
+    <row r="24" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="9" t="str">
-        <f>Q24</f>
-        <v>Furnace</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>69</v>
+        <f>Q23</f>
+        <v>BIOKiln</v>
+      </c>
+      <c r="C24" s="9" t="str">
+        <f>PRI_Sector_Fuels!P5</f>
+        <v>MANBIOMIN</v>
       </c>
       <c r="D24" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="93">
+      <c r="E24" s="90">
         <v>2030</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="58">
-        <v>1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H24" s="58">
         <v>1</v>
       </c>
       <c r="I24" s="58">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J24" s="58">
-        <v>333</v>
-      </c>
-      <c r="K24" s="58"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="O24" s="79" t="s">
+        <v>444</v>
+      </c>
+      <c r="O24" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="76"/>
+      <c r="P24" s="75"/>
       <c r="Q24" s="74" t="s">
-        <v>66</v>
-      </c>
-      <c r="R24" s="80" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="R24" s="77" t="s">
+        <v>114</v>
       </c>
       <c r="S24" s="9" t="s">
         <v>58</v>
@@ -4999,52 +5217,44 @@
       <c r="T24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U24" s="59" t="s">
-        <v>89</v>
-      </c>
-      <c r="V24" s="58"/>
-      <c r="W24" s="58"/>
-    </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="str">
-        <f>Q$25</f>
-        <v>BIOBoiler</v>
+    </row>
+    <row r="25" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="56" t="str">
+        <f>Q24</f>
+        <v>GASBoiler</v>
       </c>
       <c r="C25" s="9" t="str">
-        <f>PRI_Sector_Fuels!P5</f>
-        <v>MANBIOMIN</v>
+        <f>PRI_Sector_Fuels!P6</f>
+        <v>MANGASMIN</v>
       </c>
       <c r="D25" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="93">
+      <c r="E25" s="90">
         <v>2030</v>
       </c>
       <c r="F25" s="57"/>
       <c r="G25" s="58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H25" s="58">
         <v>1</v>
       </c>
       <c r="I25" s="58">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J25" s="58">
-        <v>222</v>
-      </c>
-      <c r="K25" s="58"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="O25" s="76" t="s">
+        <v>2145</v>
+      </c>
+      <c r="O25" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="75" t="s">
-        <v>111</v>
-      </c>
-      <c r="R25" s="80" t="s">
-        <v>102</v>
+      <c r="P25" s="75"/>
+      <c r="Q25" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="R25" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="S25" s="9" t="s">
         <v>58</v>
@@ -5052,49 +5262,41 @@
       <c r="T25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
-      <c r="W25" s="58"/>
-    </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B26" s="9" t="str">
-        <f>Q28</f>
-        <v>ELCBoiler</v>
-      </c>
-      <c r="C26" s="9" t="s">
+    </row>
+    <row r="26" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="56" t="str">
+        <f>Q27</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="93">
+      <c r="E26" s="90">
         <v>2030</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="58">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H26" s="58">
         <v>1</v>
       </c>
       <c r="I26" s="58">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J26" s="58">
-        <v>2121</v>
-      </c>
-      <c r="K26" s="58"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="O26" s="76" t="s">
+        <v>1041</v>
+      </c>
+      <c r="O26" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="R26" s="80" t="s">
-        <v>117</v>
+      <c r="P26" s="75"/>
+      <c r="Q26" s="74" t="s">
+        <v>65</v>
+      </c>
+      <c r="R26" s="77" t="s">
+        <v>120</v>
       </c>
       <c r="S26" s="9" t="s">
         <v>58</v>
@@ -5102,68 +5304,63 @@
       <c r="T26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U26" s="58"/>
-      <c r="V26" s="58"/>
-      <c r="W26" s="58"/>
+      <c r="U26" s="58" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="27" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="str">
-        <f>Q26</f>
-        <v>BIOKiln</v>
-      </c>
-      <c r="C27" s="9" t="str">
-        <f>PRI_Sector_Fuels!P5</f>
-        <v>MANBIOMIN</v>
-      </c>
+      <c r="B27" s="56" t="str">
+        <f>Q28</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E27" s="93">
+        <v>69</v>
+      </c>
+      <c r="E27" s="90">
         <v>2030</v>
       </c>
       <c r="F27" s="57"/>
       <c r="G27" s="58">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H27" s="58">
         <v>1</v>
       </c>
       <c r="I27" s="58">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J27" s="58">
-        <v>444</v>
-      </c>
-      <c r="O27" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="R27" s="80" t="s">
-        <v>114</v>
+        <v>691</v>
+      </c>
+      <c r="O27" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="75"/>
+      <c r="Q27" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="R27" s="77" t="s">
+        <v>97</v>
       </c>
       <c r="S27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T27" s="9" t="s">
-        <v>88</v>
+      <c r="T27" s="9"/>
+      <c r="U27" s="58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="56" t="str">
-        <f>Q27</f>
-        <v>GASBoiler</v>
-      </c>
-      <c r="C28" s="9" t="str">
-        <f>PRI_Sector_Fuels!P6</f>
-        <v>MANGASMIN</v>
-      </c>
+        <f>Q26</f>
+        <v>CSP</v>
+      </c>
+      <c r="C28" s="9"/>
       <c r="D28" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="93">
+      <c r="E28" s="90">
         <v>2030</v>
       </c>
       <c r="F28" s="57"/>
@@ -5177,155 +5374,58 @@
         <v>25</v>
       </c>
       <c r="J28" s="58">
-        <v>2145</v>
-      </c>
-      <c r="O28" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="75" t="s">
-        <v>115</v>
-      </c>
-      <c r="R28" s="80" t="s">
-        <v>116</v>
+        <v>36377</v>
+      </c>
+      <c r="O28" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="P28" s="75"/>
+      <c r="Q28" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="R28" s="77" t="s">
+        <v>96</v>
       </c>
       <c r="S28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T28" s="9" t="s">
-        <v>88</v>
+      <c r="T28" s="9"/>
+      <c r="U28" s="58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="56" t="str">
-        <f>Q30</f>
-        <v>WNDTRBN</v>
-      </c>
+      <c r="B29" s="56"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E29" s="93">
-        <v>2030</v>
-      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="57"/>
-      <c r="G29" s="58">
-        <v>1</v>
-      </c>
-      <c r="H29" s="58">
-        <v>1</v>
-      </c>
-      <c r="I29" s="58">
-        <v>25</v>
-      </c>
-      <c r="J29" s="58">
-        <v>1041</v>
-      </c>
-      <c r="O29" s="76" t="s">
-        <v>121</v>
-      </c>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="75" t="s">
-        <v>65</v>
-      </c>
-      <c r="R29" s="80" t="s">
-        <v>120</v>
-      </c>
-      <c r="S29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U29" s="58" t="s">
-        <v>89</v>
-      </c>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="99"/>
+      <c r="R29" s="100"/>
     </row>
     <row r="30" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="56" t="str">
-        <f>Q31</f>
-        <v>SOLPV</v>
-      </c>
+      <c r="B30" s="56"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="93">
-        <v>2030</v>
-      </c>
+      <c r="D30" s="56"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="57"/>
-      <c r="G30" s="58">
-        <v>1</v>
-      </c>
-      <c r="H30" s="58">
-        <v>1</v>
-      </c>
-      <c r="I30" s="58">
-        <v>25</v>
-      </c>
-      <c r="J30" s="58">
-        <v>691</v>
-      </c>
-      <c r="O30" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="R30" s="80" t="s">
-        <v>97</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T30" s="9"/>
-      <c r="U30" s="58" t="s">
-        <v>89</v>
-      </c>
+      <c r="O30" s="69"/>
+      <c r="P30" s="69"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="100"/>
     </row>
     <row r="31" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="56" t="str">
-        <f>Q29</f>
-        <v>CSP</v>
-      </c>
+      <c r="B31" s="56"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="93">
-        <v>2030</v>
-      </c>
+      <c r="D31" s="56"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="57"/>
-      <c r="G31" s="58">
-        <v>1</v>
-      </c>
-      <c r="H31" s="58">
-        <v>1</v>
-      </c>
-      <c r="I31" s="58">
-        <v>25</v>
-      </c>
-      <c r="J31" s="58">
-        <v>36377</v>
-      </c>
-      <c r="O31" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="75" t="s">
-        <v>95</v>
-      </c>
-      <c r="R31" s="80" t="s">
-        <v>96</v>
-      </c>
-      <c r="S31" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T31" s="9"/>
-      <c r="U31" s="58" t="s">
-        <v>89</v>
-      </c>
+      <c r="O31" s="69"/>
+      <c r="P31" s="69"/>
+      <c r="Q31" s="99"/>
+      <c r="R31" s="100"/>
     </row>
     <row r="32" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="56"/>
@@ -5333,51 +5433,144 @@
       <c r="D32" s="56"/>
       <c r="E32" s="17"/>
       <c r="F32" s="57"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
+      <c r="O32" s="69"/>
+      <c r="P32" s="69"/>
+      <c r="Q32" s="99"/>
+      <c r="R32" s="100"/>
     </row>
     <row r="33" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="56"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="56"/>
-      <c r="E33" s="17"/>
+      <c r="B33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f>Q8</f>
+        <v>ELCHEAT</v>
+      </c>
+      <c r="D33" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="17">
+        <v>2030</v>
+      </c>
       <c r="F33" s="57"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
+      <c r="G33" s="58">
+        <v>1</v>
+      </c>
+      <c r="H33" s="58">
+        <v>1</v>
+      </c>
+      <c r="I33" s="58">
+        <v>50</v>
+      </c>
+      <c r="J33" s="58">
+        <v>0</v>
+      </c>
+      <c r="K33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
     </row>
     <row r="34" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="56"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="17"/>
+      <c r="B34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f>Q9</f>
+        <v>BIOHEAT</v>
+      </c>
+      <c r="D34" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="17">
+        <v>2030</v>
+      </c>
       <c r="F34" s="57"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="80"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
+      <c r="G34" s="58">
+        <v>1</v>
+      </c>
+      <c r="H34" s="58">
+        <v>1</v>
+      </c>
+      <c r="I34" s="58">
+        <v>50</v>
+      </c>
+      <c r="J34" s="58">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8"/>
+      <c r="O34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="R34" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="S34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
     </row>
     <row r="35" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="56"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="17"/>
+      <c r="B35" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="16" t="str">
+        <f>Q10</f>
+        <v>GASHEAT</v>
+      </c>
+      <c r="D35" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="17">
+        <v>2030</v>
+      </c>
       <c r="F35" s="57"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="80"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
+      <c r="G35" s="58">
+        <v>1</v>
+      </c>
+      <c r="H35" s="58">
+        <v>1</v>
+      </c>
+      <c r="I35" s="58">
+        <v>50</v>
+      </c>
+      <c r="J35" s="58">
+        <v>0</v>
+      </c>
+      <c r="K35" s="8"/>
+      <c r="O35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="R35" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="S35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
     </row>
     <row r="36" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
@@ -5385,7 +5578,7 @@
       </c>
       <c r="C36" s="16" t="str">
         <f>Q11</f>
-        <v>ELCHEAT</v>
+        <v>SOLHEAT</v>
       </c>
       <c r="D36" s="56" t="s">
         <v>119</v>
@@ -5396,15 +5589,6 @@
       <c r="F36" s="57"/>
       <c r="G36" s="58">
         <v>1</v>
-      </c>
-      <c r="H36" s="58">
-        <v>1</v>
-      </c>
-      <c r="I36" s="58">
-        <v>50</v>
-      </c>
-      <c r="J36" s="58">
-        <v>0</v>
       </c>
       <c r="K36" s="8"/>
       <c r="O36" s="8"/>
@@ -5418,15 +5602,13 @@
       <c r="W36" s="8"/>
     </row>
     <row r="37" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="16" t="str">
-        <f>Q12</f>
-        <v>BIOHEAT</v>
-      </c>
+      <c r="B37" s="16" t="str">
+        <f>Q34</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C37" s="16"/>
       <c r="D37" s="56" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E37" s="17">
         <v>2030</v>
@@ -5436,275 +5618,152 @@
         <v>1</v>
       </c>
       <c r="H37" s="58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I37" s="58">
-        <v>50</v>
-      </c>
-      <c r="J37" s="58">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8"/>
-      <c r="O37" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="R37" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="S37" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21" t="s">
-        <v>89</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="J37" s="85">
+        <v>1041</v>
+      </c>
+      <c r="K37" s="8">
+        <v>38</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
       <c r="V37" s="8"/>
       <c r="W37" s="8"/>
     </row>
     <row r="38" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="16" t="str">
-        <f>Q13</f>
-        <v>GASHEAT</v>
-      </c>
+      <c r="B38" s="16" t="str">
+        <f>Q35</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C38" s="8"/>
       <c r="D38" s="56" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="E38" s="17">
         <v>2030</v>
       </c>
-      <c r="F38" s="57"/>
-      <c r="G38" s="58">
+      <c r="F38" s="61"/>
+      <c r="G38" s="8">
         <v>1</v>
       </c>
-      <c r="H38" s="58">
-        <v>1</v>
-      </c>
-      <c r="I38" s="58">
-        <v>50</v>
-      </c>
-      <c r="J38" s="58">
-        <v>0</v>
-      </c>
-      <c r="K38" s="8"/>
-      <c r="O38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="R38" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="S38" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="H38" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="I38" s="8">
+        <v>25</v>
+      </c>
+      <c r="J38" s="86">
+        <v>691</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1125</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
       <c r="V38" s="8"/>
       <c r="W38" s="8"/>
     </row>
-    <row r="39" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C39" s="16" t="str">
-        <f>Q14</f>
+        <v>65</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="str">
+        <f>Q11</f>
         <v>SOLHEAT</v>
-      </c>
-      <c r="D39" s="56" t="s">
-        <v>119</v>
       </c>
       <c r="E39" s="17">
         <v>2030</v>
       </c>
-      <c r="F39" s="57"/>
-      <c r="G39" s="58">
+      <c r="F39" s="61"/>
+      <c r="G39" s="8">
         <v>1</v>
       </c>
-      <c r="K39" s="8"/>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>25</v>
+      </c>
+      <c r="J39" s="86">
+        <v>36377</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="60">
+        <v>14</v>
+      </c>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="8"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="66"/>
       <c r="V39" s="8"/>
       <c r="W39" s="8"/>
     </row>
-    <row r="40" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="16" t="str">
-        <f>Q37</f>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F40" s="57"/>
-      <c r="G40" s="58">
-        <v>1</v>
-      </c>
-      <c r="H40" s="58">
-        <v>0.97</v>
-      </c>
-      <c r="I40" s="58">
-        <v>25</v>
-      </c>
-      <c r="J40" s="88">
-        <v>1041</v>
-      </c>
-      <c r="K40" s="8">
-        <v>38</v>
-      </c>
-      <c r="O40" s="8"/>
-      <c r="P40" s="8"/>
-      <c r="Q40" s="8"/>
-      <c r="R40" s="8"/>
-      <c r="S40" s="8"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="8"/>
-    </row>
-    <row r="41" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="16" t="str">
-        <f>Q38</f>
-        <v>SOLPV</v>
-      </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E41" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F41" s="61"/>
-      <c r="G41" s="8">
-        <v>1</v>
-      </c>
-      <c r="H41" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="I41" s="8">
-        <v>25</v>
-      </c>
-      <c r="J41" s="89">
-        <v>691</v>
-      </c>
-      <c r="K41" s="8">
-        <v>1125</v>
-      </c>
-      <c r="O41" s="8"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="8"/>
-      <c r="R41" s="8"/>
-      <c r="S41" s="8"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="8"/>
-    </row>
-    <row r="42" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="str">
-        <f>Q14</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E42" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F42" s="61"/>
-      <c r="G42" s="8">
-        <v>1</v>
-      </c>
-      <c r="H42" s="8">
-        <v>1</v>
-      </c>
-      <c r="I42" s="8">
-        <v>25</v>
-      </c>
-      <c r="J42" s="89">
-        <v>36377</v>
-      </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-      <c r="L42" s="60">
-        <v>14</v>
-      </c>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-      <c r="R42" s="8"/>
-      <c r="S42" s="16"/>
-      <c r="T42" s="16"/>
-      <c r="U42" s="67"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="8"/>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="F40" s="61"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="63"/>
+      <c r="P40" s="60"/>
+      <c r="R40" s="60"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="H41" s="63"/>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B42" s="55"/>
+      <c r="C42" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H42" s="63"/>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="F43" s="61"/>
-      <c r="G43" s="10"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H43" s="63"/>
-      <c r="P43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="E44" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="H44" s="63"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B45" s="55"/>
-      <c r="C45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="63"/>
-    </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B46" s="64"/>
-      <c r="C46" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H46" s="63"/>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="63"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E49" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F46" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E50" s="10"/>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="E47" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EEE47-80DB-4449-A70E-59F4A4350BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330B7A81-508D-48F6-BF3D-E6CC5B7B3B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="137">
   <si>
     <t>~FI_T</t>
   </si>
@@ -3150,8 +3150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView topLeftCell="A15" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3588,6 +3588,9 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="F22" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="N22" s="11" t="s">
         <v>17</v>
@@ -3953,7 +3956,7 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="str">
-        <f t="shared" ref="B27:B34" si="0">P33</f>
+        <f t="shared" ref="B33:B34" si="0">P33</f>
         <v>WNDTRBN</v>
       </c>
       <c r="C33" s="19" t="str">

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330B7A81-508D-48F6-BF3D-E6CC5B7B3B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -4472,8 +4472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2E5FE0C-8C2C-4B9F-B1B5-DBC6AD57EDFF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -829,7 +829,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{55A1C4CC-2CE1-4EC9-89C3-19F6C183A19B}">
+    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{55A1C4CC-2CE1-4EC9-89C3-19F6C183A19B}">
       <text>
         <r>
           <rPr>
@@ -943,7 +943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="1" shapeId="0" xr:uid="{B2B38135-7F48-40C5-9C6D-9368B3BD2092}">
+    <comment ref="V3" authorId="1" shapeId="0" xr:uid="{B2B38135-7F48-40C5-9C6D-9368B3BD2092}">
       <text>
         <r>
           <rPr>
@@ -969,7 +969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{345773E6-DE00-4CE0-B8BB-8B089B629421}">
+    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{345773E6-DE00-4CE0-B8BB-8B089B629421}">
       <text>
         <r>
           <rPr>
@@ -1042,7 +1042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{31DAF2B0-786F-4E95-9CBB-D182F2EED3B5}">
+    <comment ref="X3" authorId="2" shapeId="0" xr:uid="{31DAF2B0-786F-4E95-9CBB-D182F2EED3B5}">
       <text>
         <r>
           <rPr>
@@ -1095,7 +1095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{555C1793-7B9E-49B9-8EB3-17347BDEF241}">
+    <comment ref="Y3" authorId="2" shapeId="0" xr:uid="{555C1793-7B9E-49B9-8EB3-17347BDEF241}">
       <text>
         <r>
           <rPr>
@@ -1128,7 +1128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U18" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
+    <comment ref="W18" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V18" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
+    <comment ref="X18" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
       <text>
         <r>
           <rPr>
@@ -1246,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W18" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
+    <comment ref="Y18" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
       <text>
         <r>
           <rPr>
@@ -1309,7 +1309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
+    <comment ref="Q19" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
       <text>
         <r>
           <rPr>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="141">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1980,6 +1980,18 @@
   </si>
   <si>
     <t>ETH</t>
+  </si>
+  <si>
+    <t>ENV_ACT</t>
+  </si>
+  <si>
+    <t>Activity Emission Coefficient</t>
+  </si>
+  <si>
+    <t>ktCO₂/GWh</t>
+  </si>
+  <si>
+    <t>MANCO2</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2290,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2381,9 +2393,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2406,9 +2415,6 @@
     <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -2434,15 +2440,6 @@
     </xf>
     <xf numFmtId="167" fontId="15" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2461,10 +2458,6 @@
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="21" fillId="13" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -2624,13 +2617,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3150,37 +3143,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="69" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
+    <col min="12" max="12" width="13.7265625" style="67" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1796875" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" customWidth="1"/>
+    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
@@ -3198,7 +3191,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C2" s="21" t="s">
         <v>72</v>
       </c>
@@ -3224,7 +3217,7 @@
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C3" s="21" t="s">
         <v>63</v>
       </c>
@@ -3266,7 +3259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="21" t="s">
         <v>61</v>
       </c>
@@ -3308,7 +3301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C5" s="21" t="s">
         <v>60</v>
       </c>
@@ -3340,7 +3333,7 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="18"/>
@@ -3364,7 +3357,7 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="18"/>
@@ -3380,24 +3373,24 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="N8" s="70" t="s">
+      <c r="N8" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70" t="s">
+      <c r="O8" s="68"/>
+      <c r="P8" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="70" t="s">
+      <c r="Q8" s="68" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="70" t="s">
+      <c r="R8" s="68" t="s">
         <v>58</v>
       </c>
       <c r="S8" s="19"/>
@@ -3405,7 +3398,7 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3413,17 +3406,17 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="N9" s="70" t="s">
+      <c r="N9" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70" t="s">
+      <c r="O9" s="68"/>
+      <c r="P9" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="70" t="s">
+      <c r="Q9" s="68" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="70" t="s">
+      <c r="R9" s="68" t="s">
         <v>58</v>
       </c>
       <c r="S9" s="19"/>
@@ -3431,7 +3424,7 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -3449,8 +3442,8 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L11" s="91"/>
+    <row r="11" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="86"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
@@ -3461,8 +3454,8 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L12" s="91"/>
+    <row r="12" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="86"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -3473,7 +3466,7 @@
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3481,7 +3474,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="L13" s="91"/>
+      <c r="L13" s="86"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
@@ -3492,7 +3485,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3500,7 +3493,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="L14" s="91"/>
+      <c r="L14" s="86"/>
       <c r="N14" s="12"/>
       <c r="O14" s="15"/>
       <c r="P14" s="12"/>
@@ -3511,7 +3504,7 @@
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N15" s="12"/>
       <c r="O15" s="15"/>
       <c r="P15" s="12"/>
@@ -3522,7 +3515,7 @@
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N16" s="12"/>
       <c r="O16" s="15"/>
       <c r="P16" s="12"/>
@@ -3533,7 +3526,7 @@
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N17" s="12"/>
       <c r="O17" s="15"/>
       <c r="P17" s="12"/>
@@ -3544,7 +3537,7 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N18" s="12"/>
       <c r="O18" s="15"/>
       <c r="P18" s="12"/>
@@ -3555,7 +3548,7 @@
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N19" s="12"/>
       <c r="O19" s="15"/>
       <c r="P19" s="12"/>
@@ -3566,7 +3559,7 @@
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N20" s="12"/>
       <c r="O20" s="15"/>
       <c r="P20" s="12"/>
@@ -3577,7 +3570,7 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -3587,7 +3580,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="F22" s="2" t="s">
         <v>0</v>
       </c>
@@ -3604,7 +3597,7 @@
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
         <v>1</v>
       </c>
@@ -3635,7 +3628,7 @@
       <c r="K23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="92"/>
+      <c r="L23" s="87"/>
       <c r="N23" s="13" t="s">
         <v>15</v>
       </c>
@@ -3664,7 +3657,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25" t="s">
         <v>48</v>
       </c>
@@ -3695,7 +3688,7 @@
       <c r="K24" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="93"/>
+      <c r="L24" s="88"/>
       <c r="N24" s="20" t="s">
         <v>50</v>
       </c>
@@ -3724,7 +3717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25" t="s">
         <v>53</v>
       </c>
@@ -3743,7 +3736,7 @@
         <v>58</v>
       </c>
       <c r="K25" s="28"/>
-      <c r="L25" s="94"/>
+      <c r="L25" s="89"/>
       <c r="N25" s="20" t="s">
         <v>82</v>
       </c>
@@ -3758,7 +3751,7 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="str">
         <f>P26</f>
         <v>MINBIO</v>
@@ -3788,25 +3781,25 @@
       <c r="K26" s="33">
         <v>8.76</v>
       </c>
-      <c r="L26" s="67"/>
-      <c r="N26" s="82" t="s">
+      <c r="L26" s="65"/>
+      <c r="N26" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="82"/>
-      <c r="P26" s="83" t="s">
+      <c r="O26" s="80"/>
+      <c r="P26" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="Q26" s="84" t="str">
+      <c r="Q26" s="82" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="R26" s="82" t="s">
+      <c r="R26" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="S26" s="80"/>
+      <c r="T26" s="80"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="str">
         <f>P27</f>
         <v>MINGAS</v>
@@ -3836,25 +3829,25 @@
       <c r="K27" s="33">
         <v>8.76</v>
       </c>
-      <c r="L27" s="67"/>
-      <c r="N27" s="82" t="s">
+      <c r="L27" s="65"/>
+      <c r="N27" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="82"/>
-      <c r="P27" s="83" t="s">
+      <c r="O27" s="80"/>
+      <c r="P27" s="81" t="s">
         <v>135</v>
       </c>
-      <c r="Q27" s="84" t="str">
+      <c r="Q27" s="82" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Ngas </v>
       </c>
-      <c r="R27" s="82" t="s">
+      <c r="R27" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="S27" s="80"/>
+      <c r="T27" s="80"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="12"/>
       <c r="C28" s="15"/>
       <c r="D28" s="12"/>
@@ -3865,16 +3858,16 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
       <c r="K28" s="33"/>
-      <c r="L28" s="67"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="84"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L28" s="65"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="80"/>
+      <c r="S28" s="80"/>
+      <c r="T28" s="80"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="12"/>
       <c r="C29" s="15"/>
       <c r="D29" s="12"/>
@@ -3885,16 +3878,16 @@
       <c r="I29" s="35"/>
       <c r="J29" s="36"/>
       <c r="K29" s="33"/>
-      <c r="L29" s="67"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="84"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L29" s="65"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="12"/>
       <c r="C30" s="15"/>
       <c r="D30" s="12"/>
@@ -3905,16 +3898,16 @@
       <c r="I30" s="35"/>
       <c r="J30" s="36"/>
       <c r="K30" s="33"/>
-      <c r="L30" s="67"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="84"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L30" s="65"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="80"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="15"/>
       <c r="D31" s="12"/>
@@ -3925,16 +3918,16 @@
       <c r="I31" s="35"/>
       <c r="J31" s="36"/>
       <c r="K31" s="33"/>
-      <c r="L31" s="67"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="84"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="L31" s="65"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="80"/>
+      <c r="S31" s="80"/>
+      <c r="T31" s="80"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="15"/>
       <c r="D32" s="12"/>
@@ -3945,16 +3938,16 @@
       <c r="I32" s="35"/>
       <c r="J32" s="36"/>
       <c r="K32" s="33"/>
-      <c r="L32" s="67"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="83"/>
-      <c r="Q32" s="84"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L32" s="65"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="80"/>
+      <c r="S32" s="80"/>
+      <c r="T32" s="80"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="str">
         <f t="shared" ref="B33:B34" si="0">P33</f>
         <v>WNDTRBN</v>
@@ -3978,15 +3971,15 @@
       <c r="H33" s="21">
         <v>25</v>
       </c>
-      <c r="I33" s="78">
+      <c r="I33" s="76">
         <f>[1]TechnologydataTech!$D$6*365*24/1000000000</f>
         <v>9.1191599999999994E-3</v>
       </c>
       <c r="J33" s="36"/>
-      <c r="K33" s="79">
+      <c r="K33" s="77">
         <v>8.76</v>
       </c>
-      <c r="L33" s="67"/>
+      <c r="L33" s="65"/>
       <c r="N33" s="21" t="s">
         <v>69</v>
       </c>
@@ -4005,7 +3998,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SOLPV</v>
@@ -4029,15 +4022,15 @@
       <c r="H34" s="21">
         <v>25</v>
       </c>
-      <c r="I34" s="78">
+      <c r="I34" s="76">
         <f>[1]TechnologydataTech!$D$4*365*24/1000000000</f>
         <v>6.0531600000000001E-3</v>
       </c>
       <c r="J34" s="36"/>
-      <c r="K34" s="79">
+      <c r="K34" s="77">
         <v>8.76</v>
       </c>
-      <c r="L34" s="67"/>
+      <c r="L34" s="65"/>
       <c r="N34" s="21" t="s">
         <v>69</v>
       </c>
@@ -4056,7 +4049,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="19" t="str">
         <f>P37</f>
         <v>CSP</v>
@@ -4066,7 +4059,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D35" s="19" t="str">
-        <f>DemTechs_INDF!Q11</f>
+        <f>DemTechs_INDF!S8</f>
         <v>SOLHEAT</v>
       </c>
       <c r="E35" s="21">
@@ -4081,15 +4074,15 @@
       <c r="H35" s="21">
         <v>25</v>
       </c>
-      <c r="I35" s="80">
+      <c r="I35" s="78">
         <f>[1]TechnologydataTech!$D$12*365*24/1000000000</f>
         <v>3.2210519999999999E-2</v>
       </c>
       <c r="J35" s="36"/>
-      <c r="K35" s="79">
+      <c r="K35" s="77">
         <v>8.76</v>
       </c>
-      <c r="L35" s="67"/>
+      <c r="L35" s="65"/>
       <c r="N35" s="21" t="s">
         <v>64</v>
       </c>
@@ -4106,7 +4099,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="19" t="str">
         <f>P35</f>
         <v>MINWIND</v>
@@ -4128,14 +4121,14 @@
       <c r="H36" s="21">
         <v>50</v>
       </c>
-      <c r="I36" s="81">
+      <c r="I36" s="79">
         <v>0</v>
       </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="79">
+      <c r="J36" s="66"/>
+      <c r="K36" s="77">
         <v>8.76</v>
       </c>
-      <c r="L36" s="67"/>
+      <c r="L36" s="65"/>
       <c r="N36" s="21" t="s">
         <v>64</v>
       </c>
@@ -4152,7 +4145,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="str">
         <f>P36</f>
         <v>MINSOL</v>
@@ -4174,14 +4167,14 @@
       <c r="H37" s="21">
         <v>50</v>
       </c>
-      <c r="I37" s="81">
+      <c r="I37" s="79">
         <v>0</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="79">
+      <c r="J37" s="66"/>
+      <c r="K37" s="77">
         <v>8.76</v>
       </c>
-      <c r="L37" s="67"/>
+      <c r="L37" s="65"/>
       <c r="N37" s="21" t="s">
         <v>121</v>
       </c>
@@ -4200,235 +4193,235 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="67"/>
-      <c r="N38" s="76"/>
-      <c r="O38" s="75"/>
-      <c r="P38" s="73"/>
-      <c r="Q38" s="77"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I38" s="69"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="65"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="75"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="15"/>
       <c r="D39" s="12"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="67"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="75"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="77"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I39" s="69"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="65"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="75"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="15"/>
       <c r="D40" s="12"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="67"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="74"/>
-      <c r="Q40" s="77"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I40" s="69"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="65"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="75"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="15"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="67"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="75"/>
-      <c r="P41" s="74"/>
-      <c r="Q41" s="77"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I41" s="69"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="65"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="75"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="1"/>
       <c r="D42" s="12"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="67"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="75"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="77"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I42" s="69"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="65"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="75"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="67"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="77"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I43" s="69"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="65"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="75"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="67"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="77"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I44" s="69"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="65"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="75"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="68"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="67"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="77"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I45" s="69"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="65"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="75"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="8"/>
       <c r="C46" s="1"/>
       <c r="D46" s="12"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="67"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="77"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I46" s="69"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="65"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="75"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="12"/>
       <c r="C47" s="1"/>
       <c r="D47" s="12"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="68"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="77"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="I47" s="65"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="75"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="12"/>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="77"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I48" s="65"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="75"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="68"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="34"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I50" s="67"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I50" s="65"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="34"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B51" s="30"/>
       <c r="C51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="67"/>
-      <c r="J51" s="68"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I51" s="65"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B52" s="38"/>
       <c r="C52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="67"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="67"/>
-      <c r="L52" s="67"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I53" s="67"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I54" s="69"/>
-      <c r="J54" s="69"/>
-      <c r="K54" s="69"/>
-    </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="65"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I53" s="65"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I54" s="67"/>
+      <c r="J54" s="67"/>
+      <c r="K54" s="67"/>
+    </row>
+    <row r="61" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -4440,7 +4433,7 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61" s="69"/>
+      <c r="L61" s="67"/>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
@@ -4453,10 +4446,10 @@
       <c r="V61"/>
       <c r="W61"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
   </sheetData>
@@ -4470,39 +4463,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:X47"/>
+  <dimension ref="B1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView topLeftCell="A18" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P42" sqref="P42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="8.140625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="8.140625" style="60" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.140625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="63.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="8" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" style="8" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" style="8" customWidth="1"/>
-    <col min="24" max="16384" width="8.85546875" style="8"/>
+    <col min="6" max="6" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="8" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.1796875" style="8" customWidth="1"/>
+    <col min="15" max="16" width="8.1796875" style="59" customWidth="1"/>
+    <col min="17" max="17" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1796875" style="8" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="63.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.26953125" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7265625" style="8" customWidth="1"/>
+    <col min="23" max="23" width="13.453125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="13.81640625" style="8" customWidth="1"/>
+    <col min="25" max="25" width="8.453125" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="8.81640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
@@ -4523,7 +4516,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="2:24" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>99</v>
       </c>
@@ -4544,279 +4537,280 @@
       <c r="H2" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="40" t="s">
+      <c r="Q2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="R2" s="40"/>
       <c r="S2" s="16"/>
       <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="O3" s="41" t="s">
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+    </row>
+    <row r="3" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+      <c r="Q3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="R3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="S3" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="T3" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="41" t="s">
+      <c r="U3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="V3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="41" t="s">
+      <c r="W3" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="V3" s="41" t="s">
+      <c r="X3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="41" t="s">
+      <c r="Y3" s="41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:24" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
       <c r="E4" s="43"/>
       <c r="F4" s="43"/>
       <c r="G4" s="43"/>
-      <c r="O4" s="44" t="s">
+      <c r="Q4" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="R4" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="44" t="s">
+      <c r="S4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="T4" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="44" t="s">
+      <c r="U4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="44" t="s">
+      <c r="V4" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="44" t="s">
+      <c r="W4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="44" t="s">
+      <c r="X4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="Y4" s="44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-    </row>
-    <row r="6" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q5" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" s="91" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="90"/>
+      <c r="W5" s="90"/>
+      <c r="X5" s="90"/>
+      <c r="Y5" s="90"/>
+      <c r="Z5" s="59"/>
+    </row>
+    <row r="6" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="O6" s="98" t="s">
+      <c r="Q6" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="98"/>
-      <c r="Q6" s="98" t="s">
-        <v>72</v>
-      </c>
-      <c r="R6" s="98" t="s">
-        <v>103</v>
-      </c>
-      <c r="S6" s="98" t="s">
+      <c r="R6" s="91"/>
+      <c r="S6" s="91" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="U6" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="T6" s="98"/>
-      <c r="U6" s="98"/>
-      <c r="V6" s="98"/>
-      <c r="W6" s="98"/>
-    </row>
-    <row r="7" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="59"/>
+    </row>
+    <row r="7" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="O7" s="98" t="s">
+      <c r="Q7" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="R7" s="98" t="s">
-        <v>104</v>
-      </c>
-      <c r="S7" s="98" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="91" t="s">
+        <v>129</v>
+      </c>
+      <c r="U7" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-    </row>
-    <row r="8" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="59"/>
+    </row>
+    <row r="8" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="O8" s="96" t="s">
+      <c r="Q8" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96" t="s">
-        <v>122</v>
-      </c>
-      <c r="R8" s="96" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" s="96" t="s">
+      <c r="R8" s="92"/>
+      <c r="S8" s="92" t="s">
+        <v>123</v>
+      </c>
+      <c r="T8" s="92" t="s">
+        <v>130</v>
+      </c>
+      <c r="U8" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="T8" s="95"/>
-      <c r="U8" s="95"/>
-      <c r="V8" s="95"/>
-      <c r="W8" s="95"/>
-      <c r="X8" s="60"/>
-    </row>
-    <row r="9" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="59"/>
+    </row>
+    <row r="9" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="O9" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96" t="s">
-        <v>125</v>
-      </c>
-      <c r="R9" s="96" t="s">
-        <v>128</v>
-      </c>
-      <c r="S9" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="60"/>
-    </row>
-    <row r="10" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="59"/>
+    </row>
+    <row r="10" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="O10" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96" t="s">
-        <v>126</v>
-      </c>
-      <c r="R10" s="96" t="s">
-        <v>129</v>
-      </c>
-      <c r="S10" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="60"/>
-    </row>
-    <row r="11" spans="2:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q10" s="92"/>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="59"/>
+    </row>
+    <row r="11" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
-      <c r="O11" s="97" t="s">
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="92"/>
+      <c r="U11" s="92"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="59"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q12" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97" t="s">
-        <v>123</v>
-      </c>
-      <c r="R11" s="97" t="s">
-        <v>130</v>
-      </c>
-      <c r="S11" s="97" t="s">
+      <c r="R12" s="93"/>
+      <c r="S12" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="T12" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="U12" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="60"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="62"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
-      <c r="W12" s="62"/>
-      <c r="X12" s="60"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="59"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q13" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="T13" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="U13" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -4824,10 +4818,10 @@
       <c r="U14" s="16"/>
       <c r="V14" s="16"/>
       <c r="W14" s="16"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -4835,8 +4829,10 @@
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
       <c r="W15" s="16"/>
-    </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+    </row>
+    <row r="17" spans="2:25" ht="13" x14ac:dyDescent="0.3">
       <c r="D17" s="2" t="s">
         <v>0</v>
       </c>
@@ -4848,20 +4844,20 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="40" t="s">
+      <c r="N17" s="9"/>
+      <c r="Q17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="R17" s="40"/>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
-    </row>
-    <row r="18" spans="2:23" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+    </row>
+    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="5" t="s">
         <v>1</v>
       </c>
@@ -4895,37 +4891,41 @@
       <c r="L18" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="47"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="41" t="s">
+      <c r="M18" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="N18" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q18" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P18" s="42" t="s">
+      <c r="R18" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="Q18" s="41" t="s">
+      <c r="S18" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="T18" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="S18" s="41" t="s">
+      <c r="U18" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="T18" s="41" t="s">
+      <c r="V18" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="W18" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="41" t="s">
+      <c r="X18" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="41" t="s">
+      <c r="Y18" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:25" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="48" t="s">
         <v>48</v>
       </c>
@@ -4959,518 +4959,649 @@
       <c r="L19" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="50"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="44" t="s">
+      <c r="M19" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="N19" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="P19" s="44" t="s">
+      <c r="R19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="Q19" s="44" t="s">
+      <c r="S19" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="44" t="s">
+      <c r="T19" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="S19" s="44" t="s">
+      <c r="U19" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="T19" s="44" t="s">
+      <c r="V19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="U19" s="44" t="s">
+      <c r="W19" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="V19" s="44" t="s">
+      <c r="X19" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="W19" s="44" t="s">
+      <c r="Y19" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="51" t="s">
+    <row r="20" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="52" t="s">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J20" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="54" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="54"/>
-      <c r="N20" s="89"/>
-      <c r="O20" s="44" t="s">
+      <c r="M20" s="52"/>
+      <c r="N20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
       <c r="R20" s="44"/>
       <c r="S20" s="44"/>
       <c r="T20" s="44"/>
       <c r="U20" s="44"/>
       <c r="V20" s="44"/>
       <c r="W20" s="44"/>
-    </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="44"/>
+      <c r="Y20" s="44"/>
+    </row>
+    <row r="21" spans="2:25" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="str">
-        <f>Q21</f>
+        <f>S21</f>
         <v>Furnace</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E21" s="90">
+      <c r="D21" s="55" t="str">
+        <f>S5</f>
+        <v>ELCHEAT</v>
+      </c>
+      <c r="E21" s="85">
         <v>2030</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="58">
+      <c r="F21" s="56"/>
+      <c r="G21" s="57">
         <v>1</v>
       </c>
-      <c r="H21" s="58">
+      <c r="H21" s="57">
         <v>1</v>
       </c>
-      <c r="I21" s="58">
+      <c r="I21" s="57">
         <v>30</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="57">
         <v>333</v>
       </c>
-      <c r="K21" s="58"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="O21" s="76" t="s">
+      <c r="K21" s="57"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="N21" s="59"/>
+      <c r="Q21" s="74" t="s">
         <v>121</v>
       </c>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="73" t="s">
+      <c r="R21" s="73"/>
+      <c r="S21" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="77" t="s">
+      <c r="T21" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="U21" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="9" t="s">
+      <c r="V21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U21" s="59" t="s">
+      <c r="W21" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="V21" s="58"/>
-      <c r="W21" s="58"/>
-    </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="str">
-        <f>Q$22</f>
+        <f>S$22</f>
         <v>BIOBoiler</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D22" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="90">
+      <c r="D22" s="55" t="str">
+        <f>S6</f>
+        <v>BIOHEAT</v>
+      </c>
+      <c r="E22" s="85">
         <v>2030</v>
       </c>
-      <c r="F22" s="57"/>
-      <c r="G22" s="58">
+      <c r="F22" s="56"/>
+      <c r="G22" s="57">
         <v>0.8</v>
       </c>
-      <c r="H22" s="58">
+      <c r="H22" s="57">
         <v>1</v>
       </c>
-      <c r="I22" s="58">
+      <c r="I22" s="57">
         <v>20</v>
       </c>
-      <c r="J22" s="58">
+      <c r="J22" s="57">
         <v>222</v>
       </c>
-      <c r="K22" s="58"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="O22" s="75" t="s">
+      <c r="K22" s="57"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="Q22" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="74" t="s">
+      <c r="R22" s="73"/>
+      <c r="S22" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="R22" s="77" t="s">
+      <c r="T22" s="75" t="s">
         <v>102</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="U22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="9" t="s">
+      <c r="V22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-    </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+    </row>
+    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="str">
-        <f>Q25</f>
+        <f>S25</f>
         <v>ELCBoiler</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="90">
+      <c r="D23" s="55" t="str">
+        <f>S5</f>
+        <v>ELCHEAT</v>
+      </c>
+      <c r="E23" s="85">
         <v>2030</v>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="58">
+      <c r="F23" s="56"/>
+      <c r="G23" s="57">
         <v>0.8</v>
       </c>
-      <c r="H23" s="58">
+      <c r="H23" s="57">
         <v>1</v>
       </c>
-      <c r="I23" s="58">
+      <c r="I23" s="57">
         <v>20</v>
       </c>
-      <c r="J23" s="58">
+      <c r="J23" s="57">
         <v>2121</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="O23" s="75" t="s">
+      <c r="K23" s="57"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="N23" s="59"/>
+      <c r="Q23" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="74" t="s">
+      <c r="R23" s="73"/>
+      <c r="S23" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="R23" s="77" t="s">
+      <c r="T23" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="U23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="9" t="s">
+      <c r="V23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U23" s="58"/>
-      <c r="V23" s="58"/>
-      <c r="W23" s="58"/>
-    </row>
-    <row r="24" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+    </row>
+    <row r="24" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="str">
-        <f>Q23</f>
+        <f>S23</f>
         <v>BIOKiln</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D24" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" s="90">
+      <c r="D24" s="55" t="str">
+        <f>S6</f>
+        <v>BIOHEAT</v>
+      </c>
+      <c r="E24" s="85">
         <v>2030</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58">
+      <c r="F24" s="56"/>
+      <c r="G24" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H24" s="58">
+      <c r="H24" s="57">
         <v>1</v>
       </c>
-      <c r="I24" s="58">
+      <c r="I24" s="57">
         <v>20</v>
       </c>
-      <c r="J24" s="58">
+      <c r="J24" s="57">
         <v>444</v>
       </c>
-      <c r="O24" s="75" t="s">
+      <c r="M24" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="Q24" s="73" t="s">
         <v>121</v>
       </c>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="74" t="s">
+      <c r="R24" s="73"/>
+      <c r="S24" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="R24" s="77" t="s">
+      <c r="T24" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="U24" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="9" t="s">
+      <c r="V24" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="56" t="str">
-        <f>Q24</f>
+    <row r="25" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="55" t="str">
+        <f>S24</f>
         <v>GASBoiler</v>
       </c>
       <c r="C25" s="9" t="str">
         <f>PRI_Sector_Fuels!P6</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="55" t="str">
+        <f>S7</f>
+        <v>GASHEAT</v>
+      </c>
+      <c r="E25" s="85">
+        <v>2030</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57">
+        <v>1</v>
+      </c>
+      <c r="H25" s="57">
+        <v>1</v>
+      </c>
+      <c r="I25" s="57">
+        <v>25</v>
+      </c>
+      <c r="J25" s="57">
+        <v>2145</v>
+      </c>
+      <c r="M25" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="Q25" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R25" s="73"/>
+      <c r="S25" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="T25" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="55" t="str">
+        <f>S27</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="85">
+        <v>2030</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57">
+        <v>1</v>
+      </c>
+      <c r="H26" s="57">
+        <v>1</v>
+      </c>
+      <c r="I26" s="57">
+        <v>25</v>
+      </c>
+      <c r="J26" s="57">
+        <v>1041</v>
+      </c>
+      <c r="K26" s="57">
+        <v>38</v>
+      </c>
+      <c r="M26" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="Q26" s="73" t="s">
+        <v>121</v>
+      </c>
+      <c r="R26" s="73"/>
+      <c r="S26" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" s="75" t="s">
+        <v>120</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W26" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="55" t="str">
+        <f>S28</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="85">
+        <v>2030</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="G27" s="57">
+        <v>1</v>
+      </c>
+      <c r="H27" s="57">
+        <v>1</v>
+      </c>
+      <c r="I27" s="57">
+        <v>25</v>
+      </c>
+      <c r="J27" s="57">
+        <v>691</v>
+      </c>
+      <c r="K27" s="57">
+        <v>1125</v>
+      </c>
+      <c r="M27" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="Q27" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" s="73"/>
+      <c r="S27" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="T27" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="W27" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="55" t="str">
+        <f>S26</f>
+        <v>CSP</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="55" t="str">
+        <f>S8</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="E28" s="85">
+        <v>2030</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="G28" s="57">
+        <v>1</v>
+      </c>
+      <c r="H28" s="57">
+        <v>1</v>
+      </c>
+      <c r="I28" s="57">
+        <v>25</v>
+      </c>
+      <c r="J28" s="57">
+        <v>36377</v>
+      </c>
+      <c r="L28" s="57">
+        <v>14</v>
+      </c>
+      <c r="M28" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="Q28" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="R28" s="73"/>
+      <c r="S28" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="T28" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" s="9"/>
+      <c r="W28" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="16" t="str">
+        <f>S5</f>
+        <v>ELCHEAT</v>
+      </c>
+      <c r="D29" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E29" s="17">
         <v>2030</v>
       </c>
-      <c r="F25" s="57"/>
-      <c r="G25" s="58">
+      <c r="F29" s="56"/>
+      <c r="G29" s="57">
         <v>1</v>
       </c>
-      <c r="H25" s="58">
+      <c r="H29" s="57">
         <v>1</v>
       </c>
-      <c r="I25" s="58">
-        <v>25</v>
-      </c>
-      <c r="J25" s="58">
-        <v>2145</v>
-      </c>
-      <c r="O25" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="R25" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="S25" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="56" t="str">
-        <f>Q27</f>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="90">
+      <c r="I29" s="57">
+        <v>50</v>
+      </c>
+      <c r="J29" s="57">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8"/>
+      <c r="M29" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+    </row>
+    <row r="30" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="16" t="str">
+        <f>S6</f>
+        <v>BIOHEAT</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="17">
         <v>2030</v>
       </c>
-      <c r="F26" s="57"/>
-      <c r="G26" s="58">
+      <c r="F30" s="56"/>
+      <c r="G30" s="57">
         <v>1</v>
       </c>
-      <c r="H26" s="58">
+      <c r="H30" s="57">
         <v>1</v>
       </c>
-      <c r="I26" s="58">
-        <v>25</v>
-      </c>
-      <c r="J26" s="58">
-        <v>1041</v>
-      </c>
-      <c r="O26" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="P26" s="75"/>
-      <c r="Q26" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="U26" s="58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="56" t="str">
-        <f>Q28</f>
-        <v>SOLPV</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="90">
+      <c r="I30" s="57">
+        <v>50</v>
+      </c>
+      <c r="J30" s="57">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8"/>
+      <c r="M30" s="59">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="16" t="str">
+        <f>S7</f>
+        <v>GASHEAT</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="17">
         <v>2030</v>
       </c>
-      <c r="F27" s="57"/>
-      <c r="G27" s="58">
+      <c r="F31" s="56"/>
+      <c r="G31" s="57">
         <v>1</v>
       </c>
-      <c r="H27" s="58">
+      <c r="H31" s="57">
         <v>1</v>
       </c>
-      <c r="I27" s="58">
-        <v>25</v>
-      </c>
-      <c r="J27" s="58">
-        <v>691</v>
-      </c>
-      <c r="O27" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="P27" s="75"/>
-      <c r="Q27" s="74" t="s">
-        <v>94</v>
-      </c>
-      <c r="R27" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T27" s="9"/>
-      <c r="U27" s="58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="56" t="str">
-        <f>Q26</f>
-        <v>CSP</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="56" t="s">
+      <c r="I31" s="57">
+        <v>50</v>
+      </c>
+      <c r="J31" s="57">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8"/>
+      <c r="M31" s="59">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="16" t="str">
+        <f>S8</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="D32" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E32" s="17">
         <v>2030</v>
       </c>
-      <c r="F28" s="57"/>
-      <c r="G28" s="58">
+      <c r="F32" s="56"/>
+      <c r="G32" s="57">
         <v>1</v>
       </c>
-      <c r="H28" s="58">
-        <v>1</v>
-      </c>
-      <c r="I28" s="58">
-        <v>25</v>
-      </c>
-      <c r="J28" s="58">
-        <v>36377</v>
-      </c>
-      <c r="O28" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="R28" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="56"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="57"/>
-      <c r="O29" s="69"/>
-      <c r="P29" s="69"/>
-      <c r="Q29" s="99"/>
-      <c r="R29" s="100"/>
-    </row>
-    <row r="30" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="56"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="57"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="99"/>
-      <c r="R30" s="100"/>
-    </row>
-    <row r="31" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="56"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="57"/>
-      <c r="O31" s="69"/>
-      <c r="P31" s="69"/>
-      <c r="Q31" s="99"/>
-      <c r="R31" s="100"/>
-    </row>
-    <row r="32" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="56"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="57"/>
-      <c r="O32" s="69"/>
-      <c r="P32" s="69"/>
-      <c r="Q32" s="99"/>
-      <c r="R32" s="100"/>
-    </row>
-    <row r="33" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="8" t="s">
-        <v>124</v>
+      <c r="K32" s="8"/>
+      <c r="M32" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+    </row>
+    <row r="33" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="16" t="str">
+        <f>S24</f>
+        <v>GASBoiler</v>
       </c>
       <c r="C33" s="16" t="str">
-        <f>Q8</f>
-        <v>ELCHEAT</v>
-      </c>
-      <c r="D33" s="56" t="s">
-        <v>119</v>
+        <f>C25</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>140</v>
       </c>
       <c r="E33" s="17">
         <v>2030</v>
       </c>
-      <c r="F33" s="57"/>
-      <c r="G33" s="58">
-        <v>1</v>
-      </c>
-      <c r="H33" s="58">
-        <v>1</v>
-      </c>
-      <c r="I33" s="58">
-        <v>50</v>
-      </c>
-      <c r="J33" s="58">
-        <v>0</v>
-      </c>
+      <c r="F33" s="56"/>
       <c r="K33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
+      <c r="M33" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="N33" s="57">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5478,295 +5609,227 @@
       <c r="U33" s="8"/>
       <c r="V33" s="8"/>
       <c r="W33" s="8"/>
-    </row>
-    <row r="34" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="16" t="str">
-        <f>Q9</f>
-        <v>BIOHEAT</v>
-      </c>
-      <c r="D34" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F34" s="57"/>
-      <c r="G34" s="58">
-        <v>1</v>
-      </c>
-      <c r="H34" s="58">
-        <v>1</v>
-      </c>
-      <c r="I34" s="58">
-        <v>50</v>
-      </c>
-      <c r="J34" s="58">
-        <v>0</v>
-      </c>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+    </row>
+    <row r="34" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="56"/>
       <c r="K34" s="8"/>
-      <c r="O34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="R34" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="S34" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="M34" s="59"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
       <c r="V34" s="8"/>
       <c r="W34" s="8"/>
-    </row>
-    <row r="35" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C35" s="16" t="str">
-        <f>Q10</f>
-        <v>GASHEAT</v>
-      </c>
-      <c r="D35" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F35" s="57"/>
-      <c r="G35" s="58">
-        <v>1</v>
-      </c>
-      <c r="H35" s="58">
-        <v>1</v>
-      </c>
-      <c r="I35" s="58">
-        <v>50</v>
-      </c>
-      <c r="J35" s="58">
-        <v>0</v>
-      </c>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+    </row>
+    <row r="35" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="56"/>
       <c r="K35" s="8"/>
-      <c r="O35" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="R35" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="S35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
       <c r="V35" s="8"/>
       <c r="W35" s="8"/>
-    </row>
-    <row r="36" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="16" t="str">
-        <f>Q11</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="D36" s="56" t="s">
-        <v>119</v>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+    </row>
+    <row r="36" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="str">
+        <f>S36</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C36" s="16"/>
+      <c r="D36" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="E36" s="17">
         <v>2030</v>
       </c>
-      <c r="F36" s="57"/>
-      <c r="G36" s="58">
+      <c r="F36" s="56"/>
+      <c r="G36" s="57">
         <v>1</v>
       </c>
-      <c r="K36" s="8"/>
-      <c r="O36" s="8"/>
-      <c r="P36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
-    </row>
-    <row r="37" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="57">
+        <v>0.97</v>
+      </c>
+      <c r="I36" s="57">
+        <v>25</v>
+      </c>
+      <c r="J36" s="83">
+        <v>1041</v>
+      </c>
+      <c r="K36" s="8">
+        <v>38</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R36" s="21"/>
+      <c r="S36" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="T36" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+    </row>
+    <row r="37" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="str">
-        <f>Q34</f>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="56" t="s">
+        <f>S37</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="55" t="s">
         <v>69</v>
       </c>
       <c r="E37" s="17">
         <v>2030</v>
       </c>
-      <c r="F37" s="57"/>
-      <c r="G37" s="58">
+      <c r="F37" s="60"/>
+      <c r="G37" s="8">
         <v>1</v>
       </c>
-      <c r="H37" s="58">
-        <v>0.97</v>
-      </c>
-      <c r="I37" s="58">
+      <c r="H37" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="I37" s="8">
         <v>25</v>
       </c>
-      <c r="J37" s="85">
-        <v>1041</v>
+      <c r="J37" s="84">
+        <v>691</v>
       </c>
       <c r="K37" s="8">
-        <v>38</v>
-      </c>
-      <c r="O37" s="8"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-    </row>
-    <row r="38" spans="2:23" s="58" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="16" t="str">
-        <f>Q35</f>
-        <v>SOLPV</v>
+        <v>1125</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="21"/>
+      <c r="S37" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="T37" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+    </row>
+    <row r="38" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="56" t="s">
-        <v>69</v>
+      <c r="D38" s="8" t="str">
+        <f>S8</f>
+        <v>SOLHEAT</v>
       </c>
       <c r="E38" s="17">
         <v>2030</v>
       </c>
-      <c r="F38" s="61"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="8">
         <v>1</v>
       </c>
       <c r="H38" s="8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I38" s="8">
         <v>25</v>
       </c>
-      <c r="J38" s="86">
-        <v>691</v>
+      <c r="J38" s="84">
+        <v>36377</v>
       </c>
       <c r="K38" s="8">
-        <v>1125</v>
-      </c>
-      <c r="O38" s="8"/>
-      <c r="P38" s="8"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="59">
+        <v>14</v>
+      </c>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
       <c r="T38" s="8"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="8"/>
-    </row>
-    <row r="39" spans="2:23" s="60" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="str">
-        <f>Q11</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E39" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8">
-        <v>25</v>
-      </c>
-      <c r="J39" s="86">
-        <v>36377</v>
-      </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="60">
-        <v>14</v>
-      </c>
-      <c r="O39" s="8"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="16"/>
-      <c r="T39" s="16"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="8"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="F40" s="61"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="63"/>
-      <c r="P40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="H41" s="63"/>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B42" s="55"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
+      <c r="W38" s="64"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F39" s="60"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="62"/>
+      <c r="R39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="61"/>
+      <c r="V39" s="61"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H40" s="62"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="54"/>
+      <c r="C41" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H41" s="62"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B42" s="63"/>
       <c r="C42" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H42" s="63"/>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B43" s="64"/>
-      <c r="C43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H43" s="63"/>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E44" s="8" t="s">
+      <c r="H42" s="62"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F43" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H44" s="63"/>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E46" s="8" t="s">
+      <c r="H43" s="62"/>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E45" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F45" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="E47" s="10"/>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E46" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2E5FE0C-8C2C-4B9F-B1B5-DBC6AD57EDFF}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DCA5D1D-6A3F-4A58-A956-DA8BBFE5F81B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1557,7 +1557,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="141">
   <si>
     <t>~FI_T</t>
   </si>
@@ -3143,7 +3143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -4465,8 +4465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z46"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P42" sqref="P42"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5446,9 +5446,8 @@
       <c r="B29" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="16" t="str">
-        <f>S5</f>
-        <v>ELCHEAT</v>
+      <c r="C29" s="16" t="s">
+        <v>122</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>119</v>
@@ -5487,9 +5486,8 @@
       <c r="B30" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C30" s="16" t="str">
-        <f>S6</f>
-        <v>BIOHEAT</v>
+      <c r="C30" s="16" t="s">
+        <v>125</v>
       </c>
       <c r="D30" s="55" t="s">
         <v>119</v>
@@ -5519,9 +5517,8 @@
       <c r="B31" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="16" t="str">
-        <f>S7</f>
-        <v>GASHEAT</v>
+      <c r="C31" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="D31" s="55" t="s">
         <v>119</v>
@@ -5551,9 +5548,8 @@
       <c r="B32" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="C32" s="16" t="str">
-        <f>S8</f>
-        <v>SOLHEAT</v>
+      <c r="C32" s="16" t="s">
+        <v>123</v>
       </c>
       <c r="D32" s="55" t="s">
         <v>119</v>
@@ -5584,9 +5580,8 @@
         <f>S24</f>
         <v>GASBoiler</v>
       </c>
-      <c r="C33" s="16" t="str">
-        <f>C25</f>
-        <v>MANGASMIN</v>
+      <c r="C33" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="D33" s="55" t="s">
         <v>140</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DCA5D1D-6A3F-4A58-A956-DA8BBFE5F81B}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA65FD33-B3D8-499C-A8D5-44BBC9B25174}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
     <sheet name="DemTechs_INDF" sheetId="7" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
   </definedNames>
@@ -1557,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="147">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1992,6 +1989,24 @@
   </si>
   <si>
     <t>MANCO2</t>
+  </si>
+  <si>
+    <t>Renewable Heat</t>
+  </si>
+  <si>
+    <t>RNWHEAT</t>
+  </si>
+  <si>
+    <t>DECELC</t>
+  </si>
+  <si>
+    <t>Decenteralized Renewable electricity</t>
+  </si>
+  <si>
+    <t>Renewable Heat Aggrigator</t>
+  </si>
+  <si>
+    <t>Decenteralized Electricity Aggrigator</t>
   </si>
 </sst>
 </file>
@@ -2617,13 +2632,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2792,66 +2807,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Energybalance history"/>
-      <sheetName val="Enrgy growth"/>
-      <sheetName val="TechnologydataTech"/>
-      <sheetName val="EBF TJ"/>
-      <sheetName val="EBF"/>
-      <sheetName val="RES&amp;OBJ"/>
-      <sheetName val="PRI_Sector_Fuels"/>
-      <sheetName val="DemTechs_INDF"/>
-      <sheetName val="Demands"/>
-      <sheetName val="Emi"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="4">
-          <cell r="D4">
-            <v>691</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>1041</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="D12">
-            <v>3677</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>14003.99887968009</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>27575.997793920178</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3144,7 +3099,7 @@
   <dimension ref="A1:W63"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -3774,7 +3729,6 @@
         <v>50</v>
       </c>
       <c r="I26" s="31">
-        <f>[1]TechnologydataTech!$C$33/1000</f>
         <v>14.00399887968009</v>
       </c>
       <c r="J26" s="32"/>
@@ -3822,7 +3776,6 @@
         <v>50</v>
       </c>
       <c r="I27" s="35">
-        <f>[1]TechnologydataTech!$C$34/1000</f>
         <v>27.575997793920177</v>
       </c>
       <c r="J27" s="36"/>
@@ -3972,7 +3925,6 @@
         <v>25</v>
       </c>
       <c r="I33" s="76">
-        <f>[1]TechnologydataTech!$D$6*365*24/1000000000</f>
         <v>9.1191599999999994E-3</v>
       </c>
       <c r="J33" s="36"/>
@@ -4023,7 +3975,6 @@
         <v>25</v>
       </c>
       <c r="I34" s="76">
-        <f>[1]TechnologydataTech!$D$4*365*24/1000000000</f>
         <v>6.0531600000000001E-3</v>
       </c>
       <c r="J34" s="36"/>
@@ -4075,7 +4026,6 @@
         <v>25</v>
       </c>
       <c r="I35" s="78">
-        <f>[1]TechnologydataTech!$D$12*365*24/1000000000</f>
         <v>3.2210519999999999E-2</v>
       </c>
       <c r="J35" s="36"/>
@@ -4463,10 +4413,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:Z46"/>
+  <dimension ref="B1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4724,11 +4674,19 @@
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="Q9" s="92"/>
+      <c r="Q9" s="92" t="s">
+        <v>59</v>
+      </c>
       <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
+      <c r="S9" s="92" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9" s="92" t="s">
+        <v>141</v>
+      </c>
+      <c r="U9" s="92" t="s">
+        <v>58</v>
+      </c>
       <c r="V9" s="61"/>
       <c r="W9" s="61"/>
       <c r="X9" s="61"/>
@@ -4742,11 +4700,19 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="Q10" s="92"/>
+      <c r="Q10" s="92" t="s">
+        <v>59</v>
+      </c>
       <c r="R10" s="92"/>
-      <c r="S10" s="92"/>
-      <c r="T10" s="92"/>
-      <c r="U10" s="92"/>
+      <c r="S10" s="92" t="s">
+        <v>143</v>
+      </c>
+      <c r="T10" s="92" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" s="92" t="s">
+        <v>58</v>
+      </c>
       <c r="V10" s="61"/>
       <c r="W10" s="61"/>
       <c r="X10" s="61"/>
@@ -5298,8 +5264,9 @@
         <v>WNDTRBN</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="55" t="s">
-        <v>69</v>
+      <c r="D26" s="55" t="str">
+        <f>S10</f>
+        <v>DECELC</v>
       </c>
       <c r="E26" s="85">
         <v>2030</v>
@@ -5349,8 +5316,9 @@
         <v>SOLPV</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="55" t="s">
-        <v>69</v>
+      <c r="D27" s="55" t="str">
+        <f>S10</f>
+        <v>DECELC</v>
       </c>
       <c r="E27" s="85">
         <v>2030</v>
@@ -5443,14 +5411,16 @@
       </c>
     </row>
     <row r="29" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>124</v>
+      <c r="B29" s="8" t="str">
+        <f>S29</f>
+        <v>RNWHEAT</v>
       </c>
       <c r="C29" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="55" t="s">
-        <v>119</v>
+      <c r="D29" s="55" t="str">
+        <f>S9</f>
+        <v>RNWHEAT</v>
       </c>
       <c r="E29" s="17">
         <v>2030</v>
@@ -5472,25 +5442,35 @@
       <c r="M29" s="59">
         <v>8.76</v>
       </c>
-      <c r="Q29" s="8"/>
+      <c r="Q29" s="8" t="s">
+        <v>121</v>
+      </c>
       <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
+      <c r="S29" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="U29" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
     <row r="30" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="s">
-        <v>124</v>
+      <c r="B30" s="8" t="str">
+        <f>S29</f>
+        <v>RNWHEAT</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="55" t="s">
-        <v>119</v>
+      <c r="D30" s="55" t="str">
+        <f>S9</f>
+        <v>RNWHEAT</v>
       </c>
       <c r="E30" s="17">
         <v>2030</v>
@@ -5512,16 +5492,30 @@
       <c r="M30" s="59">
         <v>8.76</v>
       </c>
+      <c r="Q30" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="T30" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="U30" s="57" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="s">
-        <v>124</v>
+      <c r="B31" s="8" t="str">
+        <f>S29</f>
+        <v>RNWHEAT</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>119</v>
+        <v>123</v>
+      </c>
+      <c r="D31" s="55" t="str">
+        <f>S9</f>
+        <v>RNWHEAT</v>
       </c>
       <c r="E31" s="17">
         <v>2030</v>
@@ -5530,29 +5524,30 @@
       <c r="G31" s="57">
         <v>1</v>
       </c>
-      <c r="H31" s="57">
-        <v>1</v>
-      </c>
-      <c r="I31" s="57">
-        <v>50</v>
-      </c>
-      <c r="J31" s="57">
-        <v>0</v>
-      </c>
       <c r="K31" s="8"/>
       <c r="M31" s="59">
         <v>8.76</v>
       </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
     </row>
     <row r="32" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="8" t="s">
-        <v>124</v>
+      <c r="B32" s="16" t="str">
+        <f>S24</f>
+        <v>GASBoiler</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="E32" s="17">
         <v>2030</v>
@@ -5564,6 +5559,9 @@
       <c r="K32" s="8"/>
       <c r="M32" s="59">
         <v>8.76</v>
+      </c>
+      <c r="N32" s="57">
+        <v>0.20200000000000001</v>
       </c>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
@@ -5577,25 +5575,35 @@
     </row>
     <row r="33" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="16" t="str">
-        <f>S24</f>
-        <v>GASBoiler</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>67</v>
+        <f>S30</f>
+        <v>DECELC</v>
+      </c>
+      <c r="C33" s="16" t="str">
+        <f>S10</f>
+        <v>DECELC</v>
       </c>
       <c r="D33" s="55" t="s">
-        <v>140</v>
+        <v>69</v>
       </c>
       <c r="E33" s="17">
         <v>2030</v>
       </c>
       <c r="F33" s="56"/>
+      <c r="G33" s="57">
+        <v>1</v>
+      </c>
+      <c r="H33" s="57">
+        <v>1</v>
+      </c>
+      <c r="I33" s="57">
+        <v>100</v>
+      </c>
+      <c r="J33" s="57">
+        <v>0</v>
+      </c>
       <c r="K33" s="8"/>
       <c r="M33" s="59">
         <v>8.76</v>
-      </c>
-      <c r="N33" s="57">
-        <v>0.20200000000000001</v>
       </c>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
@@ -5608,11 +5616,29 @@
       <c r="Y33" s="8"/>
     </row>
     <row r="34" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="17"/>
+      <c r="B34" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="16" t="str">
+        <f>S9</f>
+        <v>RNWHEAT</v>
+      </c>
+      <c r="D34" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E34" s="17">
+        <v>2030</v>
+      </c>
       <c r="F34" s="56"/>
+      <c r="G34" s="57">
+        <v>1</v>
+      </c>
+      <c r="H34" s="57">
+        <v>1</v>
+      </c>
+      <c r="I34" s="57">
+        <v>100</v>
+      </c>
       <c r="K34" s="8"/>
       <c r="M34" s="59"/>
       <c r="Q34" s="8"/>
@@ -5626,12 +5652,13 @@
       <c r="Y34" s="8"/>
     </row>
     <row r="35" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="8"/>
+      <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="55"/>
       <c r="E35" s="17"/>
       <c r="F35" s="56"/>
       <c r="K35" s="8"/>
+      <c r="M35" s="59"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
       <c r="S35" s="8"/>
@@ -5643,90 +5670,59 @@
       <c r="Y35" s="8"/>
     </row>
     <row r="36" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="str">
-        <f>S36</f>
-        <v>WNDTRBN</v>
-      </c>
+      <c r="B36" s="8"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="17">
-        <v>2030</v>
-      </c>
+      <c r="D36" s="55"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="56"/>
-      <c r="G36" s="57">
-        <v>1</v>
-      </c>
-      <c r="H36" s="57">
-        <v>0.97</v>
-      </c>
-      <c r="I36" s="57">
-        <v>25</v>
-      </c>
-      <c r="J36" s="83">
-        <v>1041</v>
-      </c>
-      <c r="K36" s="8">
-        <v>38</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T36" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="U36" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="K36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
     <row r="37" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="str">
         <f>S37</f>
-        <v>SOLPV</v>
-      </c>
-      <c r="C37" s="8"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C37" s="16"/>
       <c r="D37" s="55" t="s">
         <v>69</v>
       </c>
       <c r="E37" s="17">
         <v>2030</v>
       </c>
-      <c r="F37" s="60"/>
-      <c r="G37" s="8">
+      <c r="F37" s="56"/>
+      <c r="G37" s="57">
         <v>1</v>
       </c>
-      <c r="H37" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="I37" s="8">
+      <c r="H37" s="57">
+        <v>0.97</v>
+      </c>
+      <c r="I37" s="57">
         <v>25</v>
       </c>
-      <c r="J37" s="84">
-        <v>691</v>
+      <c r="J37" s="83">
+        <v>1041</v>
       </c>
       <c r="K37" s="8">
-        <v>1125</v>
+        <v>38</v>
       </c>
       <c r="Q37" s="21" t="s">
         <v>69</v>
       </c>
       <c r="R37" s="21"/>
       <c r="S37" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T37" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U37" s="21" t="s">
         <v>58</v>
@@ -5738,14 +5734,14 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
-        <v>65</v>
+    <row r="38" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="16" t="str">
+        <f>S38</f>
+        <v>SOLPV</v>
       </c>
       <c r="C38" s="8"/>
-      <c r="D38" s="8" t="str">
-        <f>S8</f>
-        <v>SOLHEAT</v>
+      <c r="D38" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="E38" s="17">
         <v>2030</v>
@@ -5755,76 +5751,124 @@
         <v>1</v>
       </c>
       <c r="H38" s="8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I38" s="8">
         <v>25</v>
       </c>
       <c r="J38" s="84">
-        <v>36377</v>
+        <v>691</v>
       </c>
       <c r="K38" s="8">
-        <v>0</v>
-      </c>
-      <c r="L38" s="59">
-        <v>14</v>
-      </c>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
-      <c r="S38" s="8"/>
-      <c r="T38" s="8"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="16"/>
-      <c r="W38" s="64"/>
+        <v>1125</v>
+      </c>
+      <c r="Q38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R38" s="21"/>
+      <c r="S38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="T38" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="U38" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="X38" s="8"/>
       <c r="Y38" s="8"/>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8" t="str">
+        <f>S8</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="E39" s="17">
+        <v>2030</v>
+      </c>
       <c r="F39" s="60"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="62"/>
-      <c r="R39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="61"/>
-      <c r="V39" s="61"/>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8">
+        <v>1</v>
+      </c>
+      <c r="I39" s="8">
+        <v>25</v>
+      </c>
+      <c r="J39" s="84">
+        <v>36377</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="59">
+        <v>14</v>
+      </c>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F40" s="60"/>
+      <c r="G40" s="10"/>
       <c r="H40" s="62"/>
+      <c r="R40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="61"/>
+      <c r="V40" s="61"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="54"/>
-      <c r="C41" s="8" t="s">
+      <c r="H41" s="62"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B42" s="54"/>
+      <c r="C42" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="62"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="63"/>
-      <c r="C42" s="8" t="s">
+      <c r="H42" s="62"/>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B43" s="63"/>
+      <c r="C43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H42" s="62"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E43" s="8" t="s">
+      <c r="H43" s="62"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E44" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H43" s="62"/>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E45" s="8" t="s">
+      <c r="H44" s="62"/>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F46" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E46" s="10"/>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E47" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA65FD33-B3D8-499C-A8D5-44BBC9B25174}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0E10B0-7B21-4A70-94EC-07B66F004991}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="146">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1925,9 +1925,6 @@
     <t>Industrial heat supplier using electricity</t>
   </si>
   <si>
-    <t>MANHEAT</t>
-  </si>
-  <si>
     <t>Manufacturing heat from Solar</t>
   </si>
   <si>
@@ -1940,9 +1937,6 @@
     <t>SOLHEAT</t>
   </si>
   <si>
-    <t>PHEAT</t>
-  </si>
-  <si>
     <t>BIOHEAT</t>
   </si>
   <si>
@@ -2007,6 +2001,9 @@
   </si>
   <si>
     <t>Decenteralized Electricity Aggrigator</t>
+  </si>
+  <si>
+    <t>MANELC</t>
   </si>
 </sst>
 </file>
@@ -3696,7 +3693,7 @@
         <v>82</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
@@ -3741,7 +3738,7 @@
       </c>
       <c r="O26" s="80"/>
       <c r="P26" s="81" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q26" s="82" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
@@ -3788,7 +3785,7 @@
       </c>
       <c r="O27" s="80"/>
       <c r="P27" s="81" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q27" s="82" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
@@ -4126,14 +4123,14 @@
       </c>
       <c r="L37" s="65"/>
       <c r="N37" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="21"/>
       <c r="P37" s="19" t="s">
         <v>65</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R37" s="21" t="s">
         <v>58</v>
@@ -4415,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4575,10 +4572,10 @@
       </c>
       <c r="R5" s="91"/>
       <c r="S5" s="91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T5" s="91" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="U5" s="91" t="s">
         <v>58</v>
@@ -4601,10 +4598,10 @@
       </c>
       <c r="R6" s="91"/>
       <c r="S6" s="91" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="T6" s="91" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="U6" s="91" t="s">
         <v>58</v>
@@ -4627,10 +4624,10 @@
       </c>
       <c r="R7" s="91"/>
       <c r="S7" s="91" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="T7" s="91" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="U7" s="91" t="s">
         <v>58</v>
@@ -4653,10 +4650,10 @@
       </c>
       <c r="R8" s="92"/>
       <c r="S8" s="92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T8" s="92" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="U8" s="92" t="s">
         <v>58</v>
@@ -4679,10 +4676,10 @@
       </c>
       <c r="R9" s="92"/>
       <c r="S9" s="92" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T9" s="92" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U9" s="92" t="s">
         <v>58</v>
@@ -4705,10 +4702,10 @@
       </c>
       <c r="R10" s="92"/>
       <c r="S10" s="92" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T10" s="92" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="U10" s="92" t="s">
         <v>58</v>
@@ -4855,13 +4852,13 @@
         <v>5</v>
       </c>
       <c r="L18" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M18" s="45" t="s">
         <v>56</v>
       </c>
       <c r="N18" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q18" s="41" t="s">
         <v>15</v>
@@ -4923,13 +4920,13 @@
         <v>37</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M19" s="49" t="s">
         <v>80</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="44" t="s">
         <v>50</v>
@@ -4973,7 +4970,7 @@
         <v>54</v>
       </c>
       <c r="J20" s="51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K20" s="52"/>
       <c r="L20" s="53" t="s">
@@ -4981,7 +4978,7 @@
       </c>
       <c r="M20" s="52"/>
       <c r="N20" s="53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q20" s="44" t="s">
         <v>82</v>
@@ -5030,7 +5027,7 @@
       </c>
       <c r="N21" s="59"/>
       <c r="Q21" s="74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R21" s="73"/>
       <c r="S21" s="71" t="s">
@@ -5087,7 +5084,7 @@
       </c>
       <c r="N22" s="59"/>
       <c r="Q22" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R22" s="73"/>
       <c r="S22" s="72" t="s">
@@ -5141,7 +5138,7 @@
       </c>
       <c r="N23" s="59"/>
       <c r="Q23" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R23" s="73"/>
       <c r="S23" s="72" t="s">
@@ -5193,7 +5190,7 @@
         <v>8.76</v>
       </c>
       <c r="Q24" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R24" s="73"/>
       <c r="S24" s="72" t="s">
@@ -5242,7 +5239,7 @@
         <v>8.76</v>
       </c>
       <c r="Q25" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R25" s="73"/>
       <c r="S25" s="72" t="s">
@@ -5291,14 +5288,14 @@
         <v>8.76</v>
       </c>
       <c r="Q26" s="73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R26" s="73"/>
       <c r="S26" s="72" t="s">
         <v>65</v>
       </c>
       <c r="T26" s="75" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="U26" s="9" t="s">
         <v>58</v>
@@ -5416,11 +5413,10 @@
         <v>RNWHEAT</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="55" t="str">
-        <f>S9</f>
-        <v>RNWHEAT</v>
+        <v>121</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="E29" s="17">
         <v>2030</v>
@@ -5443,14 +5439,14 @@
         <v>8.76</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R29" s="8"/>
       <c r="S29" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="U29" s="8" t="s">
         <v>58</v>
@@ -5466,11 +5462,10 @@
         <v>RNWHEAT</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D30" s="55" t="str">
-        <f>S9</f>
-        <v>RNWHEAT</v>
+        <v>123</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="E30" s="17">
         <v>2030</v>
@@ -5496,10 +5491,10 @@
         <v>69</v>
       </c>
       <c r="S30" s="57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T30" s="57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U30" s="57" t="s">
         <v>58</v>
@@ -5511,11 +5506,10 @@
         <v>RNWHEAT</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D31" s="55" t="str">
-        <f>S9</f>
-        <v>RNWHEAT</v>
+        <v>122</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>145</v>
       </c>
       <c r="E31" s="17">
         <v>2030</v>
@@ -5547,7 +5541,7 @@
         <v>67</v>
       </c>
       <c r="D32" s="55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E32" s="17">
         <v>2030</v>
@@ -5578,10 +5572,7 @@
         <f>S30</f>
         <v>DECELC</v>
       </c>
-      <c r="C33" s="16" t="str">
-        <f>S10</f>
-        <v>DECELC</v>
-      </c>
+      <c r="C33" s="16"/>
       <c r="D33" s="55" t="s">
         <v>69</v>
       </c>
@@ -5616,29 +5607,11 @@
       <c r="Y33" s="8"/>
     </row>
     <row r="34" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C34" s="16" t="str">
-        <f>S9</f>
-        <v>RNWHEAT</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="17">
-        <v>2030</v>
-      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="57">
-        <v>1</v>
-      </c>
-      <c r="H34" s="57">
-        <v>1</v>
-      </c>
-      <c r="I34" s="57">
-        <v>100</v>
-      </c>
       <c r="K34" s="8"/>
       <c r="M34" s="59"/>
       <c r="Q34" s="8"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C0E10B0-7B21-4A70-94EC-07B66F004991}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC668F1-D128-4FE8-BC83-6AA0E0025ADF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -2003,7 +2003,7 @@
     <t>Decenteralized Electricity Aggrigator</t>
   </si>
   <si>
-    <t>MANELC</t>
+    <t>MANHEAT</t>
   </si>
 </sst>
 </file>
@@ -4412,8 +4412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5572,7 +5572,10 @@
         <f>S30</f>
         <v>DECELC</v>
       </c>
-      <c r="C33" s="16"/>
+      <c r="C33" s="16" t="str">
+        <f>S10</f>
+        <v>DECELC</v>
+      </c>
       <c r="D33" s="55" t="s">
         <v>69</v>
       </c>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC668F1-D128-4FE8-BC83-6AA0E0025ADF}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C70C1D-2025-4F7C-80FA-DFDABA91DA9F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W18" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
+    <comment ref="W16" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X18" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
+    <comment ref="X16" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y18" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
+    <comment ref="Y16" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
       <text>
         <r>
           <rPr>
@@ -1306,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q19" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
+    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="143">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1940,18 +1940,12 @@
     <t>BIOHEAT</t>
   </si>
   <si>
-    <t>GASHEAT</t>
-  </si>
-  <si>
     <t>Electricity based process heat</t>
   </si>
   <si>
     <t>Bio based process heat</t>
   </si>
   <si>
-    <t>Gas based process heat</t>
-  </si>
-  <si>
     <t>Solar thermal for process heat</t>
   </si>
   <si>
@@ -1983,9 +1977,6 @@
   </si>
   <si>
     <t>MANCO2</t>
-  </si>
-  <si>
-    <t>Renewable Heat</t>
   </si>
   <si>
     <t>RNWHEAT</t>
@@ -2629,13 +2620,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3693,7 +3684,7 @@
         <v>82</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
@@ -3738,7 +3729,7 @@
       </c>
       <c r="O26" s="80"/>
       <c r="P26" s="81" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="82" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
@@ -3785,7 +3776,7 @@
       </c>
       <c r="O27" s="80"/>
       <c r="P27" s="81" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="82" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
@@ -4007,7 +3998,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D35" s="19" t="str">
-        <f>DemTechs_INDF!S8</f>
+        <f>DemTechs_INDF!S7</f>
         <v>SOLHEAT</v>
       </c>
       <c r="E35" s="21">
@@ -4410,10 +4401,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:Z47"/>
+  <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4575,7 +4566,7 @@
         <v>121</v>
       </c>
       <c r="T5" s="91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="U5" s="91" t="s">
         <v>58</v>
@@ -4601,7 +4592,7 @@
         <v>123</v>
       </c>
       <c r="T6" s="91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U6" s="91" t="s">
         <v>58</v>
@@ -4619,17 +4610,17 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="Q7" s="91" t="s">
+      <c r="Q7" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91" t="s">
-        <v>124</v>
-      </c>
-      <c r="T7" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7" s="91" t="s">
+      <c r="R7" s="92"/>
+      <c r="S7" s="92" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="92" t="s">
+        <v>126</v>
+      </c>
+      <c r="U7" s="92" t="s">
         <v>58</v>
       </c>
       <c r="V7" s="61"/>
@@ -4646,14 +4637,14 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="Q8" s="92" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="R8" s="92"/>
       <c r="S8" s="92" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="T8" s="92" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="U8" s="92" t="s">
         <v>58</v>
@@ -4671,122 +4662,95 @@
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="Q9" s="92" t="s">
-        <v>59</v>
-      </c>
+      <c r="Q9" s="92"/>
       <c r="R9" s="92"/>
-      <c r="S9" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="T9" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="U9" s="92" t="s">
-        <v>58</v>
-      </c>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="61"/>
       <c r="W9" s="61"/>
       <c r="X9" s="61"/>
       <c r="Y9" s="61"/>
       <c r="Z9" s="59"/>
     </row>
-    <row r="10" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="Q10" s="92" t="s">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q10" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92" t="s">
-        <v>141</v>
-      </c>
-      <c r="T10" s="92" t="s">
-        <v>142</v>
-      </c>
-      <c r="U10" s="92" t="s">
+      <c r="R10" s="93"/>
+      <c r="S10" s="93" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="U10" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
       <c r="Z10" s="59"/>
     </row>
-    <row r="11" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92"/>
-      <c r="U11" s="92"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="59"/>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q11" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="T11" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="U11" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q12" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="T12" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="U12" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-      <c r="Z12" s="59"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q13" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="R13" s="93"/>
-      <c r="S13" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="T13" s="93" t="s">
-        <v>104</v>
-      </c>
-      <c r="U13" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="V13" s="93"/>
-      <c r="W13" s="93"/>
-      <c r="X13" s="93"/>
-      <c r="Y13" s="93"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+    </row>
+    <row r="15" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+      <c r="D15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="Q15" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="R15" s="40"/>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
@@ -4795,207 +4759,293 @@
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
     </row>
-    <row r="17" spans="2:25" ht="13" x14ac:dyDescent="0.3">
-      <c r="D17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="Q17" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
-    </row>
-    <row r="18" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="5" t="s">
+    <row r="16" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E16" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="46" t="s">
+      <c r="F16" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G16" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="45" t="s">
+      <c r="H16" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="45" t="s">
+      <c r="I16" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="45" t="s">
+      <c r="J16" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="47" t="s">
+      <c r="K16" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="45" t="s">
+      <c r="L16" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N18" s="47" t="s">
+      <c r="N16" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q16" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="T16" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="V16" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="W16" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y16" s="41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q17" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="U17" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="V17" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="W17" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="X17" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y17" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="52"/>
+      <c r="L18" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="M18" s="52"/>
+      <c r="N18" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="Q18" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="R18" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" s="41" t="s">
+      <c r="Q18" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+    </row>
+    <row r="19" spans="2:25" ht="13" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="str">
+        <f>S19</f>
+        <v>Furnace</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="55" t="str">
+        <f>S5</f>
+        <v>ELCHEAT</v>
+      </c>
+      <c r="E19" s="85">
+        <v>2030</v>
+      </c>
+      <c r="F19" s="56"/>
+      <c r="G19" s="57">
         <v>1</v>
       </c>
-      <c r="T18" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="U18" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="V18" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="W18" s="41" t="s">
+      <c r="H19" s="57">
+        <v>1</v>
+      </c>
+      <c r="I19" s="57">
+        <v>30</v>
+      </c>
+      <c r="J19" s="57">
+        <v>333</v>
+      </c>
+      <c r="K19" s="57"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="N19" s="59"/>
+      <c r="Q19" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="73"/>
+      <c r="S19" s="71" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="75" t="s">
+        <v>118</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W19" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="9" t="str">
+        <f>S$20</f>
+        <v>BIOBoiler</v>
+      </c>
+      <c r="C20" s="9" t="str">
+        <f>PRI_Sector_Fuels!P5</f>
+        <v>MANBIOMIN</v>
+      </c>
+      <c r="D20" s="55" t="str">
+        <f>S6</f>
+        <v>BIOHEAT</v>
+      </c>
+      <c r="E20" s="85">
+        <v>2030</v>
+      </c>
+      <c r="F20" s="56"/>
+      <c r="G20" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="H20" s="57">
+        <v>1</v>
+      </c>
+      <c r="I20" s="57">
         <v>20</v>
       </c>
-      <c r="X18" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y18" s="41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:25" ht="31" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="K19" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L19" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="M19" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="R19" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="S19" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="U19" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="V19" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="W19" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="X19" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y19" s="44" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="K20" s="52"/>
-      <c r="L20" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="M20" s="52"/>
-      <c r="N20" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q20" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="R20" s="44"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="44"/>
-      <c r="Y20" s="44"/>
-    </row>
-    <row r="21" spans="2:25" ht="13" x14ac:dyDescent="0.3">
+      <c r="J20" s="57">
+        <v>222</v>
+      </c>
+      <c r="K20" s="57"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="N20" s="59"/>
+      <c r="Q20" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="73"/>
+      <c r="S20" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="T20" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="str">
-        <f>S21</f>
-        <v>Furnace</v>
+        <f>S23</f>
+        <v>ELCBoiler</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>69</v>
@@ -5009,16 +5059,16 @@
       </c>
       <c r="F21" s="56"/>
       <c r="G21" s="57">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H21" s="57">
         <v>1</v>
       </c>
       <c r="I21" s="57">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J21" s="57">
-        <v>333</v>
+        <v>2121</v>
       </c>
       <c r="K21" s="57"/>
       <c r="L21" s="59"/>
@@ -5026,15 +5076,15 @@
         <v>8.76</v>
       </c>
       <c r="N21" s="59"/>
-      <c r="Q21" s="74" t="s">
+      <c r="Q21" s="73" t="s">
         <v>120</v>
       </c>
       <c r="R21" s="73"/>
-      <c r="S21" s="71" t="s">
-        <v>66</v>
+      <c r="S21" s="72" t="s">
+        <v>112</v>
       </c>
       <c r="T21" s="75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="U21" s="9" t="s">
         <v>58</v>
@@ -5042,16 +5092,14 @@
       <c r="V21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W21" s="58" t="s">
-        <v>89</v>
-      </c>
+      <c r="W21" s="57"/>
       <c r="X21" s="57"/>
       <c r="Y21" s="57"/>
     </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="str">
-        <f>S$22</f>
-        <v>BIOBoiler</v>
+        <f>S21</f>
+        <v>BIOKiln</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>PRI_Sector_Fuels!P5</f>
@@ -5066,7 +5114,7 @@
       </c>
       <c r="F22" s="56"/>
       <c r="G22" s="57">
-        <v>0.8</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H22" s="57">
         <v>1</v>
@@ -5075,23 +5123,20 @@
         <v>20</v>
       </c>
       <c r="J22" s="57">
-        <v>222</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="59"/>
+        <v>444</v>
+      </c>
       <c r="M22" s="59">
         <v>8.76</v>
       </c>
-      <c r="N22" s="59"/>
       <c r="Q22" s="73" t="s">
         <v>120</v>
       </c>
       <c r="R22" s="73"/>
       <c r="S22" s="72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="T22" s="75" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>58</v>
@@ -5099,53 +5144,47 @@
       <c r="V22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-    </row>
-    <row r="23" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="str">
-        <f>S25</f>
-        <v>ELCBoiler</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D23" s="55" t="str">
-        <f>S5</f>
-        <v>ELCHEAT</v>
+    </row>
+    <row r="23" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="55" t="str">
+        <f>S22</f>
+        <v>GASBoiler</v>
+      </c>
+      <c r="C23" s="9" t="str">
+        <f>PRI_Sector_Fuels!P6</f>
+        <v>MANGASMIN</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>142</v>
       </c>
       <c r="E23" s="85">
         <v>2030</v>
       </c>
       <c r="F23" s="56"/>
       <c r="G23" s="57">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H23" s="57">
         <v>1</v>
       </c>
       <c r="I23" s="57">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J23" s="57">
-        <v>2121</v>
-      </c>
-      <c r="K23" s="57"/>
-      <c r="L23" s="59"/>
+        <v>2145</v>
+      </c>
       <c r="M23" s="59">
         <v>8.76</v>
       </c>
-      <c r="N23" s="59"/>
       <c r="Q23" s="73" t="s">
         <v>120</v>
       </c>
       <c r="R23" s="73"/>
       <c r="S23" s="72" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="T23" s="75" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="U23" s="9" t="s">
         <v>58</v>
@@ -5153,38 +5192,35 @@
       <c r="V23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
     </row>
     <row r="24" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="str">
-        <f>S23</f>
-        <v>BIOKiln</v>
-      </c>
-      <c r="C24" s="9" t="str">
-        <f>PRI_Sector_Fuels!P5</f>
-        <v>MANBIOMIN</v>
-      </c>
+      <c r="B24" s="55" t="str">
+        <f>S25</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="55" t="str">
-        <f>S6</f>
-        <v>BIOHEAT</v>
+        <f>S8</f>
+        <v>DECELC</v>
       </c>
       <c r="E24" s="85">
         <v>2030</v>
       </c>
       <c r="F24" s="56"/>
       <c r="G24" s="57">
-        <v>0.55000000000000004</v>
+        <v>1</v>
       </c>
       <c r="H24" s="57">
         <v>1</v>
       </c>
       <c r="I24" s="57">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J24" s="57">
-        <v>444</v>
+        <v>1041</v>
+      </c>
+      <c r="K24" s="57">
+        <v>38</v>
       </c>
       <c r="M24" s="59">
         <v>8.76</v>
@@ -5194,10 +5230,10 @@
       </c>
       <c r="R24" s="73"/>
       <c r="S24" s="72" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="T24" s="75" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>58</v>
@@ -5205,19 +5241,19 @@
       <c r="V24" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="W24" s="57" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="55" t="str">
-        <f>S24</f>
-        <v>GASBoiler</v>
-      </c>
-      <c r="C25" s="9" t="str">
-        <f>PRI_Sector_Fuels!P6</f>
-        <v>MANGASMIN</v>
-      </c>
+        <f>S26</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C25" s="9"/>
       <c r="D25" s="55" t="str">
-        <f>S7</f>
-        <v>GASHEAT</v>
+        <f>S8</f>
+        <v>DECELC</v>
       </c>
       <c r="E25" s="85">
         <v>2030</v>
@@ -5233,37 +5269,41 @@
         <v>25</v>
       </c>
       <c r="J25" s="57">
-        <v>2145</v>
+        <v>691</v>
+      </c>
+      <c r="K25" s="57">
+        <v>1125</v>
       </c>
       <c r="M25" s="59">
         <v>8.76</v>
       </c>
       <c r="Q25" s="73" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="R25" s="73"/>
       <c r="S25" s="72" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="T25" s="75" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V25" s="9" t="s">
-        <v>88</v>
+      <c r="V25" s="9"/>
+      <c r="W25" s="57" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="55" t="str">
-        <f>S27</f>
-        <v>WNDTRBN</v>
+        <f>S24</f>
+        <v>CSP</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="55" t="str">
-        <f>S10</f>
-        <v>DECELC</v>
+        <f>S7</f>
+        <v>SOLHEAT</v>
       </c>
       <c r="E26" s="85">
         <v>2030</v>
@@ -5279,45 +5319,44 @@
         <v>25</v>
       </c>
       <c r="J26" s="57">
-        <v>1041</v>
-      </c>
-      <c r="K26" s="57">
-        <v>38</v>
+        <v>36377</v>
+      </c>
+      <c r="L26" s="57">
+        <v>14</v>
       </c>
       <c r="M26" s="59">
         <v>8.76</v>
       </c>
       <c r="Q26" s="73" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="R26" s="73"/>
       <c r="S26" s="72" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="T26" s="75" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="U26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V26" s="9" t="s">
-        <v>88</v>
-      </c>
+      <c r="V26" s="9"/>
       <c r="W26" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="55" t="str">
-        <f>S28</f>
-        <v>SOLPV</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="55" t="str">
-        <f>S10</f>
-        <v>DECELC</v>
-      </c>
-      <c r="E27" s="85">
+      <c r="B27" s="8" t="str">
+        <f>S27</f>
+        <v>RNWHEAT</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="17">
         <v>2030</v>
       </c>
       <c r="F27" s="56"/>
@@ -5328,46 +5367,45 @@
         <v>1</v>
       </c>
       <c r="I27" s="57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J27" s="57">
-        <v>691</v>
-      </c>
-      <c r="K27" s="57">
-        <v>1125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K27" s="8"/>
       <c r="M27" s="59">
         <v>8.76</v>
       </c>
-      <c r="Q27" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="R27" s="73"/>
-      <c r="S27" s="72" t="s">
-        <v>94</v>
-      </c>
-      <c r="T27" s="75" t="s">
-        <v>97</v>
-      </c>
-      <c r="U27" s="9" t="s">
+      <c r="Q27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="U27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V27" s="9"/>
-      <c r="W27" s="57" t="s">
-        <v>89</v>
-      </c>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
     </row>
     <row r="28" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55" t="str">
-        <f>S26</f>
-        <v>CSP</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="55" t="str">
-        <f>S8</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E28" s="85">
+      <c r="B28" s="8" t="str">
+        <f>S27</f>
+        <v>RNWHEAT</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="17">
         <v>2030</v>
       </c>
       <c r="F28" s="56"/>
@@ -5378,45 +5416,38 @@
         <v>1</v>
       </c>
       <c r="I28" s="57">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J28" s="57">
-        <v>36377</v>
-      </c>
-      <c r="L28" s="57">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K28" s="8"/>
       <c r="M28" s="59">
         <v>8.76</v>
       </c>
-      <c r="Q28" s="73" t="s">
+      <c r="Q28" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="R28" s="73"/>
-      <c r="S28" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="T28" s="75" t="s">
-        <v>96</v>
-      </c>
-      <c r="U28" s="9" t="s">
+      <c r="S28" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="T28" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="U28" s="57" t="s">
         <v>58</v>
-      </c>
-      <c r="V28" s="9"/>
-      <c r="W28" s="57" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="str">
-        <f>S29</f>
+        <f>S27</f>
         <v>RNWHEAT</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E29" s="17">
         <v>2030</v>
@@ -5425,47 +5456,30 @@
       <c r="G29" s="57">
         <v>1</v>
       </c>
-      <c r="H29" s="57">
-        <v>1</v>
-      </c>
-      <c r="I29" s="57">
-        <v>50</v>
-      </c>
-      <c r="J29" s="57">
-        <v>0</v>
-      </c>
       <c r="K29" s="8"/>
       <c r="M29" s="59">
         <v>8.76</v>
       </c>
-      <c r="Q29" s="8" t="s">
-        <v>120</v>
-      </c>
+      <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
-      <c r="S29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="U29" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
       <c r="V29" s="8"/>
       <c r="W29" s="8"/>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
     </row>
     <row r="30" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="8" t="str">
-        <f>S29</f>
-        <v>RNWHEAT</v>
+      <c r="B30" s="16" t="str">
+        <f>S22</f>
+        <v>GASBoiler</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>123</v>
+        <v>67</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E30" s="17">
         <v>2030</v>
@@ -5474,42 +5488,34 @@
       <c r="G30" s="57">
         <v>1</v>
       </c>
-      <c r="H30" s="57">
-        <v>1</v>
-      </c>
-      <c r="I30" s="57">
-        <v>50</v>
-      </c>
-      <c r="J30" s="57">
-        <v>0</v>
-      </c>
       <c r="K30" s="8"/>
       <c r="M30" s="59">
         <v>8.76</v>
       </c>
-      <c r="Q30" s="57" t="s">
+      <c r="N30" s="57">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+    </row>
+    <row r="31" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="16" t="str">
+        <f>S28</f>
+        <v>DECELC</v>
+      </c>
+      <c r="C31" s="16" t="str">
+        <f>S8</f>
+        <v>DECELC</v>
+      </c>
+      <c r="D31" s="55" t="s">
         <v>69</v>
-      </c>
-      <c r="S30" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="T30" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="U30" s="57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="8" t="str">
-        <f>S29</f>
-        <v>RNWHEAT</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>145</v>
       </c>
       <c r="E31" s="17">
         <v>2030</v>
@@ -5517,6 +5523,15 @@
       <c r="F31" s="56"/>
       <c r="G31" s="57">
         <v>1</v>
+      </c>
+      <c r="H31" s="57">
+        <v>1</v>
+      </c>
+      <c r="I31" s="57">
+        <v>100</v>
+      </c>
+      <c r="J31" s="57">
+        <v>0</v>
       </c>
       <c r="K31" s="8"/>
       <c r="M31" s="59">
@@ -5533,30 +5548,13 @@
       <c r="Y31" s="8"/>
     </row>
     <row r="32" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="str">
-        <f>S24</f>
-        <v>GASBoiler</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="E32" s="17">
-        <v>2030</v>
-      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="57">
-        <v>1</v>
-      </c>
       <c r="K32" s="8"/>
-      <c r="M32" s="59">
-        <v>8.76</v>
-      </c>
-      <c r="N32" s="57">
-        <v>0.20200000000000001</v>
-      </c>
+      <c r="M32" s="59"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -5568,37 +5566,13 @@
       <c r="Y32" s="8"/>
     </row>
     <row r="33" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="str">
-        <f>S30</f>
-        <v>DECELC</v>
-      </c>
-      <c r="C33" s="16" t="str">
-        <f>S10</f>
-        <v>DECELC</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E33" s="17">
-        <v>2030</v>
-      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="57">
-        <v>1</v>
-      </c>
-      <c r="H33" s="57">
-        <v>1</v>
-      </c>
-      <c r="I33" s="57">
-        <v>100</v>
-      </c>
-      <c r="J33" s="57">
-        <v>0</v>
-      </c>
       <c r="K33" s="8"/>
-      <c r="M33" s="59">
-        <v>8.76</v>
-      </c>
+      <c r="M33" s="59"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5610,13 +5584,12 @@
       <c r="Y33" s="8"/>
     </row>
     <row r="34" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="16"/>
       <c r="D34" s="55"/>
       <c r="E34" s="17"/>
       <c r="F34" s="56"/>
       <c r="K34" s="8"/>
-      <c r="M34" s="59"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
       <c r="S34" s="8"/>
@@ -5628,223 +5601,188 @@
       <c r="Y34" s="8"/>
     </row>
     <row r="35" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
+      <c r="B35" s="16" t="str">
+        <f>S35</f>
+        <v>WNDTRBN</v>
+      </c>
       <c r="C35" s="16"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="17"/>
+      <c r="D35" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="17">
+        <v>2030</v>
+      </c>
       <c r="F35" s="56"/>
-      <c r="K35" s="8"/>
-      <c r="M35" s="59"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
-      <c r="S35" s="8"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="8"/>
+      <c r="G35" s="57">
+        <v>1</v>
+      </c>
+      <c r="H35" s="57">
+        <v>0.97</v>
+      </c>
+      <c r="I35" s="57">
+        <v>25</v>
+      </c>
+      <c r="J35" s="83">
+        <v>1041</v>
+      </c>
+      <c r="K35" s="8">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R35" s="21"/>
+      <c r="S35" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="T35" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="U35" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
     <row r="36" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="8"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="56"/>
-      <c r="K36" s="8"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="8"/>
+      <c r="B36" s="16" t="str">
+        <f>S36</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="17">
+        <v>2030</v>
+      </c>
+      <c r="F36" s="60"/>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="I36" s="8">
+        <v>25</v>
+      </c>
+      <c r="J36" s="84">
+        <v>691</v>
+      </c>
+      <c r="K36" s="8">
+        <v>1125</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R36" s="21"/>
+      <c r="S36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="T36" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="16" t="str">
-        <f>S37</f>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="55" t="s">
-        <v>69</v>
+    <row r="37" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="str">
+        <f>S7</f>
+        <v>SOLHEAT</v>
       </c>
       <c r="E37" s="17">
         <v>2030</v>
       </c>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57">
+      <c r="F37" s="60"/>
+      <c r="G37" s="8">
         <v>1</v>
       </c>
-      <c r="H37" s="57">
-        <v>0.97</v>
-      </c>
-      <c r="I37" s="57">
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
         <v>25</v>
       </c>
-      <c r="J37" s="83">
-        <v>1041</v>
+      <c r="J37" s="84">
+        <v>36377</v>
       </c>
       <c r="K37" s="8">
-        <v>38</v>
-      </c>
-      <c r="Q37" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="R37" s="21"/>
-      <c r="S37" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T37" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="U37" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21" t="s">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L37" s="59">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="64"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="16" t="str">
-        <f>S38</f>
-        <v>SOLPV</v>
-      </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="17">
-        <v>2030</v>
-      </c>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F38" s="60"/>
-      <c r="G38" s="8">
-        <v>1</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="I38" s="8">
-        <v>25</v>
-      </c>
-      <c r="J38" s="84">
-        <v>691</v>
-      </c>
-      <c r="K38" s="8">
-        <v>1125</v>
-      </c>
-      <c r="Q38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="R38" s="21"/>
-      <c r="S38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="T38" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="U38" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="X38" s="8"/>
-      <c r="Y38" s="8"/>
-    </row>
-    <row r="39" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B39" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8" t="str">
-        <f>S8</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E39" s="17">
-        <v>2030</v>
-      </c>
-      <c r="F39" s="60"/>
-      <c r="G39" s="8">
-        <v>1</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8">
-        <v>25</v>
-      </c>
-      <c r="J39" s="84">
-        <v>36377</v>
-      </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="59">
-        <v>14</v>
-      </c>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
-      <c r="S39" s="8"/>
-      <c r="T39" s="8"/>
-      <c r="U39" s="16"/>
-      <c r="V39" s="16"/>
-      <c r="W39" s="64"/>
-      <c r="X39" s="8"/>
-      <c r="Y39" s="8"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="62"/>
+      <c r="R38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F40" s="60"/>
-      <c r="G40" s="10"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H40" s="62"/>
-      <c r="R40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="61"/>
-      <c r="V40" s="61"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="63"/>
+      <c r="C41" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="H41" s="62"/>
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B42" s="54"/>
-      <c r="C42" s="8" t="s">
-        <v>83</v>
+      <c r="E42" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="H42" s="62"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B43" s="63"/>
-      <c r="C43" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H43" s="62"/>
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.25">
       <c r="E44" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="62"/>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E46" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F44" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E47" s="10"/>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="128" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27C70C1D-2025-4F7C-80FA-DFDABA91DA9F}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1663F66-CFF7-46A4-BA05-E279A6CD228F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="143">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1991,10 +1991,10 @@
     <t>Renewable Heat Aggrigator</t>
   </si>
   <si>
-    <t>Decenteralized Electricity Aggrigator</t>
-  </si>
-  <si>
     <t>MANHEAT</t>
+  </si>
+  <si>
+    <t>MANELC</t>
   </si>
 </sst>
 </file>
@@ -4403,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5155,7 +5155,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D23" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E23" s="85">
         <v>2030</v>
@@ -5354,7 +5354,7 @@
         <v>121</v>
       </c>
       <c r="D27" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" s="17">
         <v>2030</v>
@@ -5403,7 +5403,7 @@
         <v>123</v>
       </c>
       <c r="D28" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E28" s="17">
         <v>2030</v>
@@ -5424,18 +5424,6 @@
       <c r="K28" s="8"/>
       <c r="M28" s="59">
         <v>8.76</v>
-      </c>
-      <c r="Q28" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="S28" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="T28" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="U28" s="57" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="29" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
@@ -5447,7 +5435,7 @@
         <v>122</v>
       </c>
       <c r="D29" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E29" s="17">
         <v>2030</v>
@@ -5506,16 +5494,15 @@
       <c r="Y30" s="8"/>
     </row>
     <row r="31" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="str">
-        <f>S28</f>
-        <v>DECELC</v>
+      <c r="B31" s="16" t="s">
+        <v>142</v>
       </c>
       <c r="C31" s="16" t="str">
         <f>S8</f>
         <v>DECELC</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="E31" s="17">
         <v>2030</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="139" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1663F66-CFF7-46A4-BA05-E279A6CD228F}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7993137-6DEB-4B35-A2EE-8E5421EC21F1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4403,8 +4403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5502,7 +5502,7 @@
         <v>DECELC</v>
       </c>
       <c r="D31" s="55" t="s">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="E31" s="17">
         <v>2030</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7993137-6DEB-4B35-A2EE-8E5421EC21F1}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E5FADF-A3BF-4F1D-BA27-8E7AB5332455}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="142">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1992,9 +1992,6 @@
   </si>
   <si>
     <t>MANHEAT</t>
-  </si>
-  <si>
-    <t>MANELC</t>
   </si>
 </sst>
 </file>
@@ -2620,13 +2617,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4401,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:Z45"/>
+  <dimension ref="B1:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -5199,9 +5196,8 @@
         <v>WNDTRBN</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="55" t="str">
-        <f>S8</f>
-        <v>DECELC</v>
+      <c r="D24" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="E24" s="85">
         <v>2030</v>
@@ -5251,9 +5247,8 @@
         <v>SOLPV</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="55" t="str">
-        <f>S8</f>
-        <v>DECELC</v>
+      <c r="D25" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="E25" s="85">
         <v>2030</v>
@@ -5494,36 +5489,13 @@
       <c r="Y30" s="8"/>
     </row>
     <row r="31" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" s="16" t="str">
-        <f>S8</f>
-        <v>DECELC</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E31" s="17">
-        <v>2030</v>
-      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="57">
-        <v>1</v>
-      </c>
-      <c r="H31" s="57">
-        <v>1</v>
-      </c>
-      <c r="I31" s="57">
-        <v>100</v>
-      </c>
-      <c r="J31" s="57">
-        <v>0</v>
-      </c>
       <c r="K31" s="8"/>
-      <c r="M31" s="59">
-        <v>8.76</v>
-      </c>
+      <c r="M31" s="59"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -5553,13 +5525,12 @@
       <c r="Y32" s="8"/>
     </row>
     <row r="33" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="16"/>
       <c r="D33" s="55"/>
       <c r="E33" s="17"/>
       <c r="F33" s="56"/>
       <c r="K33" s="8"/>
-      <c r="M33" s="59"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5571,59 +5542,90 @@
       <c r="Y33" s="8"/>
     </row>
     <row r="34" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="8"/>
+      <c r="B34" s="16" t="str">
+        <f>S34</f>
+        <v>WNDTRBN</v>
+      </c>
       <c r="C34" s="16"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="17"/>
+      <c r="D34" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="17">
+        <v>2030</v>
+      </c>
       <c r="F34" s="56"/>
-      <c r="K34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
+      <c r="G34" s="57">
+        <v>1</v>
+      </c>
+      <c r="H34" s="57">
+        <v>0.97</v>
+      </c>
+      <c r="I34" s="57">
+        <v>25</v>
+      </c>
+      <c r="J34" s="83">
+        <v>1041</v>
+      </c>
+      <c r="K34" s="8">
+        <v>38</v>
+      </c>
+      <c r="Q34" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="21"/>
+      <c r="S34" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="T34" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="U34" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
     <row r="35" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="str">
         <f>S35</f>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="C35" s="16"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="C35" s="8"/>
       <c r="D35" s="55" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="17">
         <v>2030</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57">
+      <c r="F35" s="60"/>
+      <c r="G35" s="8">
         <v>1</v>
       </c>
-      <c r="H35" s="57">
-        <v>0.97</v>
-      </c>
-      <c r="I35" s="57">
+      <c r="H35" s="8">
+        <v>0.99</v>
+      </c>
+      <c r="I35" s="8">
         <v>25</v>
       </c>
-      <c r="J35" s="83">
-        <v>1041</v>
+      <c r="J35" s="84">
+        <v>691</v>
       </c>
       <c r="K35" s="8">
-        <v>38</v>
+        <v>1125</v>
       </c>
       <c r="Q35" s="21" t="s">
         <v>69</v>
       </c>
       <c r="R35" s="21"/>
       <c r="S35" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T35" s="37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U35" s="21" t="s">
         <v>58</v>
@@ -5635,14 +5637,14 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="str">
-        <f>S36</f>
-        <v>SOLPV</v>
+    <row r="36" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="55" t="s">
-        <v>69</v>
+      <c r="D36" s="8" t="str">
+        <f>S7</f>
+        <v>SOLHEAT</v>
       </c>
       <c r="E36" s="17">
         <v>2030</v>
@@ -5652,124 +5654,76 @@
         <v>1</v>
       </c>
       <c r="H36" s="8">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="I36" s="8">
         <v>25</v>
       </c>
       <c r="J36" s="84">
-        <v>691</v>
+        <v>36377</v>
       </c>
       <c r="K36" s="8">
-        <v>1125</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="R36" s="21"/>
-      <c r="S36" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="T36" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="U36" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21" t="s">
-        <v>89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L36" s="59">
+        <v>14</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="64"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8" t="str">
-        <f>S7</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E37" s="17">
-        <v>2030</v>
-      </c>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
       <c r="F37" s="60"/>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="8">
-        <v>25</v>
-      </c>
-      <c r="J37" s="84">
-        <v>36377</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="59">
-        <v>14</v>
-      </c>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="64"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="62"/>
+      <c r="R37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="61"/>
+      <c r="V37" s="61"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F38" s="60"/>
-      <c r="G38" s="10"/>
       <c r="H38" s="62"/>
-      <c r="R38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B39" s="54"/>
+      <c r="C39" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="H39" s="62"/>
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B40" s="54"/>
+      <c r="B40" s="63"/>
       <c r="C40" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H40" s="62"/>
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
-      <c r="C41" s="8" t="s">
-        <v>84</v>
+      <c r="E41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>91</v>
       </c>
       <c r="H41" s="62"/>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="62"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E44" s="8" t="s">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E43" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F43" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E45" s="10"/>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E44" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67E5FADF-A3BF-4F1D-BA27-8E7AB5332455}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22EF529F-F2C3-4371-967A-EA8150417BA0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1125,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W16" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
+    <comment ref="W17" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X16" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
+    <comment ref="X17" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y16" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
+    <comment ref="Y17" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
       <text>
         <r>
           <rPr>
@@ -1306,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
+    <comment ref="Q18" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
       <text>
         <r>
           <rPr>
@@ -2617,13 +2617,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>516548</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4398,10 +4398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:Z44"/>
+  <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4633,19 +4633,11 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="Q8" s="92" t="s">
-        <v>69</v>
-      </c>
+      <c r="Q8" s="92"/>
       <c r="R8" s="92"/>
-      <c r="S8" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="T8" s="92" t="s">
-        <v>139</v>
-      </c>
-      <c r="U8" s="92" t="s">
-        <v>58</v>
-      </c>
+      <c r="S8" s="92"/>
+      <c r="T8" s="92"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="61"/>
       <c r="W8" s="61"/>
       <c r="X8" s="61"/>
@@ -4670,24 +4662,30 @@
       <c r="Y9" s="61"/>
       <c r="Z9" s="59"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q10" s="93" t="s">
-        <v>59</v>
-      </c>
-      <c r="R10" s="93"/>
-      <c r="S10" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="T10" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="U10" s="93" t="s">
+    <row r="10" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="Q10" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="R10" s="92"/>
+      <c r="S10" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="T10" s="92" t="s">
+        <v>139</v>
+      </c>
+      <c r="U10" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="V10" s="93"/>
-      <c r="W10" s="93"/>
-      <c r="X10" s="93"/>
-      <c r="Y10" s="93"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
       <c r="Z10" s="59"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.25">
@@ -4696,10 +4694,10 @@
       </c>
       <c r="R11" s="93"/>
       <c r="S11" s="93" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="T11" s="93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U11" s="93" t="s">
         <v>58</v>
@@ -4708,17 +4706,26 @@
       <c r="W11" s="93"/>
       <c r="X11" s="93"/>
       <c r="Y11" s="93"/>
+      <c r="Z11" s="59"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
+      <c r="Q12" s="93" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="T12" s="93" t="s">
+        <v>104</v>
+      </c>
+      <c r="U12" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Q13" s="16"/>
@@ -4731,287 +4738,241 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
     </row>
-    <row r="15" spans="2:26" ht="13" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16"/>
+    </row>
+    <row r="16" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+      <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="Q15" s="40" t="s">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="Q16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="40"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-    </row>
-    <row r="16" spans="2:26" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="5" t="s">
+      <c r="R16" s="40"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+    </row>
+    <row r="17" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D17" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E17" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="46" t="s">
+      <c r="F17" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H17" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="45" t="s">
+      <c r="I17" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="45" t="s">
+      <c r="J17" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="47" t="s">
+      <c r="K17" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="47" t="s">
+      <c r="L17" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="M16" s="45" t="s">
+      <c r="M17" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="N16" s="47" t="s">
+      <c r="N17" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="Q16" s="41" t="s">
+      <c r="Q17" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R17" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="S16" s="41" t="s">
+      <c r="S17" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="T16" s="41" t="s">
+      <c r="T17" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="41" t="s">
+      <c r="U17" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="V16" s="41" t="s">
+      <c r="V17" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="W16" s="41" t="s">
+      <c r="W17" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="X16" s="41" t="s">
+      <c r="X17" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Y16" s="41" t="s">
+      <c r="Y17" s="41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:25" ht="31" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+    <row r="18" spans="2:25" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C18" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="48" t="s">
+      <c r="D18" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E18" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="48" t="s">
+      <c r="F18" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="48" t="s">
+      <c r="G18" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H18" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="I17" s="48" t="s">
+      <c r="I18" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="48" t="s">
+      <c r="J18" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="49" t="s">
+      <c r="K18" s="49" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="49" t="s">
+      <c r="L18" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="M17" s="49" t="s">
+      <c r="M18" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="N17" s="49" t="s">
+      <c r="N18" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="Q17" s="44" t="s">
+      <c r="Q18" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="44" t="s">
+      <c r="R18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="S17" s="44" t="s">
+      <c r="S18" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="44" t="s">
+      <c r="T18" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="U17" s="44" t="s">
+      <c r="U18" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="V17" s="44" t="s">
+      <c r="V18" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="W17" s="44" t="s">
+      <c r="W18" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="X17" s="44" t="s">
+      <c r="X18" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="Y17" s="44" t="s">
+      <c r="Y18" s="44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="50" t="s">
+    <row r="19" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="51" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J19" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="K18" s="52"/>
-      <c r="L18" s="53" t="s">
+      <c r="K19" s="52"/>
+      <c r="L19" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="M18" s="52"/>
-      <c r="N18" s="53" t="s">
+      <c r="M19" s="52"/>
+      <c r="N19" s="53" t="s">
         <v>135</v>
       </c>
-      <c r="Q18" s="44" t="s">
+      <c r="Q19" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-    </row>
-    <row r="19" spans="2:25" ht="13" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="str">
-        <f>S19</f>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+    </row>
+    <row r="20" spans="2:25" ht="13" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="str">
+        <f>S20</f>
         <v>Furnace</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="55" t="str">
+      <c r="D20" s="55" t="str">
         <f>S5</f>
         <v>ELCHEAT</v>
       </c>
-      <c r="E19" s="85">
-        <v>2030</v>
-      </c>
-      <c r="F19" s="56"/>
-      <c r="G19" s="57">
-        <v>1</v>
-      </c>
-      <c r="H19" s="57">
-        <v>1</v>
-      </c>
-      <c r="I19" s="57">
-        <v>30</v>
-      </c>
-      <c r="J19" s="57">
-        <v>333</v>
-      </c>
-      <c r="K19" s="57"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59">
-        <v>8.76</v>
-      </c>
-      <c r="N19" s="59"/>
-      <c r="Q19" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="R19" s="73"/>
-      <c r="S19" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="T19" s="75" t="s">
-        <v>118</v>
-      </c>
-      <c r="U19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="W19" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="X19" s="57"/>
-      <c r="Y19" s="57"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="str">
-        <f>S$20</f>
-        <v>BIOBoiler</v>
-      </c>
-      <c r="C20" s="9" t="str">
-        <f>PRI_Sector_Fuels!P5</f>
-        <v>MANBIOMIN</v>
-      </c>
-      <c r="D20" s="55" t="str">
-        <f>S6</f>
-        <v>BIOHEAT</v>
-      </c>
       <c r="E20" s="85">
         <v>2030</v>
       </c>
       <c r="F20" s="56"/>
       <c r="G20" s="57">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H20" s="57">
         <v>1</v>
       </c>
       <c r="I20" s="57">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J20" s="57">
-        <v>222</v>
+        <v>333</v>
       </c>
       <c r="K20" s="57"/>
       <c r="L20" s="59"/>
@@ -5019,15 +4980,15 @@
         <v>8.76</v>
       </c>
       <c r="N20" s="59"/>
-      <c r="Q20" s="73" t="s">
+      <c r="Q20" s="74" t="s">
         <v>120</v>
       </c>
       <c r="R20" s="73"/>
-      <c r="S20" s="72" t="s">
-        <v>111</v>
+      <c r="S20" s="71" t="s">
+        <v>66</v>
       </c>
       <c r="T20" s="75" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="U20" s="9" t="s">
         <v>58</v>
@@ -5035,21 +4996,24 @@
       <c r="V20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="57"/>
+      <c r="W20" s="58" t="s">
+        <v>89</v>
+      </c>
       <c r="X20" s="57"/>
       <c r="Y20" s="57"/>
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="str">
-        <f>S23</f>
-        <v>ELCBoiler</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>69</v>
+        <f>S$21</f>
+        <v>BIOBoiler</v>
+      </c>
+      <c r="C21" s="9" t="str">
+        <f>PRI_Sector_Fuels!P5</f>
+        <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="55" t="str">
-        <f>S5</f>
-        <v>ELCHEAT</v>
+        <f>S6</f>
+        <v>BIOHEAT</v>
       </c>
       <c r="E21" s="85">
         <v>2030</v>
@@ -5065,7 +5029,7 @@
         <v>20</v>
       </c>
       <c r="J21" s="57">
-        <v>2121</v>
+        <v>222</v>
       </c>
       <c r="K21" s="57"/>
       <c r="L21" s="59"/>
@@ -5078,10 +5042,10 @@
       </c>
       <c r="R21" s="73"/>
       <c r="S21" s="72" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T21" s="75" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="U21" s="9" t="s">
         <v>58</v>
@@ -5093,111 +5057,120 @@
       <c r="X21" s="57"/>
       <c r="Y21" s="57"/>
     </row>
-    <row r="22" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="str">
-        <f>S21</f>
+        <f>S24</f>
+        <v>ELCBoiler</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="55" t="str">
+        <f>S5</f>
+        <v>ELCHEAT</v>
+      </c>
+      <c r="E22" s="85">
+        <v>2030</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57">
+        <v>0.8</v>
+      </c>
+      <c r="H22" s="57">
+        <v>1</v>
+      </c>
+      <c r="I22" s="57">
+        <v>20</v>
+      </c>
+      <c r="J22" s="57">
+        <v>2121</v>
+      </c>
+      <c r="K22" s="57"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="N22" s="59"/>
+      <c r="Q22" s="73" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="73"/>
+      <c r="S22" s="72" t="s">
+        <v>112</v>
+      </c>
+      <c r="T22" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+    </row>
+    <row r="23" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="str">
+        <f>S22</f>
         <v>BIOKiln</v>
       </c>
-      <c r="C22" s="9" t="str">
+      <c r="C23" s="9" t="str">
         <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D23" s="55" t="str">
         <f>S6</f>
         <v>BIOHEAT</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E23" s="85">
         <v>2030</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57">
+      <c r="F23" s="56"/>
+      <c r="G23" s="57">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H23" s="57">
         <v>1</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I23" s="57">
         <v>20</v>
       </c>
-      <c r="J22" s="57">
+      <c r="J23" s="57">
         <v>444</v>
       </c>
-      <c r="M22" s="59">
+      <c r="M23" s="59">
         <v>8.76</v>
       </c>
-      <c r="Q22" s="73" t="s">
+      <c r="Q23" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="73"/>
-      <c r="S22" s="72" t="s">
+      <c r="R23" s="73"/>
+      <c r="S23" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="T22" s="75" t="s">
+      <c r="T23" s="75" t="s">
         <v>114</v>
       </c>
-      <c r="U22" s="9" t="s">
+      <c r="U23" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="V23" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="55" t="str">
-        <f>S22</f>
+    <row r="24" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="55" t="str">
+        <f>S23</f>
         <v>GASBoiler</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C24" s="9" t="str">
         <f>PRI_Sector_Fuels!P6</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D24" s="55" t="s">
         <v>141</v>
-      </c>
-      <c r="E23" s="85">
-        <v>2030</v>
-      </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57">
-        <v>1</v>
-      </c>
-      <c r="H23" s="57">
-        <v>1</v>
-      </c>
-      <c r="I23" s="57">
-        <v>25</v>
-      </c>
-      <c r="J23" s="57">
-        <v>2145</v>
-      </c>
-      <c r="M23" s="59">
-        <v>8.76</v>
-      </c>
-      <c r="Q23" s="73" t="s">
-        <v>120</v>
-      </c>
-      <c r="R23" s="73"/>
-      <c r="S23" s="72" t="s">
-        <v>115</v>
-      </c>
-      <c r="T23" s="75" t="s">
-        <v>116</v>
-      </c>
-      <c r="U23" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="55" t="str">
-        <f>S25</f>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="55" t="s">
-        <v>69</v>
       </c>
       <c r="E24" s="85">
         <v>2030</v>
@@ -5213,10 +5186,7 @@
         <v>25</v>
       </c>
       <c r="J24" s="57">
-        <v>1041</v>
-      </c>
-      <c r="K24" s="57">
-        <v>38</v>
+        <v>2145</v>
       </c>
       <c r="M24" s="59">
         <v>8.76</v>
@@ -5226,25 +5196,22 @@
       </c>
       <c r="R24" s="73"/>
       <c r="S24" s="72" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="T24" s="75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V24" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="W24" s="57" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="55" t="str">
         <f>S26</f>
-        <v>SOLPV</v>
+        <v>WNDTRBN</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="55" t="s">
@@ -5264,41 +5231,42 @@
         <v>25</v>
       </c>
       <c r="J25" s="57">
-        <v>691</v>
+        <v>1041</v>
       </c>
       <c r="K25" s="57">
-        <v>1125</v>
+        <v>38</v>
       </c>
       <c r="M25" s="59">
         <v>8.76</v>
       </c>
       <c r="Q25" s="73" t="s">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="R25" s="73"/>
       <c r="S25" s="72" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="T25" s="75" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V25" s="9"/>
+      <c r="V25" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="W25" s="57" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="55" t="str">
-        <f>S24</f>
-        <v>CSP</v>
+        <f>S27</f>
+        <v>SOLPV</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="55" t="str">
-        <f>S7</f>
-        <v>SOLHEAT</v>
+      <c r="D26" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="E26" s="85">
         <v>2030</v>
@@ -5314,10 +5282,10 @@
         <v>25</v>
       </c>
       <c r="J26" s="57">
-        <v>36377</v>
-      </c>
-      <c r="L26" s="57">
-        <v>14</v>
+        <v>691</v>
+      </c>
+      <c r="K26" s="57">
+        <v>1125</v>
       </c>
       <c r="M26" s="59">
         <v>8.76</v>
@@ -5327,10 +5295,10 @@
       </c>
       <c r="R26" s="73"/>
       <c r="S26" s="72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T26" s="75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U26" s="9" t="s">
         <v>58</v>
@@ -5341,17 +5309,16 @@
       </c>
     </row>
     <row r="27" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="str">
-        <f>S27</f>
-        <v>RNWHEAT</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="E27" s="17">
+      <c r="B27" s="55" t="str">
+        <f>S25</f>
+        <v>CSP</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="55" t="str">
+        <f>S7</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="E27" s="85">
         <v>2030</v>
       </c>
       <c r="F27" s="56"/>
@@ -5362,40 +5329,42 @@
         <v>1</v>
       </c>
       <c r="I27" s="57">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J27" s="57">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8"/>
+        <v>36377</v>
+      </c>
+      <c r="L27" s="57">
+        <v>14</v>
+      </c>
       <c r="M27" s="59">
         <v>8.76</v>
       </c>
-      <c r="Q27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="U27" s="8" t="s">
+      <c r="Q27" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" s="73"/>
+      <c r="S27" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="T27" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="U27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="57" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="28" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="str">
-        <f>S27</f>
+        <f>S28</f>
         <v>RNWHEAT</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D28" s="55" t="s">
         <v>141</v>
@@ -5420,14 +5389,31 @@
       <c r="M28" s="59">
         <v>8.76</v>
       </c>
+      <c r="Q28" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="U28" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
     </row>
     <row r="29" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="str">
-        <f>S27</f>
+        <f>S28</f>
         <v>RNWHEAT</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D29" s="55" t="s">
         <v>141</v>
@@ -5439,30 +5425,30 @@
       <c r="G29" s="57">
         <v>1</v>
       </c>
+      <c r="H29" s="57">
+        <v>1</v>
+      </c>
+      <c r="I29" s="57">
+        <v>50</v>
+      </c>
+      <c r="J29" s="57">
+        <v>0</v>
+      </c>
       <c r="K29" s="8"/>
       <c r="M29" s="59">
         <v>8.76</v>
       </c>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
     </row>
     <row r="30" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="str">
-        <f>S22</f>
-        <v>GASBoiler</v>
+      <c r="B30" s="8" t="str">
+        <f>S28</f>
+        <v>RNWHEAT</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="D30" s="55" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E30" s="17">
         <v>2030</v>
@@ -5474,9 +5460,6 @@
       <c r="K30" s="8"/>
       <c r="M30" s="59">
         <v>8.76</v>
-      </c>
-      <c r="N30" s="57">
-        <v>0.20200000000000001</v>
       </c>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
@@ -5489,13 +5472,30 @@
       <c r="Y30" s="8"/>
     </row>
     <row r="31" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="17"/>
+      <c r="B31" s="16" t="str">
+        <f>S23</f>
+        <v>GASBoiler</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="17">
+        <v>2030</v>
+      </c>
       <c r="F31" s="56"/>
+      <c r="G31" s="57">
+        <v>1</v>
+      </c>
       <c r="K31" s="8"/>
-      <c r="M31" s="59"/>
+      <c r="M31" s="59">
+        <v>8.76</v>
+      </c>
+      <c r="N31" s="57">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
       <c r="S31" s="8"/>
@@ -5525,12 +5525,13 @@
       <c r="Y32" s="8"/>
     </row>
     <row r="33" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="8"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="55"/>
       <c r="E33" s="17"/>
       <c r="F33" s="56"/>
       <c r="K33" s="8"/>
+      <c r="M33" s="59"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5542,90 +5543,59 @@
       <c r="Y33" s="8"/>
     </row>
     <row r="34" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="16" t="str">
-        <f>S34</f>
-        <v>WNDTRBN</v>
-      </c>
+      <c r="B34" s="8"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="17">
-        <v>2030</v>
-      </c>
+      <c r="D34" s="55"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="57">
-        <v>1</v>
-      </c>
-      <c r="H34" s="57">
-        <v>0.97</v>
-      </c>
-      <c r="I34" s="57">
-        <v>25</v>
-      </c>
-      <c r="J34" s="83">
-        <v>1041</v>
-      </c>
-      <c r="K34" s="8">
-        <v>38</v>
-      </c>
-      <c r="Q34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="R34" s="21"/>
-      <c r="S34" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T34" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="U34" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="V34" s="21"/>
-      <c r="W34" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="K34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
     <row r="35" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="16" t="str">
         <f>S35</f>
-        <v>SOLPV</v>
-      </c>
-      <c r="C35" s="8"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="C35" s="16"/>
       <c r="D35" s="55" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="17">
         <v>2030</v>
       </c>
-      <c r="F35" s="60"/>
-      <c r="G35" s="8">
+      <c r="F35" s="56"/>
+      <c r="G35" s="57">
         <v>1</v>
       </c>
-      <c r="H35" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="I35" s="8">
+      <c r="H35" s="57">
+        <v>0.97</v>
+      </c>
+      <c r="I35" s="57">
         <v>25</v>
       </c>
-      <c r="J35" s="84">
-        <v>691</v>
+      <c r="J35" s="83">
+        <v>1041</v>
       </c>
       <c r="K35" s="8">
-        <v>1125</v>
+        <v>38</v>
       </c>
       <c r="Q35" s="21" t="s">
         <v>69</v>
       </c>
       <c r="R35" s="21"/>
       <c r="S35" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T35" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U35" s="21" t="s">
         <v>58</v>
@@ -5637,14 +5607,14 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="B36" s="8" t="s">
-        <v>65</v>
+    <row r="36" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="16" t="str">
+        <f>S36</f>
+        <v>SOLPV</v>
       </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="8" t="str">
-        <f>S7</f>
-        <v>SOLHEAT</v>
+      <c r="D36" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="E36" s="17">
         <v>2030</v>
@@ -5654,76 +5624,124 @@
         <v>1</v>
       </c>
       <c r="H36" s="8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I36" s="8">
         <v>25</v>
       </c>
       <c r="J36" s="84">
-        <v>36377</v>
+        <v>691</v>
       </c>
       <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="59">
-        <v>14</v>
-      </c>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="8"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="16"/>
-      <c r="V36" s="16"/>
-      <c r="W36" s="64"/>
+        <v>1125</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="R36" s="21"/>
+      <c r="S36" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="T36" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="U36" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8" t="str">
+        <f>S7</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2030</v>
+      </c>
       <c r="F37" s="60"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="62"/>
-      <c r="R37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="61"/>
-      <c r="V37" s="61"/>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>1</v>
+      </c>
+      <c r="I37" s="8">
+        <v>25</v>
+      </c>
+      <c r="J37" s="84">
+        <v>36377</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="59">
+        <v>14</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="64"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="F38" s="60"/>
+      <c r="G38" s="10"/>
       <c r="H38" s="62"/>
+      <c r="R38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="61"/>
+      <c r="V38" s="61"/>
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B39" s="54"/>
-      <c r="C39" s="8" t="s">
+      <c r="H39" s="62"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B40" s="54"/>
+      <c r="C40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H39" s="62"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B40" s="63"/>
-      <c r="C40" s="8" t="s">
+      <c r="H40" s="62"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B41" s="63"/>
+      <c r="C41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H40" s="62"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E41" s="8" t="s">
+      <c r="H41" s="62"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E42" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H41" s="62"/>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E43" s="8" t="s">
+      <c r="H42" s="62"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E44" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F44" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="E44" s="10"/>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="E45" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/INDIND/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{6D3A0943-88C3-41D5-9314-027B30424CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22EF529F-F2C3-4371-967A-EA8150417BA0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AB89B3-5514-4635-AA1A-911488978066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2140,7 +2140,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2184,12 +2184,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2286,11 +2280,11 @@
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2353,8 +2347,8 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="19" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2363,7 +2357,7 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2402,35 +2396,31 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2456,9 +2446,10 @@
     </xf>
     <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="21" fillId="13" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5 2" xfId="18" xr:uid="{4C3A48E2-3C46-4D12-9A64-54698D8BF8EE}"/>
@@ -3083,37 +3074,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W63"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" style="65" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1796875" customWidth="1"/>
-    <col min="16" max="16" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" customWidth="1"/>
-    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="s">
         <v>38</v>
       </c>
@@ -3131,7 +3122,7 @@
       </c>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="21" t="s">
         <v>72</v>
       </c>
@@ -3157,7 +3148,7 @@
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
     </row>
-    <row r="3" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="s">
         <v>63</v>
       </c>
@@ -3199,7 +3190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="21" t="s">
         <v>61</v>
       </c>
@@ -3241,7 +3232,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C5" s="21" t="s">
         <v>60</v>
       </c>
@@ -3273,7 +3264,7 @@
       <c r="U5" s="19"/>
       <c r="V5" s="19"/>
     </row>
-    <row r="6" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
       <c r="E6" s="18"/>
@@ -3297,7 +3288,7 @@
       <c r="U6" s="19"/>
       <c r="V6" s="19"/>
     </row>
-    <row r="7" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="18"/>
@@ -3313,24 +3304,24 @@
       <c r="U7" s="19"/>
       <c r="V7" s="19"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="N8" s="68" t="s">
+      <c r="N8" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68" t="s">
+      <c r="O8" s="66"/>
+      <c r="P8" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="Q8" s="68" t="s">
+      <c r="Q8" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="R8" s="68" t="s">
+      <c r="R8" s="66" t="s">
         <v>58</v>
       </c>
       <c r="S8" s="19"/>
@@ -3338,7 +3329,7 @@
       <c r="U8" s="19"/>
       <c r="V8" s="19"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -3346,17 +3337,17 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="N9" s="68" t="s">
+      <c r="N9" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68" t="s">
+      <c r="O9" s="66"/>
+      <c r="P9" s="66" t="s">
         <v>109</v>
       </c>
-      <c r="Q9" s="68" t="s">
+      <c r="Q9" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="R9" s="68" t="s">
+      <c r="R9" s="66" t="s">
         <v>58</v>
       </c>
       <c r="S9" s="19"/>
@@ -3364,7 +3355,7 @@
       <c r="U9" s="19"/>
       <c r="V9" s="19"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -3382,8 +3373,8 @@
       <c r="U10" s="19"/>
       <c r="V10" s="19"/>
     </row>
-    <row r="11" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L11" s="86"/>
+    <row r="11" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="84"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
@@ -3394,8 +3385,8 @@
       <c r="U11" s="19"/>
       <c r="V11" s="19"/>
     </row>
-    <row r="12" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L12" s="86"/>
+    <row r="12" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="84"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -3406,7 +3397,7 @@
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
     </row>
-    <row r="13" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3414,7 +3405,7 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="L13" s="86"/>
+      <c r="L13" s="84"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
@@ -3425,7 +3416,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3433,7 +3424,7 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="L14" s="86"/>
+      <c r="L14" s="84"/>
       <c r="N14" s="12"/>
       <c r="O14" s="15"/>
       <c r="P14" s="12"/>
@@ -3444,7 +3435,7 @@
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N15" s="12"/>
       <c r="O15" s="15"/>
       <c r="P15" s="12"/>
@@ -3455,7 +3446,7 @@
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N16" s="12"/>
       <c r="O16" s="15"/>
       <c r="P16" s="12"/>
@@ -3466,7 +3457,7 @@
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N17" s="12"/>
       <c r="O17" s="15"/>
       <c r="P17" s="12"/>
@@ -3477,7 +3468,7 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N18" s="12"/>
       <c r="O18" s="15"/>
       <c r="P18" s="12"/>
@@ -3488,7 +3479,7 @@
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N19" s="12"/>
       <c r="O19" s="15"/>
       <c r="P19" s="12"/>
@@ -3499,7 +3490,7 @@
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N20" s="12"/>
       <c r="O20" s="15"/>
       <c r="P20" s="12"/>
@@ -3510,7 +3501,7 @@
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -3520,7 +3511,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
       <c r="F22" s="2" t="s">
         <v>0</v>
       </c>
@@ -3537,7 +3528,7 @@
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
     </row>
-    <row r="23" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>1</v>
       </c>
@@ -3568,7 +3559,7 @@
       <c r="K23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="87"/>
+      <c r="L23" s="85"/>
       <c r="N23" s="13" t="s">
         <v>15</v>
       </c>
@@ -3597,7 +3588,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="25" t="s">
         <v>48</v>
       </c>
@@ -3628,7 +3619,7 @@
       <c r="K24" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="88"/>
+      <c r="L24" s="86"/>
       <c r="N24" s="20" t="s">
         <v>50</v>
       </c>
@@ -3657,7 +3648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="25" t="s">
         <v>53</v>
       </c>
@@ -3676,7 +3667,7 @@
         <v>58</v>
       </c>
       <c r="K25" s="28"/>
-      <c r="L25" s="89"/>
+      <c r="L25" s="87"/>
       <c r="N25" s="20" t="s">
         <v>82</v>
       </c>
@@ -3691,7 +3682,7 @@
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B26" s="12" t="str">
         <f>P26</f>
         <v>MINBIO</v>
@@ -3720,25 +3711,25 @@
       <c r="K26" s="33">
         <v>8.76</v>
       </c>
-      <c r="L26" s="65"/>
-      <c r="N26" s="80" t="s">
+      <c r="L26" s="63"/>
+      <c r="N26" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="80"/>
-      <c r="P26" s="81" t="s">
+      <c r="O26" s="78"/>
+      <c r="P26" s="79" t="s">
         <v>130</v>
       </c>
-      <c r="Q26" s="82" t="str">
+      <c r="Q26" s="80" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="R26" s="80" t="s">
+      <c r="R26" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="80"/>
-      <c r="T26" s="80"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="str">
         <f>P27</f>
         <v>MINGAS</v>
@@ -3767,25 +3758,25 @@
       <c r="K27" s="33">
         <v>8.76</v>
       </c>
-      <c r="L27" s="65"/>
-      <c r="N27" s="80" t="s">
+      <c r="L27" s="63"/>
+      <c r="N27" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="80"/>
-      <c r="P27" s="81" t="s">
+      <c r="O27" s="78"/>
+      <c r="P27" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="Q27" s="82" t="str">
+      <c r="Q27" s="80" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Ngas </v>
       </c>
-      <c r="R27" s="80" t="s">
+      <c r="R27" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
       <c r="C28" s="15"/>
       <c r="D28" s="12"/>
@@ -3796,16 +3787,16 @@
       <c r="I28" s="35"/>
       <c r="J28" s="36"/>
       <c r="K28" s="33"/>
-      <c r="L28" s="65"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
-      <c r="P28" s="81"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="80"/>
-      <c r="S28" s="80"/>
-      <c r="T28" s="80"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L28" s="63"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="80"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
       <c r="C29" s="15"/>
       <c r="D29" s="12"/>
@@ -3816,16 +3807,16 @@
       <c r="I29" s="35"/>
       <c r="J29" s="36"/>
       <c r="K29" s="33"/>
-      <c r="L29" s="65"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="81"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L29" s="63"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="78"/>
+      <c r="S29" s="78"/>
+      <c r="T29" s="78"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
       <c r="C30" s="15"/>
       <c r="D30" s="12"/>
@@ -3836,16 +3827,16 @@
       <c r="I30" s="35"/>
       <c r="J30" s="36"/>
       <c r="K30" s="33"/>
-      <c r="L30" s="65"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="80"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="80"/>
-      <c r="S30" s="80"/>
-      <c r="T30" s="80"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L30" s="63"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="80"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
       <c r="C31" s="15"/>
       <c r="D31" s="12"/>
@@ -3856,16 +3847,16 @@
       <c r="I31" s="35"/>
       <c r="J31" s="36"/>
       <c r="K31" s="33"/>
-      <c r="L31" s="65"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="81"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="L31" s="63"/>
+      <c r="N31" s="78"/>
+      <c r="O31" s="78"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="80"/>
+      <c r="R31" s="78"/>
+      <c r="S31" s="78"/>
+      <c r="T31" s="78"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
       <c r="C32" s="15"/>
       <c r="D32" s="12"/>
@@ -3876,16 +3867,16 @@
       <c r="I32" s="35"/>
       <c r="J32" s="36"/>
       <c r="K32" s="33"/>
-      <c r="L32" s="65"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="81"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L32" s="63"/>
+      <c r="N32" s="78"/>
+      <c r="O32" s="78"/>
+      <c r="P32" s="79"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="78"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="str">
         <f t="shared" ref="B33:B34" si="0">P33</f>
         <v>WNDTRBN</v>
@@ -3909,14 +3900,14 @@
       <c r="H33" s="21">
         <v>25</v>
       </c>
-      <c r="I33" s="76">
+      <c r="I33" s="74">
         <v>9.1191599999999994E-3</v>
       </c>
       <c r="J33" s="36"/>
-      <c r="K33" s="77">
+      <c r="K33" s="75">
         <v>8.76</v>
       </c>
-      <c r="L33" s="65"/>
+      <c r="L33" s="63"/>
       <c r="N33" s="21" t="s">
         <v>69</v>
       </c>
@@ -3935,7 +3926,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="19" t="str">
         <f t="shared" si="0"/>
         <v>SOLPV</v>
@@ -3959,14 +3950,14 @@
       <c r="H34" s="21">
         <v>25</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="74">
         <v>6.0531600000000001E-3</v>
       </c>
       <c r="J34" s="36"/>
-      <c r="K34" s="77">
+      <c r="K34" s="75">
         <v>8.76</v>
       </c>
-      <c r="L34" s="65"/>
+      <c r="L34" s="63"/>
       <c r="N34" s="21" t="s">
         <v>69</v>
       </c>
@@ -3985,7 +3976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="19" t="str">
         <f>P37</f>
         <v>CSP</v>
@@ -4010,14 +4001,14 @@
       <c r="H35" s="21">
         <v>25</v>
       </c>
-      <c r="I35" s="78">
+      <c r="I35" s="76">
         <v>3.2210519999999999E-2</v>
       </c>
       <c r="J35" s="36"/>
-      <c r="K35" s="77">
+      <c r="K35" s="75">
         <v>8.76</v>
       </c>
-      <c r="L35" s="65"/>
+      <c r="L35" s="63"/>
       <c r="N35" s="21" t="s">
         <v>64</v>
       </c>
@@ -4034,7 +4025,7 @@
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="str">
         <f>P35</f>
         <v>MINWIND</v>
@@ -4056,14 +4047,14 @@
       <c r="H36" s="21">
         <v>50</v>
       </c>
-      <c r="I36" s="79">
+      <c r="I36" s="77">
         <v>0</v>
       </c>
-      <c r="J36" s="66"/>
-      <c r="K36" s="77">
+      <c r="J36" s="64"/>
+      <c r="K36" s="75">
         <v>8.76</v>
       </c>
-      <c r="L36" s="65"/>
+      <c r="L36" s="63"/>
       <c r="N36" s="21" t="s">
         <v>64</v>
       </c>
@@ -4080,7 +4071,7 @@
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="str">
         <f>P36</f>
         <v>MINSOL</v>
@@ -4102,14 +4093,14 @@
       <c r="H37" s="21">
         <v>50</v>
       </c>
-      <c r="I37" s="79">
+      <c r="I37" s="77">
         <v>0</v>
       </c>
-      <c r="J37" s="66"/>
-      <c r="K37" s="77">
+      <c r="J37" s="64"/>
+      <c r="K37" s="75">
         <v>8.76</v>
       </c>
-      <c r="L37" s="65"/>
+      <c r="L37" s="63"/>
       <c r="N37" s="21" t="s">
         <v>120</v>
       </c>
@@ -4128,235 +4119,235 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="65"/>
-      <c r="N38" s="74"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="75"/>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I38" s="67"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="63"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="69"/>
+      <c r="Q38" s="73"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="12"/>
       <c r="C39" s="15"/>
       <c r="D39" s="12"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="65"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="75"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I39" s="67"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="68"/>
+      <c r="L39" s="63"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="73"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="12"/>
       <c r="C40" s="15"/>
       <c r="D40" s="12"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="65"/>
-      <c r="N40" s="73"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="75"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I40" s="67"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="68"/>
+      <c r="L40" s="63"/>
+      <c r="N40" s="71"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="73"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="12"/>
       <c r="C41" s="15"/>
       <c r="D41" s="12"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="65"/>
-      <c r="N41" s="73"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="75"/>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I41" s="67"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="68"/>
+      <c r="L41" s="63"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="70"/>
+      <c r="Q41" s="73"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
       <c r="C42" s="1"/>
       <c r="D42" s="12"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="65"/>
-      <c r="N42" s="73"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="75"/>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I42" s="67"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="68"/>
+      <c r="L42" s="63"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="70"/>
+      <c r="Q42" s="73"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="65"/>
-      <c r="N43" s="73"/>
-      <c r="O43" s="73"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="75"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I43" s="67"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="68"/>
+      <c r="L43" s="63"/>
+      <c r="N43" s="71"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="73"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="65"/>
-      <c r="N44" s="73"/>
-      <c r="O44" s="73"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="75"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I44" s="67"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="68"/>
+      <c r="L44" s="63"/>
+      <c r="N44" s="71"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="70"/>
+      <c r="Q44" s="73"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="65"/>
-      <c r="N45" s="73"/>
-      <c r="O45" s="73"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="75"/>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I45" s="67"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="68"/>
+      <c r="L45" s="63"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="70"/>
+      <c r="Q45" s="73"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
       <c r="C46" s="1"/>
       <c r="D46" s="12"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="65"/>
-      <c r="N46" s="73"/>
-      <c r="O46" s="73"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="75"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I46" s="67"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="63"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="70"/>
+      <c r="Q46" s="73"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="12"/>
       <c r="C47" s="1"/>
       <c r="D47" s="12"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="I47" s="65"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="65"/>
-      <c r="L47" s="65"/>
-      <c r="N47" s="73"/>
-      <c r="O47" s="73"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="75"/>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I47" s="63"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="N47" s="71"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="70"/>
+      <c r="Q47" s="73"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="12"/>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="N48" s="73"/>
-      <c r="O48" s="73"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="75"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I48" s="63"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="N48" s="71"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="70"/>
+      <c r="Q48" s="73"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="I49" s="65"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="65"/>
-      <c r="L49" s="65"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
       <c r="P49" s="15"/>
       <c r="Q49" s="34"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I50" s="65"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I50" s="63"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="34"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B51" s="30"/>
       <c r="C51" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I51" s="65"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="65"/>
-      <c r="L51" s="65"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I51" s="63"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B52" s="38"/>
       <c r="C52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I52" s="65"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I53" s="65"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="65"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-    </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="63"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="63"/>
+      <c r="L52" s="63"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I53" s="63"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="63"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+    </row>
+    <row r="61" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61"/>
       <c r="B61"/>
       <c r="C61"/>
@@ -4368,7 +4359,7 @@
       <c r="I61"/>
       <c r="J61"/>
       <c r="K61"/>
-      <c r="L61" s="67"/>
+      <c r="L61" s="65"/>
       <c r="M61"/>
       <c r="N61"/>
       <c r="O61"/>
@@ -4381,10 +4372,10 @@
       <c r="V61"/>
       <c r="W61"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="W62" s="1"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
     </row>
   </sheetData>
@@ -4400,37 +4391,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.90625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.1796875" style="8" customWidth="1"/>
-    <col min="15" max="16" width="8.1796875" style="59" customWidth="1"/>
-    <col min="17" max="17" width="12.7265625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.1796875" style="8" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="63.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.26953125" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7265625" style="8" customWidth="1"/>
-    <col min="23" max="23" width="13.453125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="13.81640625" style="8" customWidth="1"/>
-    <col min="25" max="25" width="8.453125" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="8.81640625" style="8"/>
+    <col min="6" max="6" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.140625" style="8" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" style="57" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="63.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="8" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="8" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="8" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:26" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
@@ -4451,7 +4442,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="2:26" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>99</v>
       </c>
@@ -4484,7 +4475,7 @@
       <c r="X2" s="16"/>
       <c r="Y2" s="16"/>
     </row>
-    <row r="3" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
       <c r="Q3" s="41" t="s">
         <v>8</v>
       </c>
@@ -4513,7 +4504,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
       <c r="D4" s="43"/>
@@ -4548,186 +4539,186 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
-      <c r="Q5" s="91" t="s">
+      <c r="Q5" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="91"/>
-      <c r="S5" s="91" t="s">
+      <c r="R5" s="89"/>
+      <c r="S5" s="89" t="s">
         <v>121</v>
       </c>
-      <c r="T5" s="91" t="s">
+      <c r="T5" s="89" t="s">
         <v>124</v>
       </c>
-      <c r="U5" s="91" t="s">
+      <c r="U5" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="90"/>
-      <c r="W5" s="90"/>
-      <c r="X5" s="90"/>
-      <c r="Y5" s="90"/>
-      <c r="Z5" s="59"/>
-    </row>
-    <row r="6" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="57"/>
+    </row>
+    <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="Q6" s="91" t="s">
+      <c r="Q6" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="91"/>
-      <c r="S6" s="91" t="s">
+      <c r="R6" s="89"/>
+      <c r="S6" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="91" t="s">
+      <c r="T6" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="U6" s="91" t="s">
+      <c r="U6" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="59"/>
-    </row>
-    <row r="7" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
+      <c r="Z6" s="57"/>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="Q7" s="92" t="s">
+      <c r="Q7" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="92"/>
-      <c r="S7" s="92" t="s">
+      <c r="R7" s="90"/>
+      <c r="S7" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="T7" s="92" t="s">
+      <c r="T7" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="U7" s="92" t="s">
+      <c r="U7" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="59"/>
-    </row>
-    <row r="8" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="57"/>
+    </row>
+    <row r="8" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="43"/>
       <c r="C8" s="43"/>
       <c r="D8" s="43"/>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="Q8" s="92"/>
-      <c r="R8" s="92"/>
-      <c r="S8" s="92"/>
-      <c r="T8" s="92"/>
-      <c r="U8" s="92"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="59"/>
-    </row>
-    <row r="9" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="90"/>
+      <c r="T8" s="90"/>
+      <c r="U8" s="90"/>
+      <c r="V8" s="59"/>
+      <c r="W8" s="59"/>
+      <c r="X8" s="59"/>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="57"/>
+    </row>
+    <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="Q9" s="92"/>
-      <c r="R9" s="92"/>
-      <c r="S9" s="92"/>
-      <c r="T9" s="92"/>
-      <c r="U9" s="92"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="59"/>
-    </row>
-    <row r="10" spans="2:26" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="Q9" s="90"/>
+      <c r="R9" s="90"/>
+      <c r="S9" s="90"/>
+      <c r="T9" s="90"/>
+      <c r="U9" s="90"/>
+      <c r="V9" s="59"/>
+      <c r="W9" s="59"/>
+      <c r="X9" s="59"/>
+      <c r="Y9" s="59"/>
+      <c r="Z9" s="57"/>
+    </row>
+    <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
       <c r="C10" s="43"/>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="Q10" s="92" t="s">
+      <c r="Q10" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="92"/>
-      <c r="S10" s="92" t="s">
+      <c r="R10" s="90"/>
+      <c r="S10" s="90" t="s">
         <v>138</v>
       </c>
-      <c r="T10" s="92" t="s">
+      <c r="T10" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="U10" s="92" t="s">
+      <c r="U10" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="59"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q11" s="93" t="s">
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="57"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Q11" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93" t="s">
+      <c r="R11" s="91"/>
+      <c r="S11" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="93" t="s">
+      <c r="T11" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="U11" s="93" t="s">
+      <c r="U11" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="59"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="Q12" s="93" t="s">
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="57"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Q12" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="93"/>
-      <c r="S12" s="93" t="s">
+      <c r="R12" s="91"/>
+      <c r="S12" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="T12" s="93" t="s">
+      <c r="T12" s="91" t="s">
         <v>104</v>
       </c>
-      <c r="U12" s="93" t="s">
+      <c r="U12" s="91" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="93"/>
-      <c r="W12" s="93"/>
-      <c r="X12" s="93"/>
-      <c r="Y12" s="93"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="V12" s="91"/>
+      <c r="W12" s="91"/>
+      <c r="X12" s="91"/>
+      <c r="Y12" s="91"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -4738,7 +4729,7 @@
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
@@ -4749,7 +4740,7 @@
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
     </row>
-    <row r="16" spans="2:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
         <v>0</v>
       </c>
@@ -4774,7 +4765,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
     </row>
-    <row r="17" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
@@ -4842,7 +4833,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:25" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="s">
         <v>48</v>
       </c>
@@ -4910,7 +4901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
         <v>53</v>
       </c>
@@ -4927,11 +4918,11 @@
         <v>127</v>
       </c>
       <c r="K19" s="52"/>
-      <c r="L19" s="53" t="s">
+      <c r="L19" s="51" t="s">
         <v>81</v>
       </c>
       <c r="M19" s="52"/>
-      <c r="N19" s="53" t="s">
+      <c r="N19" s="52" t="s">
         <v>135</v>
       </c>
       <c r="Q19" s="44" t="s">
@@ -4946,7 +4937,7 @@
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
     </row>
-    <row r="20" spans="2:25" ht="13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="str">
         <f>S20</f>
         <v>Furnace</v>
@@ -4954,40 +4945,40 @@
       <c r="C20" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="55" t="str">
+      <c r="D20" s="54" t="str">
         <f>S5</f>
         <v>ELCHEAT</v>
       </c>
-      <c r="E20" s="85">
+      <c r="E20" s="83">
         <v>2030</v>
       </c>
-      <c r="F20" s="56"/>
-      <c r="G20" s="57">
+      <c r="F20" s="55"/>
+      <c r="G20" s="56">
         <v>1</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="56">
         <v>1</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="56">
         <v>30</v>
       </c>
-      <c r="J20" s="57">
-        <v>333</v>
-      </c>
-      <c r="K20" s="57"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59">
+      <c r="J20" s="56">
+        <v>1515</v>
+      </c>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57">
         <v>8.76</v>
       </c>
-      <c r="N20" s="59"/>
-      <c r="Q20" s="74" t="s">
+      <c r="N20" s="57"/>
+      <c r="Q20" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="R20" s="73"/>
-      <c r="S20" s="71" t="s">
+      <c r="R20" s="71"/>
+      <c r="S20" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="T20" s="75" t="s">
+      <c r="T20" s="73" t="s">
         <v>118</v>
       </c>
       <c r="U20" s="9" t="s">
@@ -4996,13 +4987,11 @@
       <c r="V20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W20" s="92"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+    </row>
+    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="str">
         <f>S$21</f>
         <v>BIOBoiler</v>
@@ -5011,40 +5000,40 @@
         <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D21" s="55" t="str">
+      <c r="D21" s="54" t="str">
         <f>S6</f>
         <v>BIOHEAT</v>
       </c>
-      <c r="E21" s="85">
+      <c r="E21" s="83">
         <v>2030</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57">
+      <c r="F21" s="55"/>
+      <c r="G21" s="56">
         <v>0.8</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="56">
         <v>1</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="56">
         <v>20</v>
       </c>
-      <c r="J21" s="57">
-        <v>222</v>
-      </c>
-      <c r="K21" s="57"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59">
+      <c r="J21" s="56">
+        <v>1515</v>
+      </c>
+      <c r="K21" s="56"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57">
         <v>8.76</v>
       </c>
-      <c r="N21" s="59"/>
-      <c r="Q21" s="73" t="s">
+      <c r="N21" s="57"/>
+      <c r="Q21" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="R21" s="73"/>
-      <c r="S21" s="72" t="s">
+      <c r="R21" s="71"/>
+      <c r="S21" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="T21" s="75" t="s">
+      <c r="T21" s="73" t="s">
         <v>102</v>
       </c>
       <c r="U21" s="9" t="s">
@@ -5053,11 +5042,11 @@
       <c r="V21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+    </row>
+    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="str">
         <f>S24</f>
         <v>ELCBoiler</v>
@@ -5065,40 +5054,40 @@
       <c r="C22" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="55" t="str">
+      <c r="D22" s="54" t="str">
         <f>S5</f>
         <v>ELCHEAT</v>
       </c>
-      <c r="E22" s="85">
+      <c r="E22" s="83">
         <v>2030</v>
       </c>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57">
+      <c r="F22" s="55"/>
+      <c r="G22" s="56">
         <v>0.8</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="56">
         <v>1</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="56">
         <v>20</v>
       </c>
-      <c r="J22" s="57">
-        <v>2121</v>
-      </c>
-      <c r="K22" s="57"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59">
+      <c r="J22" s="56">
+        <v>1515</v>
+      </c>
+      <c r="K22" s="56"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57">
         <v>8.76</v>
       </c>
-      <c r="N22" s="59"/>
-      <c r="Q22" s="73" t="s">
+      <c r="N22" s="57"/>
+      <c r="Q22" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="R22" s="73"/>
-      <c r="S22" s="72" t="s">
+      <c r="R22" s="71"/>
+      <c r="S22" s="70" t="s">
         <v>112</v>
       </c>
-      <c r="T22" s="75" t="s">
+      <c r="T22" s="73" t="s">
         <v>117</v>
       </c>
       <c r="U22" s="9" t="s">
@@ -5107,11 +5096,11 @@
       <c r="V22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-    </row>
-    <row r="23" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+    </row>
+    <row r="23" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="str">
         <f>S22</f>
         <v>BIOKiln</v>
@@ -5120,37 +5109,37 @@
         <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D23" s="55" t="str">
+      <c r="D23" s="54" t="str">
         <f>S6</f>
         <v>BIOHEAT</v>
       </c>
-      <c r="E23" s="85">
+      <c r="E23" s="83">
         <v>2030</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57">
+      <c r="F23" s="55"/>
+      <c r="G23" s="56">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H23" s="57">
+      <c r="H23" s="56">
         <v>1</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="56">
         <v>20</v>
       </c>
-      <c r="J23" s="57">
-        <v>444</v>
-      </c>
-      <c r="M23" s="59">
+      <c r="J23" s="56">
+        <v>1515</v>
+      </c>
+      <c r="M23" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q23" s="73" t="s">
+      <c r="Q23" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="R23" s="73"/>
-      <c r="S23" s="72" t="s">
+      <c r="R23" s="71"/>
+      <c r="S23" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="T23" s="75" t="s">
+      <c r="T23" s="73" t="s">
         <v>114</v>
       </c>
       <c r="U23" s="9" t="s">
@@ -5160,8 +5149,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="55" t="str">
+    <row r="24" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="54" t="str">
         <f>S23</f>
         <v>GASBoiler</v>
       </c>
@@ -5169,36 +5158,36 @@
         <f>PRI_Sector_Fuels!P6</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="85">
+      <c r="E24" s="83">
         <v>2030</v>
       </c>
-      <c r="F24" s="56"/>
-      <c r="G24" s="57">
+      <c r="F24" s="55"/>
+      <c r="G24" s="56">
         <v>1</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="56">
         <v>1</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="56">
         <v>25</v>
       </c>
-      <c r="J24" s="57">
-        <v>2145</v>
-      </c>
-      <c r="M24" s="59">
+      <c r="J24" s="56">
+        <v>1515</v>
+      </c>
+      <c r="M24" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q24" s="73" t="s">
+      <c r="Q24" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="R24" s="73"/>
-      <c r="S24" s="72" t="s">
+      <c r="R24" s="71"/>
+      <c r="S24" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="T24" s="75" t="s">
+      <c r="T24" s="73" t="s">
         <v>116</v>
       </c>
       <c r="U24" s="9" t="s">
@@ -5208,45 +5197,45 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="55" t="str">
+    <row r="25" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="54" t="str">
         <f>S26</f>
         <v>WNDTRBN</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="85">
+      <c r="E25" s="83">
         <v>2030</v>
       </c>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57">
+      <c r="F25" s="55"/>
+      <c r="G25" s="56">
         <v>1</v>
       </c>
-      <c r="H25" s="57">
+      <c r="H25" s="56">
         <v>1</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="56">
         <v>25</v>
       </c>
-      <c r="J25" s="57">
+      <c r="J25" s="56">
         <v>1041</v>
       </c>
-      <c r="K25" s="57">
+      <c r="K25" s="56">
         <v>38</v>
       </c>
-      <c r="M25" s="59">
+      <c r="M25" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q25" s="73" t="s">
+      <c r="Q25" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="R25" s="73"/>
-      <c r="S25" s="72" t="s">
+      <c r="R25" s="71"/>
+      <c r="S25" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="75" t="s">
+      <c r="T25" s="73" t="s">
         <v>119</v>
       </c>
       <c r="U25" s="9" t="s">
@@ -5255,110 +5244,114 @@
       <c r="V25" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W25" s="57" t="s">
+      <c r="W25" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55" t="str">
+    <row r="26" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="54" t="str">
         <f>S27</f>
         <v>SOLPV</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="83">
         <v>2030</v>
       </c>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57">
+      <c r="F26" s="55"/>
+      <c r="G26" s="56">
         <v>1</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="56">
         <v>1</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="56">
         <v>25</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="56">
         <v>691</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="56">
         <v>1125</v>
       </c>
-      <c r="M26" s="59">
+      <c r="M26" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q26" s="73" t="s">
+      <c r="Q26" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="R26" s="73"/>
-      <c r="S26" s="72" t="s">
+      <c r="R26" s="71"/>
+      <c r="S26" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="T26" s="75" t="s">
+      <c r="T26" s="73" t="s">
         <v>97</v>
       </c>
       <c r="U26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V26" s="9"/>
-      <c r="W26" s="57" t="s">
+      <c r="V26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W26" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="55" t="str">
+    <row r="27" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="54" t="str">
         <f>S25</f>
         <v>CSP</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="55" t="str">
+      <c r="D27" s="54" t="str">
         <f>S7</f>
         <v>SOLHEAT</v>
       </c>
-      <c r="E27" s="85">
+      <c r="E27" s="83">
         <v>2030</v>
       </c>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57">
+      <c r="F27" s="55"/>
+      <c r="G27" s="56">
         <v>1</v>
       </c>
-      <c r="H27" s="57">
+      <c r="H27" s="56">
         <v>1</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="56">
         <v>25</v>
       </c>
-      <c r="J27" s="57">
-        <v>36377</v>
-      </c>
-      <c r="L27" s="57">
+      <c r="J27" s="56">
+        <v>3677</v>
+      </c>
+      <c r="L27" s="56">
         <v>14</v>
       </c>
-      <c r="M27" s="59">
+      <c r="M27" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q27" s="73" t="s">
+      <c r="Q27" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="R27" s="73"/>
-      <c r="S27" s="72" t="s">
+      <c r="R27" s="71"/>
+      <c r="S27" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="T27" s="75" t="s">
+      <c r="T27" s="73" t="s">
         <v>96</v>
       </c>
       <c r="U27" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="V27" s="9"/>
-      <c r="W27" s="57" t="s">
+      <c r="V27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="W27" s="56" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5366,27 +5359,27 @@
       <c r="C28" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="54" t="s">
         <v>141</v>
       </c>
       <c r="E28" s="17">
         <v>2030</v>
       </c>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57">
+      <c r="F28" s="55"/>
+      <c r="G28" s="56">
         <v>1</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="56">
         <v>1</v>
       </c>
-      <c r="I28" s="57">
-        <v>50</v>
-      </c>
-      <c r="J28" s="57">
+      <c r="I28" s="56">
         <v>0</v>
       </c>
+      <c r="J28" s="56">
+        <v>0</v>
+      </c>
       <c r="K28" s="8"/>
-      <c r="M28" s="59">
+      <c r="M28" s="57">
         <v>8.76</v>
       </c>
       <c r="Q28" s="8" t="s">
@@ -5402,12 +5395,14 @@
       <c r="U28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="V28" s="8"/>
+      <c r="V28" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="W28" s="8"/>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>
-    <row r="29" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5415,31 +5410,31 @@
       <c r="C29" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="54" t="s">
         <v>141</v>
       </c>
       <c r="E29" s="17">
         <v>2030</v>
       </c>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57">
+      <c r="F29" s="55"/>
+      <c r="G29" s="56">
         <v>1</v>
       </c>
-      <c r="H29" s="57">
+      <c r="H29" s="56">
         <v>1</v>
       </c>
-      <c r="I29" s="57">
-        <v>50</v>
-      </c>
-      <c r="J29" s="57">
+      <c r="I29" s="56">
         <v>0</v>
       </c>
+      <c r="J29" s="56">
+        <v>0</v>
+      </c>
       <c r="K29" s="8"/>
-      <c r="M29" s="59">
+      <c r="M29" s="57">
         <v>8.76</v>
       </c>
     </row>
-    <row r="30" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5447,18 +5442,27 @@
       <c r="C30" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="54" t="s">
         <v>141</v>
       </c>
       <c r="E30" s="17">
         <v>2030</v>
       </c>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57">
+      <c r="F30" s="55"/>
+      <c r="G30" s="56">
         <v>1</v>
       </c>
+      <c r="H30" s="56">
+        <v>1</v>
+      </c>
+      <c r="I30" s="56">
+        <v>0</v>
+      </c>
+      <c r="J30" s="56">
+        <v>0</v>
+      </c>
       <c r="K30" s="8"/>
-      <c r="M30" s="59">
+      <c r="M30" s="57">
         <v>8.76</v>
       </c>
       <c r="Q30" s="8"/>
@@ -5471,7 +5475,7 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
     </row>
-    <row r="31" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="str">
         <f>S23</f>
         <v>GASBoiler</v>
@@ -5479,21 +5483,30 @@
       <c r="C31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="54" t="s">
         <v>136</v>
       </c>
       <c r="E31" s="17">
         <v>2030</v>
       </c>
-      <c r="F31" s="56"/>
-      <c r="G31" s="57">
+      <c r="F31" s="55"/>
+      <c r="G31" s="56">
         <v>1</v>
       </c>
+      <c r="H31" s="56">
+        <v>1</v>
+      </c>
+      <c r="I31" s="56">
+        <v>0</v>
+      </c>
+      <c r="J31" s="56">
+        <v>0</v>
+      </c>
       <c r="K31" s="8"/>
-      <c r="M31" s="59">
+      <c r="M31" s="57">
         <v>8.76</v>
       </c>
-      <c r="N31" s="57">
+      <c r="N31" s="56">
         <v>0.20200000000000001</v>
       </c>
       <c r="Q31" s="8"/>
@@ -5506,14 +5519,14 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
     </row>
-    <row r="32" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="55"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="56"/>
+      <c r="F32" s="55"/>
       <c r="K32" s="8"/>
-      <c r="M32" s="59"/>
+      <c r="M32" s="57"/>
       <c r="Q32" s="8"/>
       <c r="R32" s="8"/>
       <c r="S32" s="8"/>
@@ -5524,14 +5537,14 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
     </row>
-    <row r="33" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="55"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="56"/>
+      <c r="F33" s="55"/>
       <c r="K33" s="8"/>
-      <c r="M33" s="59"/>
+      <c r="M33" s="57"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="S33" s="8"/>
@@ -5542,12 +5555,12 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
     </row>
-    <row r="34" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="55"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="56"/>
+      <c r="F34" s="55"/>
       <c r="K34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -5559,29 +5572,29 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
     </row>
-    <row r="35" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="16" t="str">
         <f>S35</f>
         <v>WNDTRBN</v>
       </c>
       <c r="C35" s="16"/>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="54" t="s">
         <v>69</v>
       </c>
       <c r="E35" s="17">
         <v>2030</v>
       </c>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57">
+      <c r="F35" s="55"/>
+      <c r="G35" s="56">
         <v>1</v>
       </c>
-      <c r="H35" s="57">
+      <c r="H35" s="56">
         <v>0.97</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="56">
         <v>25</v>
       </c>
-      <c r="J35" s="83">
+      <c r="J35" s="81">
         <v>1041</v>
       </c>
       <c r="K35" s="8">
@@ -5607,19 +5620,19 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
-    <row r="36" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="16" t="str">
         <f>S36</f>
         <v>SOLPV</v>
       </c>
       <c r="C36" s="8"/>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="54" t="s">
         <v>69</v>
       </c>
       <c r="E36" s="17">
         <v>2030</v>
       </c>
-      <c r="F36" s="60"/>
+      <c r="F36" s="58"/>
       <c r="G36" s="8">
         <v>1</v>
       </c>
@@ -5629,7 +5642,7 @@
       <c r="I36" s="8">
         <v>25</v>
       </c>
-      <c r="J36" s="84">
+      <c r="J36" s="82">
         <v>691</v>
       </c>
       <c r="K36" s="8">
@@ -5655,7 +5668,7 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
-    <row r="37" spans="2:25" s="59" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
         <v>65</v>
       </c>
@@ -5667,7 +5680,7 @@
       <c r="E37" s="17">
         <v>2030</v>
       </c>
-      <c r="F37" s="60"/>
+      <c r="F37" s="58"/>
       <c r="G37" s="8">
         <v>1</v>
       </c>
@@ -5677,13 +5690,13 @@
       <c r="I37" s="8">
         <v>25</v>
       </c>
-      <c r="J37" s="84">
+      <c r="J37" s="82">
         <v>36377</v>
       </c>
       <c r="K37" s="8">
         <v>0</v>
       </c>
-      <c r="L37" s="59">
+      <c r="L37" s="57">
         <v>14</v>
       </c>
       <c r="Q37" s="8"/>
@@ -5692,46 +5705,46 @@
       <c r="T37" s="8"/>
       <c r="U37" s="16"/>
       <c r="V37" s="16"/>
-      <c r="W37" s="64"/>
+      <c r="W37" s="62"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="F38" s="60"/>
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="F38" s="58"/>
       <c r="G38" s="10"/>
-      <c r="H38" s="62"/>
-      <c r="R38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="61"/>
-      <c r="V38" s="61"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="H39" s="62"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B40" s="54"/>
+      <c r="H38" s="60"/>
+      <c r="R38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+    </row>
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="H39" s="60"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B40" s="53"/>
       <c r="C40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="H40" s="62"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B41" s="63"/>
+      <c r="H40" s="60"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B41" s="61"/>
       <c r="C41" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H41" s="62"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H41" s="60"/>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E42" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F42" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H42" s="62"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="H42" s="60"/>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E44" s="8" t="s">
         <v>92</v>
       </c>
@@ -5740,7 +5753,7 @@
         <v>8760</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E45" s="10"/>
     </row>
   </sheetData>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AB89B3-5514-4635-AA1A-911488978066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509E047-3C66-43C5-AB79-BE280E48C799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
   <si>
     <t>~FI_T</t>
   </si>
@@ -4391,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5356,8 +5356,9 @@
         <f>S28</f>
         <v>RNWHEAT</v>
       </c>
-      <c r="C28" s="16" t="s">
-        <v>121</v>
+      <c r="C28" s="16" t="str">
+        <f>S5</f>
+        <v>ELCHEAT</v>
       </c>
       <c r="D28" s="54" t="s">
         <v>141</v>
@@ -5407,8 +5408,9 @@
         <f>S28</f>
         <v>RNWHEAT</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>123</v>
+      <c r="C29" s="16" t="str">
+        <f>S6</f>
+        <v>BIOHEAT</v>
       </c>
       <c r="D29" s="54" t="s">
         <v>141</v>
@@ -5439,8 +5441,9 @@
         <f>S28</f>
         <v>RNWHEAT</v>
       </c>
-      <c r="C30" s="16" t="s">
-        <v>122</v>
+      <c r="C30" s="16" t="str">
+        <f>S7</f>
+        <v>SOLHEAT</v>
       </c>
       <c r="D30" s="54" t="s">
         <v>141</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3509E047-3C66-43C5-AB79-BE280E48C799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E83F285-308D-4A3C-B107-0C53D6CC2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="142">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2494,13 +2494,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>133299</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3072,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
-  <dimension ref="A1:W63"/>
+  <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3877,239 +3877,126 @@
       <c r="T32" s="78"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="19" t="str">
-        <f t="shared" ref="B33:B34" si="0">P33</f>
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="63"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="79"/>
+      <c r="Q33" s="80"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B34" s="12"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="63"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
+      <c r="P34" s="79"/>
+      <c r="Q34" s="80"/>
+      <c r="R34" s="78"/>
+      <c r="S34" s="78"/>
+      <c r="T34" s="78"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="63"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="78"/>
+      <c r="P35" s="79"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="78"/>
+      <c r="S35" s="78"/>
+      <c r="T35" s="78"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="63"/>
+      <c r="N36" s="78"/>
+      <c r="O36" s="78"/>
+      <c r="P36" s="79"/>
+      <c r="Q36" s="80"/>
+      <c r="R36" s="78"/>
+      <c r="S36" s="78"/>
+      <c r="T36" s="78"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B37" s="19" t="str">
+        <f t="shared" ref="B37:B38" si="0">P37</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="C33" s="19" t="str">
+      <c r="C37" s="19" t="str">
         <f>P8</f>
         <v>WIND</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D37" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="E33" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0.34</v>
-      </c>
-      <c r="G33" s="21">
-        <v>0.97</v>
-      </c>
-      <c r="H33" s="21">
-        <v>25</v>
-      </c>
-      <c r="I33" s="74">
-        <v>9.1191599999999994E-3</v>
-      </c>
-      <c r="J33" s="36"/>
-      <c r="K33" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L33" s="63"/>
-      <c r="N33" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="O33" s="21"/>
-      <c r="P33" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q33" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="R33" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="C34" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0.17</v>
-      </c>
-      <c r="G34" s="21">
-        <v>0.99</v>
-      </c>
-      <c r="H34" s="21">
-        <v>25</v>
-      </c>
-      <c r="I34" s="74">
-        <v>6.0531600000000001E-3</v>
-      </c>
-      <c r="J34" s="36"/>
-      <c r="K34" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L34" s="63"/>
-      <c r="N34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="O34" s="21"/>
-      <c r="P34" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q34" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="R34" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="19" t="str">
-        <f>P37</f>
-        <v>CSP</v>
-      </c>
-      <c r="C35" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D35" s="19" t="str">
-        <f>DemTechs_INDF!S7</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E35" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F35" s="21">
-        <v>0.41</v>
-      </c>
-      <c r="G35" s="21">
-        <v>0.92</v>
-      </c>
-      <c r="H35" s="21">
-        <v>25</v>
-      </c>
-      <c r="I35" s="76">
-        <v>3.2210519999999999E-2</v>
-      </c>
-      <c r="J35" s="36"/>
-      <c r="K35" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L35" s="63"/>
-      <c r="N35" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O35" s="21"/>
-      <c r="P35" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q35" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="R35" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="19" t="str">
-        <f>P35</f>
-        <v>MINWIND</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19" t="str">
-        <f>P8</f>
-        <v>WIND</v>
-      </c>
-      <c r="E36" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F36" s="21">
-        <v>1</v>
-      </c>
-      <c r="G36" s="21">
-        <v>1</v>
-      </c>
-      <c r="H36" s="21">
-        <v>50</v>
-      </c>
-      <c r="I36" s="77">
-        <v>0</v>
-      </c>
-      <c r="J36" s="64"/>
-      <c r="K36" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L36" s="63"/>
-      <c r="N36" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O36" s="21"/>
-      <c r="P36" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q36" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="R36" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S36" s="21"/>
-      <c r="T36" s="21"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="str">
-        <f>P36</f>
-        <v>MINSOL</v>
-      </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
       </c>
       <c r="E37" s="21">
         <v>2030</v>
       </c>
       <c r="F37" s="21">
-        <v>1</v>
+        <v>0.34</v>
       </c>
       <c r="G37" s="21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="H37" s="21">
-        <v>50</v>
-      </c>
-      <c r="I37" s="77">
-        <v>0</v>
-      </c>
-      <c r="J37" s="64"/>
+        <v>25</v>
+      </c>
+      <c r="I37" s="74">
+        <v>9.1191599999999994E-3</v>
+      </c>
+      <c r="J37" s="36"/>
       <c r="K37" s="75">
         <v>8.76</v>
       </c>
       <c r="L37" s="63"/>
       <c r="N37" s="21" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="O37" s="21"/>
       <c r="P37" s="19" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="Q37" s="37" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="R37" s="21" t="s">
         <v>58</v>
@@ -4120,72 +4007,201 @@
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="I38" s="67"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="68"/>
+      <c r="B38" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="C38" s="19" t="str">
+        <f>P9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="D38" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0.99</v>
+      </c>
+      <c r="H38" s="21">
+        <v>25</v>
+      </c>
+      <c r="I38" s="74">
+        <v>6.0531600000000001E-3</v>
+      </c>
+      <c r="J38" s="36"/>
+      <c r="K38" s="75">
+        <v>8.76</v>
+      </c>
       <c r="L38" s="63"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="69"/>
-      <c r="Q38" s="73"/>
+      <c r="N38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="O38" s="21"/>
+      <c r="P38" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q38" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="R38" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="12"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="68"/>
+      <c r="B39" s="19" t="str">
+        <f>P41</f>
+        <v>CSP</v>
+      </c>
+      <c r="C39" s="19" t="str">
+        <f>P9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="D39" s="19" t="str">
+        <f>DemTechs_INDF!S7</f>
+        <v>SOLHEAT</v>
+      </c>
+      <c r="E39" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0.41</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="H39" s="21">
+        <v>25</v>
+      </c>
+      <c r="I39" s="76">
+        <v>3.2210519999999999E-2</v>
+      </c>
+      <c r="J39" s="36"/>
+      <c r="K39" s="75">
+        <v>8.76</v>
+      </c>
       <c r="L39" s="63"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="70"/>
-      <c r="Q39" s="73"/>
+      <c r="N39" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="21"/>
+      <c r="P39" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q39" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="12"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="I40" s="67"/>
+      <c r="B40" s="19" t="str">
+        <f>P39</f>
+        <v>MINWIND</v>
+      </c>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19" t="str">
+        <f>P8</f>
+        <v>WIND</v>
+      </c>
+      <c r="E40" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F40" s="21">
+        <v>1</v>
+      </c>
+      <c r="G40" s="21">
+        <v>1</v>
+      </c>
+      <c r="H40" s="21">
+        <v>50</v>
+      </c>
+      <c r="I40" s="77">
+        <v>0</v>
+      </c>
       <c r="J40" s="64"/>
-      <c r="K40" s="68"/>
+      <c r="K40" s="75">
+        <v>8.76</v>
+      </c>
       <c r="L40" s="63"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="73"/>
+      <c r="N40" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="21"/>
+      <c r="P40" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q40" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="R40" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="12"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="I41" s="67"/>
+      <c r="B41" s="19" t="str">
+        <f>P40</f>
+        <v>MINSOL</v>
+      </c>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19" t="str">
+        <f>P9</f>
+        <v>SOLAR</v>
+      </c>
+      <c r="E41" s="21">
+        <v>2030</v>
+      </c>
+      <c r="F41" s="21">
+        <v>1</v>
+      </c>
+      <c r="G41" s="21">
+        <v>1</v>
+      </c>
+      <c r="H41" s="21">
+        <v>50</v>
+      </c>
+      <c r="I41" s="77">
+        <v>0</v>
+      </c>
       <c r="J41" s="64"/>
-      <c r="K41" s="68"/>
+      <c r="K41" s="75">
+        <v>8.76</v>
+      </c>
       <c r="L41" s="63"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="73"/>
+      <c r="N41" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="O41" s="21"/>
+      <c r="P41" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q41" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="R41" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="12"/>
-      <c r="C42" s="1"/>
+      <c r="C42" s="12"/>
       <c r="D42" s="12"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -4194,14 +4210,14 @@
       <c r="J42" s="64"/>
       <c r="K42" s="68"/>
       <c r="L42" s="63"/>
-      <c r="N42" s="71"/>
+      <c r="N42" s="72"/>
       <c r="O42" s="71"/>
-      <c r="P42" s="70"/>
+      <c r="P42" s="69"/>
       <c r="Q42" s="73"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="8"/>
-      <c r="C43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="15"/>
       <c r="D43" s="12"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -4216,8 +4232,8 @@
       <c r="Q43" s="73"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="8"/>
-      <c r="C44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="12"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -4232,8 +4248,8 @@
       <c r="Q44" s="73"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="8"/>
-      <c r="C45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="15"/>
       <c r="D45" s="12"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -4248,7 +4264,7 @@
       <c r="Q45" s="73"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="8"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="1"/>
       <c r="D46" s="12"/>
       <c r="E46" s="1"/>
@@ -4264,15 +4280,15 @@
       <c r="Q46" s="73"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="12"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="12"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="I47" s="63"/>
+      <c r="I47" s="67"/>
       <c r="J47" s="64"/>
-      <c r="K47" s="63"/>
+      <c r="K47" s="68"/>
       <c r="L47" s="63"/>
       <c r="N47" s="71"/>
       <c r="O47" s="71"/>
@@ -4280,103 +4296,167 @@
       <c r="Q47" s="73"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="12"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="I48" s="63"/>
+      <c r="I48" s="67"/>
       <c r="J48" s="64"/>
-      <c r="K48" s="63"/>
+      <c r="K48" s="68"/>
       <c r="L48" s="63"/>
       <c r="N48" s="71"/>
       <c r="O48" s="71"/>
       <c r="P48" s="70"/>
       <c r="Q48" s="73"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B49" s="12"/>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="8"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="I49" s="63"/>
+      <c r="I49" s="67"/>
       <c r="J49" s="64"/>
-      <c r="K49" s="63"/>
+      <c r="K49" s="68"/>
       <c r="L49" s="63"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="34"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I50" s="63"/>
+      <c r="N49" s="71"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="70"/>
+      <c r="Q49" s="73"/>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="8"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="64"/>
-      <c r="K50" s="63"/>
+      <c r="K50" s="68"/>
       <c r="L50" s="63"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="34"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B51" s="30"/>
-      <c r="C51" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="N50" s="71"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="70"/>
+      <c r="Q50" s="73"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="12"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
       <c r="I51" s="63"/>
       <c r="J51" s="64"/>
       <c r="K51" s="63"/>
       <c r="L51" s="63"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B52" s="38"/>
-      <c r="C52" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="70"/>
+      <c r="Q51" s="73"/>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="12"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
       <c r="I52" s="63"/>
       <c r="J52" s="64"/>
       <c r="K52" s="63"/>
       <c r="L52" s="63"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="70"/>
+      <c r="Q52" s="73"/>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
       <c r="I53" s="63"/>
       <c r="J53" s="64"/>
       <c r="K53" s="63"/>
       <c r="L53" s="63"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="I54" s="65"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="65"/>
-    </row>
-    <row r="61" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61" s="65"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="W62" s="1"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="34"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I54" s="63"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="34"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="30"/>
+      <c r="C55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55" s="63"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="63"/>
+      <c r="L55" s="63"/>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="38"/>
+      <c r="C56" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" s="63"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="63"/>
+      <c r="L56" s="63"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I57" s="63"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="63"/>
+      <c r="L57" s="63"/>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+    </row>
+    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65" s="65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W66" s="1"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4391,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5374,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J28" s="56">
         <v>0</v>
@@ -5426,7 +5506,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J29" s="56">
         <v>0</v>
@@ -5459,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J30" s="56">
         <v>0</v>
@@ -5500,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="56">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J31" s="56">
         <v>0</v>
@@ -5576,132 +5656,55 @@
       <c r="Y34" s="8"/>
     </row>
     <row r="35" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="16" t="str">
-        <f>S35</f>
-        <v>WNDTRBN</v>
-      </c>
+      <c r="B35" s="16"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="17">
-        <v>2030</v>
-      </c>
+      <c r="D35" s="54"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="55"/>
-      <c r="G35" s="56">
-        <v>1</v>
-      </c>
-      <c r="H35" s="56">
-        <v>0.97</v>
-      </c>
-      <c r="I35" s="56">
-        <v>25</v>
-      </c>
-      <c r="J35" s="81">
-        <v>1041</v>
-      </c>
-      <c r="K35" s="8">
-        <v>38</v>
-      </c>
-      <c r="Q35" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="J35" s="81"/>
+      <c r="K35" s="8"/>
+      <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
-      <c r="S35" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="T35" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="U35" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="S35" s="19"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="21"/>
       <c r="V35" s="21"/>
-      <c r="W35" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="W35" s="21"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
     </row>
     <row r="36" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="16" t="str">
-        <f>S36</f>
-        <v>SOLPV</v>
-      </c>
+      <c r="B36" s="16"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="17">
-        <v>2030</v>
-      </c>
+      <c r="D36" s="54"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="58"/>
-      <c r="G36" s="8">
-        <v>1</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0.99</v>
-      </c>
-      <c r="I36" s="8">
-        <v>25</v>
-      </c>
-      <c r="J36" s="82">
-        <v>691</v>
-      </c>
-      <c r="K36" s="8">
-        <v>1125</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>69</v>
-      </c>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="8"/>
+      <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
-      <c r="S36" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="T36" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="U36" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="S36" s="19"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="21"/>
       <c r="V36" s="21"/>
-      <c r="W36" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="W36" s="21"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
     </row>
     <row r="37" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="8" t="str">
-        <f>S7</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E37" s="17">
-        <v>2030</v>
-      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="58"/>
-      <c r="G37" s="8">
-        <v>1</v>
-      </c>
-      <c r="H37" s="8">
-        <v>1</v>
-      </c>
-      <c r="I37" s="8">
-        <v>25</v>
-      </c>
-      <c r="J37" s="82">
-        <v>36377</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="57">
-        <v>14</v>
-      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="S37" s="8"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E83F285-308D-4A3C-B107-0C53D6CC2E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93451F0F-CFA1-48E1-9BA6-C11E021D5216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4472,7 +4472,7 @@
   <dimension ref="B1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="N17" sqref="N17:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93451F0F-CFA1-48E1-9BA6-C11E021D5216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C289511-8282-43A4-B5DD-A4D921F0A61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="142">
   <si>
     <t>~FI_T</t>
   </si>
@@ -4471,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:N19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5443,7 +5443,7 @@
       <c r="D28" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="83">
         <v>2030</v>
       </c>
       <c r="F28" s="55"/>
@@ -5495,7 +5495,7 @@
       <c r="D29" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="83">
         <v>2030</v>
       </c>
       <c r="F29" s="55"/>
@@ -5528,7 +5528,7 @@
       <c r="D30" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="83">
         <v>2030</v>
       </c>
       <c r="F30" s="55"/>
@@ -5563,19 +5563,14 @@
         <f>S23</f>
         <v>GASBoiler</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="C31" s="16"/>
       <c r="D31" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="83">
         <v>2030</v>
       </c>
       <c r="F31" s="55"/>
-      <c r="G31" s="56">
-        <v>1</v>
-      </c>
       <c r="H31" s="56">
         <v>1</v>
       </c>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C289511-8282-43A4-B5DD-A4D921F0A61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="143">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1992,6 +1992,9 @@
   </si>
   <si>
     <t>MANHEAT</t>
+  </si>
+  <si>
+    <t>CEMENTHEAT</t>
   </si>
 </sst>
 </file>
@@ -4471,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5189,9 +5192,8 @@
         <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D23" s="54" t="str">
-        <f>S6</f>
-        <v>BIOHEAT</v>
+      <c r="D23" s="54" t="s">
+        <v>142</v>
       </c>
       <c r="E23" s="83">
         <v>2030</v>
